--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>aya</t>
     <phoneticPr fontId="4"/>
@@ -226,25 +226,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>1.作戦変更画面のラジオボタンを自作する</t>
-  </si>
-  <si>
-    <t>1.作戦変更画面のラジオボタンを自作する</t>
-    <rPh sb="2" eb="4">
-      <t>サクセン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジサク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>プラスアルファの機能</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -279,6 +260,37 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1.作戦変更画面の自作ラジオボタンの実装</t>
+    <rPh sb="2" eb="4">
+      <t>サクセン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジサク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>70.0h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.0h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.5h</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -291,7 +303,7 @@
     <numFmt numFmtId="179" formatCode="0.0#\ &quot;h&quot;"/>
     <numFmt numFmtId="180" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,8 +354,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,8 +435,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -635,13 +660,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,11 +775,92 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="99">
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFE6B8B7"/>
@@ -1919,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2297,9 +2418,15 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
+      <c r="E5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="10">
+        <v>44228</v>
+      </c>
+      <c r="G5" s="11">
+        <v>44253</v>
+      </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -2346,9 +2473,15 @@
         <v>7</v>
       </c>
       <c r="D6" s="21"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="E6" s="16">
+        <v>68</v>
+      </c>
+      <c r="F6" s="17">
+        <v>44229</v>
+      </c>
+      <c r="G6" s="18">
+        <v>44253</v>
+      </c>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -2830,12 +2963,20 @@
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+        <v>37</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="17">
+        <v>44228</v>
+      </c>
+      <c r="G16" s="18">
+        <v>44228</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1.5</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
@@ -2879,7 +3020,7 @@
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="35"/>
@@ -2975,7 +3116,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
@@ -3025,7 +3166,7 @@
       <c r="A20" s="30"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="31"/>
@@ -3075,7 +3216,7 @@
       <c r="B21" s="22"/>
       <c r="C21" s="15"/>
       <c r="D21" s="32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="17"/>
@@ -3124,7 +3265,7 @@
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="17"/>
@@ -3173,7 +3314,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="17"/>
@@ -3222,7 +3363,7 @@
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="17"/>
@@ -3412,7 +3553,7 @@
     <row r="28" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A28" s="30"/>
       <c r="B28" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -3511,13 +3652,17 @@
       <c r="A30" s="30"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="31"/>
+      <c r="D30" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>40</v>
+      </c>
       <c r="F30" s="17"/>
       <c r="G30" s="18"/>
-      <c r="H30" s="20"/>
+      <c r="H30" s="47">
+        <v>1.5</v>
+      </c>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
@@ -3660,119 +3805,133 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4:AS4">
-    <cfRule type="cellIs" dxfId="90" priority="605" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="613" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="606" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="614" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15:AS15 H5:AS6 H14:AS14 H8:I8 K7:AS7 H9:J9 O9:AS9 I18:AS18 L8:AS8 H10:N10 T10:AS10 H11:U13 Y11:AS13 I16:X17 AA16:AS17 H19:AS32">
-    <cfRule type="expression" dxfId="88" priority="601" stopIfTrue="1">
+  <conditionalFormatting sqref="L15:AS15 H5:AS6 H14:AS14 H8:I8 K7:AS7 H9:J9 O9:AS9 I18:AS18 L8:AS8 H10:N10 T10:AS10 H11:U13 Y11:AS13 I16:X17 AA16:AS17 H31:AS32 I30:AS30 H19:AS29">
+    <cfRule type="expression" dxfId="96" priority="609" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="602" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="610" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="603" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="611" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="604" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="612" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2">
-    <cfRule type="notContainsBlanks" dxfId="84" priority="607">
+    <cfRule type="notContainsBlanks" dxfId="92" priority="615">
       <formula>LEN(TRIM(AJ2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:J15">
-    <cfRule type="expression" dxfId="83" priority="569" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="577" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="570" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="578" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="571" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="579" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="572" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="580" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="expression" dxfId="79" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="65" stopIfTrue="1">
       <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="67" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="68" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="75" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="101" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="103" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="104" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="71" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="61" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="63" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="64" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="73" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="76" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="63" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="89" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="91" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="92" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
+    <cfRule type="expression" dxfId="67" priority="85" stopIfTrue="1">
+      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="86" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="87" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="88" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
     <cfRule type="expression" dxfId="59" priority="77" stopIfTrue="1">
-      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="58" priority="78" operator="equal">
       <formula>1</formula>
@@ -3784,23 +3943,23 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="55" priority="73" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="74" operator="equal">
+  <conditionalFormatting sqref="J8">
+    <cfRule type="expression" dxfId="55" priority="41" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="44" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="K8">
     <cfRule type="expression" dxfId="51" priority="69" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="50" priority="70" operator="equal">
       <formula>1</formula>
@@ -3812,9 +3971,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="H18">
     <cfRule type="expression" dxfId="47" priority="33" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="46" priority="34" operator="equal">
       <formula>1</formula>
@@ -3826,37 +3985,37 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="43" priority="61" stopIfTrue="1">
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="43" priority="57" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="59" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="39" priority="25" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
+  <conditionalFormatting sqref="O10">
+    <cfRule type="expression" dxfId="39" priority="53" stopIfTrue="1">
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="55" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="56" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
+  <conditionalFormatting sqref="P10:S10">
     <cfRule type="expression" dxfId="35" priority="49" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="34" priority="50" operator="equal">
       <formula>1</formula>
@@ -3868,9 +4027,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
+  <conditionalFormatting sqref="V11:X13">
     <cfRule type="expression" dxfId="31" priority="45" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="30" priority="46" operator="equal">
       <formula>1</formula>
@@ -3882,49 +4041,49 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P10:S10">
-    <cfRule type="expression" dxfId="27" priority="41" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
+  <conditionalFormatting sqref="H17">
+    <cfRule type="expression" dxfId="27" priority="37" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="44" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V11:X13">
-    <cfRule type="expression" dxfId="23" priority="37" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="38" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="39" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="40" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="19" priority="29" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="40" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17">
+    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z17">
+    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y16">
     <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -3938,7 +4097,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z17">
+  <conditionalFormatting sqref="Z16">
     <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -3952,9 +4111,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y16">
+  <conditionalFormatting sqref="H30">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
@@ -3966,9 +4125,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z16">
+  <conditionalFormatting sqref="H16">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>aya</t>
     <phoneticPr fontId="4"/>
@@ -288,7 +288,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.5h</t>
+    <t>6.タップでバトルログの速度変更</t>
+  </si>
+  <si>
+    <t>6.タップでバトルログの速度変更</t>
+    <rPh sb="12" eb="14">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.パーティーリストのから表示</t>
+  </si>
+  <si>
+    <t>3.パーティーリストのから表示</t>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.0h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.最大文字数チェック</t>
+    <rPh sb="2" eb="7">
+      <t>サイダイモジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.0h</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -362,7 +396,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +473,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -681,7 +721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -757,6 +797,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -775,12 +816,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="163">
     <dxf>
       <font>
         <color rgb="FFE6B8B7"/>
@@ -823,6 +864,246 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.59996337778862885"/>
       </font>
       <fill>
@@ -863,6 +1144,86 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFE6B8B7"/>
       </font>
       <fill>
@@ -978,6 +1339,326 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2038,10 +2719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS32"/>
+  <dimension ref="A1:AS42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2055,11 +2736,11 @@
   <sheetData>
     <row r="1" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
       <c r="E1" s="2"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2104,56 +2785,56 @@
     </row>
     <row r="2" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="44">
+      <c r="H2" s="45">
         <v>44228</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="46" t="s">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
+      <c r="AS2" s="47"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -2280,11 +2961,11 @@
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2528,9 +3209,15 @@
       <c r="D7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="E7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="17">
+        <v>44229</v>
+      </c>
+      <c r="G7" s="18">
+        <v>44230</v>
+      </c>
       <c r="H7" s="20"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -2577,9 +3264,15 @@
       <c r="D8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="E8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G8" s="18">
+        <v>35</v>
+      </c>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -2626,17 +3319,23 @@
       <c r="D9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
+      <c r="E9" s="16">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>44232</v>
+      </c>
+      <c r="G9" s="18">
+        <v>44235</v>
+      </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="J9" s="48"/>
       <c r="K9" s="20"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="19"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="20"/>
       <c r="R9" s="20"/>
@@ -2675,9 +3374,15 @@
       <c r="D10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="E10" s="16">
+        <v>14</v>
+      </c>
+      <c r="F10" s="17">
+        <v>44236</v>
+      </c>
+      <c r="G10" s="18">
+        <v>44239</v>
+      </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -2685,7 +3390,7 @@
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
-      <c r="O10" s="19"/>
+      <c r="O10" s="20"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
@@ -2724,9 +3429,15 @@
       <c r="D11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="E11" s="16">
+        <v>12</v>
+      </c>
+      <c r="F11" s="17">
+        <v>44242</v>
+      </c>
+      <c r="G11" s="18">
+        <v>44244</v>
+      </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -2770,7 +3481,9 @@
       <c r="A12" s="14"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="38"/>
+      <c r="D12" s="38" t="s">
+        <v>41</v>
+      </c>
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
       <c r="G12" s="18"/>
@@ -2788,9 +3501,9 @@
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
@@ -2817,7 +3530,9 @@
       <c r="A13" s="14"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="38"/>
+      <c r="D13" s="38" t="s">
+        <v>45</v>
+      </c>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
@@ -2835,9 +3550,9 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
@@ -2862,11 +3577,9 @@
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
-      <c r="B14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
@@ -2884,9 +3597,9 @@
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
@@ -2911,11 +3624,9 @@
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="21"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
       <c r="G15" s="18"/>
@@ -2933,9 +3644,9 @@
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
@@ -2960,23 +3671,15 @@
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="17">
-        <v>44228</v>
-      </c>
-      <c r="G16" s="18">
-        <v>44228</v>
-      </c>
-      <c r="H16" s="19">
-        <v>1.5</v>
-      </c>
+      <c r="B16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
@@ -2993,8 +3696,8 @@
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
       <c r="AC16" s="20"/>
@@ -3017,403 +3720,405 @@
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
       <c r="N17" s="20"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="37"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="37"/>
-      <c r="AM17" s="37"/>
-      <c r="AN17" s="37"/>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="37"/>
-      <c r="AQ17" s="37"/>
-      <c r="AR17" s="37"/>
-      <c r="AS17" s="37"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="20"/>
+      <c r="AO17" s="20"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="20"/>
+      <c r="AR17" s="20"/>
+      <c r="AS17" s="20"/>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="17">
+        <v>44228</v>
+      </c>
+      <c r="G18" s="18">
+        <v>44228</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
       <c r="N18" s="20"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
       <c r="Y18" s="37"/>
       <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="37"/>
-      <c r="AM18" s="37"/>
-      <c r="AN18" s="37"/>
-      <c r="AO18" s="37"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="37"/>
-      <c r="AS18" s="37"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="20"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="20"/>
+      <c r="AQ18" s="20"/>
+      <c r="AR18" s="20"/>
+      <c r="AS18" s="20"/>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
       <c r="N19" s="20"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="13"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="13"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="37"/>
+      <c r="AK19" s="37"/>
+      <c r="AL19" s="37"/>
+      <c r="AM19" s="37"/>
+      <c r="AN19" s="37"/>
+      <c r="AO19" s="37"/>
+      <c r="AP19" s="37"/>
+      <c r="AQ19" s="37"/>
+      <c r="AR19" s="37"/>
+      <c r="AS19" s="37"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
       <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="20"/>
-      <c r="AH20" s="20"/>
-      <c r="AI20" s="20"/>
-      <c r="AJ20" s="20"/>
-      <c r="AK20" s="20"/>
-      <c r="AL20" s="20"/>
-      <c r="AM20" s="20"/>
-      <c r="AN20" s="20"/>
-      <c r="AO20" s="20"/>
-      <c r="AP20" s="20"/>
-      <c r="AQ20" s="20"/>
-      <c r="AR20" s="20"/>
-      <c r="AS20" s="20"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="37"/>
+      <c r="AM20" s="37"/>
+      <c r="AN20" s="37"/>
+      <c r="AO20" s="37"/>
+      <c r="AP20" s="37"/>
+      <c r="AQ20" s="37"/>
+      <c r="AR20" s="37"/>
+      <c r="AS20" s="37"/>
     </row>
-    <row r="21" spans="1:45" ht="30" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A21" s="14"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
       <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="20"/>
-      <c r="AH21" s="20"/>
-      <c r="AI21" s="20"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="20"/>
-      <c r="AL21" s="20"/>
-      <c r="AM21" s="20"/>
-      <c r="AN21" s="20"/>
-      <c r="AO21" s="20"/>
-      <c r="AP21" s="20"/>
-      <c r="AQ21" s="20"/>
-      <c r="AR21" s="20"/>
-      <c r="AS21" s="20"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
+      <c r="AK21" s="37"/>
+      <c r="AL21" s="37"/>
+      <c r="AM21" s="37"/>
+      <c r="AN21" s="37"/>
+      <c r="AO21" s="37"/>
+      <c r="AP21" s="37"/>
+      <c r="AQ21" s="37"/>
+      <c r="AR21" s="37"/>
+      <c r="AS21" s="37"/>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A22" s="30"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
       <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="20"/>
-      <c r="AI22" s="20"/>
-      <c r="AJ22" s="20"/>
-      <c r="AK22" s="20"/>
-      <c r="AL22" s="20"/>
-      <c r="AM22" s="20"/>
-      <c r="AN22" s="20"/>
-      <c r="AO22" s="20"/>
-      <c r="AP22" s="20"/>
-      <c r="AQ22" s="20"/>
-      <c r="AR22" s="20"/>
-      <c r="AS22" s="20"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="37"/>
+      <c r="AI22" s="37"/>
+      <c r="AJ22" s="37"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="37"/>
+      <c r="AM22" s="37"/>
+      <c r="AN22" s="37"/>
+      <c r="AO22" s="37"/>
+      <c r="AP22" s="37"/>
+      <c r="AQ22" s="37"/>
+      <c r="AR22" s="37"/>
+      <c r="AS22" s="37"/>
     </row>
-    <row r="23" spans="1:45" ht="30" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A23" s="14"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
       <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="20"/>
-      <c r="AH23" s="20"/>
-      <c r="AI23" s="20"/>
-      <c r="AJ23" s="20"/>
-      <c r="AK23" s="20"/>
-      <c r="AL23" s="20"/>
-      <c r="AM23" s="20"/>
-      <c r="AN23" s="20"/>
-      <c r="AO23" s="20"/>
-      <c r="AP23" s="20"/>
-      <c r="AQ23" s="20"/>
-      <c r="AR23" s="20"/>
-      <c r="AS23" s="20"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
+      <c r="AK23" s="37"/>
+      <c r="AL23" s="37"/>
+      <c r="AM23" s="37"/>
+      <c r="AN23" s="37"/>
+      <c r="AO23" s="37"/>
+      <c r="AP23" s="37"/>
+      <c r="AQ23" s="37"/>
+      <c r="AR23" s="37"/>
+      <c r="AS23" s="37"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A24" s="30"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
+      <c r="A24" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
       <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="20"/>
-      <c r="AI24" s="20"/>
-      <c r="AJ24" s="20"/>
-      <c r="AK24" s="20"/>
-      <c r="AL24" s="20"/>
-      <c r="AM24" s="20"/>
-      <c r="AN24" s="20"/>
-      <c r="AO24" s="20"/>
-      <c r="AP24" s="20"/>
-      <c r="AQ24" s="20"/>
-      <c r="AR24" s="20"/>
-      <c r="AS24" s="20"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A25" s="30"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="24" t="s">
-        <v>25</v>
-      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="21"/>
       <c r="E25" s="31"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
@@ -3456,16 +4161,24 @@
       <c r="AR25" s="20"/>
       <c r="AS25" s="20"/>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:45" ht="30" x14ac:dyDescent="0.35">
       <c r="A26" s="30"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="F26" s="17">
+        <v>44229</v>
+      </c>
+      <c r="G26" s="18">
+        <v>44229</v>
+      </c>
       <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -3505,14 +4218,22 @@
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A27" s="30"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="31">
+        <v>1.3</v>
+      </c>
+      <c r="F27" s="17">
+        <v>44229</v>
+      </c>
+      <c r="G27" s="18">
+        <v>44229</v>
+      </c>
       <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="I27" s="39"/>
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
@@ -3550,13 +4271,13 @@
       <c r="AR27" s="20"/>
       <c r="AS27" s="20"/>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:45" ht="30" x14ac:dyDescent="0.35">
       <c r="A28" s="30"/>
-      <c r="B28" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="E28" s="31"/>
       <c r="F28" s="17"/>
       <c r="G28" s="18"/>
@@ -3601,11 +4322,11 @@
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A29" s="30"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="E29" s="31"/>
       <c r="F29" s="17"/>
       <c r="G29" s="18"/>
@@ -3650,19 +4371,15 @@
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A30" s="30"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>40</v>
-      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="31"/>
       <c r="F30" s="17"/>
       <c r="G30" s="18"/>
-      <c r="H30" s="47">
-        <v>1.5</v>
-      </c>
+      <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
@@ -3703,9 +4420,11 @@
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A31" s="30"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="E31" s="31"/>
       <c r="F31" s="17"/>
       <c r="G31" s="18"/>
@@ -3748,11 +4467,13 @@
       <c r="AR31" s="20"/>
       <c r="AS31" s="20"/>
     </row>
-    <row r="32" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A32" s="30"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="38" t="s">
+        <v>45</v>
+      </c>
       <c r="E32" s="31"/>
       <c r="F32" s="17"/>
       <c r="G32" s="18"/>
@@ -3795,6 +4516,492 @@
       <c r="AR32" s="20"/>
       <c r="AS32" s="20"/>
     </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A33" s="30"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="20"/>
+      <c r="AI33" s="20"/>
+      <c r="AJ33" s="20"/>
+      <c r="AK33" s="20"/>
+      <c r="AL33" s="20"/>
+      <c r="AM33" s="20"/>
+      <c r="AN33" s="20"/>
+      <c r="AO33" s="20"/>
+      <c r="AP33" s="20"/>
+      <c r="AQ33" s="20"/>
+      <c r="AR33" s="20"/>
+      <c r="AS33" s="20"/>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A34" s="30"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="20"/>
+      <c r="AJ34" s="20"/>
+      <c r="AK34" s="20"/>
+      <c r="AL34" s="20"/>
+      <c r="AM34" s="20"/>
+      <c r="AN34" s="20"/>
+      <c r="AO34" s="20"/>
+      <c r="AP34" s="20"/>
+      <c r="AQ34" s="20"/>
+      <c r="AR34" s="20"/>
+      <c r="AS34" s="20"/>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A35" s="30"/>
+      <c r="B35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="20"/>
+      <c r="AI35" s="20"/>
+      <c r="AJ35" s="20"/>
+      <c r="AK35" s="20"/>
+      <c r="AL35" s="20"/>
+      <c r="AM35" s="20"/>
+      <c r="AN35" s="20"/>
+      <c r="AO35" s="20"/>
+      <c r="AP35" s="20"/>
+      <c r="AQ35" s="20"/>
+      <c r="AR35" s="20"/>
+      <c r="AS35" s="20"/>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A36" s="30"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="20"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="20"/>
+      <c r="AI36" s="20"/>
+      <c r="AJ36" s="20"/>
+      <c r="AK36" s="20"/>
+      <c r="AL36" s="20"/>
+      <c r="AM36" s="20"/>
+      <c r="AN36" s="20"/>
+      <c r="AO36" s="20"/>
+      <c r="AP36" s="20"/>
+      <c r="AQ36" s="20"/>
+      <c r="AR36" s="20"/>
+      <c r="AS36" s="20"/>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A37" s="30"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="31">
+        <v>1.45</v>
+      </c>
+      <c r="F37" s="17">
+        <v>44228</v>
+      </c>
+      <c r="G37" s="18">
+        <v>44229</v>
+      </c>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="20"/>
+      <c r="AI37" s="20"/>
+      <c r="AJ37" s="20"/>
+      <c r="AK37" s="20"/>
+      <c r="AL37" s="20"/>
+      <c r="AM37" s="20"/>
+      <c r="AN37" s="20"/>
+      <c r="AO37" s="20"/>
+      <c r="AP37" s="20"/>
+      <c r="AQ37" s="20"/>
+      <c r="AR37" s="20"/>
+      <c r="AS37" s="20"/>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A38" s="30"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="20"/>
+      <c r="AI38" s="20"/>
+      <c r="AJ38" s="20"/>
+      <c r="AK38" s="20"/>
+      <c r="AL38" s="20"/>
+      <c r="AM38" s="20"/>
+      <c r="AN38" s="20"/>
+      <c r="AO38" s="20"/>
+      <c r="AP38" s="20"/>
+      <c r="AQ38" s="20"/>
+      <c r="AR38" s="20"/>
+      <c r="AS38" s="20"/>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A39" s="30"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="20"/>
+      <c r="AI39" s="20"/>
+      <c r="AJ39" s="20"/>
+      <c r="AK39" s="20"/>
+      <c r="AL39" s="20"/>
+      <c r="AM39" s="20"/>
+      <c r="AN39" s="20"/>
+      <c r="AO39" s="20"/>
+      <c r="AP39" s="20"/>
+      <c r="AQ39" s="20"/>
+      <c r="AR39" s="20"/>
+      <c r="AS39" s="20"/>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A40" s="30"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
+      <c r="AI40" s="20"/>
+      <c r="AJ40" s="20"/>
+      <c r="AK40" s="20"/>
+      <c r="AL40" s="20"/>
+      <c r="AM40" s="20"/>
+      <c r="AN40" s="20"/>
+      <c r="AO40" s="20"/>
+      <c r="AP40" s="20"/>
+      <c r="AQ40" s="20"/>
+      <c r="AR40" s="20"/>
+      <c r="AS40" s="20"/>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A41" s="30"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="20"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="20"/>
+      <c r="AI41" s="20"/>
+      <c r="AJ41" s="20"/>
+      <c r="AK41" s="20"/>
+      <c r="AL41" s="20"/>
+      <c r="AM41" s="20"/>
+      <c r="AN41" s="20"/>
+      <c r="AO41" s="20"/>
+      <c r="AP41" s="20"/>
+      <c r="AQ41" s="20"/>
+      <c r="AR41" s="20"/>
+      <c r="AS41" s="20"/>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A42" s="30"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="20"/>
+      <c r="AE42" s="20"/>
+      <c r="AF42" s="20"/>
+      <c r="AG42" s="20"/>
+      <c r="AH42" s="20"/>
+      <c r="AI42" s="20"/>
+      <c r="AJ42" s="20"/>
+      <c r="AK42" s="20"/>
+      <c r="AL42" s="20"/>
+      <c r="AM42" s="20"/>
+      <c r="AN42" s="20"/>
+      <c r="AO42" s="20"/>
+      <c r="AP42" s="20"/>
+      <c r="AQ42" s="20"/>
+      <c r="AR42" s="20"/>
+      <c r="AS42" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
@@ -3805,337 +5012,519 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4:AS4">
-    <cfRule type="cellIs" dxfId="98" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="685" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="686" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15:AS15 H5:AS6 H14:AS14 H8:I8 K7:AS7 H9:J9 O9:AS9 I18:AS18 L8:AS8 H10:N10 T10:AS10 H11:U13 Y11:AS13 I16:X17 AA16:AS17 H31:AS32 I30:AS30 H19:AS29">
-    <cfRule type="expression" dxfId="96" priority="609" stopIfTrue="1">
+  <conditionalFormatting sqref="L17:AS17 H5:AS6 H16:AS16 H8:I8 K7:AS7 H9:J9 P9:AS9 I23:AS23 L8:AS8 H10:N10 T10:AS10 H11:U15 Y11:AS15 I19:X22 AA18:AS22 H38:AS42 J37:AS37 H24:AS25 J18:X18 H28:AS36 H26:H27 J26:AS27">
+    <cfRule type="expression" dxfId="160" priority="681" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="610" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="682" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="611" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="683" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="612" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="684" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2">
-    <cfRule type="notContainsBlanks" dxfId="92" priority="615">
+    <cfRule type="notContainsBlanks" dxfId="156" priority="687">
       <formula>LEN(TRIM(AJ2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15:J15">
-    <cfRule type="expression" dxfId="91" priority="577" stopIfTrue="1">
+  <conditionalFormatting sqref="H17:J17">
+    <cfRule type="expression" dxfId="155" priority="649" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="650" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="579" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="651" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="652" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="151" priority="173" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="174" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="175" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="176" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="expression" dxfId="147" priority="133" stopIfTrue="1">
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="134" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="135" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="136" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="expression" dxfId="143" priority="145" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="146" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="147" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="148" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="expression" dxfId="139" priority="161" stopIfTrue="1">
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="162" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="163" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="164" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="expression" dxfId="135" priority="157" stopIfTrue="1">
+      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="158" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="159" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="160" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="131" priority="149" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="150" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="151" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="152" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="expression" dxfId="127" priority="113" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="114" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="115" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="116" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="expression" dxfId="123" priority="141" stopIfTrue="1">
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="142" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="143" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="144" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="expression" dxfId="119" priority="105" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="106" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="107" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="108" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="115" priority="129" stopIfTrue="1">
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="130" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="131" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="132" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P10:S10">
+    <cfRule type="expression" dxfId="111" priority="121" stopIfTrue="1">
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="122" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="123" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="124" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V11:X11">
+    <cfRule type="expression" dxfId="107" priority="117" stopIfTrue="1">
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="118" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="119" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="120" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="expression" dxfId="103" priority="109" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="110" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="111" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="112" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V12">
+    <cfRule type="expression" dxfId="99" priority="61" stopIfTrue="1">
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="62" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="63" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="64" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="expression" dxfId="95" priority="37" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="39" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="40" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y18:Y21">
+    <cfRule type="expression" dxfId="91" priority="85" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="86" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="87" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="88" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z18:Z21">
+    <cfRule type="expression" dxfId="87" priority="81" stopIfTrue="1">
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="82" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="expression" dxfId="83" priority="77" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="78" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="79" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="80" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="expression" dxfId="79" priority="73" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="74" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="75" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y22">
+    <cfRule type="expression" dxfId="75" priority="69" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="70" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="71" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z22">
+    <cfRule type="expression" dxfId="71" priority="65" stopIfTrue="1">
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="67" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="68" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W12">
+    <cfRule type="expression" dxfId="67" priority="57" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="58" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="59" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="60" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X12">
+    <cfRule type="expression" dxfId="63" priority="53" stopIfTrue="1">
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="54" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="55" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="56" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X13:X15">
+    <cfRule type="expression" dxfId="59" priority="49" stopIfTrue="1">
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="50" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="51" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W13:W15">
+    <cfRule type="expression" dxfId="55" priority="45" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="48" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V13:V15">
+    <cfRule type="expression" dxfId="51" priority="41" stopIfTrue="1">
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:H21">
+    <cfRule type="expression" dxfId="47" priority="33" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="35" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="expression" dxfId="43" priority="21" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="23" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="24" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="expression" dxfId="39" priority="25" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="27" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="expression" dxfId="35" priority="17" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="expression" dxfId="31" priority="13" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="expression" dxfId="87" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
       <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="83" priority="101" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="102" operator="equal">
+  <conditionalFormatting sqref="O9">
+    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="104" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="79" priority="61" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="62" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="63" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="64" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="75" priority="73" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="76" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="71" priority="89" stopIfTrue="1">
-      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="90" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="91" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="92" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="67" priority="85" stopIfTrue="1">
-      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="86" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="87" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="88" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="59" priority="77" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="78" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="79" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="80" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="55" priority="41" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="42" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="43" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="44" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="51" priority="69" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="70" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="71" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="72" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="47" priority="33" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="34" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="35" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="43" priority="57" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="58" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="59" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="39" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="56" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P10:S10">
-    <cfRule type="expression" dxfId="35" priority="49" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="50" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="51" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="52" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V11:X13">
-    <cfRule type="expression" dxfId="31" priority="45" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="46" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="47" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="48" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="27" priority="37" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="39" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="40" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y17">
-    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z17">
-    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y16">
-    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z16">
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>aya</t>
     <phoneticPr fontId="4"/>
@@ -315,10 +315,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7.最大文字数チェック</t>
+    <t>4.0h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.最大文字数チェック</t>
     <rPh sb="2" eb="7">
       <t>サイダイモジスウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.戻るボタンの禁止</t>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.ボタンの同時押し禁止</t>
+    <rPh sb="6" eb="8">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.0h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.0h</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -798,6 +833,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -816,169 +852,48 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="163">
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
+  <dxfs count="151">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2719,10 +2634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS42"/>
+  <dimension ref="A1:AS48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2736,11 +2651,11 @@
   <sheetData>
     <row r="1" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="2"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2785,56 +2700,56 @@
     </row>
     <row r="2" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="45">
+      <c r="H2" s="46">
         <v>44228</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="47" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="48"/>
+      <c r="AR2" s="48"/>
+      <c r="AS2" s="48"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -2961,11 +2876,11 @@
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
@@ -3265,7 +3180,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="17">
         <v>44231</v>
@@ -3330,7 +3245,7 @@
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
-      <c r="J9" s="48"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="20"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
@@ -3484,13 +3399,19 @@
       <c r="D12" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="E12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G12" s="18">
+        <v>44232</v>
+      </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="K12" s="40"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
@@ -3531,15 +3452,21 @@
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G13" s="18">
+        <v>44232</v>
+      </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="K13" s="40"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
@@ -3579,14 +3506,22 @@
       <c r="A14" s="14"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G14" s="18">
+        <v>44232</v>
+      </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="K14" s="40"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
@@ -3671,11 +3606,9 @@
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
-      <c r="B16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="16"/>
       <c r="F16" s="17"/>
       <c r="G16" s="18"/>
@@ -3693,9 +3626,9 @@
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
@@ -3720,11 +3653,9 @@
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="21"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="16"/>
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
@@ -3742,9 +3673,9 @@
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
@@ -3769,21 +3700,15 @@
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="17">
-        <v>44228</v>
-      </c>
-      <c r="G18" s="18">
-        <v>44228</v>
-      </c>
-      <c r="H18" s="19"/>
+      <c r="B18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
@@ -3800,8 +3725,8 @@
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
       <c r="AC18" s="20"/>
@@ -3824,107 +3749,115 @@
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
       <c r="N19" s="20"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="37"/>
-      <c r="AI19" s="37"/>
-      <c r="AJ19" s="37"/>
-      <c r="AK19" s="37"/>
-      <c r="AL19" s="37"/>
-      <c r="AM19" s="37"/>
-      <c r="AN19" s="37"/>
-      <c r="AO19" s="37"/>
-      <c r="AP19" s="37"/>
-      <c r="AQ19" s="37"/>
-      <c r="AR19" s="37"/>
-      <c r="AS19" s="37"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="20"/>
+      <c r="AO19" s="20"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="20"/>
+      <c r="AR19" s="20"/>
+      <c r="AS19" s="20"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="17">
+        <v>44228</v>
+      </c>
+      <c r="G20" s="18">
+        <v>44228</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
       <c r="N20" s="20"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
       <c r="Y20" s="37"/>
       <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="37"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="37"/>
-      <c r="AN20" s="37"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="37"/>
-      <c r="AQ20" s="37"/>
-      <c r="AR20" s="37"/>
-      <c r="AS20" s="37"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="20"/>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="33"/>
+      <c r="D21" s="33" t="s">
+        <v>36</v>
+      </c>
       <c r="E21" s="34"/>
       <c r="F21" s="35"/>
       <c r="G21" s="36"/>
@@ -3971,11 +3904,13 @@
       <c r="A22" s="14"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="33"/>
+      <c r="D22" s="33" t="s">
+        <v>43</v>
+      </c>
       <c r="E22" s="34"/>
       <c r="F22" s="35"/>
       <c r="G22" s="36"/>
-      <c r="H22" s="20"/>
+      <c r="H22" s="37"/>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
@@ -4018,11 +3953,13 @@
       <c r="A23" s="14"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
-      <c r="D23" s="33"/>
+      <c r="D23" s="38" t="s">
+        <v>46</v>
+      </c>
       <c r="E23" s="34"/>
       <c r="F23" s="35"/>
       <c r="G23" s="36"/>
-      <c r="H23" s="20"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
@@ -4062,222 +3999,204 @@
       <c r="AS23" s="37"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A24" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
       <c r="N24" s="20"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="13"/>
-      <c r="AP24" s="13"/>
-      <c r="AQ24" s="13"/>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="13"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="37"/>
+      <c r="AM24" s="37"/>
+      <c r="AN24" s="37"/>
+      <c r="AO24" s="37"/>
+      <c r="AP24" s="37"/>
+      <c r="AQ24" s="37"/>
+      <c r="AR24" s="37"/>
+      <c r="AS24" s="37"/>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
       <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="20"/>
-      <c r="AG25" s="20"/>
-      <c r="AH25" s="20"/>
-      <c r="AI25" s="20"/>
-      <c r="AJ25" s="20"/>
-      <c r="AK25" s="20"/>
-      <c r="AL25" s="20"/>
-      <c r="AM25" s="20"/>
-      <c r="AN25" s="20"/>
-      <c r="AO25" s="20"/>
-      <c r="AP25" s="20"/>
-      <c r="AQ25" s="20"/>
-      <c r="AR25" s="20"/>
-      <c r="AS25" s="20"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="37"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="37"/>
+      <c r="AM25" s="37"/>
+      <c r="AN25" s="37"/>
+      <c r="AO25" s="37"/>
+      <c r="AP25" s="37"/>
+      <c r="AQ25" s="37"/>
+      <c r="AR25" s="37"/>
+      <c r="AS25" s="37"/>
     </row>
-    <row r="26" spans="1:45" ht="30" x14ac:dyDescent="0.35">
-      <c r="A26" s="30"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="31">
-        <v>1.2</v>
-      </c>
-      <c r="F26" s="17">
-        <v>44229</v>
-      </c>
-      <c r="G26" s="18">
-        <v>44229</v>
-      </c>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A26" s="14"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
       <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="20"/>
-      <c r="AH26" s="20"/>
-      <c r="AI26" s="20"/>
-      <c r="AJ26" s="20"/>
-      <c r="AK26" s="20"/>
-      <c r="AL26" s="20"/>
-      <c r="AM26" s="20"/>
-      <c r="AN26" s="20"/>
-      <c r="AO26" s="20"/>
-      <c r="AP26" s="20"/>
-      <c r="AQ26" s="20"/>
-      <c r="AR26" s="20"/>
-      <c r="AS26" s="20"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="37"/>
+      <c r="AN26" s="37"/>
+      <c r="AO26" s="37"/>
+      <c r="AP26" s="37"/>
+      <c r="AQ26" s="37"/>
+      <c r="AR26" s="37"/>
+      <c r="AS26" s="37"/>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A27" s="30"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="31">
-        <v>1.3</v>
-      </c>
-      <c r="F27" s="17">
-        <v>44229</v>
-      </c>
-      <c r="G27" s="18">
-        <v>44229</v>
-      </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
+      <c r="A27" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
       <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="20"/>
-      <c r="AG27" s="20"/>
-      <c r="AH27" s="20"/>
-      <c r="AI27" s="20"/>
-      <c r="AJ27" s="20"/>
-      <c r="AK27" s="20"/>
-      <c r="AL27" s="20"/>
-      <c r="AM27" s="20"/>
-      <c r="AN27" s="20"/>
-      <c r="AO27" s="20"/>
-      <c r="AP27" s="20"/>
-      <c r="AQ27" s="20"/>
-      <c r="AR27" s="20"/>
-      <c r="AS27" s="20"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="13"/>
+      <c r="AM27" s="13"/>
+      <c r="AN27" s="13"/>
+      <c r="AO27" s="13"/>
+      <c r="AP27" s="13"/>
+      <c r="AQ27" s="13"/>
+      <c r="AR27" s="13"/>
+      <c r="AS27" s="13"/>
     </row>
-    <row r="28" spans="1:45" ht="30" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A28" s="30"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="24" t="s">
-        <v>32</v>
-      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="21"/>
       <c r="E28" s="31"/>
       <c r="F28" s="17"/>
       <c r="G28" s="18"/>
@@ -4320,18 +4239,24 @@
       <c r="AR28" s="20"/>
       <c r="AS28" s="20"/>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:45" ht="30" x14ac:dyDescent="0.35">
       <c r="A29" s="30"/>
       <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="F29" s="17">
+        <v>44229</v>
+      </c>
+      <c r="G29" s="18">
+        <v>44229</v>
+      </c>
       <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="I29" s="39"/>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
@@ -4374,13 +4299,19 @@
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="E30" s="31">
+        <v>1.3</v>
+      </c>
+      <c r="F30" s="17">
+        <v>44229</v>
+      </c>
+      <c r="G30" s="18">
+        <v>44229</v>
+      </c>
       <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
@@ -4418,19 +4349,25 @@
       <c r="AR30" s="20"/>
       <c r="AS30" s="20"/>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:45" ht="30" x14ac:dyDescent="0.35">
       <c r="A31" s="30"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F31" s="17">
+        <v>44230</v>
+      </c>
+      <c r="G31" s="18">
+        <v>44230</v>
+      </c>
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
+      <c r="J31" s="39"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
@@ -4469,10 +4406,10 @@
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A32" s="30"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="38" t="s">
-        <v>45</v>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="E32" s="31"/>
       <c r="F32" s="17"/>
@@ -4518,9 +4455,11 @@
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A33" s="30"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="38"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="E33" s="31"/>
       <c r="F33" s="17"/>
       <c r="G33" s="18"/>
@@ -4567,7 +4506,9 @@
       <c r="A34" s="30"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
-      <c r="D34" s="38"/>
+      <c r="D34" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="E34" s="31"/>
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
@@ -4612,11 +4553,11 @@
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A35" s="30"/>
-      <c r="B35" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="E35" s="31"/>
       <c r="F35" s="17"/>
       <c r="G35" s="18"/>
@@ -4661,11 +4602,11 @@
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A36" s="30"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="21"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="E36" s="31"/>
       <c r="F36" s="17"/>
       <c r="G36" s="18"/>
@@ -4710,22 +4651,14 @@
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A37" s="30"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="31">
-        <v>1.45</v>
-      </c>
-      <c r="F37" s="17">
-        <v>44228</v>
-      </c>
-      <c r="G37" s="18">
-        <v>44229</v>
-      </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
@@ -4765,11 +4698,9 @@
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A38" s="30"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="33" t="s">
-        <v>36</v>
-      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="31"/>
       <c r="F38" s="17"/>
       <c r="G38" s="18"/>
@@ -4814,11 +4745,9 @@
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A39" s="30"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="31"/>
       <c r="F39" s="17"/>
       <c r="G39" s="18"/>
@@ -4863,9 +4792,11 @@
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A40" s="30"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="23"/>
+      <c r="B40" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="31"/>
       <c r="F40" s="17"/>
       <c r="G40" s="18"/>
@@ -4910,9 +4841,11 @@
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A41" s="30"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="23"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="21"/>
       <c r="E41" s="31"/>
       <c r="F41" s="17"/>
       <c r="G41" s="18"/>
@@ -4959,12 +4892,20 @@
       <c r="A42" s="30"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
+      <c r="D42" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="31">
+        <v>1.45</v>
+      </c>
+      <c r="F42" s="17">
+        <v>44228</v>
+      </c>
+      <c r="G42" s="18">
+        <v>44229</v>
+      </c>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
@@ -5002,6 +4943,294 @@
       <c r="AR42" s="20"/>
       <c r="AS42" s="20"/>
     </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A43" s="30"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="20"/>
+      <c r="AC43" s="20"/>
+      <c r="AD43" s="20"/>
+      <c r="AE43" s="20"/>
+      <c r="AF43" s="20"/>
+      <c r="AG43" s="20"/>
+      <c r="AH43" s="20"/>
+      <c r="AI43" s="20"/>
+      <c r="AJ43" s="20"/>
+      <c r="AK43" s="20"/>
+      <c r="AL43" s="20"/>
+      <c r="AM43" s="20"/>
+      <c r="AN43" s="20"/>
+      <c r="AO43" s="20"/>
+      <c r="AP43" s="20"/>
+      <c r="AQ43" s="20"/>
+      <c r="AR43" s="20"/>
+      <c r="AS43" s="20"/>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A44" s="30"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="20"/>
+      <c r="AE44" s="20"/>
+      <c r="AF44" s="20"/>
+      <c r="AG44" s="20"/>
+      <c r="AH44" s="20"/>
+      <c r="AI44" s="20"/>
+      <c r="AJ44" s="20"/>
+      <c r="AK44" s="20"/>
+      <c r="AL44" s="20"/>
+      <c r="AM44" s="20"/>
+      <c r="AN44" s="20"/>
+      <c r="AO44" s="20"/>
+      <c r="AP44" s="20"/>
+      <c r="AQ44" s="20"/>
+      <c r="AR44" s="20"/>
+      <c r="AS44" s="20"/>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A45" s="30"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="20"/>
+      <c r="AE45" s="20"/>
+      <c r="AF45" s="20"/>
+      <c r="AG45" s="20"/>
+      <c r="AH45" s="20"/>
+      <c r="AI45" s="20"/>
+      <c r="AJ45" s="20"/>
+      <c r="AK45" s="20"/>
+      <c r="AL45" s="20"/>
+      <c r="AM45" s="20"/>
+      <c r="AN45" s="20"/>
+      <c r="AO45" s="20"/>
+      <c r="AP45" s="20"/>
+      <c r="AQ45" s="20"/>
+      <c r="AR45" s="20"/>
+      <c r="AS45" s="20"/>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A46" s="30"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="20"/>
+      <c r="AE46" s="20"/>
+      <c r="AF46" s="20"/>
+      <c r="AG46" s="20"/>
+      <c r="AH46" s="20"/>
+      <c r="AI46" s="20"/>
+      <c r="AJ46" s="20"/>
+      <c r="AK46" s="20"/>
+      <c r="AL46" s="20"/>
+      <c r="AM46" s="20"/>
+      <c r="AN46" s="20"/>
+      <c r="AO46" s="20"/>
+      <c r="AP46" s="20"/>
+      <c r="AQ46" s="20"/>
+      <c r="AR46" s="20"/>
+      <c r="AS46" s="20"/>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A47" s="30"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="20"/>
+      <c r="AE47" s="20"/>
+      <c r="AF47" s="20"/>
+      <c r="AG47" s="20"/>
+      <c r="AH47" s="20"/>
+      <c r="AI47" s="20"/>
+      <c r="AJ47" s="20"/>
+      <c r="AK47" s="20"/>
+      <c r="AL47" s="20"/>
+      <c r="AM47" s="20"/>
+      <c r="AN47" s="20"/>
+      <c r="AO47" s="20"/>
+      <c r="AP47" s="20"/>
+      <c r="AQ47" s="20"/>
+      <c r="AR47" s="20"/>
+      <c r="AS47" s="20"/>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A48" s="30"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="20"/>
+      <c r="AE48" s="20"/>
+      <c r="AF48" s="20"/>
+      <c r="AG48" s="20"/>
+      <c r="AH48" s="20"/>
+      <c r="AI48" s="20"/>
+      <c r="AJ48" s="20"/>
+      <c r="AK48" s="20"/>
+      <c r="AL48" s="20"/>
+      <c r="AM48" s="20"/>
+      <c r="AN48" s="20"/>
+      <c r="AO48" s="20"/>
+      <c r="AP48" s="20"/>
+      <c r="AQ48" s="20"/>
+      <c r="AR48" s="20"/>
+      <c r="AS48" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
@@ -5012,519 +5241,533 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4:AS4">
-    <cfRule type="cellIs" dxfId="162" priority="685" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="689" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="686" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="690" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17:AS17 H5:AS6 H16:AS16 H8:I8 K7:AS7 H9:J9 P9:AS9 I23:AS23 L8:AS8 H10:N10 T10:AS10 H11:U15 Y11:AS15 I19:X22 AA18:AS22 H38:AS42 J37:AS37 H24:AS25 J18:X18 H28:AS36 H26:H27 J26:AS27">
-    <cfRule type="expression" dxfId="160" priority="681" stopIfTrue="1">
+  <conditionalFormatting sqref="L19:AS19 H5:AS6 H18:AS18 H8:I8 K7:AS7 H9:J9 P9:AS9 I26:AS26 L8:AS8 H10:N10 T10:AS10 Y11:AS17 I21:X25 AA20:AS25 H43:AS48 J42:AS42 H27:AS28 J20:X20 H32:AS41 H29:H30 J29:AS30 H31:I31 K31:AS31 H11:U17">
+    <cfRule type="expression" dxfId="148" priority="685" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="682" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="686" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="683" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="687" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="684" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="688" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2">
-    <cfRule type="notContainsBlanks" dxfId="156" priority="687">
+    <cfRule type="notContainsBlanks" dxfId="144" priority="691">
       <formula>LEN(TRIM(AJ2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:J17">
-    <cfRule type="expression" dxfId="155" priority="649" stopIfTrue="1">
+  <conditionalFormatting sqref="H19:J19">
+    <cfRule type="expression" dxfId="143" priority="653" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="650" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="654" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="655" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="652" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="656" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="151" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="177" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="178" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="179" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="180" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="147" priority="133" stopIfTrue="1">
+  <conditionalFormatting sqref="K19">
+    <cfRule type="expression" dxfId="135" priority="137" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="138" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="139" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="140" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="143" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="149" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="150" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="151" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="152" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="139" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="165" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="166" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="167" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="168" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="135" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="161" stopIfTrue="1">
       <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="162" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="163" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="164" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="131" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="153" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="154" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="155" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="156" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="127" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="117" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="119" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="120" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="123" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="145" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="146" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="147" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="148" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="119" priority="105" stopIfTrue="1">
+  <conditionalFormatting sqref="H26">
+    <cfRule type="expression" dxfId="107" priority="109" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="111" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="112" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="115" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="133" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="134" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="135" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="136" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:S10">
-    <cfRule type="expression" dxfId="111" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="125" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="126" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="127" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="128" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="107" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="121" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="122" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="123" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="124" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="103" priority="109" stopIfTrue="1">
+  <conditionalFormatting sqref="H24:H25">
+    <cfRule type="expression" dxfId="91" priority="113" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="115" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="116" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="99" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="65" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="67" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="68" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="95" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="H21">
+    <cfRule type="expression" dxfId="83" priority="41" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="44" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y18:Y21">
-    <cfRule type="expression" dxfId="91" priority="85" stopIfTrue="1">
+  <conditionalFormatting sqref="Y20:Y23">
+    <cfRule type="expression" dxfId="79" priority="89" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="91" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="92" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z18:Z21">
-    <cfRule type="expression" dxfId="87" priority="81" stopIfTrue="1">
+  <conditionalFormatting sqref="Z20:Z23">
+    <cfRule type="expression" dxfId="75" priority="85" stopIfTrue="1">
       <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="87" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="88" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="83" priority="77" stopIfTrue="1">
+  <conditionalFormatting sqref="H42">
+    <cfRule type="expression" dxfId="71" priority="81" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="84" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="79" priority="73" stopIfTrue="1">
+  <conditionalFormatting sqref="H20">
+    <cfRule type="expression" dxfId="67" priority="77" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="80" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y22">
-    <cfRule type="expression" dxfId="75" priority="69" stopIfTrue="1">
+  <conditionalFormatting sqref="Y24:Y25">
+    <cfRule type="expression" dxfId="63" priority="73" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="75" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="76" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z22">
-    <cfRule type="expression" dxfId="71" priority="65" stopIfTrue="1">
+  <conditionalFormatting sqref="Z24:Z25">
+    <cfRule type="expression" dxfId="59" priority="69" stopIfTrue="1">
       <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="71" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="72" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="expression" dxfId="67" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="61" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="63" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="64" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
-    <cfRule type="expression" dxfId="63" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="57" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X13:X15">
-    <cfRule type="expression" dxfId="59" priority="49" stopIfTrue="1">
+  <conditionalFormatting sqref="X13:X17">
+    <cfRule type="expression" dxfId="47" priority="53" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="55" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="56" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13:W15">
-    <cfRule type="expression" dxfId="55" priority="45" stopIfTrue="1">
+  <conditionalFormatting sqref="W13:W17">
+    <cfRule type="expression" dxfId="43" priority="49" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="51" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="52" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V13:V15">
-    <cfRule type="expression" dxfId="51" priority="41" stopIfTrue="1">
+  <conditionalFormatting sqref="V13:V17">
+    <cfRule type="expression" dxfId="39" priority="45" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H21">
-    <cfRule type="expression" dxfId="47" priority="33" stopIfTrue="1">
+  <conditionalFormatting sqref="H22:H23">
+    <cfRule type="expression" dxfId="35" priority="37" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="43" priority="21" stopIfTrue="1">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="31" priority="25" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="39" priority="25" stopIfTrue="1">
+  <conditionalFormatting sqref="I42">
+    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="35" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="31" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="I30">
+    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>aya</t>
     <phoneticPr fontId="4"/>
@@ -358,6 +358,13 @@
   </si>
   <si>
     <t>4.0h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.バトルログ不具合修正</t>
+    <rPh sb="7" eb="12">
+      <t>フグアイシュウセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -856,7 +863,207 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="151">
+  <dxfs count="171">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -2636,8 +2843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3302,7 +3509,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
+      <c r="L10" s="40"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
@@ -3962,7 +4169,7 @@
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
       <c r="N23" s="20"/>
@@ -4002,14 +4209,16 @@
       <c r="A24" s="14"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
-      <c r="D24" s="33"/>
+      <c r="D24" s="23" t="s">
+        <v>52</v>
+      </c>
       <c r="E24" s="34"/>
       <c r="F24" s="35"/>
       <c r="G24" s="36"/>
       <c r="H24" s="20"/>
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
       <c r="N24" s="20"/>
@@ -4509,13 +4718,15 @@
       <c r="D34" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="31"/>
+      <c r="E34" s="31">
+        <v>0.5</v>
+      </c>
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
+      <c r="K34" s="39"/>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
       <c r="N34" s="20"/>
@@ -4558,13 +4769,19 @@
       <c r="D35" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
+      <c r="E35" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="F35" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G35" s="18">
+        <v>44231</v>
+      </c>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
+      <c r="K35" s="39"/>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
@@ -4607,13 +4824,19 @@
       <c r="D36" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
+      <c r="E36" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="F36" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G36" s="18">
+        <v>44231</v>
+      </c>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
+      <c r="K36" s="39"/>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
@@ -5048,13 +5271,19 @@
       <c r="D45" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="18"/>
+      <c r="E45" s="31">
+        <v>1.4</v>
+      </c>
+      <c r="F45" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G45" s="18">
+        <v>44231</v>
+      </c>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
+      <c r="K45" s="39"/>
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
@@ -5094,14 +5323,22 @@
       <c r="A46" s="30"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="18"/>
+      <c r="D46" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G46" s="18">
+        <v>44231</v>
+      </c>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
+      <c r="K46" s="39"/>
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
       <c r="N46" s="20"/>
@@ -5241,63 +5478,133 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4:AS4">
-    <cfRule type="cellIs" dxfId="150" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="709" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="690" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="710" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19:AS19 H5:AS6 H18:AS18 H8:I8 K7:AS7 H9:J9 P9:AS9 I26:AS26 L8:AS8 H10:N10 T10:AS10 Y11:AS17 I21:X25 AA20:AS25 H43:AS48 J42:AS42 H27:AS28 J20:X20 H32:AS41 H29:H30 J29:AS30 H31:I31 K31:AS31 H11:U17">
-    <cfRule type="expression" dxfId="148" priority="685" stopIfTrue="1">
+  <conditionalFormatting sqref="L19:AS19 H5:AS6 H18:AS18 H8:I8 K7:AS7 H9:J9 P9:AS9 I26:AS26 L8:AS8 T10:AS10 Y11:AS17 AA20:AS25 H43:AS44 J42:AS42 H27:AS28 J20:X20 H32:AS33 H29:H30 J29:AS30 H31:I31 K31:AS31 H11:U17 H37:AS41 H34:J36 L34:AS36 H47:AS48 H45:J46 L45:AS46 I21:X25 H10:N10">
+    <cfRule type="expression" dxfId="168" priority="705" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="686" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="706" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="687" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="707" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="688" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="708" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2">
-    <cfRule type="notContainsBlanks" dxfId="144" priority="691">
+    <cfRule type="notContainsBlanks" dxfId="164" priority="711">
       <formula>LEN(TRIM(AJ2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:J19">
-    <cfRule type="expression" dxfId="143" priority="653" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="673" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="654" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="674" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="675" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="656" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="676" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="139" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="197" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="198" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="199" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="200" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
+    <cfRule type="expression" dxfId="155" priority="157" stopIfTrue="1">
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="158" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="159" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="160" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="expression" dxfId="151" priority="169" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="170" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="171" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="172" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="expression" dxfId="147" priority="185" stopIfTrue="1">
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="186" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="187" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="188" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="expression" dxfId="143" priority="181" stopIfTrue="1">
+      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="182" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="183" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="184" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="139" priority="173" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="174" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="175" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="176" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
     <cfRule type="expression" dxfId="135" priority="137" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="134" priority="138" operator="equal">
       <formula>1</formula>
@@ -5309,191 +5616,191 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="131" priority="149" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="150" operator="equal">
+  <conditionalFormatting sqref="K8">
+    <cfRule type="expression" dxfId="131" priority="165" stopIfTrue="1">
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="166" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="167" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="152" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="127" priority="165" stopIfTrue="1">
-      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="166" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="167" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="168" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="123" priority="161" stopIfTrue="1">
-      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="162" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="163" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="164" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="119" priority="153" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="154" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="155" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="156" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="115" priority="117" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="118" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="119" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="120" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="111" priority="145" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="146" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="147" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="168" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="107" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="129" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="130" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="131" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="132" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="103" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="153" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="154" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="155" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="156" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:S10">
-    <cfRule type="expression" dxfId="99" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="145" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="146" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="147" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="148" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="95" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="141" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="142" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="143" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="144" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H25">
-    <cfRule type="expression" dxfId="91" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="133" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="134" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="135" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="136" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="87" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="85" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="87" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="88" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="83" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="61" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="63" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="64" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y20:Y23">
+    <cfRule type="expression" dxfId="99" priority="109" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="110" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="111" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="112" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z20:Z23">
+    <cfRule type="expression" dxfId="95" priority="105" stopIfTrue="1">
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="106" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="107" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="108" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="expression" dxfId="91" priority="101" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="103" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="104" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="expression" dxfId="87" priority="97" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="98" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="99" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="100" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y24:Y25">
+    <cfRule type="expression" dxfId="83" priority="93" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="94" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="95" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="96" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z24:Z25">
     <cfRule type="expression" dxfId="79" priority="89" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="78" priority="90" operator="equal">
       <formula>1</formula>
@@ -5505,191 +5812,191 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z20:Z23">
-    <cfRule type="expression" dxfId="75" priority="85" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="86" operator="equal">
+  <conditionalFormatting sqref="W12">
+    <cfRule type="expression" dxfId="75" priority="81" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="83" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="88" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="71" priority="81" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="82" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="84" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="67" priority="77" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="78" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="80" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y24:Y25">
-    <cfRule type="expression" dxfId="63" priority="73" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="74" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="75" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="76" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z24:Z25">
-    <cfRule type="expression" dxfId="59" priority="69" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="70" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="71" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="72" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W12">
-    <cfRule type="expression" dxfId="55" priority="61" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="63" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="84" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
-    <cfRule type="expression" dxfId="51" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="77" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="79" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="80" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X17">
-    <cfRule type="expression" dxfId="47" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="73" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="75" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="76" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13:W17">
-    <cfRule type="expression" dxfId="43" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="69" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="71" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:V17">
-    <cfRule type="expression" dxfId="39" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="65" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="67" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="68" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H23">
-    <cfRule type="expression" dxfId="35" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="57" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="31" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="45" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="49" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
+      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
     <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>1</formula>
@@ -5701,9 +6008,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
+  <conditionalFormatting sqref="K35">
     <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>1</formula>
@@ -5715,9 +6022,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="K36">
     <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
-      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
@@ -5729,9 +6036,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
+  <conditionalFormatting sqref="K34">
     <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
@@ -5743,9 +6050,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
+  <conditionalFormatting sqref="K46">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
@@ -5757,9 +6064,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
+  <conditionalFormatting sqref="K45">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>aya</t>
     <phoneticPr fontId="4"/>
@@ -365,6 +365,10 @@
     <rPh sb="7" eb="12">
       <t>フグアイシュウセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.3h</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -863,7 +867,47 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="171">
+  <dxfs count="175">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -2843,8 +2887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3510,7 +3554,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="40"/>
-      <c r="M10" s="20"/>
+      <c r="M10" s="40"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
       <c r="P10" s="19"/>
@@ -4164,7 +4208,9 @@
         <v>46</v>
       </c>
       <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
+      <c r="F23" s="35">
+        <v>44231</v>
+      </c>
       <c r="G23" s="36"/>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
@@ -4213,7 +4259,9 @@
         <v>52</v>
       </c>
       <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
+      <c r="F24" s="35">
+        <v>44231</v>
+      </c>
       <c r="G24" s="36"/>
       <c r="H24" s="20"/>
       <c r="I24" s="37"/>
@@ -4620,14 +4668,18 @@
       <c r="D32" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="17"/>
+      <c r="E32" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="17">
+        <v>44232</v>
+      </c>
       <c r="G32" s="18"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
+      <c r="L32" s="39"/>
       <c r="M32" s="20"/>
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
@@ -4721,8 +4773,12 @@
       <c r="E34" s="31">
         <v>0.5</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
+      <c r="F34" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G34" s="18">
+        <v>44231</v>
+      </c>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
@@ -5478,91 +5534,105 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4:AS4">
-    <cfRule type="cellIs" dxfId="170" priority="709" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="713" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="710" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="714" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19:AS19 H5:AS6 H18:AS18 H8:I8 K7:AS7 H9:J9 P9:AS9 I26:AS26 L8:AS8 T10:AS10 Y11:AS17 AA20:AS25 H43:AS44 J42:AS42 H27:AS28 J20:X20 H32:AS33 H29:H30 J29:AS30 H31:I31 K31:AS31 H11:U17 H37:AS41 H34:J36 L34:AS36 H47:AS48 H45:J46 L45:AS46 I21:X25 H10:N10">
-    <cfRule type="expression" dxfId="168" priority="705" stopIfTrue="1">
+  <conditionalFormatting sqref="L19:AS19 H5:AS6 H18:AS18 H8:I8 K7:AS7 H9:J9 P9:AS9 I26:AS26 L8:AS8 T10:AS10 Y11:AS17 AA20:AS25 H43:AS44 J42:AS42 H27:AS28 J20:X20 H33:AS33 H29:H30 J29:AS30 H31:I31 K31:AS31 H11:U17 H37:AS41 H34:J36 L34:AS36 H47:AS48 H45:J46 L45:AS46 I21:X25 H32:K32 M32:AS32 H10:N10">
+    <cfRule type="expression" dxfId="172" priority="709" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="706" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="710" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="707" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="711" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="708" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="712" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2">
-    <cfRule type="notContainsBlanks" dxfId="164" priority="711">
+    <cfRule type="notContainsBlanks" dxfId="168" priority="715">
       <formula>LEN(TRIM(AJ2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:J19">
-    <cfRule type="expression" dxfId="163" priority="673" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="677" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="674" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="678" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="675" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="679" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="676" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="680" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="159" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="201" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="203" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="204" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="155" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="161" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="162" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="163" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="164" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="151" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="173" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="175" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="176" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
+    <cfRule type="expression" dxfId="151" priority="189" stopIfTrue="1">
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="190" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="191" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="192" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
     <cfRule type="expression" dxfId="147" priority="185" stopIfTrue="1">
-      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="146" priority="186" operator="equal">
       <formula>1</formula>
@@ -5574,93 +5644,93 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="143" priority="181" stopIfTrue="1">
-      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="182" operator="equal">
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="143" priority="177" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="178" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="179" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="184" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="139" priority="173" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="174" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="175" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="180" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="135" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="141" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="142" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="143" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="144" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="131" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="169" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="170" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="171" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="172" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="127" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="133" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="134" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="136" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="123" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="157" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="158" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="159" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="160" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:S10">
+    <cfRule type="expression" dxfId="123" priority="149" stopIfTrue="1">
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="150" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="151" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="152" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V11:X11">
     <cfRule type="expression" dxfId="119" priority="145" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="118" priority="146" operator="equal">
       <formula>1</formula>
@@ -5672,65 +5742,65 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="115" priority="141" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="142" operator="equal">
+  <conditionalFormatting sqref="H24:H25">
+    <cfRule type="expression" dxfId="115" priority="137" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="138" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="139" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="144" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H25">
-    <cfRule type="expression" dxfId="111" priority="133" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="134" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="135" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="140" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="107" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="89" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="91" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="92" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="103" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="65" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="67" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="68" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y20:Y23">
+    <cfRule type="expression" dxfId="103" priority="113" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="114" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="115" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="116" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z20:Z23">
     <cfRule type="expression" dxfId="99" priority="109" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="98" priority="110" operator="equal">
       <formula>1</formula>
@@ -5742,9 +5812,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z20:Z23">
+  <conditionalFormatting sqref="H42">
     <cfRule type="expression" dxfId="95" priority="105" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="94" priority="106" operator="equal">
       <formula>1</formula>
@@ -5756,7 +5826,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H20">
     <cfRule type="expression" dxfId="91" priority="101" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -5770,9 +5840,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
+  <conditionalFormatting sqref="Y24:Y25">
     <cfRule type="expression" dxfId="87" priority="97" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="86" priority="98" operator="equal">
       <formula>1</formula>
@@ -5784,9 +5854,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y24:Y25">
+  <conditionalFormatting sqref="Z24:Z25">
     <cfRule type="expression" dxfId="83" priority="93" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="82" priority="94" operator="equal">
       <formula>1</formula>
@@ -5798,23 +5868,23 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z24:Z25">
-    <cfRule type="expression" dxfId="79" priority="89" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="90" operator="equal">
+  <conditionalFormatting sqref="W12">
+    <cfRule type="expression" dxfId="79" priority="85" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="87" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="88" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W12">
+  <conditionalFormatting sqref="X12">
     <cfRule type="expression" dxfId="75" priority="81" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
       <formula>1</formula>
@@ -5826,7 +5896,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X12">
+  <conditionalFormatting sqref="X13:X17">
     <cfRule type="expression" dxfId="71" priority="77" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -5840,9 +5910,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X13:X17">
+  <conditionalFormatting sqref="W13:W17">
     <cfRule type="expression" dxfId="67" priority="73" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="66" priority="74" operator="equal">
       <formula>1</formula>
@@ -5854,9 +5924,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13:W17">
+  <conditionalFormatting sqref="V13:V17">
     <cfRule type="expression" dxfId="63" priority="69" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
       <formula>1</formula>
@@ -5868,63 +5938,63 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V13:V17">
-    <cfRule type="expression" dxfId="59" priority="65" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
+  <conditionalFormatting sqref="H22:H23">
+    <cfRule type="expression" dxfId="59" priority="61" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="68" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H23">
-    <cfRule type="expression" dxfId="55" priority="57" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="51" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="49" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="47" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="53" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="56" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="47" priority="45" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
     <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -5938,9 +6008,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
+  <conditionalFormatting sqref="N9">
     <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>1</formula>
@@ -5952,9 +6022,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="O9">
     <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
-      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>1</formula>
@@ -5966,7 +6036,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
+  <conditionalFormatting sqref="O10">
     <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -5980,9 +6050,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
+  <conditionalFormatting sqref="J31">
     <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>1</formula>
@@ -5994,9 +6064,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
+  <conditionalFormatting sqref="K35">
     <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>1</formula>
@@ -6008,7 +6078,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
+  <conditionalFormatting sqref="K36">
     <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -6022,7 +6092,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
+  <conditionalFormatting sqref="K34">
     <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -6036,7 +6106,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
+  <conditionalFormatting sqref="K46">
     <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -6050,7 +6120,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
+  <conditionalFormatting sqref="K45">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -6064,9 +6134,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
+  <conditionalFormatting sqref="L32">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>aya</t>
     <phoneticPr fontId="4"/>
@@ -368,7 +368,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3.3h</t>
+    <t>3.8h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.0h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.0h</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2887,8 +2895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4207,11 +4215,15 @@
       <c r="D23" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="34"/>
+      <c r="E23" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="F23" s="35">
         <v>44231</v>
       </c>
-      <c r="G23" s="36"/>
+      <c r="G23" s="36">
+        <v>44233</v>
+      </c>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
@@ -4258,11 +4270,15 @@
       <c r="D24" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="34"/>
+      <c r="E24" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="F24" s="35">
         <v>44231</v>
       </c>
-      <c r="G24" s="36"/>
+      <c r="G24" s="36">
+        <v>44233</v>
+      </c>
       <c r="H24" s="20"/>
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
@@ -4674,7 +4690,9 @@
       <c r="F32" s="17">
         <v>44232</v>
       </c>
-      <c r="G32" s="18"/>
+      <c r="G32" s="18">
+        <v>44233</v>
+      </c>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>aya</t>
     <phoneticPr fontId="4"/>
@@ -254,13 +254,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.コードを整える</t>
-    <rPh sb="6" eb="7">
-      <t>トトノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.作戦変更画面の自作ラジオボタンの実装</t>
     <rPh sb="2" eb="4">
       <t>サクセン</t>
@@ -377,6 +370,26 @@
   </si>
   <si>
     <t>4.0h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.sqlite修正</t>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.コードを整える,不具合の修正</t>
+    <rPh sb="6" eb="7">
+      <t>トトノ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -875,7 +888,247 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="175">
+  <dxfs count="199">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -2893,10 +3146,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS48"/>
+  <dimension ref="A1:AS52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3274,7 +3528,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="10">
         <v>44228</v>
@@ -3292,7 +3546,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
+      <c r="R5" s="20"/>
       <c r="S5" s="12"/>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
@@ -3384,7 +3638,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="17">
         <v>44229</v>
@@ -3439,7 +3693,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="17">
         <v>44231</v>
@@ -3567,7 +3821,7 @@
       <c r="O10" s="20"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
+      <c r="R10" s="20"/>
       <c r="S10" s="19"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
@@ -3656,10 +3910,10 @@
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
       <c r="D12" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="17">
         <v>44231</v>
@@ -3711,10 +3965,10 @@
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="17">
         <v>44231</v>
@@ -3766,10 +4020,10 @@
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
       <c r="D14" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="17">
         <v>44231</v>
@@ -3820,7 +4074,9 @@
       <c r="A15" s="14"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
-      <c r="D15" s="38"/>
+      <c r="D15" s="38" t="s">
+        <v>55</v>
+      </c>
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
       <c r="G15" s="18"/>
@@ -3959,11 +4215,9 @@
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
-      <c r="B18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
       <c r="G18" s="18"/>
@@ -3981,9 +4235,9 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
@@ -4008,11 +4262,11 @@
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="21"/>
+      <c r="B19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
       <c r="G19" s="18"/>
@@ -4057,21 +4311,15 @@
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="17">
-        <v>44228</v>
-      </c>
-      <c r="G20" s="18">
-        <v>44228</v>
-      </c>
-      <c r="H20" s="19"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -4088,8 +4336,8 @@
       <c r="V20" s="20"/>
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
       <c r="AC20" s="20"/>
@@ -4112,63 +4360,73 @@
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="33" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
+      <c r="E21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="17">
+        <v>44228</v>
+      </c>
+      <c r="G21" s="18">
+        <v>44228</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
       <c r="N21" s="20"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
       <c r="Y21" s="37"/>
       <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="37"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="37"/>
-      <c r="AM21" s="37"/>
-      <c r="AN21" s="37"/>
-      <c r="AO21" s="37"/>
-      <c r="AP21" s="37"/>
-      <c r="AQ21" s="37"/>
-      <c r="AR21" s="37"/>
-      <c r="AS21" s="37"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="20"/>
+      <c r="AO21" s="20"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="20"/>
+      <c r="AR21" s="20"/>
+      <c r="AS21" s="20"/>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="33" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
+      <c r="F22" s="35">
+        <v>44235</v>
+      </c>
+      <c r="G22" s="36">
+        <v>44242</v>
+      </c>
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
@@ -4176,14 +4434,14 @@
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
       <c r="N22" s="20"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
       <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
+      <c r="S22" s="19"/>
       <c r="T22" s="37"/>
       <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
+      <c r="V22" s="19"/>
       <c r="W22" s="37"/>
       <c r="X22" s="37"/>
       <c r="Y22" s="37"/>
@@ -4212,22 +4470,16 @@
       <c r="A23" s="14"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
-      <c r="D23" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="35">
-        <v>44231</v>
-      </c>
-      <c r="G23" s="36">
-        <v>44233</v>
-      </c>
+      <c r="D23" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
-      <c r="K23" s="40"/>
+      <c r="K23" s="37"/>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
       <c r="N23" s="20"/>
@@ -4267,11 +4519,11 @@
       <c r="A24" s="14"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
-      <c r="D24" s="23" t="s">
-        <v>52</v>
+      <c r="D24" s="38" t="s">
+        <v>45</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F24" s="35">
         <v>44231</v>
@@ -4279,7 +4531,7 @@
       <c r="G24" s="36">
         <v>44233</v>
       </c>
-      <c r="H24" s="20"/>
+      <c r="H24" s="37"/>
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
       <c r="K24" s="40"/>
@@ -4322,14 +4574,22 @@
       <c r="A25" s="14"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
+      <c r="D25" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="35">
+        <v>44231</v>
+      </c>
+      <c r="G25" s="36">
+        <v>44233</v>
+      </c>
       <c r="H25" s="20"/>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
+      <c r="K25" s="40"/>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
       <c r="N25" s="20"/>
@@ -4413,178 +4673,162 @@
       <c r="AS26" s="37"/>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A27" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
       <c r="N27" s="20"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="13"/>
-      <c r="AM27" s="13"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="13"/>
-      <c r="AP27" s="13"/>
-      <c r="AQ27" s="13"/>
-      <c r="AR27" s="13"/>
-      <c r="AS27" s="13"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="37"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="37"/>
+      <c r="AM27" s="37"/>
+      <c r="AN27" s="37"/>
+      <c r="AO27" s="37"/>
+      <c r="AP27" s="37"/>
+      <c r="AQ27" s="37"/>
+      <c r="AR27" s="37"/>
+      <c r="AS27" s="37"/>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A28" s="30"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
       <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="20"/>
-      <c r="AI28" s="20"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="20"/>
-      <c r="AL28" s="20"/>
-      <c r="AM28" s="20"/>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="20"/>
-      <c r="AP28" s="20"/>
-      <c r="AQ28" s="20"/>
-      <c r="AR28" s="20"/>
-      <c r="AS28" s="20"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
+      <c r="AI28" s="37"/>
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="37"/>
+      <c r="AL28" s="37"/>
+      <c r="AM28" s="37"/>
+      <c r="AN28" s="37"/>
+      <c r="AO28" s="37"/>
+      <c r="AP28" s="37"/>
+      <c r="AQ28" s="37"/>
+      <c r="AR28" s="37"/>
+      <c r="AS28" s="37"/>
     </row>
-    <row r="29" spans="1:45" ht="30" x14ac:dyDescent="0.35">
-      <c r="A29" s="30"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="31">
-        <v>1.2</v>
-      </c>
-      <c r="F29" s="17">
-        <v>44229</v>
-      </c>
-      <c r="G29" s="18">
-        <v>44229</v>
-      </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A29" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
       <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
       <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="20"/>
-      <c r="AG29" s="20"/>
-      <c r="AH29" s="20"/>
-      <c r="AI29" s="20"/>
-      <c r="AJ29" s="20"/>
-      <c r="AK29" s="20"/>
-      <c r="AL29" s="20"/>
-      <c r="AM29" s="20"/>
-      <c r="AN29" s="20"/>
-      <c r="AO29" s="20"/>
-      <c r="AP29" s="20"/>
-      <c r="AQ29" s="20"/>
-      <c r="AR29" s="20"/>
-      <c r="AS29" s="20"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="13"/>
+      <c r="AQ29" s="13"/>
+      <c r="AR29" s="13"/>
+      <c r="AS29" s="13"/>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A30" s="30"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="31">
-        <v>1.3</v>
-      </c>
-      <c r="F30" s="17">
-        <v>44229</v>
-      </c>
-      <c r="G30" s="18">
-        <v>44229</v>
-      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
       <c r="H30" s="20"/>
-      <c r="I30" s="39"/>
+      <c r="I30" s="20"/>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
@@ -4624,23 +4868,23 @@
     </row>
     <row r="31" spans="1:45" ht="30" x14ac:dyDescent="0.35">
       <c r="A31" s="30"/>
-      <c r="B31" s="15"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="24" t="s">
-        <v>32</v>
+      <c r="D31" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="E31" s="31">
-        <v>2.2999999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="F31" s="17">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="G31" s="18">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="20"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
@@ -4682,22 +4926,22 @@
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="E32" s="31">
+        <v>1.3</v>
       </c>
       <c r="F32" s="17">
-        <v>44232</v>
+        <v>44229</v>
       </c>
       <c r="G32" s="18">
-        <v>44233</v>
+        <v>44229</v>
       </c>
       <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+      <c r="I32" s="39"/>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
-      <c r="L32" s="39"/>
+      <c r="L32" s="20"/>
       <c r="M32" s="20"/>
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
@@ -4732,19 +4976,25 @@
       <c r="AR32" s="20"/>
       <c r="AS32" s="20"/>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:45" ht="30" x14ac:dyDescent="0.35">
       <c r="A33" s="30"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="E33" s="31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F33" s="17">
+        <v>44230</v>
+      </c>
+      <c r="G33" s="18">
+        <v>44230</v>
+      </c>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="J33" s="39"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
@@ -4783,25 +5033,25 @@
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A34" s="30"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="31">
-        <v>0.5</v>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="F34" s="17">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="G34" s="18">
-        <v>44231</v>
+        <v>44233</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="39"/>
       <c r="M34" s="20"/>
       <c r="N34" s="20"/>
       <c r="O34" s="20"/>
@@ -4838,24 +5088,18 @@
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A35" s="30"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="F35" s="17">
-        <v>44231</v>
-      </c>
-      <c r="G35" s="18">
-        <v>44231</v>
-      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="31"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
-      <c r="K35" s="39"/>
+      <c r="K35" s="20"/>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
@@ -4896,10 +5140,10 @@
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
       <c r="D36" s="38" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E36" s="31">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F36" s="17">
         <v>44231</v>
@@ -4950,14 +5194,22 @@
       <c r="A37" s="30"/>
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
+      <c r="D37" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="F37" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G37" s="18">
+        <v>44231</v>
+      </c>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
+      <c r="K37" s="39"/>
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
       <c r="N37" s="20"/>
@@ -4997,14 +5249,22 @@
       <c r="A38" s="30"/>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
+      <c r="D38" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="F38" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G38" s="18">
+        <v>44231</v>
+      </c>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="39"/>
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
@@ -5044,7 +5304,9 @@
       <c r="A39" s="30"/>
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
-      <c r="D39" s="38"/>
+      <c r="D39" s="38" t="s">
+        <v>55</v>
+      </c>
       <c r="E39" s="31"/>
       <c r="F39" s="17"/>
       <c r="G39" s="18"/>
@@ -5089,11 +5351,9 @@
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A40" s="30"/>
-      <c r="B40" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="31"/>
       <c r="F40" s="17"/>
       <c r="G40" s="18"/>
@@ -5138,11 +5398,9 @@
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A41" s="30"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="21"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="31"/>
       <c r="F41" s="17"/>
       <c r="G41" s="18"/>
@@ -5187,22 +5445,14 @@
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A42" s="30"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="31">
-        <v>1.45</v>
-      </c>
-      <c r="F42" s="17">
-        <v>44228</v>
-      </c>
-      <c r="G42" s="18">
-        <v>44229</v>
-      </c>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
@@ -5242,11 +5492,11 @@
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A43" s="30"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="33" t="s">
-        <v>36</v>
-      </c>
+      <c r="B43" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
       <c r="E43" s="31"/>
       <c r="F43" s="17"/>
       <c r="G43" s="18"/>
@@ -5291,11 +5541,11 @@
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A44" s="30"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="21"/>
       <c r="E44" s="31"/>
       <c r="F44" s="17"/>
       <c r="G44" s="18"/>
@@ -5342,22 +5592,22 @@
       <c r="A45" s="30"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="38" t="s">
-        <v>46</v>
+      <c r="D45" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="E45" s="31">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="F45" s="17">
-        <v>44231</v>
+        <v>44228</v>
       </c>
       <c r="G45" s="18">
-        <v>44231</v>
-      </c>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
+        <v>44229</v>
+      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
       <c r="J45" s="20"/>
-      <c r="K45" s="39"/>
+      <c r="K45" s="20"/>
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
@@ -5397,26 +5647,24 @@
       <c r="A46" s="30"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
-      <c r="D46" s="23" t="s">
-        <v>52</v>
+      <c r="D46" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="E46" s="31">
-        <v>0.5</v>
+        <v>1.55</v>
       </c>
       <c r="F46" s="17">
-        <v>44231</v>
-      </c>
-      <c r="G46" s="18">
-        <v>44231</v>
-      </c>
+        <v>44235</v>
+      </c>
+      <c r="G46" s="18"/>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
-      <c r="K46" s="39"/>
+      <c r="K46" s="20"/>
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
       <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
+      <c r="O46" s="39"/>
       <c r="P46" s="20"/>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
@@ -5452,7 +5700,9 @@
       <c r="A47" s="30"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
-      <c r="D47" s="23"/>
+      <c r="D47" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="E47" s="31"/>
       <c r="F47" s="17"/>
       <c r="G47" s="18"/>
@@ -5499,14 +5749,22 @@
       <c r="A48" s="30"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="18"/>
+      <c r="D48" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="31">
+        <v>1.4</v>
+      </c>
+      <c r="F48" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G48" s="18">
+        <v>44231</v>
+      </c>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
+      <c r="K48" s="39"/>
       <c r="L48" s="20"/>
       <c r="M48" s="20"/>
       <c r="N48" s="20"/>
@@ -5542,6 +5800,202 @@
       <c r="AR48" s="20"/>
       <c r="AS48" s="20"/>
     </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A49" s="30"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G49" s="18">
+        <v>44231</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="20"/>
+      <c r="AD49" s="20"/>
+      <c r="AE49" s="20"/>
+      <c r="AF49" s="20"/>
+      <c r="AG49" s="20"/>
+      <c r="AH49" s="20"/>
+      <c r="AI49" s="20"/>
+      <c r="AJ49" s="20"/>
+      <c r="AK49" s="20"/>
+      <c r="AL49" s="20"/>
+      <c r="AM49" s="20"/>
+      <c r="AN49" s="20"/>
+      <c r="AO49" s="20"/>
+      <c r="AP49" s="20"/>
+      <c r="AQ49" s="20"/>
+      <c r="AR49" s="20"/>
+      <c r="AS49" s="20"/>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A50" s="30"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="20"/>
+      <c r="AE50" s="20"/>
+      <c r="AF50" s="20"/>
+      <c r="AG50" s="20"/>
+      <c r="AH50" s="20"/>
+      <c r="AI50" s="20"/>
+      <c r="AJ50" s="20"/>
+      <c r="AK50" s="20"/>
+      <c r="AL50" s="20"/>
+      <c r="AM50" s="20"/>
+      <c r="AN50" s="20"/>
+      <c r="AO50" s="20"/>
+      <c r="AP50" s="20"/>
+      <c r="AQ50" s="20"/>
+      <c r="AR50" s="20"/>
+      <c r="AS50" s="20"/>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A51" s="30"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
+      <c r="AB51" s="20"/>
+      <c r="AC51" s="20"/>
+      <c r="AD51" s="20"/>
+      <c r="AE51" s="20"/>
+      <c r="AF51" s="20"/>
+      <c r="AG51" s="20"/>
+      <c r="AH51" s="20"/>
+      <c r="AI51" s="20"/>
+      <c r="AJ51" s="20"/>
+      <c r="AK51" s="20"/>
+      <c r="AL51" s="20"/>
+      <c r="AM51" s="20"/>
+      <c r="AN51" s="20"/>
+      <c r="AO51" s="20"/>
+      <c r="AP51" s="20"/>
+      <c r="AQ51" s="20"/>
+      <c r="AR51" s="20"/>
+      <c r="AS51" s="20"/>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A52" s="30"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="20"/>
+      <c r="AC52" s="20"/>
+      <c r="AD52" s="20"/>
+      <c r="AE52" s="20"/>
+      <c r="AF52" s="20"/>
+      <c r="AG52" s="20"/>
+      <c r="AH52" s="20"/>
+      <c r="AI52" s="20"/>
+      <c r="AJ52" s="20"/>
+      <c r="AK52" s="20"/>
+      <c r="AL52" s="20"/>
+      <c r="AM52" s="20"/>
+      <c r="AN52" s="20"/>
+      <c r="AO52" s="20"/>
+      <c r="AP52" s="20"/>
+      <c r="AQ52" s="20"/>
+      <c r="AR52" s="20"/>
+      <c r="AS52" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
@@ -5552,455 +6006,539 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4:AS4">
-    <cfRule type="cellIs" dxfId="174" priority="713" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="737" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="714" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="738" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19:AS19 H5:AS6 H18:AS18 H8:I8 K7:AS7 H9:J9 P9:AS9 I26:AS26 L8:AS8 T10:AS10 Y11:AS17 AA20:AS25 H43:AS44 J42:AS42 H27:AS28 J20:X20 H33:AS33 H29:H30 J29:AS30 H31:I31 K31:AS31 H11:U17 H37:AS41 H34:J36 L34:AS36 H47:AS48 H45:J46 L45:AS46 I21:X25 H32:K32 M32:AS32 H10:N10">
-    <cfRule type="expression" dxfId="172" priority="709" stopIfTrue="1">
+  <conditionalFormatting sqref="L20:AS20 H19:AS19 H8:I8 K7:AS7 H9:J9 P9:AS9 I28:AS28 L8:AS8 T10:AS10 Y11:AS18 AA21:AS27 H47:AS47 J45:AS45 J21:X21 H35:AS35 H31:H32 J31:AS32 H33:I33 K33:AS33 H11:U18 H39:AS44 H36:J38 L36:AS38 H50:AS52 H48:J49 L48:AS49 H34:K34 M34:AS34 H10:N10 I23:X27 H5:AS6 H29:AS30 I22:O22 R22 T22:U22 W22:X22 H46:N46 P46:AS46">
+    <cfRule type="expression" dxfId="196" priority="733" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="710" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="734" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="711" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="735" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="712" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="736" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2">
-    <cfRule type="notContainsBlanks" dxfId="168" priority="715">
+    <cfRule type="notContainsBlanks" dxfId="192" priority="739">
       <formula>LEN(TRIM(AJ2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:J19">
-    <cfRule type="expression" dxfId="167" priority="677" stopIfTrue="1">
+  <conditionalFormatting sqref="H20:J20">
+    <cfRule type="expression" dxfId="191" priority="701" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="678" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="702" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="679" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="703" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="680" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="704" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="163" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="225" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="226" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="227" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="228" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="159" priority="161" stopIfTrue="1">
+  <conditionalFormatting sqref="K20">
+    <cfRule type="expression" dxfId="183" priority="185" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="187" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="188" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="155" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="197" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="198" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="199" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="200" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="151" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="213" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="214" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="215" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="216" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="147" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="209" stopIfTrue="1">
       <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="210" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="211" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="212" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="143" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="201" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="203" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="204" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="139" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="165" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="166" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="167" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="168" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="135" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="193" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="194" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="195" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="196" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="131" priority="133" stopIfTrue="1">
+  <conditionalFormatting sqref="H28">
+    <cfRule type="expression" dxfId="155" priority="157" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="158" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="159" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="160" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="127" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="181" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="182" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="183" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="184" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P10:S10">
-    <cfRule type="expression" dxfId="123" priority="149" stopIfTrue="1">
+  <conditionalFormatting sqref="P10:Q10 S10">
+    <cfRule type="expression" dxfId="147" priority="173" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="175" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="176" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="119" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="169" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="170" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="171" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="172" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H25">
-    <cfRule type="expression" dxfId="115" priority="137" stopIfTrue="1">
+  <conditionalFormatting sqref="H25:H27">
+    <cfRule type="expression" dxfId="139" priority="161" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="162" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="163" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="164" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="111" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="113" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="115" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="116" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="expression" dxfId="131" priority="89" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="90" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="91" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="92" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y21:Y24">
+    <cfRule type="expression" dxfId="127" priority="137" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="138" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="139" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="140" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z21:Z24">
+    <cfRule type="expression" dxfId="123" priority="133" stopIfTrue="1">
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="134" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="135" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="136" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="expression" dxfId="119" priority="129" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="130" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="131" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="132" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="107" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="125" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="126" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="127" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="128" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y20:Y23">
-    <cfRule type="expression" dxfId="103" priority="113" stopIfTrue="1">
+  <conditionalFormatting sqref="Y25:Y27">
+    <cfRule type="expression" dxfId="111" priority="121" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="122" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="123" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="124" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z20:Z23">
-    <cfRule type="expression" dxfId="99" priority="109" stopIfTrue="1">
+  <conditionalFormatting sqref="Z25:Z27">
+    <cfRule type="expression" dxfId="107" priority="117" stopIfTrue="1">
       <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="119" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="112" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="95" priority="105" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="106" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="107" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="108" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="91" priority="101" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="103" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="104" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y24:Y25">
-    <cfRule type="expression" dxfId="87" priority="97" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="98" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="99" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="100" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z24:Z25">
-    <cfRule type="expression" dxfId="83" priority="93" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="94" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="95" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="120" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="expression" dxfId="79" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="109" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="111" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="112" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
-    <cfRule type="expression" dxfId="75" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="105" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="107" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="108" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X13:X17">
-    <cfRule type="expression" dxfId="71" priority="77" stopIfTrue="1">
+  <conditionalFormatting sqref="X13:X18">
+    <cfRule type="expression" dxfId="95" priority="101" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="103" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="104" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13:W17">
-    <cfRule type="expression" dxfId="67" priority="73" stopIfTrue="1">
+  <conditionalFormatting sqref="W13:W18">
+    <cfRule type="expression" dxfId="91" priority="97" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="99" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="100" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V13:V17">
-    <cfRule type="expression" dxfId="63" priority="69" stopIfTrue="1">
+  <conditionalFormatting sqref="V13:V18">
+    <cfRule type="expression" dxfId="87" priority="93" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="94" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="95" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="96" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H23">
-    <cfRule type="expression" dxfId="59" priority="61" stopIfTrue="1">
+  <conditionalFormatting sqref="H23:H24">
+    <cfRule type="expression" dxfId="83" priority="85" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="87" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="88" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="55" priority="49" stopIfTrue="1">
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="79" priority="73" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="75" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="51" priority="53" stopIfTrue="1">
+  <conditionalFormatting sqref="I45">
+    <cfRule type="expression" dxfId="75" priority="77" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="79" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="80" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="71" priority="69" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="expression" dxfId="63" priority="61" stopIfTrue="1">
+      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="expression" dxfId="59" priority="57" stopIfTrue="1">
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37">
     <cfRule type="expression" dxfId="47" priority="45" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>1</formula>
@@ -6012,9 +6550,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
+  <conditionalFormatting sqref="K38">
     <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>1</formula>
@@ -6026,9 +6564,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="K36">
     <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
-      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>1</formula>
@@ -6040,9 +6578,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
+  <conditionalFormatting sqref="K49">
     <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>1</formula>
@@ -6054,9 +6592,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
+  <conditionalFormatting sqref="K48">
     <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>1</formula>
@@ -6068,9 +6606,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
+  <conditionalFormatting sqref="L34">
     <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>1</formula>
@@ -6082,9 +6620,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
+  <conditionalFormatting sqref="R10">
     <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>1</formula>
@@ -6096,9 +6634,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
+  <conditionalFormatting sqref="P22">
     <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>1</formula>
@@ -6110,9 +6648,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
+  <conditionalFormatting sqref="Q22">
     <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
@@ -6124,9 +6662,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
+  <conditionalFormatting sqref="S22">
     <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
@@ -6138,9 +6676,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
+  <conditionalFormatting sqref="V22">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
@@ -6152,9 +6690,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32">
+  <conditionalFormatting sqref="O46">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>aya</t>
     <phoneticPr fontId="4"/>
@@ -390,6 +390,10 @@
     <rPh sb="14" eb="16">
       <t>シュウセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.0h</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -888,7 +892,87 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="199">
+  <dxfs count="207">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -3150,7 +3234,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4420,7 +4504,9 @@
       <c r="D22" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="34"/>
+      <c r="E22" s="34" t="s">
+        <v>57</v>
+      </c>
       <c r="F22" s="35">
         <v>44235</v>
       </c>
@@ -5052,7 +5138,7 @@
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
       <c r="L34" s="39"/>
-      <c r="M34" s="20"/>
+      <c r="M34" s="39"/>
       <c r="N34" s="20"/>
       <c r="O34" s="20"/>
       <c r="P34" s="20"/>
@@ -5651,7 +5737,7 @@
         <v>56</v>
       </c>
       <c r="E46" s="31">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="F46" s="17">
         <v>44235</v>
@@ -5665,7 +5751,7 @@
       <c r="M46" s="20"/>
       <c r="N46" s="20"/>
       <c r="O46" s="39"/>
-      <c r="P46" s="20"/>
+      <c r="P46" s="39"/>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
       <c r="S46" s="20"/>
@@ -6006,119 +6092,147 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4:AS4">
-    <cfRule type="cellIs" dxfId="198" priority="737" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="745" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="738" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="746" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20:AS20 H19:AS19 H8:I8 K7:AS7 H9:J9 P9:AS9 I28:AS28 L8:AS8 T10:AS10 Y11:AS18 AA21:AS27 H47:AS47 J45:AS45 J21:X21 H35:AS35 H31:H32 J31:AS32 H33:I33 K33:AS33 H11:U18 H39:AS44 H36:J38 L36:AS38 H50:AS52 H48:J49 L48:AS49 H34:K34 M34:AS34 H10:N10 I23:X27 H5:AS6 H29:AS30 I22:O22 R22 T22:U22 W22:X22 H46:N46 P46:AS46">
-    <cfRule type="expression" dxfId="196" priority="733" stopIfTrue="1">
+  <conditionalFormatting sqref="L20:AS20 H19:AS19 H8:I8 K7:AS7 H9:J9 P9:AS9 I28:AS28 L8:AS8 T10:AS10 Y11:AS18 AA21:AS27 H47:AS47 J45:AS45 J21:X21 H35:AS35 H31:H32 J31:AS32 H33:I33 K33:AS33 H11:U18 H39:AS44 H36:J38 L36:AS38 H50:AS52 H48:J49 L48:AS49 H34:K34 N34:AS34 H10:N10 I23:X27 H5:AS6 H29:AS30 I22:O22 R22 T22:U22 W22:X22 H46:N46 Q46:AS46">
+    <cfRule type="expression" dxfId="204" priority="741" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="734" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="742" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="735" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="743" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="736" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="744" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2">
-    <cfRule type="notContainsBlanks" dxfId="192" priority="739">
+    <cfRule type="notContainsBlanks" dxfId="200" priority="747">
       <formula>LEN(TRIM(AJ2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:J20">
-    <cfRule type="expression" dxfId="191" priority="701" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="709" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="702" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="710" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="703" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="711" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="704" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="712" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="187" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="233" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="234" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="235" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="236" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="183" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="193" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="194" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="195" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="196" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="179" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="205" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="206" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="207" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="208" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="175" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="221" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="222" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="223" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="224" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="171" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="217" stopIfTrue="1">
       <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="218" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="219" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="220" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="175" priority="209" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="210" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="211" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="212" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="expression" dxfId="171" priority="173" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="174" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="175" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="176" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
     <cfRule type="expression" dxfId="167" priority="201" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="166" priority="202" operator="equal">
       <formula>1</formula>
@@ -6130,9 +6244,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="H28">
     <cfRule type="expression" dxfId="163" priority="165" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="162" priority="166" operator="equal">
       <formula>1</formula>
@@ -6144,121 +6258,121 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="159" priority="193" stopIfTrue="1">
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="159" priority="189" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="190" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="191" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="196" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="155" priority="157" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="158" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="159" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="160" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="151" priority="181" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="182" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="183" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="192" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:Q10 S10">
-    <cfRule type="expression" dxfId="147" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="181" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="182" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="183" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="184" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="143" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="177" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="178" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="179" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="180" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H27">
-    <cfRule type="expression" dxfId="139" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="169" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="170" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="171" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="172" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="135" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="121" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="122" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="123" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="124" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="131" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="97" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="99" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="100" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y21:Y24">
+    <cfRule type="expression" dxfId="135" priority="145" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="146" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="147" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="148" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z21:Z24">
+    <cfRule type="expression" dxfId="131" priority="141" stopIfTrue="1">
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="142" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="143" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="144" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
     <cfRule type="expression" dxfId="127" priority="137" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="126" priority="138" operator="equal">
       <formula>1</formula>
@@ -6270,9 +6384,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z21:Z24">
+  <conditionalFormatting sqref="H21">
     <cfRule type="expression" dxfId="123" priority="133" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="122" priority="134" operator="equal">
       <formula>1</formula>
@@ -6284,9 +6398,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="Y25:Y27">
     <cfRule type="expression" dxfId="119" priority="129" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="118" priority="130" operator="equal">
       <formula>1</formula>
@@ -6298,9 +6412,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
+  <conditionalFormatting sqref="Z25:Z27">
     <cfRule type="expression" dxfId="115" priority="125" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="114" priority="126" operator="equal">
       <formula>1</formula>
@@ -6312,37 +6426,37 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y25:Y27">
-    <cfRule type="expression" dxfId="111" priority="121" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="122" operator="equal">
+  <conditionalFormatting sqref="W12">
+    <cfRule type="expression" dxfId="111" priority="117" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="119" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="120" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z25:Z27">
-    <cfRule type="expression" dxfId="107" priority="117" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="118" operator="equal">
+  <conditionalFormatting sqref="X12">
+    <cfRule type="expression" dxfId="107" priority="113" stopIfTrue="1">
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="115" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="116" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W12">
+  <conditionalFormatting sqref="X13:X18">
     <cfRule type="expression" dxfId="103" priority="109" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="102" priority="110" operator="equal">
       <formula>1</formula>
@@ -6354,9 +6468,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X12">
+  <conditionalFormatting sqref="W13:W18">
     <cfRule type="expression" dxfId="99" priority="105" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="98" priority="106" operator="equal">
       <formula>1</formula>
@@ -6368,9 +6482,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X13:X18">
+  <conditionalFormatting sqref="V13:V18">
     <cfRule type="expression" dxfId="95" priority="101" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="94" priority="102" operator="equal">
       <formula>1</formula>
@@ -6382,37 +6496,37 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13:W18">
-    <cfRule type="expression" dxfId="91" priority="97" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="98" operator="equal">
+  <conditionalFormatting sqref="H23:H24">
+    <cfRule type="expression" dxfId="91" priority="93" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="94" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="95" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="96" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V13:V18">
-    <cfRule type="expression" dxfId="87" priority="93" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="94" operator="equal">
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="87" priority="81" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H24">
+  <conditionalFormatting sqref="I45">
     <cfRule type="expression" dxfId="83" priority="85" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="82" priority="86" operator="equal">
       <formula>1</formula>
@@ -6424,37 +6538,37 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="79" priority="73" stopIfTrue="1">
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="79" priority="77" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="75" priority="77" stopIfTrue="1">
+  <conditionalFormatting sqref="I32">
+    <cfRule type="expression" dxfId="75" priority="73" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="76" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
+  <conditionalFormatting sqref="N9">
     <cfRule type="expression" dxfId="71" priority="69" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
       <formula>1</formula>
@@ -6466,9 +6580,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
+  <conditionalFormatting sqref="O9">
     <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
       <formula>1</formula>
@@ -6480,9 +6594,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="O10">
     <cfRule type="expression" dxfId="63" priority="61" stopIfTrue="1">
-      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
       <formula>1</formula>
@@ -6494,9 +6608,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
+  <conditionalFormatting sqref="J33">
     <cfRule type="expression" dxfId="59" priority="57" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>1</formula>
@@ -6508,9 +6622,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
+  <conditionalFormatting sqref="K37">
     <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
       <formula>1</formula>
@@ -6522,9 +6636,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
+  <conditionalFormatting sqref="K38">
     <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
       <formula>1</formula>
@@ -6536,7 +6650,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37">
+  <conditionalFormatting sqref="K36">
     <cfRule type="expression" dxfId="47" priority="45" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -6550,7 +6664,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
+  <conditionalFormatting sqref="K49">
     <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -6564,7 +6678,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
+  <conditionalFormatting sqref="K48">
     <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -6578,9 +6692,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
+  <conditionalFormatting sqref="L34">
     <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>1</formula>
@@ -6592,9 +6706,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
+  <conditionalFormatting sqref="R10">
     <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>1</formula>
@@ -6606,9 +6720,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34">
+  <conditionalFormatting sqref="P22">
     <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
-      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>1</formula>
@@ -6620,9 +6734,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
+  <conditionalFormatting sqref="Q22">
     <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
-      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>1</formula>
@@ -6634,9 +6748,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P22">
+  <conditionalFormatting sqref="S22">
     <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>1</formula>
@@ -6648,9 +6762,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
+  <conditionalFormatting sqref="V22">
     <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
-      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
@@ -6662,9 +6776,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S22">
+  <conditionalFormatting sqref="O46">
     <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
-      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
@@ -6676,9 +6790,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V22">
+  <conditionalFormatting sqref="P46">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
@@ -6690,9 +6804,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O46">
+  <conditionalFormatting sqref="M34">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -892,7 +892,87 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="207">
+  <dxfs count="215">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -3233,8 +3313,8 @@
   <dimension ref="A1:AS52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5737,7 +5817,7 @@
         <v>56</v>
       </c>
       <c r="E46" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" s="17">
         <v>44235</v>
@@ -5752,9 +5832,9 @@
       <c r="N46" s="20"/>
       <c r="O46" s="39"/>
       <c r="P46" s="39"/>
-      <c r="Q46" s="20"/>
+      <c r="Q46" s="39"/>
       <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
+      <c r="S46" s="39"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
       <c r="V46" s="20"/>
@@ -6092,119 +6172,147 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4:AS4">
-    <cfRule type="cellIs" dxfId="206" priority="745" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="753" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="746" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="754" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20:AS20 H19:AS19 H8:I8 K7:AS7 H9:J9 P9:AS9 I28:AS28 L8:AS8 T10:AS10 Y11:AS18 AA21:AS27 H47:AS47 J45:AS45 J21:X21 H35:AS35 H31:H32 J31:AS32 H33:I33 K33:AS33 H11:U18 H39:AS44 H36:J38 L36:AS38 H50:AS52 H48:J49 L48:AS49 H34:K34 N34:AS34 H10:N10 I23:X27 H5:AS6 H29:AS30 I22:O22 R22 T22:U22 W22:X22 H46:N46 Q46:AS46">
-    <cfRule type="expression" dxfId="204" priority="741" stopIfTrue="1">
+  <conditionalFormatting sqref="L20:AS20 H19:AS19 H8:I8 K7:AS7 H9:J9 P9:AS9 I28:AS28 L8:AS8 T10:AS10 Y11:AS18 AA21:AS27 H47:AS47 J45:AS45 J21:X21 H35:AS35 H31:H32 J31:AS32 H33:I33 K33:AS33 H11:U18 H39:AS44 H36:J38 L36:AS38 H50:AS52 H48:J49 L48:AS49 H34:K34 N34:AS34 H10:N10 I23:X27 H5:AS6 H29:AS30 I22:O22 R22 T22:U22 W22:X22 H46:N46 R46 T46:AS46">
+    <cfRule type="expression" dxfId="212" priority="749" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="742" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="750" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="743" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="751" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="744" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="752" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2">
-    <cfRule type="notContainsBlanks" dxfId="200" priority="747">
+    <cfRule type="notContainsBlanks" dxfId="208" priority="755">
       <formula>LEN(TRIM(AJ2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:J20">
-    <cfRule type="expression" dxfId="199" priority="709" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="717" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="710" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="718" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="711" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="719" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="712" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="720" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="195" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="241" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="242" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="243" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="244" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="191" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="201" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="203" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="204" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="187" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="213" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="214" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="215" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="216" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="183" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="229" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="230" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="231" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="232" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="179" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="225" stopIfTrue="1">
       <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="226" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="227" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="228" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="183" priority="217" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="218" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="219" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="220" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="expression" dxfId="179" priority="181" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="182" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="183" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="184" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
     <cfRule type="expression" dxfId="175" priority="209" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="174" priority="210" operator="equal">
       <formula>1</formula>
@@ -6216,9 +6324,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="H28">
     <cfRule type="expression" dxfId="171" priority="173" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="170" priority="174" operator="equal">
       <formula>1</formula>
@@ -6230,121 +6338,121 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="167" priority="201" stopIfTrue="1">
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="167" priority="197" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="198" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="199" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="204" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="163" priority="165" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="166" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="167" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="168" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="159" priority="189" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="190" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="191" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="200" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:Q10 S10">
-    <cfRule type="expression" dxfId="155" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="189" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="190" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="191" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="192" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="151" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="185" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="187" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="188" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H27">
-    <cfRule type="expression" dxfId="147" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="177" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="178" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="179" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="180" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="143" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="129" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="130" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="131" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="132" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="139" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="105" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="107" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="108" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y21:Y24">
+    <cfRule type="expression" dxfId="143" priority="153" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="154" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="155" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="156" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z21:Z24">
+    <cfRule type="expression" dxfId="139" priority="149" stopIfTrue="1">
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="150" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="151" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="152" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
     <cfRule type="expression" dxfId="135" priority="145" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="134" priority="146" operator="equal">
       <formula>1</formula>
@@ -6356,9 +6464,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z21:Z24">
+  <conditionalFormatting sqref="H21">
     <cfRule type="expression" dxfId="131" priority="141" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="130" priority="142" operator="equal">
       <formula>1</formula>
@@ -6370,9 +6478,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="Y25:Y27">
     <cfRule type="expression" dxfId="127" priority="137" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="126" priority="138" operator="equal">
       <formula>1</formula>
@@ -6384,9 +6492,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
+  <conditionalFormatting sqref="Z25:Z27">
     <cfRule type="expression" dxfId="123" priority="133" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="122" priority="134" operator="equal">
       <formula>1</formula>
@@ -6398,37 +6506,37 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y25:Y27">
-    <cfRule type="expression" dxfId="119" priority="129" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="130" operator="equal">
+  <conditionalFormatting sqref="W12">
+    <cfRule type="expression" dxfId="119" priority="125" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="126" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="127" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="128" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z25:Z27">
-    <cfRule type="expression" dxfId="115" priority="125" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="126" operator="equal">
+  <conditionalFormatting sqref="X12">
+    <cfRule type="expression" dxfId="115" priority="121" stopIfTrue="1">
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="122" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="123" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="124" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W12">
+  <conditionalFormatting sqref="X13:X18">
     <cfRule type="expression" dxfId="111" priority="117" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="110" priority="118" operator="equal">
       <formula>1</formula>
@@ -6440,9 +6548,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X12">
+  <conditionalFormatting sqref="W13:W18">
     <cfRule type="expression" dxfId="107" priority="113" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="106" priority="114" operator="equal">
       <formula>1</formula>
@@ -6454,9 +6562,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X13:X18">
+  <conditionalFormatting sqref="V13:V18">
     <cfRule type="expression" dxfId="103" priority="109" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="102" priority="110" operator="equal">
       <formula>1</formula>
@@ -6468,37 +6576,37 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13:W18">
-    <cfRule type="expression" dxfId="99" priority="105" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="106" operator="equal">
+  <conditionalFormatting sqref="H23:H24">
+    <cfRule type="expression" dxfId="99" priority="101" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="103" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="104" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V13:V18">
-    <cfRule type="expression" dxfId="95" priority="101" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="102" operator="equal">
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="95" priority="89" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="91" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="92" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H24">
+  <conditionalFormatting sqref="I45">
     <cfRule type="expression" dxfId="91" priority="93" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="90" priority="94" operator="equal">
       <formula>1</formula>
@@ -6510,37 +6618,37 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="87" priority="81" stopIfTrue="1">
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="87" priority="85" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="88" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="83" priority="85" stopIfTrue="1">
+  <conditionalFormatting sqref="I32">
+    <cfRule type="expression" dxfId="83" priority="81" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="84" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
+  <conditionalFormatting sqref="N9">
     <cfRule type="expression" dxfId="79" priority="77" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
       <formula>1</formula>
@@ -6552,9 +6660,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
+  <conditionalFormatting sqref="O9">
     <cfRule type="expression" dxfId="75" priority="73" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
       <formula>1</formula>
@@ -6566,9 +6674,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="O10">
     <cfRule type="expression" dxfId="71" priority="69" stopIfTrue="1">
-      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
       <formula>1</formula>
@@ -6580,9 +6688,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
+  <conditionalFormatting sqref="J33">
     <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
       <formula>1</formula>
@@ -6594,9 +6702,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
+  <conditionalFormatting sqref="K37">
     <cfRule type="expression" dxfId="63" priority="61" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
       <formula>1</formula>
@@ -6608,9 +6716,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
+  <conditionalFormatting sqref="K38">
     <cfRule type="expression" dxfId="59" priority="57" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>1</formula>
@@ -6622,7 +6730,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37">
+  <conditionalFormatting sqref="K36">
     <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -6636,7 +6744,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
+  <conditionalFormatting sqref="K49">
     <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -6650,7 +6758,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
+  <conditionalFormatting sqref="K48">
     <cfRule type="expression" dxfId="47" priority="45" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -6664,9 +6772,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
+  <conditionalFormatting sqref="L34">
     <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>1</formula>
@@ -6678,9 +6786,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
+  <conditionalFormatting sqref="R10">
     <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>1</formula>
@@ -6692,9 +6800,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34">
+  <conditionalFormatting sqref="P22">
     <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
-      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>1</formula>
@@ -6706,9 +6814,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
+  <conditionalFormatting sqref="Q22">
     <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
-      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>1</formula>
@@ -6720,9 +6828,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P22">
+  <conditionalFormatting sqref="S22">
     <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>1</formula>
@@ -6734,9 +6842,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
+  <conditionalFormatting sqref="V22">
     <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
-      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>1</formula>
@@ -6748,9 +6856,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S22">
+  <conditionalFormatting sqref="O46">
     <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
-      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>1</formula>
@@ -6762,9 +6870,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V22">
+  <conditionalFormatting sqref="P46">
     <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
@@ -6776,9 +6884,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O46">
+  <conditionalFormatting sqref="M34">
     <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
@@ -6790,9 +6898,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P46">
+  <conditionalFormatting sqref="Q46">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
@@ -6804,9 +6912,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M34">
+  <conditionalFormatting sqref="S46">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -892,7 +892,127 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="215">
+  <dxfs count="227">
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -3313,8 +3433,8 @@
   <dimension ref="A1:AS52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5817,7 +5937,7 @@
         <v>56</v>
       </c>
       <c r="E46" s="31">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="F46" s="17">
         <v>44235</v>
@@ -5837,7 +5957,7 @@
       <c r="S46" s="39"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
+      <c r="V46" s="39"/>
       <c r="W46" s="20"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
@@ -6172,49 +6292,91 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4:AS4">
-    <cfRule type="cellIs" dxfId="214" priority="753" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="765" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="754" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="766" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20:AS20 H19:AS19 H8:I8 K7:AS7 H9:J9 P9:AS9 I28:AS28 L8:AS8 T10:AS10 Y11:AS18 AA21:AS27 H47:AS47 J45:AS45 J21:X21 H35:AS35 H31:H32 J31:AS32 H33:I33 K33:AS33 H11:U18 H39:AS44 H36:J38 L36:AS38 H50:AS52 H48:J49 L48:AS49 H34:K34 N34:AS34 H10:N10 I23:X27 H5:AS6 H29:AS30 I22:O22 R22 T22:U22 W22:X22 H46:N46 R46 T46:AS46">
-    <cfRule type="expression" dxfId="212" priority="749" stopIfTrue="1">
+  <conditionalFormatting sqref="L20:AS20 H19:AS19 H8:I8 K7:AS7 H9:J9 P9:AS9 I28:AS28 L8:AS8 T10:AS10 Y11:AS18 AA21:AS27 H47:AS47 J45:AS45 J21:X21 H35:AS35 H31:H32 J31:AS32 H33:I33 K33:AS33 H11:U18 H39:AS44 H36:J38 L36:AS38 H50:AS52 H48:J49 L48:AS49 H34:K34 N34:AS34 H10:N10 I23:X27 H5:AS6 H29:AS30 I22:O22 R22 T22:U22 W22:X22 H46:N46 R46 T46 W46:AS46">
+    <cfRule type="expression" dxfId="224" priority="761" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="750" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="762" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="751" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="763" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="752" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="764" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2">
-    <cfRule type="notContainsBlanks" dxfId="208" priority="755">
+    <cfRule type="notContainsBlanks" dxfId="220" priority="767">
       <formula>LEN(TRIM(AJ2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:J20">
-    <cfRule type="expression" dxfId="207" priority="717" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="729" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="718" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="730" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="719" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="731" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="720" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="732" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="215" priority="253" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="254" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="255" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="256" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="expression" dxfId="211" priority="213" stopIfTrue="1">
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="214" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="215" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="216" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="expression" dxfId="207" priority="225" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="226" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="227" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="228" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
     <cfRule type="expression" dxfId="203" priority="241" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="202" priority="242" operator="equal">
       <formula>1</formula>
@@ -6226,205 +6388,205 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="199" priority="201" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="202" operator="equal">
+  <conditionalFormatting sqref="M9">
+    <cfRule type="expression" dxfId="199" priority="237" stopIfTrue="1">
+      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="238" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="239" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="204" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="195" priority="213" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="214" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="215" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="216" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="191" priority="229" stopIfTrue="1">
-      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="230" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="231" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="232" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="187" priority="225" stopIfTrue="1">
-      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="226" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="227" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="240" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="183" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="229" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="230" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="231" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="232" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="179" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="193" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="194" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="195" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="196" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="175" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="221" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="222" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="223" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="224" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="171" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="185" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="187" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="188" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="167" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="209" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="210" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="211" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="212" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:Q10 S10">
-    <cfRule type="expression" dxfId="163" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="201" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="203" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="204" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="159" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="197" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="198" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="199" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="200" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H27">
-    <cfRule type="expression" dxfId="155" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="189" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="190" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="191" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="192" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="151" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="141" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="142" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="143" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="144" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="147" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="117" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="119" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="120" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y21:Y24">
+    <cfRule type="expression" dxfId="155" priority="165" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="166" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="167" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="168" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z21:Z24">
+    <cfRule type="expression" dxfId="151" priority="161" stopIfTrue="1">
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="162" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="163" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="164" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="expression" dxfId="147" priority="157" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="158" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="159" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="160" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
     <cfRule type="expression" dxfId="143" priority="153" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="142" priority="154" operator="equal">
       <formula>1</formula>
@@ -6436,9 +6598,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z21:Z24">
+  <conditionalFormatting sqref="Y25:Y27">
     <cfRule type="expression" dxfId="139" priority="149" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="138" priority="150" operator="equal">
       <formula>1</formula>
@@ -6450,9 +6612,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="Z25:Z27">
     <cfRule type="expression" dxfId="135" priority="145" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="134" priority="146" operator="equal">
       <formula>1</formula>
@@ -6464,49 +6626,49 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="131" priority="141" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="142" operator="equal">
+  <conditionalFormatting sqref="W12">
+    <cfRule type="expression" dxfId="131" priority="137" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="138" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="139" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="140" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y25:Y27">
-    <cfRule type="expression" dxfId="127" priority="137" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="138" operator="equal">
+  <conditionalFormatting sqref="X12">
+    <cfRule type="expression" dxfId="127" priority="133" stopIfTrue="1">
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="134" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="135" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="136" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z25:Z27">
-    <cfRule type="expression" dxfId="123" priority="133" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="134" operator="equal">
+  <conditionalFormatting sqref="X13:X18">
+    <cfRule type="expression" dxfId="123" priority="129" stopIfTrue="1">
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="130" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="131" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="132" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W12">
+  <conditionalFormatting sqref="W13:W18">
     <cfRule type="expression" dxfId="119" priority="125" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -6520,9 +6682,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X12">
+  <conditionalFormatting sqref="V13:V18">
     <cfRule type="expression" dxfId="115" priority="121" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="114" priority="122" operator="equal">
       <formula>1</formula>
@@ -6534,93 +6696,93 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X13:X18">
-    <cfRule type="expression" dxfId="111" priority="117" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="118" operator="equal">
+  <conditionalFormatting sqref="H23:H24">
+    <cfRule type="expression" dxfId="111" priority="113" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="115" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="120" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W13:W18">
-    <cfRule type="expression" dxfId="107" priority="113" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="114" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="115" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="116" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V13:V18">
-    <cfRule type="expression" dxfId="103" priority="109" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="110" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="111" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="112" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H24">
-    <cfRule type="expression" dxfId="99" priority="101" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="102" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="103" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="116" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="95" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="101" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="103" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="104" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="91" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="105" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="107" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="108" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="99" priority="97" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="100" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="expression" dxfId="95" priority="93" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="96" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="expression" dxfId="91" priority="89" stopIfTrue="1">
+      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
     <cfRule type="expression" dxfId="87" priority="85" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="86" priority="86" operator="equal">
       <formula>1</formula>
@@ -6632,9 +6794,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
+  <conditionalFormatting sqref="O10">
     <cfRule type="expression" dxfId="83" priority="81" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
       <formula>1</formula>
@@ -6646,9 +6808,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="J33">
     <cfRule type="expression" dxfId="79" priority="77" stopIfTrue="1">
-      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
       <formula>1</formula>
@@ -6660,9 +6822,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
+  <conditionalFormatting sqref="K37">
     <cfRule type="expression" dxfId="75" priority="73" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
       <formula>1</formula>
@@ -6674,9 +6836,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
+  <conditionalFormatting sqref="K38">
     <cfRule type="expression" dxfId="71" priority="69" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
       <formula>1</formula>
@@ -6688,9 +6850,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
+  <conditionalFormatting sqref="K36">
     <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
       <formula>1</formula>
@@ -6702,7 +6864,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37">
+  <conditionalFormatting sqref="K49">
     <cfRule type="expression" dxfId="63" priority="61" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -6716,7 +6878,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
+  <conditionalFormatting sqref="K48">
     <cfRule type="expression" dxfId="59" priority="57" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -6730,9 +6892,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
+  <conditionalFormatting sqref="L34">
     <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
       <formula>1</formula>
@@ -6744,9 +6906,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
+  <conditionalFormatting sqref="R10">
     <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
       <formula>1</formula>
@@ -6758,9 +6920,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
+  <conditionalFormatting sqref="P22">
     <cfRule type="expression" dxfId="47" priority="45" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>1</formula>
@@ -6772,9 +6934,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34">
+  <conditionalFormatting sqref="Q22">
     <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
-      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>1</formula>
@@ -6786,9 +6948,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
+  <conditionalFormatting sqref="S22">
     <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
-      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>1</formula>
@@ -6800,9 +6962,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P22">
+  <conditionalFormatting sqref="V22">
     <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>1</formula>
@@ -6814,9 +6976,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
+  <conditionalFormatting sqref="O46">
     <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
-      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>1</formula>
@@ -6828,9 +6990,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S22">
+  <conditionalFormatting sqref="P46">
     <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
-      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>1</formula>
@@ -6842,9 +7004,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V22">
+  <conditionalFormatting sqref="M34">
     <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>1</formula>
@@ -6856,9 +7018,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O46">
+  <conditionalFormatting sqref="Q46">
     <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>1</formula>
@@ -6870,9 +7032,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P46">
+  <conditionalFormatting sqref="S46">
     <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
@@ -6884,23 +7046,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M34">
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
-      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q46">
+  <conditionalFormatting sqref="V46">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
@@ -6912,9 +7060,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S46">
+  <conditionalFormatting sqref="U46">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>aya</t>
     <phoneticPr fontId="4"/>
@@ -395,6 +395,24 @@
   <si>
     <t>10.0h</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>課題</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1.コンストラクタ</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -892,7 +910,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="227">
+  <dxfs count="243">
     <dxf>
       <font>
         <color rgb="FFE6B8B7"/>
@@ -935,6 +953,86 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.59996337778862885"/>
       </font>
       <fill>
@@ -975,6 +1073,206 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.59996337778862885"/>
       </font>
       <fill>
@@ -2255,86 +2553,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="5" tint="0.59996337778862885"/>
       </font>
       <fill>
@@ -2370,46 +2588,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3430,11 +3608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS52"/>
+  <dimension ref="A1:AS58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U49" sqref="U49"/>
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4499,9 +4677,11 @@
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="38"/>
+      <c r="B18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
       <c r="G18" s="18"/>
@@ -4519,9 +4699,9 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
@@ -4546,11 +4726,11 @@
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
-      <c r="B19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="21"/>
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
       <c r="G19" s="18"/>
@@ -4595,15 +4775,21 @@
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="20"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="17">
+        <v>44228</v>
+      </c>
+      <c r="G20" s="18">
+        <v>44228</v>
+      </c>
+      <c r="H20" s="19"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -4620,8 +4806,8 @@
       <c r="V20" s="20"/>
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
       <c r="AC20" s="20"/>
@@ -4644,75 +4830,69 @@
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="17">
-        <v>44228</v>
-      </c>
-      <c r="G21" s="18">
-        <v>44228</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="35">
+        <v>44235</v>
+      </c>
+      <c r="G21" s="36">
+        <v>44242</v>
+      </c>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
       <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
       <c r="Y21" s="37"/>
       <c r="Z21" s="37"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="20"/>
-      <c r="AH21" s="20"/>
-      <c r="AI21" s="20"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="20"/>
-      <c r="AL21" s="20"/>
-      <c r="AM21" s="20"/>
-      <c r="AN21" s="20"/>
-      <c r="AO21" s="20"/>
-      <c r="AP21" s="20"/>
-      <c r="AQ21" s="20"/>
-      <c r="AR21" s="20"/>
-      <c r="AS21" s="20"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
+      <c r="AK21" s="37"/>
+      <c r="AL21" s="37"/>
+      <c r="AM21" s="37"/>
+      <c r="AN21" s="37"/>
+      <c r="AO21" s="37"/>
+      <c r="AP21" s="37"/>
+      <c r="AQ21" s="37"/>
+      <c r="AR21" s="37"/>
+      <c r="AS21" s="37"/>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="35">
-        <v>44235</v>
-      </c>
-      <c r="G22" s="36">
-        <v>44242</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
@@ -4720,14 +4900,14 @@
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
       <c r="N22" s="20"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
       <c r="R22" s="37"/>
-      <c r="S22" s="19"/>
+      <c r="S22" s="37"/>
       <c r="T22" s="37"/>
       <c r="U22" s="37"/>
-      <c r="V22" s="19"/>
+      <c r="V22" s="37"/>
       <c r="W22" s="37"/>
       <c r="X22" s="37"/>
       <c r="Y22" s="37"/>
@@ -4756,16 +4936,22 @@
       <c r="A23" s="14"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
-      <c r="D23" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
+      <c r="D23" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="35">
+        <v>44231</v>
+      </c>
+      <c r="G23" s="36">
+        <v>44233</v>
+      </c>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
       <c r="N23" s="20"/>
@@ -4805,11 +4991,11 @@
       <c r="A24" s="14"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
-      <c r="D24" s="38" t="s">
-        <v>45</v>
+      <c r="D24" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="35">
         <v>44231</v>
@@ -4817,7 +5003,7 @@
       <c r="G24" s="36">
         <v>44233</v>
       </c>
-      <c r="H24" s="37"/>
+      <c r="H24" s="20"/>
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
       <c r="K24" s="40"/>
@@ -4860,22 +5046,14 @@
       <c r="A25" s="14"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
-      <c r="D25" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="35">
-        <v>44231</v>
-      </c>
-      <c r="G25" s="36">
-        <v>44233</v>
-      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="20"/>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
-      <c r="K25" s="40"/>
+      <c r="K25" s="37"/>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
       <c r="N25" s="20"/>
@@ -4960,327 +5138,309 @@
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
+      <c r="B27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="20"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
       <c r="N27" s="20"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="37"/>
-      <c r="AH27" s="37"/>
-      <c r="AI27" s="37"/>
-      <c r="AJ27" s="37"/>
-      <c r="AK27" s="37"/>
-      <c r="AL27" s="37"/>
-      <c r="AM27" s="37"/>
-      <c r="AN27" s="37"/>
-      <c r="AO27" s="37"/>
-      <c r="AP27" s="37"/>
-      <c r="AQ27" s="37"/>
-      <c r="AR27" s="37"/>
-      <c r="AS27" s="37"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="20"/>
+      <c r="AK27" s="20"/>
+      <c r="AL27" s="20"/>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="20"/>
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="20"/>
+      <c r="AQ27" s="20"/>
+      <c r="AR27" s="20"/>
+      <c r="AS27" s="20"/>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="20"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="20"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="37"/>
-      <c r="AF28" s="37"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="37"/>
-      <c r="AK28" s="37"/>
-      <c r="AL28" s="37"/>
-      <c r="AM28" s="37"/>
-      <c r="AN28" s="37"/>
-      <c r="AO28" s="37"/>
-      <c r="AP28" s="37"/>
-      <c r="AQ28" s="37"/>
-      <c r="AR28" s="37"/>
-      <c r="AS28" s="37"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="20"/>
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="20"/>
+      <c r="AS28" s="20"/>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A29" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
       <c r="N29" s="20"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="13"/>
-      <c r="AM29" s="13"/>
-      <c r="AN29" s="13"/>
-      <c r="AO29" s="13"/>
-      <c r="AP29" s="13"/>
-      <c r="AQ29" s="13"/>
-      <c r="AR29" s="13"/>
-      <c r="AS29" s="13"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="37"/>
+      <c r="AM29" s="37"/>
+      <c r="AN29" s="37"/>
+      <c r="AO29" s="37"/>
+      <c r="AP29" s="37"/>
+      <c r="AQ29" s="37"/>
+      <c r="AR29" s="37"/>
+      <c r="AS29" s="37"/>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A30" s="30"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
       <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20"/>
-      <c r="AG30" s="20"/>
-      <c r="AH30" s="20"/>
-      <c r="AI30" s="20"/>
-      <c r="AJ30" s="20"/>
-      <c r="AK30" s="20"/>
-      <c r="AL30" s="20"/>
-      <c r="AM30" s="20"/>
-      <c r="AN30" s="20"/>
-      <c r="AO30" s="20"/>
-      <c r="AP30" s="20"/>
-      <c r="AQ30" s="20"/>
-      <c r="AR30" s="20"/>
-      <c r="AS30" s="20"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="37"/>
+      <c r="AK30" s="37"/>
+      <c r="AL30" s="37"/>
+      <c r="AM30" s="37"/>
+      <c r="AN30" s="37"/>
+      <c r="AO30" s="37"/>
+      <c r="AP30" s="37"/>
+      <c r="AQ30" s="37"/>
+      <c r="AR30" s="37"/>
+      <c r="AS30" s="37"/>
     </row>
-    <row r="31" spans="1:45" ht="30" x14ac:dyDescent="0.35">
-      <c r="A31" s="30"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="31">
-        <v>1.2</v>
-      </c>
-      <c r="F31" s="17">
-        <v>44229</v>
-      </c>
-      <c r="G31" s="18">
-        <v>44229</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A31" s="14"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
       <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
-      <c r="AD31" s="20"/>
-      <c r="AE31" s="20"/>
-      <c r="AF31" s="20"/>
-      <c r="AG31" s="20"/>
-      <c r="AH31" s="20"/>
-      <c r="AI31" s="20"/>
-      <c r="AJ31" s="20"/>
-      <c r="AK31" s="20"/>
-      <c r="AL31" s="20"/>
-      <c r="AM31" s="20"/>
-      <c r="AN31" s="20"/>
-      <c r="AO31" s="20"/>
-      <c r="AP31" s="20"/>
-      <c r="AQ31" s="20"/>
-      <c r="AR31" s="20"/>
-      <c r="AS31" s="20"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="37"/>
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="37"/>
+      <c r="AK31" s="37"/>
+      <c r="AL31" s="37"/>
+      <c r="AM31" s="37"/>
+      <c r="AN31" s="37"/>
+      <c r="AO31" s="37"/>
+      <c r="AP31" s="37"/>
+      <c r="AQ31" s="37"/>
+      <c r="AR31" s="37"/>
+      <c r="AS31" s="37"/>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A32" s="30"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="31">
-        <v>1.3</v>
-      </c>
-      <c r="F32" s="17">
-        <v>44229</v>
-      </c>
-      <c r="G32" s="18">
-        <v>44229</v>
-      </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
+      <c r="A32" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
       <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
       <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
-      <c r="AF32" s="20"/>
-      <c r="AG32" s="20"/>
-      <c r="AH32" s="20"/>
-      <c r="AI32" s="20"/>
-      <c r="AJ32" s="20"/>
-      <c r="AK32" s="20"/>
-      <c r="AL32" s="20"/>
-      <c r="AM32" s="20"/>
-      <c r="AN32" s="20"/>
-      <c r="AO32" s="20"/>
-      <c r="AP32" s="20"/>
-      <c r="AQ32" s="20"/>
-      <c r="AR32" s="20"/>
-      <c r="AS32" s="20"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="13"/>
+      <c r="AM32" s="13"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="13"/>
+      <c r="AQ32" s="13"/>
+      <c r="AR32" s="13"/>
+      <c r="AS32" s="13"/>
     </row>
-    <row r="33" spans="1:45" ht="30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A33" s="30"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="31">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F33" s="17">
-        <v>44230</v>
-      </c>
-      <c r="G33" s="18">
-        <v>44230</v>
-      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
-      <c r="J33" s="39"/>
+      <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
@@ -5317,28 +5477,28 @@
       <c r="AR33" s="20"/>
       <c r="AS33" s="20"/>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:45" ht="30" x14ac:dyDescent="0.35">
       <c r="A34" s="30"/>
       <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>52</v>
+      <c r="C34" s="15"/>
+      <c r="D34" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="31">
+        <v>1.2</v>
       </c>
       <c r="F34" s="17">
-        <v>44232</v>
+        <v>44229</v>
       </c>
       <c r="G34" s="18">
-        <v>44233</v>
+        <v>44229</v>
       </c>
       <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
+      <c r="I34" s="39"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
       <c r="N34" s="20"/>
       <c r="O34" s="20"/>
       <c r="P34" s="20"/>
@@ -5377,13 +5537,19 @@
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="E35" s="31">
+        <v>1.3</v>
+      </c>
+      <c r="F35" s="17">
+        <v>44229</v>
+      </c>
+      <c r="G35" s="18">
+        <v>44229</v>
+      </c>
       <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+      <c r="I35" s="39"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
@@ -5421,26 +5587,26 @@
       <c r="AR35" s="20"/>
       <c r="AS35" s="20"/>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:45" ht="30" x14ac:dyDescent="0.35">
       <c r="A36" s="30"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="38" t="s">
-        <v>39</v>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="E36" s="31">
-        <v>0.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F36" s="17">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="G36" s="18">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="20"/>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
@@ -5478,26 +5644,26 @@
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A37" s="30"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="31">
-        <v>0.25</v>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="F37" s="17">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="G37" s="18">
-        <v>44231</v>
+        <v>44233</v>
       </c>
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
       <c r="N37" s="20"/>
       <c r="O37" s="20"/>
       <c r="P37" s="20"/>
@@ -5533,24 +5699,18 @@
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A38" s="30"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="F38" s="17">
-        <v>44231</v>
-      </c>
-      <c r="G38" s="18">
-        <v>44231</v>
-      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
-      <c r="K38" s="39"/>
+      <c r="K38" s="20"/>
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
@@ -5591,15 +5751,21 @@
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
       <c r="D39" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="E39" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G39" s="18">
+        <v>44231</v>
+      </c>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
+      <c r="K39" s="39"/>
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
       <c r="N39" s="20"/>
@@ -5639,14 +5805,22 @@
       <c r="A40" s="30"/>
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="18"/>
+      <c r="D40" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="F40" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G40" s="18">
+        <v>44231</v>
+      </c>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
+      <c r="K40" s="39"/>
       <c r="L40" s="20"/>
       <c r="M40" s="20"/>
       <c r="N40" s="20"/>
@@ -5686,14 +5860,22 @@
       <c r="A41" s="30"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="18"/>
+      <c r="D41" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="F41" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G41" s="18">
+        <v>44231</v>
+      </c>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
+      <c r="K41" s="39"/>
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
@@ -5733,7 +5915,9 @@
       <c r="A42" s="30"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
-      <c r="D42" s="38"/>
+      <c r="D42" s="38" t="s">
+        <v>55</v>
+      </c>
       <c r="E42" s="31"/>
       <c r="F42" s="17"/>
       <c r="G42" s="18"/>
@@ -5778,11 +5962,9 @@
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A43" s="30"/>
-      <c r="B43" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="31"/>
       <c r="F43" s="17"/>
       <c r="G43" s="18"/>
@@ -5827,11 +6009,9 @@
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A44" s="30"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="21"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="38"/>
       <c r="E44" s="31"/>
       <c r="F44" s="17"/>
       <c r="G44" s="18"/>
@@ -5876,22 +6056,16 @@
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A45" s="30"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="31">
-        <v>1.45</v>
-      </c>
-      <c r="F45" s="17">
-        <v>44228</v>
-      </c>
-      <c r="G45" s="18">
-        <v>44229</v>
-      </c>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
+      <c r="B45" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
@@ -5931,17 +6105,13 @@
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A46" s="30"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="31">
-        <v>5.4</v>
-      </c>
-      <c r="F46" s="17">
-        <v>44235</v>
-      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="17"/>
       <c r="G46" s="18"/>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
@@ -5950,14 +6120,14 @@
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
       <c r="N46" s="20"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
-      <c r="S46" s="39"/>
+      <c r="S46" s="20"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="39"/>
+      <c r="V46" s="20"/>
       <c r="W46" s="20"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
@@ -5987,13 +6157,19 @@
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
       <c r="D47" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
+        <v>36</v>
+      </c>
+      <c r="E47" s="31">
+        <v>1.45</v>
+      </c>
+      <c r="F47" s="17">
+        <v>44228</v>
+      </c>
+      <c r="G47" s="18">
+        <v>44229</v>
+      </c>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
@@ -6035,33 +6211,31 @@
       <c r="A48" s="30"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
-      <c r="D48" s="38" t="s">
-        <v>45</v>
+      <c r="D48" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="E48" s="31">
-        <v>1.4</v>
+        <v>5.4</v>
       </c>
       <c r="F48" s="17">
-        <v>44231</v>
-      </c>
-      <c r="G48" s="18">
-        <v>44231</v>
-      </c>
+        <v>44235</v>
+      </c>
+      <c r="G48" s="18"/>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
-      <c r="K48" s="39"/>
+      <c r="K48" s="20"/>
       <c r="L48" s="20"/>
       <c r="M48" s="20"/>
       <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39"/>
       <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
+      <c r="S48" s="39"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
+      <c r="V48" s="39"/>
       <c r="W48" s="20"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
@@ -6091,21 +6265,15 @@
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
       <c r="D49" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F49" s="17">
-        <v>44231</v>
-      </c>
-      <c r="G49" s="18">
-        <v>44231</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="18"/>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
-      <c r="K49" s="39"/>
+      <c r="K49" s="20"/>
       <c r="L49" s="20"/>
       <c r="M49" s="20"/>
       <c r="N49" s="20"/>
@@ -6145,14 +6313,22 @@
       <c r="A50" s="30"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
+      <c r="D50" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="31">
+        <v>1.4</v>
+      </c>
+      <c r="F50" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G50" s="18">
+        <v>44231</v>
+      </c>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
+      <c r="K50" s="39"/>
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
       <c r="N50" s="20"/>
@@ -6192,14 +6368,22 @@
       <c r="A51" s="30"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="18"/>
+      <c r="D51" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G51" s="18">
+        <v>44231</v>
+      </c>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="39"/>
       <c r="L51" s="20"/>
       <c r="M51" s="20"/>
       <c r="N51" s="20"/>
@@ -6282,6 +6466,296 @@
       <c r="AR52" s="20"/>
       <c r="AS52" s="20"/>
     </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A53" s="30"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="20"/>
+      <c r="AA53" s="20"/>
+      <c r="AB53" s="20"/>
+      <c r="AC53" s="20"/>
+      <c r="AD53" s="20"/>
+      <c r="AE53" s="20"/>
+      <c r="AF53" s="20"/>
+      <c r="AG53" s="20"/>
+      <c r="AH53" s="20"/>
+      <c r="AI53" s="20"/>
+      <c r="AJ53" s="20"/>
+      <c r="AK53" s="20"/>
+      <c r="AL53" s="20"/>
+      <c r="AM53" s="20"/>
+      <c r="AN53" s="20"/>
+      <c r="AO53" s="20"/>
+      <c r="AP53" s="20"/>
+      <c r="AQ53" s="20"/>
+      <c r="AR53" s="20"/>
+      <c r="AS53" s="20"/>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A54" s="30"/>
+      <c r="B54" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="20"/>
+      <c r="AA54" s="20"/>
+      <c r="AB54" s="20"/>
+      <c r="AC54" s="20"/>
+      <c r="AD54" s="20"/>
+      <c r="AE54" s="20"/>
+      <c r="AF54" s="20"/>
+      <c r="AG54" s="20"/>
+      <c r="AH54" s="20"/>
+      <c r="AI54" s="20"/>
+      <c r="AJ54" s="20"/>
+      <c r="AK54" s="20"/>
+      <c r="AL54" s="20"/>
+      <c r="AM54" s="20"/>
+      <c r="AN54" s="20"/>
+      <c r="AO54" s="20"/>
+      <c r="AP54" s="20"/>
+      <c r="AQ54" s="20"/>
+      <c r="AR54" s="20"/>
+      <c r="AS54" s="20"/>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A55" s="30"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="20"/>
+      <c r="AA55" s="20"/>
+      <c r="AB55" s="20"/>
+      <c r="AC55" s="20"/>
+      <c r="AD55" s="20"/>
+      <c r="AE55" s="20"/>
+      <c r="AF55" s="20"/>
+      <c r="AG55" s="20"/>
+      <c r="AH55" s="20"/>
+      <c r="AI55" s="20"/>
+      <c r="AJ55" s="20"/>
+      <c r="AK55" s="20"/>
+      <c r="AL55" s="20"/>
+      <c r="AM55" s="20"/>
+      <c r="AN55" s="20"/>
+      <c r="AO55" s="20"/>
+      <c r="AP55" s="20"/>
+      <c r="AQ55" s="20"/>
+      <c r="AR55" s="20"/>
+      <c r="AS55" s="20"/>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A56" s="30"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="31">
+        <v>1</v>
+      </c>
+      <c r="F56" s="17"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="20"/>
+      <c r="AC56" s="20"/>
+      <c r="AD56" s="20"/>
+      <c r="AE56" s="20"/>
+      <c r="AF56" s="20"/>
+      <c r="AG56" s="20"/>
+      <c r="AH56" s="20"/>
+      <c r="AI56" s="20"/>
+      <c r="AJ56" s="20"/>
+      <c r="AK56" s="20"/>
+      <c r="AL56" s="20"/>
+      <c r="AM56" s="20"/>
+      <c r="AN56" s="20"/>
+      <c r="AO56" s="20"/>
+      <c r="AP56" s="20"/>
+      <c r="AQ56" s="20"/>
+      <c r="AR56" s="20"/>
+      <c r="AS56" s="20"/>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A57" s="30"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="20"/>
+      <c r="AA57" s="20"/>
+      <c r="AB57" s="20"/>
+      <c r="AC57" s="20"/>
+      <c r="AD57" s="20"/>
+      <c r="AE57" s="20"/>
+      <c r="AF57" s="20"/>
+      <c r="AG57" s="20"/>
+      <c r="AH57" s="20"/>
+      <c r="AI57" s="20"/>
+      <c r="AJ57" s="20"/>
+      <c r="AK57" s="20"/>
+      <c r="AL57" s="20"/>
+      <c r="AM57" s="20"/>
+      <c r="AN57" s="20"/>
+      <c r="AO57" s="20"/>
+      <c r="AP57" s="20"/>
+      <c r="AQ57" s="20"/>
+      <c r="AR57" s="20"/>
+      <c r="AS57" s="20"/>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A58" s="30"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="20"/>
+      <c r="X58" s="20"/>
+      <c r="Y58" s="20"/>
+      <c r="Z58" s="20"/>
+      <c r="AA58" s="20"/>
+      <c r="AB58" s="20"/>
+      <c r="AC58" s="20"/>
+      <c r="AD58" s="20"/>
+      <c r="AE58" s="20"/>
+      <c r="AF58" s="20"/>
+      <c r="AG58" s="20"/>
+      <c r="AH58" s="20"/>
+      <c r="AI58" s="20"/>
+      <c r="AJ58" s="20"/>
+      <c r="AK58" s="20"/>
+      <c r="AL58" s="20"/>
+      <c r="AM58" s="20"/>
+      <c r="AN58" s="20"/>
+      <c r="AO58" s="20"/>
+      <c r="AP58" s="20"/>
+      <c r="AQ58" s="20"/>
+      <c r="AR58" s="20"/>
+      <c r="AS58" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
@@ -6290,765 +6764,835 @@
     <mergeCell ref="H2:AI2"/>
     <mergeCell ref="AJ2:AS2"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="H4:AS4">
-    <cfRule type="cellIs" dxfId="226" priority="765" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="805" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="766" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="806" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20:AS20 H19:AS19 H8:I8 K7:AS7 H9:J9 P9:AS9 I28:AS28 L8:AS8 T10:AS10 Y11:AS18 AA21:AS27 H47:AS47 J45:AS45 J21:X21 H35:AS35 H31:H32 J31:AS32 H33:I33 K33:AS33 H11:U18 H39:AS44 H36:J38 L36:AS38 H50:AS52 H48:J49 L48:AS49 H34:K34 N34:AS34 H10:N10 I23:X27 H5:AS6 H29:AS30 I22:O22 R22 T22:U22 W22:X22 H46:N46 R46 T46 W46:AS46">
-    <cfRule type="expression" dxfId="224" priority="761" stopIfTrue="1">
+  <conditionalFormatting sqref="L19:AS19 H18:AS18 H8:I8 K7:AS7 H9:J9 P9:AS9 I30:AS31 L8:AS8 T10:AS10 Y11:AS17 H49:AS49 J47:AS47 J20:X20 H38:AS38 H34:H35 J34:AS35 H36:I36 K36:AS36 H11:U17 H39:J41 L39:AS41 H52:AS53 H50:J51 L50:AS51 H37:K37 N37:AS37 H10:N10 H5:AS6 H32:AS33 I21:O21 R21 T21:U21 W21:X21 H48:N48 R48 T48 W48:AS48 AA20:AS26 I22:X26 H24:H26 Y24:Z26 H57:AS58 H56:U56 X56:AS56 I29:V29 X29:AS29 H42:AS46">
+    <cfRule type="expression" dxfId="240" priority="801" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="762" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="802" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="763" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="803" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="764" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="804" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2">
-    <cfRule type="notContainsBlanks" dxfId="220" priority="767">
+    <cfRule type="notContainsBlanks" dxfId="236" priority="807">
       <formula>LEN(TRIM(AJ2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:J20">
-    <cfRule type="expression" dxfId="219" priority="729" stopIfTrue="1">
+  <conditionalFormatting sqref="H19:J19">
+    <cfRule type="expression" dxfId="235" priority="769" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="730" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="770" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="731" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="771" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="732" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="772" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="215" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="293" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="294" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="295" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="296" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="211" priority="213" stopIfTrue="1">
+  <conditionalFormatting sqref="K19">
+    <cfRule type="expression" dxfId="227" priority="253" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="254" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="255" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="256" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="207" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="265" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="266" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="267" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="268" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="203" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="281" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="282" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="283" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="284" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="199" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="277" stopIfTrue="1">
       <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="278" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="279" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="280" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="195" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="269" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="270" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="271" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="272" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="191" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="233" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="234" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="235" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="236" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="187" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="261" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="262" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="263" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="264" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="183" priority="185" stopIfTrue="1">
+  <conditionalFormatting sqref="H29:H31">
+    <cfRule type="expression" dxfId="199" priority="225" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="226" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="227" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="228" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="179" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="249" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="250" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="251" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="252" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:Q10 S10">
-    <cfRule type="expression" dxfId="175" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="241" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="242" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="243" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="244" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="171" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="237" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="238" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="239" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="200" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:H27">
-    <cfRule type="expression" dxfId="167" priority="189" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="190" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="191" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="240" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="163" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="181" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="182" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="183" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="144" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="159" priority="117" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="118" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="119" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="120" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y21:Y24">
-    <cfRule type="expression" dxfId="155" priority="165" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="166" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="167" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="168" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z21:Z24">
-    <cfRule type="expression" dxfId="151" priority="161" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="162" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="163" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="164" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="expression" dxfId="147" priority="157" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="158" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="159" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="184" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="143" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="157" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="158" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="159" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="160" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y25:Y27">
-    <cfRule type="expression" dxfId="139" priority="149" stopIfTrue="1">
+  <conditionalFormatting sqref="Y20:Y23">
+    <cfRule type="expression" dxfId="175" priority="205" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="206" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="207" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="208" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z25:Z27">
-    <cfRule type="expression" dxfId="135" priority="145" stopIfTrue="1">
+  <conditionalFormatting sqref="Z20:Z23">
+    <cfRule type="expression" dxfId="171" priority="201" stopIfTrue="1">
       <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="203" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="204" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="expression" dxfId="167" priority="197" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="198" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="199" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="200" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="expression" dxfId="163" priority="193" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="194" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="195" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="196" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="expression" dxfId="131" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="177" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="178" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="179" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="180" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
-    <cfRule type="expression" dxfId="127" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="173" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="175" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="176" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X13:X18">
-    <cfRule type="expression" dxfId="123" priority="129" stopIfTrue="1">
+  <conditionalFormatting sqref="X13:X17">
+    <cfRule type="expression" dxfId="151" priority="169" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="170" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="171" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="172" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13:W18">
-    <cfRule type="expression" dxfId="119" priority="125" stopIfTrue="1">
+  <conditionalFormatting sqref="W13:W17">
+    <cfRule type="expression" dxfId="147" priority="165" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="166" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="167" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="168" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V13:V18">
-    <cfRule type="expression" dxfId="115" priority="121" stopIfTrue="1">
+  <conditionalFormatting sqref="V13:V17">
+    <cfRule type="expression" dxfId="143" priority="161" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="162" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="163" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="164" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H24">
-    <cfRule type="expression" dxfId="111" priority="113" stopIfTrue="1">
+  <conditionalFormatting sqref="H22:H23">
+    <cfRule type="expression" dxfId="139" priority="153" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="154" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="155" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="156" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="107" priority="101" stopIfTrue="1">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="135" priority="141" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="142" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="143" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="144" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="103" priority="105" stopIfTrue="1">
+  <conditionalFormatting sqref="I47">
+    <cfRule type="expression" dxfId="131" priority="145" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="146" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="147" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="148" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="99" priority="97" stopIfTrue="1">
+  <conditionalFormatting sqref="I34">
+    <cfRule type="expression" dxfId="127" priority="137" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="138" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="139" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="140" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="95" priority="93" stopIfTrue="1">
+  <conditionalFormatting sqref="I35">
+    <cfRule type="expression" dxfId="123" priority="133" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="134" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="135" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="136" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="expression" dxfId="91" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="129" stopIfTrue="1">
       <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="130" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="131" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="132" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="87" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="125" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="126" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="127" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="128" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="83" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="121" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="122" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="123" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="124" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="expression" dxfId="79" priority="77" stopIfTrue="1">
+  <conditionalFormatting sqref="J36">
+    <cfRule type="expression" dxfId="107" priority="117" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="119" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="120" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37">
-    <cfRule type="expression" dxfId="75" priority="73" stopIfTrue="1">
+  <conditionalFormatting sqref="K40">
+    <cfRule type="expression" dxfId="103" priority="113" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="115" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="116" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
-    <cfRule type="expression" dxfId="71" priority="69" stopIfTrue="1">
+  <conditionalFormatting sqref="K41">
+    <cfRule type="expression" dxfId="99" priority="109" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="111" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="112" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
-    <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
+  <conditionalFormatting sqref="K39">
+    <cfRule type="expression" dxfId="95" priority="105" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="107" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="108" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
-    <cfRule type="expression" dxfId="63" priority="61" stopIfTrue="1">
+  <conditionalFormatting sqref="K51">
+    <cfRule type="expression" dxfId="91" priority="101" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="103" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="104" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
-    <cfRule type="expression" dxfId="59" priority="57" stopIfTrue="1">
+  <conditionalFormatting sqref="K50">
+    <cfRule type="expression" dxfId="87" priority="97" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="99" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="100" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34">
-    <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
+  <conditionalFormatting sqref="L37">
+    <cfRule type="expression" dxfId="83" priority="93" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="94" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="95" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="96" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="89" stopIfTrue="1">
       <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="91" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="92" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P22">
-    <cfRule type="expression" dxfId="47" priority="45" stopIfTrue="1">
+  <conditionalFormatting sqref="P21">
+    <cfRule type="expression" dxfId="75" priority="85" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="87" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="88" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
-    <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
+  <conditionalFormatting sqref="Q21">
+    <cfRule type="expression" dxfId="71" priority="81" stopIfTrue="1">
       <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="84" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S22">
-    <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="S21">
+    <cfRule type="expression" dxfId="67" priority="77" stopIfTrue="1">
       <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="80" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V22">
-    <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
+  <conditionalFormatting sqref="V21">
+    <cfRule type="expression" dxfId="63" priority="73" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="75" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="76" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O46">
-    <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
+  <conditionalFormatting sqref="O48">
+    <cfRule type="expression" dxfId="59" priority="69" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="71" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="72" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P46">
-    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
+  <conditionalFormatting sqref="P48">
+    <cfRule type="expression" dxfId="55" priority="65" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="67" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="68" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M34">
-    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
+  <conditionalFormatting sqref="M37">
+    <cfRule type="expression" dxfId="51" priority="61" stopIfTrue="1">
       <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="63" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="64" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q46">
-    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="Q48">
+    <cfRule type="expression" dxfId="47" priority="57" stopIfTrue="1">
       <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="59" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S46">
-    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="S48">
+    <cfRule type="expression" dxfId="43" priority="53" stopIfTrue="1">
       <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="55" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="56" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V46">
+  <conditionalFormatting sqref="V48">
+    <cfRule type="expression" dxfId="39" priority="45" stopIfTrue="1">
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U48">
+    <cfRule type="expression" dxfId="35" priority="41" stopIfTrue="1">
+      <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="43" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:AS27">
+    <cfRule type="expression" dxfId="31" priority="37" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28:V28 X28:AS28">
+    <cfRule type="expression" dxfId="27" priority="33" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54:AS54">
+    <cfRule type="expression" dxfId="23" priority="29" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="32" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55:AS55">
+    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W56">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V56">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W29">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
@@ -7060,9 +7604,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U46">
+  <conditionalFormatting sqref="W28">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>aya</t>
     <phoneticPr fontId="4"/>
@@ -412,6 +412,14 @@
   </si>
   <si>
     <t>1.コンストラクタ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>10.radioButton</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>4.0h</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -910,7 +918,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="243">
+  <dxfs count="263">
     <dxf>
       <font>
         <color rgb="FFE6B8B7"/>
@@ -1033,6 +1041,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.59996337778862885"/>
       </font>
       <fill>
@@ -1068,6 +1116,166 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3611,8 +3819,8 @@
   <dimension ref="A1:AS58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <pane ySplit="4" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4585,10 +4793,18 @@
       <c r="A16" s="14"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="17">
+        <v>44244</v>
+      </c>
+      <c r="G16" s="18">
+        <v>44246</v>
+      </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
@@ -4605,9 +4821,9 @@
       <c r="U16" s="20"/>
       <c r="V16" s="37"/>
       <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
       <c r="AC16" s="20"/>
@@ -4859,7 +5075,7 @@
       <c r="T21" s="37"/>
       <c r="U21" s="37"/>
       <c r="V21" s="19"/>
-      <c r="W21" s="37"/>
+      <c r="W21" s="40"/>
       <c r="X21" s="37"/>
       <c r="Y21" s="37"/>
       <c r="Z21" s="37"/>
@@ -5259,7 +5475,7 @@
       <c r="T29" s="37"/>
       <c r="U29" s="37"/>
       <c r="V29" s="37"/>
-      <c r="W29" s="40"/>
+      <c r="W29" s="20"/>
       <c r="X29" s="37"/>
       <c r="Y29" s="37"/>
       <c r="Z29" s="37"/>
@@ -5964,7 +6180,9 @@
       <c r="A43" s="30"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
-      <c r="D43" s="38"/>
+      <c r="D43" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="E43" s="31"/>
       <c r="F43" s="17"/>
       <c r="G43" s="18"/>
@@ -6215,7 +6433,7 @@
         <v>56</v>
       </c>
       <c r="E48" s="31">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="F48" s="17">
         <v>44235</v>
@@ -6236,7 +6454,7 @@
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
       <c r="V48" s="39"/>
-      <c r="W48" s="20"/>
+      <c r="W48" s="39"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
@@ -6638,7 +6856,7 @@
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
       <c r="V56" s="20"/>
-      <c r="W56" s="39"/>
+      <c r="W56" s="20"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
@@ -6766,105 +6984,175 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="H4:AS4">
-    <cfRule type="cellIs" dxfId="242" priority="805" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="833" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="806" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="834" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19:AS19 H18:AS18 H8:I8 K7:AS7 H9:J9 P9:AS9 I30:AS31 L8:AS8 T10:AS10 Y11:AS17 H49:AS49 J47:AS47 J20:X20 H38:AS38 H34:H35 J34:AS35 H36:I36 K36:AS36 H11:U17 H39:J41 L39:AS41 H52:AS53 H50:J51 L50:AS51 H37:K37 N37:AS37 H10:N10 H5:AS6 H32:AS33 I21:O21 R21 T21:U21 W21:X21 H48:N48 R48 T48 W48:AS48 AA20:AS26 I22:X26 H24:H26 Y24:Z26 H57:AS58 H56:U56 X56:AS56 I29:V29 X29:AS29 H42:AS46">
-    <cfRule type="expression" dxfId="240" priority="801" stopIfTrue="1">
+  <conditionalFormatting sqref="L19:AS19 H18:AS18 H8:I8 K7:AS7 H9:J9 P9:AS9 I30:AS31 L8:AS8 T10:AS10 Y11:AS15 H49:AS49 J47:AS47 J20:X20 H38:AS38 H34:H35 J34:AS35 H36:I36 K36:AS36 H11:U17 H39:J41 L39:AS41 H52:AS53 H50:J51 L50:AS51 H37:K37 N37:AS37 H10:N10 H5:AS6 H32:AS33 I21:O21 R21 T21:U21 X21 H48:N48 R48 T48 X48:AS48 AA20:AS26 I22:X26 H24:H26 Y24:Z26 H57:AS58 H56:U56 X56:AS56 I29:V29 X29:AS29 H42:AS46 Y17:AS17 AA16:AS16">
+    <cfRule type="expression" dxfId="260" priority="829" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="802" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="830" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="803" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="831" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="804" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="832" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2">
-    <cfRule type="notContainsBlanks" dxfId="236" priority="807">
+    <cfRule type="notContainsBlanks" dxfId="256" priority="835">
       <formula>LEN(TRIM(AJ2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:J19">
-    <cfRule type="expression" dxfId="235" priority="769" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="797" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="770" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="798" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="771" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="799" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="772" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="800" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="231" priority="293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="321" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="322" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="323" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="324" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="227" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="281" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="282" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="283" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="284" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="223" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="293" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="294" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="295" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="296" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="219" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="309" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="310" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="311" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="312" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
+    <cfRule type="expression" dxfId="235" priority="305" stopIfTrue="1">
+      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="306" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="233" priority="307" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="308" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="231" priority="297" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="298" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="299" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="300" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="expression" dxfId="227" priority="261" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="262" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="263" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="264" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="expression" dxfId="223" priority="289" stopIfTrue="1">
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="290" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="291" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="292" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H31">
+    <cfRule type="expression" dxfId="219" priority="253" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="254" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="255" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="256" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
     <cfRule type="expression" dxfId="215" priority="277" stopIfTrue="1">
-      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="214" priority="278" operator="equal">
       <formula>1</formula>
@@ -6876,9 +7164,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
+  <conditionalFormatting sqref="P10:Q10 S10">
     <cfRule type="expression" dxfId="211" priority="269" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="210" priority="270" operator="equal">
       <formula>1</formula>
@@ -6890,219 +7178,219 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="207" priority="233" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="234" operator="equal">
+  <conditionalFormatting sqref="V11:X11">
+    <cfRule type="expression" dxfId="207" priority="265" stopIfTrue="1">
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="266" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="267" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="236" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="203" priority="261" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="262" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="263" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="264" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H31">
-    <cfRule type="expression" dxfId="199" priority="225" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="226" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="227" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="228" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="195" priority="249" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="250" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="251" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="252" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P10:Q10 S10">
-    <cfRule type="expression" dxfId="191" priority="241" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="242" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="243" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="244" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="187" priority="237" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="238" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="239" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="268" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="183" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="209" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="210" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="211" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="212" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="179" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="185" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="187" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="188" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y20:Y23">
-    <cfRule type="expression" dxfId="175" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="233" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="234" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="235" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="236" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z20:Z23">
-    <cfRule type="expression" dxfId="171" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="229" stopIfTrue="1">
       <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="230" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="231" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="232" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="167" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="225" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="226" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="227" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="228" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="163" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="221" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="222" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="223" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="224" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="expression" dxfId="159" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="205" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="206" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="207" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="208" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
-    <cfRule type="expression" dxfId="155" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="201" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="203" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="204" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X13:X17">
-    <cfRule type="expression" dxfId="151" priority="169" stopIfTrue="1">
+  <conditionalFormatting sqref="X13:X15 X17">
+    <cfRule type="expression" dxfId="171" priority="197" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="198" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="199" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="200" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13:W17">
+    <cfRule type="expression" dxfId="167" priority="193" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="194" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="195" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="196" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V13:V17">
+    <cfRule type="expression" dxfId="163" priority="189" stopIfTrue="1">
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="190" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="191" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="192" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:H23">
+    <cfRule type="expression" dxfId="159" priority="181" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="182" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="183" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="184" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="155" priority="169" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="170" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="171" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="172" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="expression" dxfId="151" priority="173" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="174" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="175" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="176" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
     <cfRule type="expression" dxfId="147" priority="165" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="146" priority="166" operator="equal">
       <formula>1</formula>
@@ -7114,9 +7402,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V13:V17">
+  <conditionalFormatting sqref="I35">
     <cfRule type="expression" dxfId="143" priority="161" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="142" priority="162" operator="equal">
       <formula>1</formula>
@@ -7128,373 +7416,373 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H23">
-    <cfRule type="expression" dxfId="139" priority="153" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="154" operator="equal">
+  <conditionalFormatting sqref="N9">
+    <cfRule type="expression" dxfId="139" priority="157" stopIfTrue="1">
+      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="158" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="159" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="156" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="135" priority="141" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="142" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="143" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="144" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
-    <cfRule type="expression" dxfId="131" priority="145" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="146" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="147" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="148" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="127" priority="137" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="138" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="139" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="140" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="123" priority="133" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="134" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="135" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="136" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
-    <cfRule type="expression" dxfId="119" priority="129" stopIfTrue="1">
-      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="130" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="131" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="160" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="115" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="153" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="154" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="155" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="156" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="111" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="149" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="150" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="151" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="152" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="expression" dxfId="107" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="145" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="146" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="147" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="148" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="expression" dxfId="103" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="141" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="142" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="143" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="144" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="expression" dxfId="99" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="137" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="138" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="139" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="140" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39">
-    <cfRule type="expression" dxfId="95" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="133" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="134" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="135" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="136" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="expression" dxfId="91" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="129" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="130" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="131" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="132" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50">
-    <cfRule type="expression" dxfId="87" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="125" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="126" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="127" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="128" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
-    <cfRule type="expression" dxfId="83" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="121" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="122" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="123" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="124" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="79" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="117" stopIfTrue="1">
       <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="119" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="120" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="expression" dxfId="75" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="113" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="115" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="116" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q21">
-    <cfRule type="expression" dxfId="71" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="109" stopIfTrue="1">
       <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="111" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="112" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S21">
-    <cfRule type="expression" dxfId="67" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="105" stopIfTrue="1">
       <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="107" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="108" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="expression" dxfId="63" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="101" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="103" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="104" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O48">
-    <cfRule type="expression" dxfId="59" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="97" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="99" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="100" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48">
-    <cfRule type="expression" dxfId="55" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="93" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="94" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="95" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="96" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M37">
-    <cfRule type="expression" dxfId="51" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="89" stopIfTrue="1">
       <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="91" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="92" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q48">
-    <cfRule type="expression" dxfId="47" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="85" stopIfTrue="1">
       <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="87" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="88" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S48">
-    <cfRule type="expression" dxfId="43" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="81" stopIfTrue="1">
       <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="83" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="84" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V48">
-    <cfRule type="expression" dxfId="39" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="73" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="75" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="76" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U48">
+    <cfRule type="expression" dxfId="55" priority="69" stopIfTrue="1">
+      <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="70" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="71" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="72" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:AS27">
+    <cfRule type="expression" dxfId="51" priority="65" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="67" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="68" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28:V28 X28:AS28">
+    <cfRule type="expression" dxfId="47" priority="61" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="62" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="63" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="64" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54:AS54">
+    <cfRule type="expression" dxfId="43" priority="57" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="58" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="59" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="60" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55:AS55">
+    <cfRule type="expression" dxfId="39" priority="53" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="54" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="55" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="56" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V56">
     <cfRule type="expression" dxfId="35" priority="41" stopIfTrue="1">
-      <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
       <formula>1</formula>
@@ -7506,93 +7794,93 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:AS27">
-    <cfRule type="expression" dxfId="31" priority="37" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
+  <conditionalFormatting sqref="W28">
+    <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28:V28 X28:AS28">
-    <cfRule type="expression" dxfId="27" priority="33" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
+  <conditionalFormatting sqref="W21">
+    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54:AS54">
-    <cfRule type="expression" dxfId="23" priority="29" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+  <conditionalFormatting sqref="W29">
+    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:AS55">
-    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
+  <conditionalFormatting sqref="W48">
+    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W56">
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V56">
-    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+  <conditionalFormatting sqref="X16">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W29">
+  <conditionalFormatting sqref="Y16">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
@@ -7604,9 +7892,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W28">
+  <conditionalFormatting sqref="Z16">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>aya</t>
     <phoneticPr fontId="4"/>
@@ -420,6 +420,20 @@
   </si>
   <si>
     <t>4.0h</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>11.バトルログとキャラクター表示を合わせる</t>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>12.0h</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -818,7 +832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,11 +928,135 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="263">
+  <dxfs count="275">
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFE6B8B7"/>
@@ -3816,11 +3954,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS58"/>
+  <dimension ref="A1:AS62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4848,8 +4986,12 @@
       <c r="A17" s="14"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="16"/>
+      <c r="D17" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
       <c r="H17" s="20"/>
@@ -4868,9 +5010,9 @@
       <c r="U17" s="20"/>
       <c r="V17" s="37"/>
       <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
       <c r="AC17" s="20"/>
@@ -4893,11 +5035,9 @@
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
-      <c r="B18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
       <c r="G18" s="18"/>
@@ -4915,11 +5055,11 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="49"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
       <c r="AC18" s="20"/>
@@ -4942,11 +5082,9 @@
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="21"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
       <c r="G19" s="18"/>
@@ -4964,11 +5102,11 @@
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
       <c r="AC19" s="20"/>
@@ -4991,21 +5129,15 @@
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="17">
-        <v>44228</v>
-      </c>
-      <c r="G20" s="18">
-        <v>44228</v>
-      </c>
-      <c r="H20" s="19"/>
+      <c r="B20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -5022,8 +5154,8 @@
       <c r="V20" s="20"/>
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
       <c r="AC20" s="20"/>
@@ -5046,142 +5178,142 @@
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="35">
-        <v>44235</v>
-      </c>
-      <c r="G21" s="36">
-        <v>44242</v>
-      </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
       <c r="N21" s="20"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="37"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="37"/>
-      <c r="AM21" s="37"/>
-      <c r="AN21" s="37"/>
-      <c r="AO21" s="37"/>
-      <c r="AP21" s="37"/>
-      <c r="AQ21" s="37"/>
-      <c r="AR21" s="37"/>
-      <c r="AS21" s="37"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="20"/>
+      <c r="AO21" s="20"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="20"/>
+      <c r="AR21" s="20"/>
+      <c r="AS21" s="20"/>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="17">
+        <v>44228</v>
+      </c>
+      <c r="G22" s="18">
+        <v>44228</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="20"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
       <c r="Y22" s="37"/>
       <c r="Z22" s="37"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="37"/>
-      <c r="AF22" s="37"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="37"/>
-      <c r="AI22" s="37"/>
-      <c r="AJ22" s="37"/>
-      <c r="AK22" s="37"/>
-      <c r="AL22" s="37"/>
-      <c r="AM22" s="37"/>
-      <c r="AN22" s="37"/>
-      <c r="AO22" s="37"/>
-      <c r="AP22" s="37"/>
-      <c r="AQ22" s="37"/>
-      <c r="AR22" s="37"/>
-      <c r="AS22" s="37"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="20"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="20"/>
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="20"/>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
-      <c r="D23" s="38" t="s">
-        <v>45</v>
+      <c r="D23" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F23" s="35">
-        <v>44231</v>
+        <v>44235</v>
       </c>
       <c r="G23" s="36">
-        <v>44233</v>
+        <v>44242</v>
       </c>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
-      <c r="K23" s="40"/>
+      <c r="K23" s="37"/>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
       <c r="N23" s="20"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
       <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
+      <c r="S23" s="19"/>
       <c r="T23" s="37"/>
       <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="40"/>
       <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
+      <c r="Y23" s="40"/>
       <c r="Z23" s="37"/>
       <c r="AA23" s="37"/>
       <c r="AB23" s="37"/>
@@ -5207,22 +5339,16 @@
       <c r="A24" s="14"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
-      <c r="D24" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="35">
-        <v>44231</v>
-      </c>
-      <c r="G24" s="36">
-        <v>44233</v>
-      </c>
-      <c r="H24" s="20"/>
+      <c r="D24" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
-      <c r="K24" s="40"/>
+      <c r="K24" s="37"/>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
       <c r="N24" s="20"/>
@@ -5262,14 +5388,22 @@
       <c r="A25" s="14"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="20"/>
+      <c r="D25" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="35">
+        <v>44231</v>
+      </c>
+      <c r="G25" s="36">
+        <v>44233</v>
+      </c>
+      <c r="H25" s="37"/>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
+      <c r="K25" s="40"/>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
       <c r="N25" s="20"/>
@@ -5309,14 +5443,22 @@
       <c r="A26" s="14"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
+      <c r="D26" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="35">
+        <v>44231</v>
+      </c>
+      <c r="G26" s="36">
+        <v>44233</v>
+      </c>
       <c r="H26" s="20"/>
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
+      <c r="K26" s="40"/>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
       <c r="N26" s="20"/>
@@ -5354,207 +5496,207 @@
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
-      <c r="B27" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
       <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
       <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="20"/>
-      <c r="AG27" s="20"/>
-      <c r="AH27" s="20"/>
-      <c r="AI27" s="20"/>
-      <c r="AJ27" s="20"/>
-      <c r="AK27" s="20"/>
-      <c r="AL27" s="20"/>
-      <c r="AM27" s="20"/>
-      <c r="AN27" s="20"/>
-      <c r="AO27" s="20"/>
-      <c r="AP27" s="20"/>
-      <c r="AQ27" s="20"/>
-      <c r="AR27" s="20"/>
-      <c r="AS27" s="20"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="37"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="37"/>
+      <c r="AM27" s="37"/>
+      <c r="AN27" s="37"/>
+      <c r="AO27" s="37"/>
+      <c r="AP27" s="37"/>
+      <c r="AQ27" s="37"/>
+      <c r="AR27" s="37"/>
+      <c r="AS27" s="37"/>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
       <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="20"/>
-      <c r="AI28" s="20"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="20"/>
-      <c r="AL28" s="20"/>
-      <c r="AM28" s="20"/>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="20"/>
-      <c r="AP28" s="20"/>
-      <c r="AQ28" s="20"/>
-      <c r="AR28" s="20"/>
-      <c r="AS28" s="20"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
+      <c r="AI28" s="37"/>
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="37"/>
+      <c r="AL28" s="37"/>
+      <c r="AM28" s="37"/>
+      <c r="AN28" s="37"/>
+      <c r="AO28" s="37"/>
+      <c r="AP28" s="37"/>
+      <c r="AQ28" s="37"/>
+      <c r="AR28" s="37"/>
+      <c r="AS28" s="37"/>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A29" s="14"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
+      <c r="B29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
       <c r="H29" s="20"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
       <c r="N29" s="20"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
       <c r="W29" s="20"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="37"/>
-      <c r="AG29" s="37"/>
-      <c r="AH29" s="37"/>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="37"/>
-      <c r="AK29" s="37"/>
-      <c r="AL29" s="37"/>
-      <c r="AM29" s="37"/>
-      <c r="AN29" s="37"/>
-      <c r="AO29" s="37"/>
-      <c r="AP29" s="37"/>
-      <c r="AQ29" s="37"/>
-      <c r="AR29" s="37"/>
-      <c r="AS29" s="37"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="20"/>
+      <c r="AH29" s="20"/>
+      <c r="AI29" s="20"/>
+      <c r="AJ29" s="20"/>
+      <c r="AK29" s="20"/>
+      <c r="AL29" s="20"/>
+      <c r="AM29" s="20"/>
+      <c r="AN29" s="20"/>
+      <c r="AO29" s="20"/>
+      <c r="AP29" s="20"/>
+      <c r="AQ29" s="20"/>
+      <c r="AR29" s="20"/>
+      <c r="AS29" s="20"/>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
       <c r="N30" s="20"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="37"/>
-      <c r="AE30" s="37"/>
-      <c r="AF30" s="37"/>
-      <c r="AG30" s="37"/>
-      <c r="AH30" s="37"/>
-      <c r="AI30" s="37"/>
-      <c r="AJ30" s="37"/>
-      <c r="AK30" s="37"/>
-      <c r="AL30" s="37"/>
-      <c r="AM30" s="37"/>
-      <c r="AN30" s="37"/>
-      <c r="AO30" s="37"/>
-      <c r="AP30" s="37"/>
-      <c r="AQ30" s="37"/>
-      <c r="AR30" s="37"/>
-      <c r="AS30" s="37"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="20"/>
+      <c r="AI30" s="20"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="20"/>
+      <c r="AM30" s="20"/>
+      <c r="AN30" s="20"/>
+      <c r="AO30" s="20"/>
+      <c r="AP30" s="20"/>
+      <c r="AQ30" s="20"/>
+      <c r="AR30" s="20"/>
+      <c r="AS30" s="20"/>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
-      <c r="D31" s="33"/>
+      <c r="D31" s="33" t="s">
+        <v>60</v>
+      </c>
       <c r="E31" s="34"/>
       <c r="F31" s="35"/>
       <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
+      <c r="H31" s="20"/>
       <c r="I31" s="37"/>
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
@@ -5569,7 +5711,7 @@
       <c r="T31" s="37"/>
       <c r="U31" s="37"/>
       <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
+      <c r="W31" s="20"/>
       <c r="X31" s="37"/>
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
@@ -5594,178 +5736,162 @@
       <c r="AS31" s="37"/>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A32" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
       <c r="N32" s="20"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="29"/>
-      <c r="AF32" s="29"/>
-      <c r="AG32" s="29"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="13"/>
-      <c r="AJ32" s="13"/>
-      <c r="AK32" s="13"/>
-      <c r="AL32" s="13"/>
-      <c r="AM32" s="13"/>
-      <c r="AN32" s="13"/>
-      <c r="AO32" s="13"/>
-      <c r="AP32" s="13"/>
-      <c r="AQ32" s="13"/>
-      <c r="AR32" s="13"/>
-      <c r="AS32" s="13"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="37"/>
+      <c r="AJ32" s="37"/>
+      <c r="AK32" s="37"/>
+      <c r="AL32" s="37"/>
+      <c r="AM32" s="37"/>
+      <c r="AN32" s="37"/>
+      <c r="AO32" s="37"/>
+      <c r="AP32" s="37"/>
+      <c r="AQ32" s="37"/>
+      <c r="AR32" s="37"/>
+      <c r="AS32" s="37"/>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A33" s="30"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
       <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
-      <c r="AD33" s="20"/>
-      <c r="AE33" s="20"/>
-      <c r="AF33" s="20"/>
-      <c r="AG33" s="20"/>
-      <c r="AH33" s="20"/>
-      <c r="AI33" s="20"/>
-      <c r="AJ33" s="20"/>
-      <c r="AK33" s="20"/>
-      <c r="AL33" s="20"/>
-      <c r="AM33" s="20"/>
-      <c r="AN33" s="20"/>
-      <c r="AO33" s="20"/>
-      <c r="AP33" s="20"/>
-      <c r="AQ33" s="20"/>
-      <c r="AR33" s="20"/>
-      <c r="AS33" s="20"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37"/>
+      <c r="AJ33" s="37"/>
+      <c r="AK33" s="37"/>
+      <c r="AL33" s="37"/>
+      <c r="AM33" s="37"/>
+      <c r="AN33" s="37"/>
+      <c r="AO33" s="37"/>
+      <c r="AP33" s="37"/>
+      <c r="AQ33" s="37"/>
+      <c r="AR33" s="37"/>
+      <c r="AS33" s="37"/>
     </row>
-    <row r="34" spans="1:45" ht="30" x14ac:dyDescent="0.35">
-      <c r="A34" s="30"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="31">
-        <v>1.2</v>
-      </c>
-      <c r="F34" s="17">
-        <v>44229</v>
-      </c>
-      <c r="G34" s="18">
-        <v>44229</v>
-      </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A34" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
       <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
       <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="20"/>
-      <c r="AI34" s="20"/>
-      <c r="AJ34" s="20"/>
-      <c r="AK34" s="20"/>
-      <c r="AL34" s="20"/>
-      <c r="AM34" s="20"/>
-      <c r="AN34" s="20"/>
-      <c r="AO34" s="20"/>
-      <c r="AP34" s="20"/>
-      <c r="AQ34" s="20"/>
-      <c r="AR34" s="20"/>
-      <c r="AS34" s="20"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="13"/>
+      <c r="AL34" s="13"/>
+      <c r="AM34" s="13"/>
+      <c r="AN34" s="13"/>
+      <c r="AO34" s="13"/>
+      <c r="AP34" s="13"/>
+      <c r="AQ34" s="13"/>
+      <c r="AR34" s="13"/>
+      <c r="AS34" s="13"/>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A35" s="30"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="31">
-        <v>1.3</v>
-      </c>
-      <c r="F35" s="17">
-        <v>44229</v>
-      </c>
-      <c r="G35" s="18">
-        <v>44229</v>
-      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
       <c r="H35" s="20"/>
-      <c r="I35" s="39"/>
+      <c r="I35" s="20"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
@@ -5805,23 +5931,23 @@
     </row>
     <row r="36" spans="1:45" ht="30" x14ac:dyDescent="0.35">
       <c r="A36" s="30"/>
-      <c r="B36" s="15"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="24" t="s">
-        <v>32</v>
+      <c r="D36" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="E36" s="31">
-        <v>2.2999999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="F36" s="17">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="G36" s="18">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
@@ -5863,23 +5989,23 @@
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="E37" s="31">
+        <v>1.3</v>
       </c>
       <c r="F37" s="17">
-        <v>44232</v>
+        <v>44229</v>
       </c>
       <c r="G37" s="18">
-        <v>44233</v>
+        <v>44229</v>
       </c>
       <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
+      <c r="I37" s="39"/>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
       <c r="N37" s="20"/>
       <c r="O37" s="20"/>
       <c r="P37" s="20"/>
@@ -5913,19 +6039,25 @@
       <c r="AR37" s="20"/>
       <c r="AS37" s="20"/>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:45" ht="30" x14ac:dyDescent="0.35">
       <c r="A38" s="30"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="E38" s="31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F38" s="17">
+        <v>44230</v>
+      </c>
+      <c r="G38" s="18">
+        <v>44230</v>
+      </c>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
+      <c r="J38" s="39"/>
       <c r="K38" s="20"/>
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
@@ -5964,26 +6096,26 @@
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A39" s="30"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="31">
-        <v>0.5</v>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="F39" s="17">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="G39" s="18">
-        <v>44231</v>
+        <v>44233</v>
       </c>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
       <c r="N39" s="20"/>
       <c r="O39" s="20"/>
       <c r="P39" s="20"/>
@@ -6019,24 +6151,18 @@
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A40" s="30"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="F40" s="17">
-        <v>44231</v>
-      </c>
-      <c r="G40" s="18">
-        <v>44231</v>
-      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
-      <c r="K40" s="39"/>
+      <c r="K40" s="20"/>
       <c r="L40" s="20"/>
       <c r="M40" s="20"/>
       <c r="N40" s="20"/>
@@ -6077,10 +6203,10 @@
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
       <c r="D41" s="38" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E41" s="31">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F41" s="17">
         <v>44231</v>
@@ -6132,15 +6258,21 @@
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
       <c r="D42" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="E42" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="F42" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G42" s="18">
+        <v>44231</v>
+      </c>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
+      <c r="K42" s="39"/>
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
@@ -6181,15 +6313,21 @@
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
       <c r="D43" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="E43" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="F43" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G43" s="18">
+        <v>44231</v>
+      </c>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
+      <c r="K43" s="39"/>
       <c r="L43" s="20"/>
       <c r="M43" s="20"/>
       <c r="N43" s="20"/>
@@ -6229,7 +6367,9 @@
       <c r="A44" s="30"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
-      <c r="D44" s="38"/>
+      <c r="D44" s="38" t="s">
+        <v>55</v>
+      </c>
       <c r="E44" s="31"/>
       <c r="F44" s="17"/>
       <c r="G44" s="18"/>
@@ -6274,12 +6414,14 @@
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A45" s="30"/>
-      <c r="B45" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="31"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="31">
+        <v>0.5</v>
+      </c>
       <c r="F45" s="17"/>
       <c r="G45" s="18"/>
       <c r="H45" s="20"/>
@@ -6298,7 +6440,7 @@
       <c r="U45" s="20"/>
       <c r="V45" s="20"/>
       <c r="W45" s="20"/>
-      <c r="X45" s="20"/>
+      <c r="X45" s="39"/>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
@@ -6323,11 +6465,11 @@
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A46" s="30"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="21"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="E46" s="31"/>
       <c r="F46" s="17"/>
       <c r="G46" s="18"/>
@@ -6372,22 +6514,14 @@
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A47" s="30"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="31">
-        <v>1.45</v>
-      </c>
-      <c r="F47" s="17">
-        <v>44228</v>
-      </c>
-      <c r="G47" s="18">
-        <v>44229</v>
-      </c>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
@@ -6427,17 +6561,11 @@
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A48" s="30"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="31">
-        <v>5.9</v>
-      </c>
-      <c r="F48" s="17">
-        <v>44235</v>
-      </c>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="17"/>
       <c r="G48" s="18"/>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
@@ -6446,15 +6574,15 @@
       <c r="L48" s="20"/>
       <c r="M48" s="20"/>
       <c r="N48" s="20"/>
-      <c r="O48" s="39"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="39"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
       <c r="R48" s="20"/>
-      <c r="S48" s="39"/>
+      <c r="S48" s="20"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="39"/>
-      <c r="W48" s="39"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
@@ -6480,11 +6608,11 @@
     </row>
     <row r="49" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A49" s="30"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="23" t="s">
-        <v>41</v>
-      </c>
+      <c r="B49" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="31"/>
       <c r="F49" s="17"/>
       <c r="G49" s="18"/>
@@ -6529,24 +6657,18 @@
     </row>
     <row r="50" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A50" s="30"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="31">
-        <v>1.4</v>
-      </c>
-      <c r="F50" s="17">
-        <v>44231</v>
-      </c>
-      <c r="G50" s="18">
-        <v>44231</v>
-      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="18"/>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
-      <c r="K50" s="39"/>
+      <c r="K50" s="20"/>
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
       <c r="N50" s="20"/>
@@ -6587,21 +6709,21 @@
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
       <c r="D51" s="23" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E51" s="31">
-        <v>0.5</v>
+        <v>1.45</v>
       </c>
       <c r="F51" s="17">
-        <v>44231</v>
+        <v>44228</v>
       </c>
       <c r="G51" s="18">
-        <v>44231</v>
-      </c>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
+        <v>44229</v>
+      </c>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
       <c r="J51" s="20"/>
-      <c r="K51" s="39"/>
+      <c r="K51" s="20"/>
       <c r="L51" s="20"/>
       <c r="M51" s="20"/>
       <c r="N51" s="20"/>
@@ -6641,9 +6763,15 @@
       <c r="A52" s="30"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="17"/>
+      <c r="D52" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="31">
+        <v>7.15</v>
+      </c>
+      <c r="F52" s="17">
+        <v>44235</v>
+      </c>
       <c r="G52" s="18"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -6652,16 +6780,16 @@
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
       <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
+      <c r="S52" s="39"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
-      <c r="X52" s="20"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="39"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
@@ -6688,7 +6816,9 @@
       <c r="A53" s="30"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
-      <c r="D53" s="23"/>
+      <c r="D53" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="E53" s="31"/>
       <c r="F53" s="17"/>
       <c r="G53" s="18"/>
@@ -6733,18 +6863,24 @@
     </row>
     <row r="54" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A54" s="30"/>
-      <c r="B54" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="18"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="31">
+        <v>1.4</v>
+      </c>
+      <c r="F54" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G54" s="18">
+        <v>44231</v>
+      </c>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
+      <c r="K54" s="39"/>
       <c r="L54" s="20"/>
       <c r="M54" s="20"/>
       <c r="N54" s="20"/>
@@ -6782,18 +6918,24 @@
     </row>
     <row r="55" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A55" s="30"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="18"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F55" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G55" s="18">
+        <v>44231</v>
+      </c>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
+      <c r="K55" s="39"/>
       <c r="L55" s="20"/>
       <c r="M55" s="20"/>
       <c r="N55" s="20"/>
@@ -6833,12 +6975,8 @@
       <c r="A56" s="30"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
-      <c r="D56" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E56" s="31">
-        <v>1</v>
-      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="31"/>
       <c r="F56" s="17"/>
       <c r="G56" s="18"/>
       <c r="H56" s="20"/>
@@ -6929,9 +7067,11 @@
     </row>
     <row r="58" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A58" s="30"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="23"/>
+      <c r="B58" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
       <c r="E58" s="31"/>
       <c r="F58" s="17"/>
       <c r="G58" s="18"/>
@@ -6974,6 +7114,200 @@
       <c r="AR58" s="20"/>
       <c r="AS58" s="20"/>
     </row>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A59" s="30"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="21"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="20"/>
+      <c r="AA59" s="20"/>
+      <c r="AB59" s="20"/>
+      <c r="AC59" s="20"/>
+      <c r="AD59" s="20"/>
+      <c r="AE59" s="20"/>
+      <c r="AF59" s="20"/>
+      <c r="AG59" s="20"/>
+      <c r="AH59" s="20"/>
+      <c r="AI59" s="20"/>
+      <c r="AJ59" s="20"/>
+      <c r="AK59" s="20"/>
+      <c r="AL59" s="20"/>
+      <c r="AM59" s="20"/>
+      <c r="AN59" s="20"/>
+      <c r="AO59" s="20"/>
+      <c r="AP59" s="20"/>
+      <c r="AQ59" s="20"/>
+      <c r="AR59" s="20"/>
+      <c r="AS59" s="20"/>
+    </row>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A60" s="30"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="31">
+        <v>1</v>
+      </c>
+      <c r="F60" s="17"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="20"/>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="20"/>
+      <c r="AA60" s="20"/>
+      <c r="AB60" s="20"/>
+      <c r="AC60" s="20"/>
+      <c r="AD60" s="20"/>
+      <c r="AE60" s="20"/>
+      <c r="AF60" s="20"/>
+      <c r="AG60" s="20"/>
+      <c r="AH60" s="20"/>
+      <c r="AI60" s="20"/>
+      <c r="AJ60" s="20"/>
+      <c r="AK60" s="20"/>
+      <c r="AL60" s="20"/>
+      <c r="AM60" s="20"/>
+      <c r="AN60" s="20"/>
+      <c r="AO60" s="20"/>
+      <c r="AP60" s="20"/>
+      <c r="AQ60" s="20"/>
+      <c r="AR60" s="20"/>
+      <c r="AS60" s="20"/>
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A61" s="30"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="20"/>
+      <c r="AA61" s="20"/>
+      <c r="AB61" s="20"/>
+      <c r="AC61" s="20"/>
+      <c r="AD61" s="20"/>
+      <c r="AE61" s="20"/>
+      <c r="AF61" s="20"/>
+      <c r="AG61" s="20"/>
+      <c r="AH61" s="20"/>
+      <c r="AI61" s="20"/>
+      <c r="AJ61" s="20"/>
+      <c r="AK61" s="20"/>
+      <c r="AL61" s="20"/>
+      <c r="AM61" s="20"/>
+      <c r="AN61" s="20"/>
+      <c r="AO61" s="20"/>
+      <c r="AP61" s="20"/>
+      <c r="AQ61" s="20"/>
+      <c r="AR61" s="20"/>
+      <c r="AS61" s="20"/>
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A62" s="30"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="20"/>
+      <c r="X62" s="20"/>
+      <c r="Y62" s="20"/>
+      <c r="Z62" s="20"/>
+      <c r="AA62" s="20"/>
+      <c r="AB62" s="20"/>
+      <c r="AC62" s="20"/>
+      <c r="AD62" s="20"/>
+      <c r="AE62" s="20"/>
+      <c r="AF62" s="20"/>
+      <c r="AG62" s="20"/>
+      <c r="AH62" s="20"/>
+      <c r="AI62" s="20"/>
+      <c r="AJ62" s="20"/>
+      <c r="AK62" s="20"/>
+      <c r="AL62" s="20"/>
+      <c r="AM62" s="20"/>
+      <c r="AN62" s="20"/>
+      <c r="AO62" s="20"/>
+      <c r="AP62" s="20"/>
+      <c r="AQ62" s="20"/>
+      <c r="AR62" s="20"/>
+      <c r="AS62" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
@@ -6984,49 +7318,91 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="H4:AS4">
-    <cfRule type="cellIs" dxfId="262" priority="833" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="845" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="834" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="846" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19:AS19 H18:AS18 H8:I8 K7:AS7 H9:J9 P9:AS9 I30:AS31 L8:AS8 T10:AS10 Y11:AS15 H49:AS49 J47:AS47 J20:X20 H38:AS38 H34:H35 J34:AS35 H36:I36 K36:AS36 H11:U17 H39:J41 L39:AS41 H52:AS53 H50:J51 L50:AS51 H37:K37 N37:AS37 H10:N10 H5:AS6 H32:AS33 I21:O21 R21 T21:U21 X21 H48:N48 R48 T48 X48:AS48 AA20:AS26 I22:X26 H24:H26 Y24:Z26 H57:AS58 H56:U56 X56:AS56 I29:V29 X29:AS29 H42:AS46 Y17:AS17 AA16:AS16">
-    <cfRule type="expression" dxfId="260" priority="829" stopIfTrue="1">
+  <conditionalFormatting sqref="L21:AS21 H20:AS20 H8:I8 K7:AS7 H9:J9 P9:AS9 I32:AS33 L8:AS8 T10:AS10 Y11:AS15 H53:AS53 J51:AS51 J22:X22 H40:AS40 H36:H37 J36:AS37 H38:I38 K38:AS38 H11:U19 H41:J43 L41:AS43 H56:AS57 H54:J55 L54:AS55 H39:K39 N39:AS39 H10:N10 H5:AS6 H34:AS35 I23:O23 R23 T23:U23 X23 H52:N52 R52 T52 Y52:AS52 AA22:AS28 I24:X28 H26:H28 Y26:Z28 H61:AS62 H60:U60 X60:AS60 I31:V31 X31:AS31 H44:AS44 AA16:AS19 H46:AS50 H45:W45 Y45:AS45">
+    <cfRule type="expression" dxfId="272" priority="841" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="842" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="831" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="843" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="832" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="844" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2">
-    <cfRule type="notContainsBlanks" dxfId="256" priority="835">
+    <cfRule type="notContainsBlanks" dxfId="268" priority="847">
       <formula>LEN(TRIM(AJ2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:J19">
-    <cfRule type="expression" dxfId="255" priority="797" stopIfTrue="1">
+  <conditionalFormatting sqref="H21:J21">
+    <cfRule type="expression" dxfId="267" priority="809" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="798" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="810" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="799" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="811" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="800" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="812" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="263" priority="333" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="334" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="335" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="336" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="expression" dxfId="259" priority="293" stopIfTrue="1">
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="294" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="295" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="296" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="expression" dxfId="255" priority="305" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="306" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="307" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="308" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
     <cfRule type="expression" dxfId="251" priority="321" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="250" priority="322" operator="equal">
       <formula>1</formula>
@@ -7038,191 +7414,191 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="247" priority="281" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="282" operator="equal">
+  <conditionalFormatting sqref="M9">
+    <cfRule type="expression" dxfId="247" priority="317" stopIfTrue="1">
+      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="318" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="319" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="284" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="243" priority="293" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="294" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="295" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="296" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="239" priority="309" stopIfTrue="1">
-      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="310" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="311" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="312" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="235" priority="305" stopIfTrue="1">
-      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="306" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="307" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="320" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="231" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="309" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="310" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="311" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="312" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="227" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="273" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="274" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="275" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="276" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="223" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="301" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="302" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="303" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="304" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H31">
-    <cfRule type="expression" dxfId="219" priority="253" stopIfTrue="1">
+  <conditionalFormatting sqref="H31:H33">
+    <cfRule type="expression" dxfId="231" priority="265" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="266" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="267" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="268" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="215" priority="277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="289" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="290" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="291" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="292" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:Q10 S10">
-    <cfRule type="expression" dxfId="211" priority="269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="281" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="282" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="283" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="284" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="207" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="277" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="278" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="279" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="280" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="203" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="221" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="222" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="223" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="224" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="199" priority="185" stopIfTrue="1">
+  <conditionalFormatting sqref="H23">
+    <cfRule type="expression" dxfId="211" priority="197" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="198" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="199" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="200" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y20:Y23">
+  <conditionalFormatting sqref="Y22 Y24:Y25">
+    <cfRule type="expression" dxfId="207" priority="245" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="246" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="247" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="248" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z22:Z25">
+    <cfRule type="expression" dxfId="203" priority="241" stopIfTrue="1">
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="242" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="243" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="244" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="expression" dxfId="199" priority="237" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="238" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="239" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="240" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
     <cfRule type="expression" dxfId="195" priority="233" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="194" priority="234" operator="equal">
       <formula>1</formula>
@@ -7234,49 +7610,49 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z20:Z23">
-    <cfRule type="expression" dxfId="191" priority="229" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="230" operator="equal">
+  <conditionalFormatting sqref="W12">
+    <cfRule type="expression" dxfId="191" priority="217" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="218" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="219" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="220" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="187" priority="225" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="226" operator="equal">
+  <conditionalFormatting sqref="X12">
+    <cfRule type="expression" dxfId="187" priority="213" stopIfTrue="1">
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="214" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="215" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="216" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="183" priority="221" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="222" operator="equal">
+  <conditionalFormatting sqref="X13:X15">
+    <cfRule type="expression" dxfId="183" priority="209" stopIfTrue="1">
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="210" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="211" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="212" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W12">
+  <conditionalFormatting sqref="W13:W19">
     <cfRule type="expression" dxfId="179" priority="205" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -7290,9 +7666,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X12">
+  <conditionalFormatting sqref="V13:V19">
     <cfRule type="expression" dxfId="175" priority="201" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="174" priority="202" operator="equal">
       <formula>1</formula>
@@ -7304,93 +7680,93 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X13:X15 X17">
-    <cfRule type="expression" dxfId="171" priority="197" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="198" operator="equal">
+  <conditionalFormatting sqref="H24:H25">
+    <cfRule type="expression" dxfId="171" priority="193" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="194" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="195" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="196" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13:W17">
-    <cfRule type="expression" dxfId="167" priority="193" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="194" operator="equal">
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="167" priority="181" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="182" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="183" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="184" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V13:V17">
-    <cfRule type="expression" dxfId="163" priority="189" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="190" operator="equal">
+  <conditionalFormatting sqref="I51">
+    <cfRule type="expression" dxfId="163" priority="185" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="187" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="188" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H23">
-    <cfRule type="expression" dxfId="159" priority="181" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="182" operator="equal">
+  <conditionalFormatting sqref="I36">
+    <cfRule type="expression" dxfId="159" priority="177" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="178" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="179" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="180" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="155" priority="169" stopIfTrue="1">
+  <conditionalFormatting sqref="I37">
+    <cfRule type="expression" dxfId="155" priority="173" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="175" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="176" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
-    <cfRule type="expression" dxfId="151" priority="173" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="174" operator="equal">
+  <conditionalFormatting sqref="N9">
+    <cfRule type="expression" dxfId="151" priority="169" stopIfTrue="1">
+      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="170" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="171" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="172" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
+  <conditionalFormatting sqref="O9">
     <cfRule type="expression" dxfId="147" priority="165" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="146" priority="166" operator="equal">
       <formula>1</formula>
@@ -7402,9 +7778,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
+  <conditionalFormatting sqref="O10">
     <cfRule type="expression" dxfId="143" priority="161" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="142" priority="162" operator="equal">
       <formula>1</formula>
@@ -7416,9 +7792,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="J38">
     <cfRule type="expression" dxfId="139" priority="157" stopIfTrue="1">
-      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="138" priority="158" operator="equal">
       <formula>1</formula>
@@ -7430,9 +7806,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
+  <conditionalFormatting sqref="K42">
     <cfRule type="expression" dxfId="135" priority="153" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="134" priority="154" operator="equal">
       <formula>1</formula>
@@ -7444,9 +7820,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
+  <conditionalFormatting sqref="K43">
     <cfRule type="expression" dxfId="131" priority="149" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="130" priority="150" operator="equal">
       <formula>1</formula>
@@ -7458,9 +7834,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
+  <conditionalFormatting sqref="K41">
     <cfRule type="expression" dxfId="127" priority="145" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="126" priority="146" operator="equal">
       <formula>1</formula>
@@ -7472,7 +7848,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40">
+  <conditionalFormatting sqref="K55">
     <cfRule type="expression" dxfId="123" priority="141" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -7486,7 +7862,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
+  <conditionalFormatting sqref="K54">
     <cfRule type="expression" dxfId="119" priority="137" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -7500,9 +7876,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39">
+  <conditionalFormatting sqref="L39">
     <cfRule type="expression" dxfId="115" priority="133" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="114" priority="134" operator="equal">
       <formula>1</formula>
@@ -7514,9 +7890,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51">
+  <conditionalFormatting sqref="R10">
     <cfRule type="expression" dxfId="111" priority="129" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="110" priority="130" operator="equal">
       <formula>1</formula>
@@ -7528,9 +7904,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
+  <conditionalFormatting sqref="P23">
     <cfRule type="expression" dxfId="107" priority="125" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="106" priority="126" operator="equal">
       <formula>1</formula>
@@ -7542,9 +7918,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L37">
+  <conditionalFormatting sqref="Q23">
     <cfRule type="expression" dxfId="103" priority="121" stopIfTrue="1">
-      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="102" priority="122" operator="equal">
       <formula>1</formula>
@@ -7556,9 +7932,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
+  <conditionalFormatting sqref="S23">
     <cfRule type="expression" dxfId="99" priority="117" stopIfTrue="1">
-      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="98" priority="118" operator="equal">
       <formula>1</formula>
@@ -7570,9 +7946,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P21">
+  <conditionalFormatting sqref="V23">
     <cfRule type="expression" dxfId="95" priority="113" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="94" priority="114" operator="equal">
       <formula>1</formula>
@@ -7584,9 +7960,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q21">
+  <conditionalFormatting sqref="O52">
     <cfRule type="expression" dxfId="91" priority="109" stopIfTrue="1">
-      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="90" priority="110" operator="equal">
       <formula>1</formula>
@@ -7598,9 +7974,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S21">
+  <conditionalFormatting sqref="P52">
     <cfRule type="expression" dxfId="87" priority="105" stopIfTrue="1">
-      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="86" priority="106" operator="equal">
       <formula>1</formula>
@@ -7612,9 +7988,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V21">
+  <conditionalFormatting sqref="M39">
     <cfRule type="expression" dxfId="83" priority="101" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="82" priority="102" operator="equal">
       <formula>1</formula>
@@ -7626,9 +8002,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O48">
+  <conditionalFormatting sqref="Q52">
     <cfRule type="expression" dxfId="79" priority="97" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="78" priority="98" operator="equal">
       <formula>1</formula>
@@ -7640,9 +8016,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P48">
+  <conditionalFormatting sqref="S52">
     <cfRule type="expression" dxfId="75" priority="93" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="74" priority="94" operator="equal">
       <formula>1</formula>
@@ -7654,51 +8030,51 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M37">
-    <cfRule type="expression" dxfId="71" priority="89" stopIfTrue="1">
-      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="90" operator="equal">
+  <conditionalFormatting sqref="V52">
+    <cfRule type="expression" dxfId="71" priority="85" stopIfTrue="1">
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="87" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="88" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q48">
-    <cfRule type="expression" dxfId="67" priority="85" stopIfTrue="1">
-      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="86" operator="equal">
+  <conditionalFormatting sqref="U52">
+    <cfRule type="expression" dxfId="67" priority="81" stopIfTrue="1">
+      <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="83" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="84" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S48">
-    <cfRule type="expression" dxfId="63" priority="81" stopIfTrue="1">
-      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="82" operator="equal">
+  <conditionalFormatting sqref="H29:AS29">
+    <cfRule type="expression" dxfId="63" priority="77" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="79" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="80" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V48">
+  <conditionalFormatting sqref="H30:V30 X30:AS30">
     <cfRule type="expression" dxfId="59" priority="73" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="58" priority="74" operator="equal">
       <formula>1</formula>
@@ -7710,9 +8086,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U48">
+  <conditionalFormatting sqref="H58:AS58">
     <cfRule type="expression" dxfId="55" priority="69" stopIfTrue="1">
-      <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="54" priority="70" operator="equal">
       <formula>1</formula>
@@ -7724,7 +8100,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:AS27">
+  <conditionalFormatting sqref="H59:AS59">
     <cfRule type="expression" dxfId="51" priority="65" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -7738,63 +8114,63 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28:V28 X28:AS28">
-    <cfRule type="expression" dxfId="47" priority="61" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="62" operator="equal">
+  <conditionalFormatting sqref="V60">
+    <cfRule type="expression" dxfId="47" priority="53" stopIfTrue="1">
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="55" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="56" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54:AS54">
-    <cfRule type="expression" dxfId="43" priority="57" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="58" operator="equal">
+  <conditionalFormatting sqref="W30">
+    <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:AS55">
-    <cfRule type="expression" dxfId="39" priority="53" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="54" operator="equal">
+  <conditionalFormatting sqref="W23">
+    <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V56">
-    <cfRule type="expression" dxfId="35" priority="41" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
+  <conditionalFormatting sqref="W31">
+    <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W28">
+  <conditionalFormatting sqref="W52">
     <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -7808,7 +8184,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W21">
+  <conditionalFormatting sqref="W60">
     <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -7822,9 +8198,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W29">
+  <conditionalFormatting sqref="X16:X19">
     <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>1</formula>
@@ -7836,9 +8212,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W48">
+  <conditionalFormatting sqref="Y16:Y19">
     <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>1</formula>
@@ -7850,9 +8226,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W56">
+  <conditionalFormatting sqref="Z16:Z19">
     <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
@@ -7864,7 +8240,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X16">
+  <conditionalFormatting sqref="X45">
     <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -7878,9 +8254,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y16">
+  <conditionalFormatting sqref="X52">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
@@ -7892,9 +8268,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z16">
+  <conditionalFormatting sqref="Y23">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
   <si>
     <t>aya</t>
     <phoneticPr fontId="4"/>
@@ -434,6 +434,87 @@
   </si>
   <si>
     <t>12.0h</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リファクタリング</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1.グルーピング</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2.strategyクラスの名前変更</t>
+    <rPh sb="14" eb="18">
+      <t>ナマエヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3.attackをインターフェースを利用して作成する</t>
+    <rPh sb="18" eb="20">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>4.設定関連をenumで作成する</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>5.データベースの不具合の修正</t>
+    <rPh sb="9" eb="12">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>6.変数名を分かりやすくるる</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>7.ラジオボタンの修正</t>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>8.キャラクター作成の不具合修正</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウセイ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -910,6 +991,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -928,15 +1013,851 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="275">
+  <dxfs count="359">
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFE6B8B7"/>
@@ -3954,11 +4875,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS62"/>
+  <dimension ref="A1:AS86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W25" sqref="W25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM39" sqref="AM39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3972,11 +4893,11 @@
   <sheetData>
     <row r="1" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="2"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -4021,56 +4942,56 @@
     </row>
     <row r="2" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="46">
+      <c r="H2" s="48">
         <v>44228</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="48" t="s">
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="48"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -4197,11 +5118,11 @@
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
@@ -5010,7 +5931,7 @@
       <c r="U17" s="20"/>
       <c r="V17" s="37"/>
       <c r="W17" s="37"/>
-      <c r="X17" s="49"/>
+      <c r="X17" s="41"/>
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
       <c r="AA17" s="20"/>
@@ -5057,7 +5978,7 @@
       <c r="U18" s="20"/>
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
-      <c r="X18" s="49"/>
+      <c r="X18" s="41"/>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="20"/>
@@ -5084,7 +6005,7 @@
       <c r="A19" s="14"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
-      <c r="D19" s="50"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
       <c r="G19" s="18"/>
@@ -5104,7 +6025,7 @@
       <c r="U19" s="20"/>
       <c r="V19" s="37"/>
       <c r="W19" s="37"/>
-      <c r="X19" s="49"/>
+      <c r="X19" s="41"/>
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
       <c r="AA19" s="20"/>
@@ -5591,12 +6512,16 @@
     <row r="29" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A29" s="14"/>
       <c r="B29" s="8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
+      <c r="E29" s="16">
+        <v>23.25</v>
+      </c>
+      <c r="F29" s="17">
+        <v>44251</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
@@ -5639,61 +6564,63 @@
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
       <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
       <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20"/>
-      <c r="AG30" s="20"/>
-      <c r="AH30" s="20"/>
-      <c r="AI30" s="20"/>
-      <c r="AJ30" s="20"/>
-      <c r="AK30" s="20"/>
-      <c r="AL30" s="20"/>
-      <c r="AM30" s="20"/>
-      <c r="AN30" s="20"/>
-      <c r="AO30" s="20"/>
-      <c r="AP30" s="20"/>
-      <c r="AQ30" s="20"/>
-      <c r="AR30" s="20"/>
-      <c r="AS30" s="20"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="37"/>
+      <c r="AK30" s="37"/>
+      <c r="AL30" s="37"/>
+      <c r="AM30" s="37"/>
+      <c r="AN30" s="37"/>
+      <c r="AO30" s="37"/>
+      <c r="AP30" s="37"/>
+      <c r="AQ30" s="37"/>
+      <c r="AR30" s="37"/>
+      <c r="AS30" s="37"/>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="34"/>
+        <v>66</v>
+      </c>
+      <c r="E31" s="34">
+        <v>1</v>
+      </c>
       <c r="F31" s="35"/>
       <c r="G31" s="36"/>
       <c r="H31" s="20"/>
@@ -5711,7 +6638,7 @@
       <c r="T31" s="37"/>
       <c r="U31" s="37"/>
       <c r="V31" s="37"/>
-      <c r="W31" s="20"/>
+      <c r="W31" s="37"/>
       <c r="X31" s="37"/>
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
@@ -5719,7 +6646,7 @@
       <c r="AB31" s="37"/>
       <c r="AC31" s="37"/>
       <c r="AD31" s="37"/>
-      <c r="AE31" s="37"/>
+      <c r="AE31" s="19"/>
       <c r="AF31" s="37"/>
       <c r="AG31" s="37"/>
       <c r="AH31" s="37"/>
@@ -5739,11 +6666,15 @@
       <c r="A32" s="14"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="34">
+        <v>0.25</v>
+      </c>
       <c r="F32" s="35"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="37"/>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
@@ -5766,7 +6697,7 @@
       <c r="AB32" s="37"/>
       <c r="AC32" s="37"/>
       <c r="AD32" s="37"/>
-      <c r="AE32" s="37"/>
+      <c r="AE32" s="19"/>
       <c r="AF32" s="37"/>
       <c r="AG32" s="37"/>
       <c r="AH32" s="37"/>
@@ -5786,11 +6717,15 @@
       <c r="A33" s="14"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
+      <c r="D33" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="34">
+        <v>8</v>
+      </c>
       <c r="F33" s="35"/>
       <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
+      <c r="H33" s="20"/>
       <c r="I33" s="37"/>
       <c r="J33" s="37"/>
       <c r="K33" s="37"/>
@@ -5819,10 +6754,10 @@
       <c r="AH33" s="37"/>
       <c r="AI33" s="37"/>
       <c r="AJ33" s="37"/>
-      <c r="AK33" s="37"/>
-      <c r="AL33" s="37"/>
-      <c r="AM33" s="37"/>
-      <c r="AN33" s="37"/>
+      <c r="AK33" s="19"/>
+      <c r="AL33" s="19"/>
+      <c r="AM33" s="19"/>
+      <c r="AN33" s="19"/>
       <c r="AO33" s="37"/>
       <c r="AP33" s="37"/>
       <c r="AQ33" s="37"/>
@@ -5830,394 +6765,368 @@
       <c r="AS33" s="37"/>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A34" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="34">
+        <v>6</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
       <c r="N34" s="20"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="29"/>
-      <c r="AF34" s="29"/>
-      <c r="AG34" s="29"/>
-      <c r="AH34" s="13"/>
-      <c r="AI34" s="13"/>
-      <c r="AJ34" s="13"/>
-      <c r="AK34" s="13"/>
-      <c r="AL34" s="13"/>
-      <c r="AM34" s="13"/>
-      <c r="AN34" s="13"/>
-      <c r="AO34" s="13"/>
-      <c r="AP34" s="13"/>
-      <c r="AQ34" s="13"/>
-      <c r="AR34" s="13"/>
-      <c r="AS34" s="13"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="37"/>
+      <c r="AI34" s="37"/>
+      <c r="AJ34" s="37"/>
+      <c r="AK34" s="37"/>
+      <c r="AL34" s="37"/>
+      <c r="AM34" s="37"/>
+      <c r="AN34" s="37"/>
+      <c r="AO34" s="37"/>
+      <c r="AP34" s="37"/>
+      <c r="AQ34" s="37"/>
+      <c r="AR34" s="37"/>
+      <c r="AS34" s="37"/>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A35" s="30"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="34">
+        <v>2</v>
+      </c>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
       <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
       <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="20"/>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="20"/>
-      <c r="AA35" s="20"/>
-      <c r="AB35" s="20"/>
-      <c r="AC35" s="20"/>
-      <c r="AD35" s="20"/>
-      <c r="AE35" s="20"/>
-      <c r="AF35" s="20"/>
-      <c r="AG35" s="20"/>
-      <c r="AH35" s="20"/>
-      <c r="AI35" s="20"/>
-      <c r="AJ35" s="20"/>
-      <c r="AK35" s="20"/>
-      <c r="AL35" s="20"/>
-      <c r="AM35" s="20"/>
-      <c r="AN35" s="20"/>
-      <c r="AO35" s="20"/>
-      <c r="AP35" s="20"/>
-      <c r="AQ35" s="20"/>
-      <c r="AR35" s="20"/>
-      <c r="AS35" s="20"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="37"/>
+      <c r="AC35" s="37"/>
+      <c r="AD35" s="37"/>
+      <c r="AE35" s="37"/>
+      <c r="AF35" s="37"/>
+      <c r="AG35" s="37"/>
+      <c r="AH35" s="37"/>
+      <c r="AI35" s="37"/>
+      <c r="AJ35" s="37"/>
+      <c r="AK35" s="37"/>
+      <c r="AL35" s="37"/>
+      <c r="AM35" s="37"/>
+      <c r="AN35" s="37"/>
+      <c r="AO35" s="37"/>
+      <c r="AP35" s="37"/>
+      <c r="AQ35" s="19"/>
+      <c r="AR35" s="37"/>
+      <c r="AS35" s="37"/>
     </row>
-    <row r="36" spans="1:45" ht="30" x14ac:dyDescent="0.35">
-      <c r="A36" s="30"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="31">
-        <v>1.2</v>
-      </c>
-      <c r="F36" s="17">
-        <v>44229</v>
-      </c>
-      <c r="G36" s="18">
-        <v>44229</v>
-      </c>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A36" s="14"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="34">
+        <v>1</v>
+      </c>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
       <c r="H36" s="20"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
       <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
-      <c r="AD36" s="20"/>
-      <c r="AE36" s="20"/>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="20"/>
-      <c r="AH36" s="20"/>
-      <c r="AI36" s="20"/>
-      <c r="AJ36" s="20"/>
-      <c r="AK36" s="20"/>
-      <c r="AL36" s="20"/>
-      <c r="AM36" s="20"/>
-      <c r="AN36" s="20"/>
-      <c r="AO36" s="20"/>
-      <c r="AP36" s="20"/>
-      <c r="AQ36" s="20"/>
-      <c r="AR36" s="20"/>
-      <c r="AS36" s="20"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="19"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="37"/>
+      <c r="AJ36" s="37"/>
+      <c r="AK36" s="37"/>
+      <c r="AL36" s="37"/>
+      <c r="AM36" s="37"/>
+      <c r="AN36" s="37"/>
+      <c r="AO36" s="37"/>
+      <c r="AP36" s="37"/>
+      <c r="AQ36" s="37"/>
+      <c r="AR36" s="37"/>
+      <c r="AS36" s="37"/>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A37" s="30"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="31">
-        <v>1.3</v>
-      </c>
-      <c r="F37" s="17">
-        <v>44229</v>
-      </c>
-      <c r="G37" s="18">
-        <v>44229</v>
-      </c>
+      <c r="A37" s="14"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="34">
+        <v>3</v>
+      </c>
+      <c r="F37" s="35"/>
+      <c r="G37" s="36"/>
       <c r="H37" s="20"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
       <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="20"/>
-      <c r="AH37" s="20"/>
-      <c r="AI37" s="20"/>
-      <c r="AJ37" s="20"/>
-      <c r="AK37" s="20"/>
-      <c r="AL37" s="20"/>
-      <c r="AM37" s="20"/>
-      <c r="AN37" s="20"/>
-      <c r="AO37" s="20"/>
-      <c r="AP37" s="20"/>
-      <c r="AQ37" s="20"/>
-      <c r="AR37" s="20"/>
-      <c r="AS37" s="20"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="37"/>
+      <c r="AE37" s="37"/>
+      <c r="AF37" s="37"/>
+      <c r="AG37" s="37"/>
+      <c r="AH37" s="37"/>
+      <c r="AI37" s="37"/>
+      <c r="AJ37" s="37"/>
+      <c r="AK37" s="37"/>
+      <c r="AL37" s="37"/>
+      <c r="AM37" s="37"/>
+      <c r="AN37" s="37"/>
+      <c r="AO37" s="37"/>
+      <c r="AP37" s="37"/>
+      <c r="AQ37" s="37"/>
+      <c r="AR37" s="19"/>
+      <c r="AS37" s="19"/>
     </row>
-    <row r="38" spans="1:45" ht="30" x14ac:dyDescent="0.35">
-      <c r="A38" s="30"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="31">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F38" s="17">
-        <v>44230</v>
-      </c>
-      <c r="G38" s="18">
-        <v>44230</v>
-      </c>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A38" s="14"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="34">
+        <v>2</v>
+      </c>
+      <c r="F38" s="35"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
       <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
-      <c r="AD38" s="20"/>
-      <c r="AE38" s="20"/>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="20"/>
-      <c r="AH38" s="20"/>
-      <c r="AI38" s="20"/>
-      <c r="AJ38" s="20"/>
-      <c r="AK38" s="20"/>
-      <c r="AL38" s="20"/>
-      <c r="AM38" s="20"/>
-      <c r="AN38" s="20"/>
-      <c r="AO38" s="20"/>
-      <c r="AP38" s="20"/>
-      <c r="AQ38" s="20"/>
-      <c r="AR38" s="20"/>
-      <c r="AS38" s="20"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="37"/>
+      <c r="AE38" s="37"/>
+      <c r="AF38" s="37"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="37"/>
+      <c r="AI38" s="37"/>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="37"/>
+      <c r="AL38" s="37"/>
+      <c r="AM38" s="37"/>
+      <c r="AN38" s="37"/>
+      <c r="AO38" s="37"/>
+      <c r="AP38" s="37"/>
+      <c r="AQ38" s="37"/>
+      <c r="AR38" s="37"/>
+      <c r="AS38" s="37"/>
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A39" s="30"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="17">
-        <v>44232</v>
-      </c>
-      <c r="G39" s="18">
-        <v>44233</v>
-      </c>
+      <c r="A39" s="14"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="36"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
       <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="20"/>
-      <c r="AC39" s="20"/>
-      <c r="AD39" s="20"/>
-      <c r="AE39" s="20"/>
-      <c r="AF39" s="20"/>
-      <c r="AG39" s="20"/>
-      <c r="AH39" s="20"/>
-      <c r="AI39" s="20"/>
-      <c r="AJ39" s="20"/>
-      <c r="AK39" s="20"/>
-      <c r="AL39" s="20"/>
-      <c r="AM39" s="20"/>
-      <c r="AN39" s="20"/>
-      <c r="AO39" s="20"/>
-      <c r="AP39" s="20"/>
-      <c r="AQ39" s="20"/>
-      <c r="AR39" s="20"/>
-      <c r="AS39" s="20"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="37"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="37"/>
+      <c r="AE39" s="37"/>
+      <c r="AF39" s="37"/>
+      <c r="AG39" s="37"/>
+      <c r="AH39" s="37"/>
+      <c r="AI39" s="37"/>
+      <c r="AJ39" s="37"/>
+      <c r="AK39" s="37"/>
+      <c r="AL39" s="37"/>
+      <c r="AM39" s="37"/>
+      <c r="AN39" s="37"/>
+      <c r="AO39" s="37"/>
+      <c r="AP39" s="37"/>
+      <c r="AQ39" s="37"/>
+      <c r="AR39" s="37"/>
+      <c r="AS39" s="37"/>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A40" s="30"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="18"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="36"/>
       <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
       <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="20"/>
-      <c r="AC40" s="20"/>
-      <c r="AD40" s="20"/>
-      <c r="AE40" s="20"/>
-      <c r="AF40" s="20"/>
-      <c r="AG40" s="20"/>
-      <c r="AH40" s="20"/>
-      <c r="AI40" s="20"/>
-      <c r="AJ40" s="20"/>
-      <c r="AK40" s="20"/>
-      <c r="AL40" s="20"/>
-      <c r="AM40" s="20"/>
-      <c r="AN40" s="20"/>
-      <c r="AO40" s="20"/>
-      <c r="AP40" s="20"/>
-      <c r="AQ40" s="20"/>
-      <c r="AR40" s="20"/>
-      <c r="AS40" s="20"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
+      <c r="AA40" s="37"/>
+      <c r="AB40" s="37"/>
+      <c r="AC40" s="37"/>
+      <c r="AD40" s="37"/>
+      <c r="AE40" s="37"/>
+      <c r="AF40" s="37"/>
+      <c r="AG40" s="37"/>
+      <c r="AH40" s="37"/>
+      <c r="AI40" s="37"/>
+      <c r="AJ40" s="37"/>
+      <c r="AK40" s="37"/>
+      <c r="AL40" s="37"/>
+      <c r="AM40" s="37"/>
+      <c r="AN40" s="37"/>
+      <c r="AO40" s="37"/>
+      <c r="AP40" s="37"/>
+      <c r="AQ40" s="37"/>
+      <c r="AR40" s="37"/>
+      <c r="AS40" s="37"/>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A41" s="30"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F41" s="17">
-        <v>44231</v>
-      </c>
-      <c r="G41" s="18">
-        <v>44231</v>
-      </c>
+      <c r="A41" s="14"/>
+      <c r="B41" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
-      <c r="K41" s="39"/>
+      <c r="K41" s="20"/>
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
@@ -6254,25 +7163,19 @@
       <c r="AS41" s="20"/>
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A42" s="30"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="F42" s="17">
-        <v>44231</v>
-      </c>
-      <c r="G42" s="18">
-        <v>44231</v>
-      </c>
+      <c r="A42" s="14"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
-      <c r="K42" s="39"/>
+      <c r="K42" s="20"/>
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
@@ -6309,214 +7212,206 @@
       <c r="AS42" s="20"/>
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A43" s="30"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
-      <c r="D43" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="F43" s="17">
-        <v>44231</v>
-      </c>
-      <c r="G43" s="18">
-        <v>44231</v>
-      </c>
+      <c r="D43" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="36"/>
       <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
       <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
       <c r="W43" s="20"/>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
-      <c r="AC43" s="20"/>
-      <c r="AD43" s="20"/>
-      <c r="AE43" s="20"/>
-      <c r="AF43" s="20"/>
-      <c r="AG43" s="20"/>
-      <c r="AH43" s="20"/>
-      <c r="AI43" s="20"/>
-      <c r="AJ43" s="20"/>
-      <c r="AK43" s="20"/>
-      <c r="AL43" s="20"/>
-      <c r="AM43" s="20"/>
-      <c r="AN43" s="20"/>
-      <c r="AO43" s="20"/>
-      <c r="AP43" s="20"/>
-      <c r="AQ43" s="20"/>
-      <c r="AR43" s="20"/>
-      <c r="AS43" s="20"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="37"/>
+      <c r="AA43" s="37"/>
+      <c r="AB43" s="37"/>
+      <c r="AC43" s="37"/>
+      <c r="AD43" s="37"/>
+      <c r="AE43" s="37"/>
+      <c r="AF43" s="37"/>
+      <c r="AG43" s="37"/>
+      <c r="AH43" s="37"/>
+      <c r="AI43" s="37"/>
+      <c r="AJ43" s="37"/>
+      <c r="AK43" s="37"/>
+      <c r="AL43" s="37"/>
+      <c r="AM43" s="37"/>
+      <c r="AN43" s="37"/>
+      <c r="AO43" s="37"/>
+      <c r="AP43" s="37"/>
+      <c r="AQ43" s="37"/>
+      <c r="AR43" s="37"/>
+      <c r="AS43" s="37"/>
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A44" s="30"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
-      <c r="D44" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
       <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="20"/>
-      <c r="X44" s="20"/>
-      <c r="Y44" s="20"/>
-      <c r="Z44" s="20"/>
-      <c r="AA44" s="20"/>
-      <c r="AB44" s="20"/>
-      <c r="AC44" s="20"/>
-      <c r="AD44" s="20"/>
-      <c r="AE44" s="20"/>
-      <c r="AF44" s="20"/>
-      <c r="AG44" s="20"/>
-      <c r="AH44" s="20"/>
-      <c r="AI44" s="20"/>
-      <c r="AJ44" s="20"/>
-      <c r="AK44" s="20"/>
-      <c r="AL44" s="20"/>
-      <c r="AM44" s="20"/>
-      <c r="AN44" s="20"/>
-      <c r="AO44" s="20"/>
-      <c r="AP44" s="20"/>
-      <c r="AQ44" s="20"/>
-      <c r="AR44" s="20"/>
-      <c r="AS44" s="20"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
+      <c r="AA44" s="37"/>
+      <c r="AB44" s="37"/>
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="37"/>
+      <c r="AE44" s="37"/>
+      <c r="AF44" s="37"/>
+      <c r="AG44" s="37"/>
+      <c r="AH44" s="37"/>
+      <c r="AI44" s="37"/>
+      <c r="AJ44" s="37"/>
+      <c r="AK44" s="37"/>
+      <c r="AL44" s="37"/>
+      <c r="AM44" s="37"/>
+      <c r="AN44" s="37"/>
+      <c r="AO44" s="37"/>
+      <c r="AP44" s="37"/>
+      <c r="AQ44" s="37"/>
+      <c r="AR44" s="37"/>
+      <c r="AS44" s="37"/>
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A45" s="30"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
-      <c r="D45" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
       <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="39"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20"/>
-      <c r="AB45" s="20"/>
-      <c r="AC45" s="20"/>
-      <c r="AD45" s="20"/>
-      <c r="AE45" s="20"/>
-      <c r="AF45" s="20"/>
-      <c r="AG45" s="20"/>
-      <c r="AH45" s="20"/>
-      <c r="AI45" s="20"/>
-      <c r="AJ45" s="20"/>
-      <c r="AK45" s="20"/>
-      <c r="AL45" s="20"/>
-      <c r="AM45" s="20"/>
-      <c r="AN45" s="20"/>
-      <c r="AO45" s="20"/>
-      <c r="AP45" s="20"/>
-      <c r="AQ45" s="20"/>
-      <c r="AR45" s="20"/>
-      <c r="AS45" s="20"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
+      <c r="AA45" s="37"/>
+      <c r="AB45" s="37"/>
+      <c r="AC45" s="37"/>
+      <c r="AD45" s="37"/>
+      <c r="AE45" s="37"/>
+      <c r="AF45" s="37"/>
+      <c r="AG45" s="37"/>
+      <c r="AH45" s="37"/>
+      <c r="AI45" s="37"/>
+      <c r="AJ45" s="37"/>
+      <c r="AK45" s="37"/>
+      <c r="AL45" s="37"/>
+      <c r="AM45" s="37"/>
+      <c r="AN45" s="37"/>
+      <c r="AO45" s="37"/>
+      <c r="AP45" s="37"/>
+      <c r="AQ45" s="37"/>
+      <c r="AR45" s="37"/>
+      <c r="AS45" s="37"/>
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A46" s="30"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
+      <c r="A46" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
       <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
       <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="20"/>
-      <c r="X46" s="20"/>
-      <c r="Y46" s="20"/>
-      <c r="Z46" s="20"/>
-      <c r="AA46" s="20"/>
-      <c r="AB46" s="20"/>
-      <c r="AC46" s="20"/>
-      <c r="AD46" s="20"/>
-      <c r="AE46" s="20"/>
-      <c r="AF46" s="20"/>
-      <c r="AG46" s="20"/>
-      <c r="AH46" s="20"/>
-      <c r="AI46" s="20"/>
-      <c r="AJ46" s="20"/>
-      <c r="AK46" s="20"/>
-      <c r="AL46" s="20"/>
-      <c r="AM46" s="20"/>
-      <c r="AN46" s="20"/>
-      <c r="AO46" s="20"/>
-      <c r="AP46" s="20"/>
-      <c r="AQ46" s="20"/>
-      <c r="AR46" s="20"/>
-      <c r="AS46" s="20"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="13"/>
+      <c r="AB46" s="13"/>
+      <c r="AC46" s="13"/>
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="29"/>
+      <c r="AF46" s="29"/>
+      <c r="AG46" s="29"/>
+      <c r="AH46" s="13"/>
+      <c r="AI46" s="13"/>
+      <c r="AJ46" s="13"/>
+      <c r="AK46" s="13"/>
+      <c r="AL46" s="13"/>
+      <c r="AM46" s="13"/>
+      <c r="AN46" s="13"/>
+      <c r="AO46" s="13"/>
+      <c r="AP46" s="13"/>
+      <c r="AQ46" s="13"/>
+      <c r="AR46" s="13"/>
+      <c r="AS46" s="13"/>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A47" s="30"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="38"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="21"/>
       <c r="E47" s="31"/>
       <c r="F47" s="17"/>
       <c r="G47" s="18"/>
@@ -6559,16 +7454,24 @@
       <c r="AR47" s="20"/>
       <c r="AS47" s="20"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:45" ht="30" x14ac:dyDescent="0.35">
       <c r="A48" s="30"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="18"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="F48" s="17">
+        <v>44229</v>
+      </c>
+      <c r="G48" s="18">
+        <v>44229</v>
+      </c>
       <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
+      <c r="I48" s="39"/>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
       <c r="L48" s="20"/>
@@ -6608,16 +7511,22 @@
     </row>
     <row r="49" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A49" s="30"/>
-      <c r="B49" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="18"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="31">
+        <v>1.3</v>
+      </c>
+      <c r="F49" s="17">
+        <v>44229</v>
+      </c>
+      <c r="G49" s="18">
+        <v>44229</v>
+      </c>
       <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
+      <c r="I49" s="39"/>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
       <c r="L49" s="20"/>
@@ -6655,19 +7564,25 @@
       <c r="AR49" s="20"/>
       <c r="AS49" s="20"/>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:45" ht="30" x14ac:dyDescent="0.35">
       <c r="A50" s="30"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F50" s="17">
+        <v>44230</v>
+      </c>
+      <c r="G50" s="18">
+        <v>44230</v>
+      </c>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
+      <c r="J50" s="39"/>
       <c r="K50" s="20"/>
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
@@ -6706,26 +7621,26 @@
     </row>
     <row r="51" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A51" s="30"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="31">
-        <v>1.45</v>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="F51" s="17">
-        <v>44228</v>
+        <v>44232</v>
       </c>
       <c r="G51" s="18">
-        <v>44229</v>
-      </c>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
+        <v>44233</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
       <c r="N51" s="20"/>
       <c r="O51" s="20"/>
       <c r="P51" s="20"/>
@@ -6761,17 +7676,13 @@
     </row>
     <row r="52" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A52" s="30"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="31">
-        <v>7.15</v>
-      </c>
-      <c r="F52" s="17">
-        <v>44235</v>
-      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="31"/>
+      <c r="F52" s="17"/>
       <c r="G52" s="18"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -6780,16 +7691,16 @@
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
       <c r="R52" s="20"/>
-      <c r="S52" s="39"/>
+      <c r="S52" s="20"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
-      <c r="V52" s="39"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="39"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
@@ -6814,18 +7725,24 @@
     </row>
     <row r="53" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A53" s="30"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="18"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F53" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G53" s="18">
+        <v>44231</v>
+      </c>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
+      <c r="K53" s="39"/>
       <c r="L53" s="20"/>
       <c r="M53" s="20"/>
       <c r="N53" s="20"/>
@@ -6863,13 +7780,13 @@
     </row>
     <row r="54" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A54" s="30"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E54" s="31">
-        <v>1.4</v>
+        <v>0.25</v>
       </c>
       <c r="F54" s="17">
         <v>44231</v>
@@ -6918,13 +7835,13 @@
     </row>
     <row r="55" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A55" s="30"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="23" t="s">
-        <v>51</v>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="E55" s="31">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F55" s="17">
         <v>44231</v>
@@ -6973,9 +7890,11 @@
     </row>
     <row r="56" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A56" s="30"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="23"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="38" t="s">
+        <v>55</v>
+      </c>
       <c r="E56" s="31"/>
       <c r="F56" s="17"/>
       <c r="G56" s="18"/>
@@ -7020,10 +7939,14 @@
     </row>
     <row r="57" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A57" s="30"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="31"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="31">
+        <v>0.5</v>
+      </c>
       <c r="F57" s="17"/>
       <c r="G57" s="18"/>
       <c r="H57" s="20"/>
@@ -7042,7 +7965,7 @@
       <c r="U57" s="20"/>
       <c r="V57" s="20"/>
       <c r="W57" s="20"/>
-      <c r="X57" s="20"/>
+      <c r="X57" s="39"/>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
@@ -7067,11 +7990,11 @@
     </row>
     <row r="58" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A58" s="30"/>
-      <c r="B58" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="E58" s="31"/>
       <c r="F58" s="17"/>
       <c r="G58" s="18"/>
@@ -7116,11 +8039,9 @@
     </row>
     <row r="59" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A59" s="30"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="21"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="38"/>
       <c r="E59" s="31"/>
       <c r="F59" s="17"/>
       <c r="G59" s="18"/>
@@ -7165,14 +8086,10 @@
     </row>
     <row r="60" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A60" s="30"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E60" s="31">
-        <v>1</v>
-      </c>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="31"/>
       <c r="F60" s="17"/>
       <c r="G60" s="18"/>
       <c r="H60" s="20"/>
@@ -7216,9 +8133,11 @@
     </row>
     <row r="61" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A61" s="30"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="23"/>
+      <c r="B61" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
       <c r="E61" s="31"/>
       <c r="F61" s="17"/>
       <c r="G61" s="18"/>
@@ -7263,9 +8182,11 @@
     </row>
     <row r="62" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A62" s="30"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="23"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="21"/>
       <c r="E62" s="31"/>
       <c r="F62" s="17"/>
       <c r="G62" s="18"/>
@@ -7308,6 +8229,1194 @@
       <c r="AR62" s="20"/>
       <c r="AS62" s="20"/>
     </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A63" s="30"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="31">
+        <v>1.45</v>
+      </c>
+      <c r="F63" s="17">
+        <v>44228</v>
+      </c>
+      <c r="G63" s="18">
+        <v>44229</v>
+      </c>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="20"/>
+      <c r="W63" s="20"/>
+      <c r="X63" s="20"/>
+      <c r="Y63" s="20"/>
+      <c r="Z63" s="20"/>
+      <c r="AA63" s="20"/>
+      <c r="AB63" s="20"/>
+      <c r="AC63" s="20"/>
+      <c r="AD63" s="20"/>
+      <c r="AE63" s="20"/>
+      <c r="AF63" s="20"/>
+      <c r="AG63" s="20"/>
+      <c r="AH63" s="20"/>
+      <c r="AI63" s="20"/>
+      <c r="AJ63" s="20"/>
+      <c r="AK63" s="20"/>
+      <c r="AL63" s="20"/>
+      <c r="AM63" s="20"/>
+      <c r="AN63" s="20"/>
+      <c r="AO63" s="20"/>
+      <c r="AP63" s="20"/>
+      <c r="AQ63" s="20"/>
+      <c r="AR63" s="20"/>
+      <c r="AS63" s="20"/>
+    </row>
+    <row r="64" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A64" s="30"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="31">
+        <v>10.65</v>
+      </c>
+      <c r="F64" s="17">
+        <v>44235</v>
+      </c>
+      <c r="G64" s="18"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="39"/>
+      <c r="W64" s="39"/>
+      <c r="X64" s="39"/>
+      <c r="Y64" s="39"/>
+      <c r="Z64" s="20"/>
+      <c r="AA64" s="20"/>
+      <c r="AB64" s="20"/>
+      <c r="AC64" s="20"/>
+      <c r="AD64" s="20"/>
+      <c r="AE64" s="20"/>
+      <c r="AF64" s="20"/>
+      <c r="AG64" s="20"/>
+      <c r="AH64" s="20"/>
+      <c r="AI64" s="20"/>
+      <c r="AJ64" s="20"/>
+      <c r="AK64" s="20"/>
+      <c r="AL64" s="20"/>
+      <c r="AM64" s="20"/>
+      <c r="AN64" s="20"/>
+      <c r="AO64" s="20"/>
+      <c r="AP64" s="20"/>
+      <c r="AQ64" s="20"/>
+      <c r="AR64" s="20"/>
+      <c r="AS64" s="20"/>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A65" s="30"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" s="31"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20"/>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="20"/>
+      <c r="AA65" s="20"/>
+      <c r="AB65" s="20"/>
+      <c r="AC65" s="20"/>
+      <c r="AD65" s="20"/>
+      <c r="AE65" s="20"/>
+      <c r="AF65" s="20"/>
+      <c r="AG65" s="20"/>
+      <c r="AH65" s="20"/>
+      <c r="AI65" s="20"/>
+      <c r="AJ65" s="20"/>
+      <c r="AK65" s="20"/>
+      <c r="AL65" s="20"/>
+      <c r="AM65" s="20"/>
+      <c r="AN65" s="20"/>
+      <c r="AO65" s="20"/>
+      <c r="AP65" s="20"/>
+      <c r="AQ65" s="20"/>
+      <c r="AR65" s="20"/>
+      <c r="AS65" s="20"/>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A66" s="30"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="31">
+        <v>1.4</v>
+      </c>
+      <c r="F66" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G66" s="18">
+        <v>44231</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="20"/>
+      <c r="AA66" s="20"/>
+      <c r="AB66" s="20"/>
+      <c r="AC66" s="20"/>
+      <c r="AD66" s="20"/>
+      <c r="AE66" s="20"/>
+      <c r="AF66" s="20"/>
+      <c r="AG66" s="20"/>
+      <c r="AH66" s="20"/>
+      <c r="AI66" s="20"/>
+      <c r="AJ66" s="20"/>
+      <c r="AK66" s="20"/>
+      <c r="AL66" s="20"/>
+      <c r="AM66" s="20"/>
+      <c r="AN66" s="20"/>
+      <c r="AO66" s="20"/>
+      <c r="AP66" s="20"/>
+      <c r="AQ66" s="20"/>
+      <c r="AR66" s="20"/>
+      <c r="AS66" s="20"/>
+    </row>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A67" s="30"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F67" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G67" s="18">
+        <v>44231</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="20"/>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="20"/>
+      <c r="Z67" s="20"/>
+      <c r="AA67" s="20"/>
+      <c r="AB67" s="20"/>
+      <c r="AC67" s="20"/>
+      <c r="AD67" s="20"/>
+      <c r="AE67" s="20"/>
+      <c r="AF67" s="20"/>
+      <c r="AG67" s="20"/>
+      <c r="AH67" s="20"/>
+      <c r="AI67" s="20"/>
+      <c r="AJ67" s="20"/>
+      <c r="AK67" s="20"/>
+      <c r="AL67" s="20"/>
+      <c r="AM67" s="20"/>
+      <c r="AN67" s="20"/>
+      <c r="AO67" s="20"/>
+      <c r="AP67" s="20"/>
+      <c r="AQ67" s="20"/>
+      <c r="AR67" s="20"/>
+      <c r="AS67" s="20"/>
+    </row>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A68" s="30"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="20"/>
+      <c r="W68" s="20"/>
+      <c r="X68" s="20"/>
+      <c r="Y68" s="20"/>
+      <c r="Z68" s="20"/>
+      <c r="AA68" s="20"/>
+      <c r="AB68" s="20"/>
+      <c r="AC68" s="20"/>
+      <c r="AD68" s="20"/>
+      <c r="AE68" s="20"/>
+      <c r="AF68" s="20"/>
+      <c r="AG68" s="20"/>
+      <c r="AH68" s="20"/>
+      <c r="AI68" s="20"/>
+      <c r="AJ68" s="20"/>
+      <c r="AK68" s="20"/>
+      <c r="AL68" s="20"/>
+      <c r="AM68" s="20"/>
+      <c r="AN68" s="20"/>
+      <c r="AO68" s="20"/>
+      <c r="AP68" s="20"/>
+      <c r="AQ68" s="20"/>
+      <c r="AR68" s="20"/>
+      <c r="AS68" s="20"/>
+    </row>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A69" s="30"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="20"/>
+      <c r="W69" s="20"/>
+      <c r="X69" s="20"/>
+      <c r="Y69" s="20"/>
+      <c r="Z69" s="20"/>
+      <c r="AA69" s="20"/>
+      <c r="AB69" s="20"/>
+      <c r="AC69" s="20"/>
+      <c r="AD69" s="20"/>
+      <c r="AE69" s="20"/>
+      <c r="AF69" s="20"/>
+      <c r="AG69" s="20"/>
+      <c r="AH69" s="20"/>
+      <c r="AI69" s="20"/>
+      <c r="AJ69" s="20"/>
+      <c r="AK69" s="20"/>
+      <c r="AL69" s="20"/>
+      <c r="AM69" s="20"/>
+      <c r="AN69" s="20"/>
+      <c r="AO69" s="20"/>
+      <c r="AP69" s="20"/>
+      <c r="AQ69" s="20"/>
+      <c r="AR69" s="20"/>
+      <c r="AS69" s="20"/>
+    </row>
+    <row r="70" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A70" s="30"/>
+      <c r="B70" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
+      <c r="U70" s="20"/>
+      <c r="V70" s="20"/>
+      <c r="W70" s="20"/>
+      <c r="X70" s="20"/>
+      <c r="Y70" s="20"/>
+      <c r="Z70" s="20"/>
+      <c r="AA70" s="20"/>
+      <c r="AB70" s="20"/>
+      <c r="AC70" s="20"/>
+      <c r="AD70" s="20"/>
+      <c r="AE70" s="20"/>
+      <c r="AF70" s="20"/>
+      <c r="AG70" s="20"/>
+      <c r="AH70" s="20"/>
+      <c r="AI70" s="20"/>
+      <c r="AJ70" s="20"/>
+      <c r="AK70" s="20"/>
+      <c r="AL70" s="20"/>
+      <c r="AM70" s="20"/>
+      <c r="AN70" s="20"/>
+      <c r="AO70" s="20"/>
+      <c r="AP70" s="20"/>
+      <c r="AQ70" s="20"/>
+      <c r="AR70" s="20"/>
+      <c r="AS70" s="20"/>
+    </row>
+    <row r="71" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A71" s="30"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="23"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20"/>
+      <c r="Y71" s="20"/>
+      <c r="Z71" s="20"/>
+      <c r="AA71" s="20"/>
+      <c r="AB71" s="20"/>
+      <c r="AC71" s="20"/>
+      <c r="AD71" s="20"/>
+      <c r="AE71" s="20"/>
+      <c r="AF71" s="20"/>
+      <c r="AG71" s="20"/>
+      <c r="AH71" s="20"/>
+      <c r="AI71" s="20"/>
+      <c r="AJ71" s="20"/>
+      <c r="AK71" s="20"/>
+      <c r="AL71" s="20"/>
+      <c r="AM71" s="20"/>
+      <c r="AN71" s="20"/>
+      <c r="AO71" s="20"/>
+      <c r="AP71" s="20"/>
+      <c r="AQ71" s="20"/>
+      <c r="AR71" s="20"/>
+      <c r="AS71" s="20"/>
+    </row>
+    <row r="72" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A72" s="30"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="31"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
+      <c r="U72" s="20"/>
+      <c r="V72" s="20"/>
+      <c r="W72" s="20"/>
+      <c r="X72" s="20"/>
+      <c r="Y72" s="20"/>
+      <c r="Z72" s="20"/>
+      <c r="AA72" s="20"/>
+      <c r="AB72" s="20"/>
+      <c r="AC72" s="20"/>
+      <c r="AD72" s="20"/>
+      <c r="AE72" s="20"/>
+      <c r="AF72" s="20"/>
+      <c r="AG72" s="20"/>
+      <c r="AH72" s="20"/>
+      <c r="AI72" s="20"/>
+      <c r="AJ72" s="20"/>
+      <c r="AK72" s="20"/>
+      <c r="AL72" s="20"/>
+      <c r="AM72" s="20"/>
+      <c r="AN72" s="20"/>
+      <c r="AO72" s="20"/>
+      <c r="AP72" s="20"/>
+      <c r="AQ72" s="20"/>
+      <c r="AR72" s="20"/>
+      <c r="AS72" s="20"/>
+    </row>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A73" s="30"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" s="31"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
+      <c r="U73" s="20"/>
+      <c r="V73" s="20"/>
+      <c r="W73" s="20"/>
+      <c r="X73" s="20"/>
+      <c r="Y73" s="20"/>
+      <c r="Z73" s="20"/>
+      <c r="AA73" s="20"/>
+      <c r="AB73" s="20"/>
+      <c r="AC73" s="20"/>
+      <c r="AD73" s="20"/>
+      <c r="AE73" s="20"/>
+      <c r="AF73" s="20"/>
+      <c r="AG73" s="20"/>
+      <c r="AH73" s="20"/>
+      <c r="AI73" s="20"/>
+      <c r="AJ73" s="20"/>
+      <c r="AK73" s="20"/>
+      <c r="AL73" s="20"/>
+      <c r="AM73" s="20"/>
+      <c r="AN73" s="20"/>
+      <c r="AO73" s="20"/>
+      <c r="AP73" s="20"/>
+      <c r="AQ73" s="20"/>
+      <c r="AR73" s="20"/>
+      <c r="AS73" s="20"/>
+    </row>
+    <row r="74" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A74" s="30"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E74" s="31"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="20"/>
+      <c r="U74" s="20"/>
+      <c r="V74" s="20"/>
+      <c r="W74" s="20"/>
+      <c r="X74" s="20"/>
+      <c r="Y74" s="20"/>
+      <c r="Z74" s="20"/>
+      <c r="AA74" s="20"/>
+      <c r="AB74" s="20"/>
+      <c r="AC74" s="20"/>
+      <c r="AD74" s="20"/>
+      <c r="AE74" s="20"/>
+      <c r="AF74" s="20"/>
+      <c r="AG74" s="20"/>
+      <c r="AH74" s="20"/>
+      <c r="AI74" s="20"/>
+      <c r="AJ74" s="20"/>
+      <c r="AK74" s="20"/>
+      <c r="AL74" s="20"/>
+      <c r="AM74" s="20"/>
+      <c r="AN74" s="20"/>
+      <c r="AO74" s="20"/>
+      <c r="AP74" s="20"/>
+      <c r="AQ74" s="20"/>
+      <c r="AR74" s="20"/>
+      <c r="AS74" s="20"/>
+    </row>
+    <row r="75" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A75" s="30"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="31"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="20"/>
+      <c r="S75" s="20"/>
+      <c r="T75" s="20"/>
+      <c r="U75" s="20"/>
+      <c r="V75" s="20"/>
+      <c r="W75" s="20"/>
+      <c r="X75" s="20"/>
+      <c r="Y75" s="20"/>
+      <c r="Z75" s="20"/>
+      <c r="AA75" s="20"/>
+      <c r="AB75" s="20"/>
+      <c r="AC75" s="20"/>
+      <c r="AD75" s="20"/>
+      <c r="AE75" s="20"/>
+      <c r="AF75" s="20"/>
+      <c r="AG75" s="20"/>
+      <c r="AH75" s="20"/>
+      <c r="AI75" s="20"/>
+      <c r="AJ75" s="20"/>
+      <c r="AK75" s="20"/>
+      <c r="AL75" s="20"/>
+      <c r="AM75" s="20"/>
+      <c r="AN75" s="20"/>
+      <c r="AO75" s="20"/>
+      <c r="AP75" s="20"/>
+      <c r="AQ75" s="20"/>
+      <c r="AR75" s="20"/>
+      <c r="AS75" s="20"/>
+    </row>
+    <row r="76" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A76" s="30"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E76" s="31"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="20"/>
+      <c r="R76" s="20"/>
+      <c r="S76" s="20"/>
+      <c r="T76" s="20"/>
+      <c r="U76" s="20"/>
+      <c r="V76" s="20"/>
+      <c r="W76" s="20"/>
+      <c r="X76" s="20"/>
+      <c r="Y76" s="20"/>
+      <c r="Z76" s="20"/>
+      <c r="AA76" s="20"/>
+      <c r="AB76" s="20"/>
+      <c r="AC76" s="20"/>
+      <c r="AD76" s="20"/>
+      <c r="AE76" s="20"/>
+      <c r="AF76" s="20"/>
+      <c r="AG76" s="20"/>
+      <c r="AH76" s="20"/>
+      <c r="AI76" s="20"/>
+      <c r="AJ76" s="20"/>
+      <c r="AK76" s="20"/>
+      <c r="AL76" s="20"/>
+      <c r="AM76" s="20"/>
+      <c r="AN76" s="20"/>
+      <c r="AO76" s="20"/>
+      <c r="AP76" s="20"/>
+      <c r="AQ76" s="20"/>
+      <c r="AR76" s="20"/>
+      <c r="AS76" s="20"/>
+    </row>
+    <row r="77" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A77" s="30"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E77" s="31"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="20"/>
+      <c r="R77" s="20"/>
+      <c r="S77" s="20"/>
+      <c r="T77" s="20"/>
+      <c r="U77" s="20"/>
+      <c r="V77" s="20"/>
+      <c r="W77" s="20"/>
+      <c r="X77" s="20"/>
+      <c r="Y77" s="20"/>
+      <c r="Z77" s="20"/>
+      <c r="AA77" s="20"/>
+      <c r="AB77" s="20"/>
+      <c r="AC77" s="20"/>
+      <c r="AD77" s="20"/>
+      <c r="AE77" s="20"/>
+      <c r="AF77" s="20"/>
+      <c r="AG77" s="20"/>
+      <c r="AH77" s="20"/>
+      <c r="AI77" s="20"/>
+      <c r="AJ77" s="20"/>
+      <c r="AK77" s="20"/>
+      <c r="AL77" s="20"/>
+      <c r="AM77" s="20"/>
+      <c r="AN77" s="20"/>
+      <c r="AO77" s="20"/>
+      <c r="AP77" s="20"/>
+      <c r="AQ77" s="20"/>
+      <c r="AR77" s="20"/>
+      <c r="AS77" s="20"/>
+    </row>
+    <row r="78" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A78" s="30"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E78" s="31"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="20"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="20"/>
+      <c r="S78" s="20"/>
+      <c r="T78" s="20"/>
+      <c r="U78" s="20"/>
+      <c r="V78" s="20"/>
+      <c r="W78" s="20"/>
+      <c r="X78" s="20"/>
+      <c r="Y78" s="20"/>
+      <c r="Z78" s="20"/>
+      <c r="AA78" s="20"/>
+      <c r="AB78" s="20"/>
+      <c r="AC78" s="20"/>
+      <c r="AD78" s="20"/>
+      <c r="AE78" s="20"/>
+      <c r="AF78" s="20"/>
+      <c r="AG78" s="20"/>
+      <c r="AH78" s="20"/>
+      <c r="AI78" s="20"/>
+      <c r="AJ78" s="20"/>
+      <c r="AK78" s="20"/>
+      <c r="AL78" s="20"/>
+      <c r="AM78" s="20"/>
+      <c r="AN78" s="20"/>
+      <c r="AO78" s="20"/>
+      <c r="AP78" s="20"/>
+      <c r="AQ78" s="20"/>
+      <c r="AR78" s="20"/>
+      <c r="AS78" s="20"/>
+    </row>
+    <row r="79" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A79" s="30"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" s="31"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="20"/>
+      <c r="P79" s="20"/>
+      <c r="Q79" s="20"/>
+      <c r="R79" s="20"/>
+      <c r="S79" s="20"/>
+      <c r="T79" s="20"/>
+      <c r="U79" s="20"/>
+      <c r="V79" s="20"/>
+      <c r="W79" s="20"/>
+      <c r="X79" s="20"/>
+      <c r="Y79" s="20"/>
+      <c r="Z79" s="20"/>
+      <c r="AA79" s="20"/>
+      <c r="AB79" s="20"/>
+      <c r="AC79" s="20"/>
+      <c r="AD79" s="20"/>
+      <c r="AE79" s="20"/>
+      <c r="AF79" s="20"/>
+      <c r="AG79" s="20"/>
+      <c r="AH79" s="20"/>
+      <c r="AI79" s="20"/>
+      <c r="AJ79" s="20"/>
+      <c r="AK79" s="20"/>
+      <c r="AL79" s="20"/>
+      <c r="AM79" s="20"/>
+      <c r="AN79" s="20"/>
+      <c r="AO79" s="20"/>
+      <c r="AP79" s="20"/>
+      <c r="AQ79" s="20"/>
+      <c r="AR79" s="20"/>
+      <c r="AS79" s="20"/>
+    </row>
+    <row r="80" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A80" s="30"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="20"/>
+      <c r="Q80" s="20"/>
+      <c r="R80" s="20"/>
+      <c r="S80" s="20"/>
+      <c r="T80" s="20"/>
+      <c r="U80" s="20"/>
+      <c r="V80" s="20"/>
+      <c r="W80" s="20"/>
+      <c r="X80" s="20"/>
+      <c r="Y80" s="20"/>
+      <c r="Z80" s="20"/>
+      <c r="AA80" s="20"/>
+      <c r="AB80" s="20"/>
+      <c r="AC80" s="20"/>
+      <c r="AD80" s="20"/>
+      <c r="AE80" s="20"/>
+      <c r="AF80" s="20"/>
+      <c r="AG80" s="20"/>
+      <c r="AH80" s="20"/>
+      <c r="AI80" s="20"/>
+      <c r="AJ80" s="20"/>
+      <c r="AK80" s="20"/>
+      <c r="AL80" s="20"/>
+      <c r="AM80" s="20"/>
+      <c r="AN80" s="20"/>
+      <c r="AO80" s="20"/>
+      <c r="AP80" s="20"/>
+      <c r="AQ80" s="20"/>
+      <c r="AR80" s="20"/>
+      <c r="AS80" s="20"/>
+    </row>
+    <row r="81" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A81" s="30"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="20"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="20"/>
+      <c r="Q81" s="20"/>
+      <c r="R81" s="20"/>
+      <c r="S81" s="20"/>
+      <c r="T81" s="20"/>
+      <c r="U81" s="20"/>
+      <c r="V81" s="20"/>
+      <c r="W81" s="20"/>
+      <c r="X81" s="20"/>
+      <c r="Y81" s="20"/>
+      <c r="Z81" s="20"/>
+      <c r="AA81" s="20"/>
+      <c r="AB81" s="20"/>
+      <c r="AC81" s="20"/>
+      <c r="AD81" s="20"/>
+      <c r="AE81" s="20"/>
+      <c r="AF81" s="20"/>
+      <c r="AG81" s="20"/>
+      <c r="AH81" s="20"/>
+      <c r="AI81" s="20"/>
+      <c r="AJ81" s="20"/>
+      <c r="AK81" s="20"/>
+      <c r="AL81" s="20"/>
+      <c r="AM81" s="20"/>
+      <c r="AN81" s="20"/>
+      <c r="AO81" s="20"/>
+      <c r="AP81" s="20"/>
+      <c r="AQ81" s="20"/>
+      <c r="AR81" s="20"/>
+      <c r="AS81" s="20"/>
+    </row>
+    <row r="82" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A82" s="30"/>
+      <c r="B82" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="20"/>
+      <c r="R82" s="20"/>
+      <c r="S82" s="20"/>
+      <c r="T82" s="20"/>
+      <c r="U82" s="20"/>
+      <c r="V82" s="20"/>
+      <c r="W82" s="20"/>
+      <c r="X82" s="20"/>
+      <c r="Y82" s="20"/>
+      <c r="Z82" s="20"/>
+      <c r="AA82" s="20"/>
+      <c r="AB82" s="20"/>
+      <c r="AC82" s="20"/>
+      <c r="AD82" s="20"/>
+      <c r="AE82" s="20"/>
+      <c r="AF82" s="20"/>
+      <c r="AG82" s="20"/>
+      <c r="AH82" s="20"/>
+      <c r="AI82" s="20"/>
+      <c r="AJ82" s="20"/>
+      <c r="AK82" s="20"/>
+      <c r="AL82" s="20"/>
+      <c r="AM82" s="20"/>
+      <c r="AN82" s="20"/>
+      <c r="AO82" s="20"/>
+      <c r="AP82" s="20"/>
+      <c r="AQ82" s="20"/>
+      <c r="AR82" s="20"/>
+      <c r="AS82" s="20"/>
+    </row>
+    <row r="83" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A83" s="30"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="21"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20"/>
+      <c r="U83" s="20"/>
+      <c r="V83" s="20"/>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20"/>
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="20"/>
+      <c r="AA83" s="20"/>
+      <c r="AB83" s="20"/>
+      <c r="AC83" s="20"/>
+      <c r="AD83" s="20"/>
+      <c r="AE83" s="20"/>
+      <c r="AF83" s="20"/>
+      <c r="AG83" s="20"/>
+      <c r="AH83" s="20"/>
+      <c r="AI83" s="20"/>
+      <c r="AJ83" s="20"/>
+      <c r="AK83" s="20"/>
+      <c r="AL83" s="20"/>
+      <c r="AM83" s="20"/>
+      <c r="AN83" s="20"/>
+      <c r="AO83" s="20"/>
+      <c r="AP83" s="20"/>
+      <c r="AQ83" s="20"/>
+      <c r="AR83" s="20"/>
+      <c r="AS83" s="20"/>
+    </row>
+    <row r="84" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A84" s="30"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E84" s="31">
+        <v>1</v>
+      </c>
+      <c r="F84" s="17"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="20"/>
+      <c r="W84" s="20"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="20"/>
+      <c r="AA84" s="20"/>
+      <c r="AB84" s="20"/>
+      <c r="AC84" s="20"/>
+      <c r="AD84" s="20"/>
+      <c r="AE84" s="20"/>
+      <c r="AF84" s="20"/>
+      <c r="AG84" s="20"/>
+      <c r="AH84" s="20"/>
+      <c r="AI84" s="20"/>
+      <c r="AJ84" s="20"/>
+      <c r="AK84" s="20"/>
+      <c r="AL84" s="20"/>
+      <c r="AM84" s="20"/>
+      <c r="AN84" s="20"/>
+      <c r="AO84" s="20"/>
+      <c r="AP84" s="20"/>
+      <c r="AQ84" s="20"/>
+      <c r="AR84" s="20"/>
+      <c r="AS84" s="20"/>
+    </row>
+    <row r="85" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A85" s="30"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="20"/>
+      <c r="O85" s="20"/>
+      <c r="P85" s="20"/>
+      <c r="Q85" s="20"/>
+      <c r="R85" s="20"/>
+      <c r="S85" s="20"/>
+      <c r="T85" s="20"/>
+      <c r="U85" s="20"/>
+      <c r="V85" s="20"/>
+      <c r="W85" s="20"/>
+      <c r="X85" s="20"/>
+      <c r="Y85" s="20"/>
+      <c r="Z85" s="20"/>
+      <c r="AA85" s="20"/>
+      <c r="AB85" s="20"/>
+      <c r="AC85" s="20"/>
+      <c r="AD85" s="20"/>
+      <c r="AE85" s="20"/>
+      <c r="AF85" s="20"/>
+      <c r="AG85" s="20"/>
+      <c r="AH85" s="20"/>
+      <c r="AI85" s="20"/>
+      <c r="AJ85" s="20"/>
+      <c r="AK85" s="20"/>
+      <c r="AL85" s="20"/>
+      <c r="AM85" s="20"/>
+      <c r="AN85" s="20"/>
+      <c r="AO85" s="20"/>
+      <c r="AP85" s="20"/>
+      <c r="AQ85" s="20"/>
+      <c r="AR85" s="20"/>
+      <c r="AS85" s="20"/>
+    </row>
+    <row r="86" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A86" s="30"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="20"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="20"/>
+      <c r="Q86" s="20"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="20"/>
+      <c r="T86" s="20"/>
+      <c r="U86" s="20"/>
+      <c r="V86" s="20"/>
+      <c r="W86" s="20"/>
+      <c r="X86" s="20"/>
+      <c r="Y86" s="20"/>
+      <c r="Z86" s="20"/>
+      <c r="AA86" s="20"/>
+      <c r="AB86" s="20"/>
+      <c r="AC86" s="20"/>
+      <c r="AD86" s="20"/>
+      <c r="AE86" s="20"/>
+      <c r="AF86" s="20"/>
+      <c r="AG86" s="20"/>
+      <c r="AH86" s="20"/>
+      <c r="AI86" s="20"/>
+      <c r="AJ86" s="20"/>
+      <c r="AK86" s="20"/>
+      <c r="AL86" s="20"/>
+      <c r="AM86" s="20"/>
+      <c r="AN86" s="20"/>
+      <c r="AO86" s="20"/>
+      <c r="AP86" s="20"/>
+      <c r="AQ86" s="20"/>
+      <c r="AR86" s="20"/>
+      <c r="AS86" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
@@ -7318,385 +9427,679 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="H4:AS4">
-    <cfRule type="cellIs" dxfId="274" priority="845" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="925" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="846" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="926" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21:AS21 H20:AS20 H8:I8 K7:AS7 H9:J9 P9:AS9 I32:AS33 L8:AS8 T10:AS10 Y11:AS15 H53:AS53 J51:AS51 J22:X22 H40:AS40 H36:H37 J36:AS37 H38:I38 K38:AS38 H11:U19 H41:J43 L41:AS43 H56:AS57 H54:J55 L54:AS55 H39:K39 N39:AS39 H10:N10 H5:AS6 H34:AS35 I23:O23 R23 T23:U23 X23 H52:N52 R52 T52 Y52:AS52 AA22:AS28 I24:X28 H26:H28 Y26:Z28 H61:AS62 H60:U60 X60:AS60 I31:V31 X31:AS31 H44:AS44 AA16:AS19 H46:AS50 H45:W45 Y45:AS45">
-    <cfRule type="expression" dxfId="272" priority="841" stopIfTrue="1">
+  <conditionalFormatting sqref="L21:AS21 H20:AS20 H8:I8 K7:AS7 H9:J9 P9:AS9 I44:AS45 L8:AS8 T10:AS10 Y11:AS15 H65:AS65 J63:AS63 J22:X22 H52:AS52 H48:H49 J48:AS49 H50:I50 K50:AS50 H11:U19 H53:J55 L53:AS55 H68:AS69 H66:J67 L66:AS67 H51:K51 N51:AS51 H10:N10 H5:AS6 H46:AS47 I23:O23 R23 T23:U23 X23 H64:N64 R64 T64 Z64:AS64 AA22:AS28 I24:X28 H26:H28 Y26:Z28 H85:AS86 H84:U84 X84:AS84 I43:V43 X43:AS43 H56:AS56 AA16:AS19 H57:W57 Y57:AS57 H58:AS62 H30:AS30 H71:AS81 H33:AJ33 H31:AD32 AF31:AS32 H37:AQ37 H36:AD36 AF36:AS36 H35:AP35 H34:AE34 AH34:AS34 H39:AS40 H38:AI38 AK38:AQ38 AO33:AS33 AR35:AS35">
+    <cfRule type="expression" dxfId="356" priority="921" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="842" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="922" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="843" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="923" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="844" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="924" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2">
-    <cfRule type="notContainsBlanks" dxfId="268" priority="847">
+    <cfRule type="notContainsBlanks" dxfId="352" priority="927">
       <formula>LEN(TRIM(AJ2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:J21">
-    <cfRule type="expression" dxfId="267" priority="809" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="889" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="810" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="890" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="811" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="891" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="812" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="892" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="263" priority="333" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="413" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="414" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="415" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="416" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="259" priority="293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="373" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="374" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="375" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="376" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="255" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="385" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="386" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="387" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="388" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="251" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="401" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="402" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="403" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="404" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="247" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="397" stopIfTrue="1">
       <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="398" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="399" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="400" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="243" priority="309" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="389" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="390" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="391" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="392" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="239" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="353" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="354" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="355" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="356" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="235" priority="301" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="381" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="382" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="383" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="384" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H33">
-    <cfRule type="expression" dxfId="231" priority="265" stopIfTrue="1">
+  <conditionalFormatting sqref="H43:H45">
+    <cfRule type="expression" dxfId="315" priority="345" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="346" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="347" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="348" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="227" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="369" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="370" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="371" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="372" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:Q10 S10">
-    <cfRule type="expression" dxfId="223" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="361" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="362" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="363" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="364" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="219" priority="277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="357" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="358" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="359" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="360" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="215" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="301" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="302" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="303" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="304" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="211" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="277" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="278" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="279" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="280" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y22 Y24:Y25">
-    <cfRule type="expression" dxfId="207" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="325" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="326" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="327" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="328" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22:Z25">
-    <cfRule type="expression" dxfId="203" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="321" stopIfTrue="1">
       <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="322" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="323" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="324" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="expression" dxfId="199" priority="237" stopIfTrue="1">
+  <conditionalFormatting sqref="H63">
+    <cfRule type="expression" dxfId="283" priority="317" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="318" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="319" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="320" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="195" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="313" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="314" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="315" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="316" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="expression" dxfId="191" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="297" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="298" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="299" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="300" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
-    <cfRule type="expression" dxfId="187" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="293" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="294" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="295" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="296" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X15">
-    <cfRule type="expression" dxfId="183" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="289" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="290" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="291" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="292" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13:W19">
-    <cfRule type="expression" dxfId="179" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="285" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="286" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="287" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="288" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:V19">
-    <cfRule type="expression" dxfId="175" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="281" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="282" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="283" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="284" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H25">
-    <cfRule type="expression" dxfId="171" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="273" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="274" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="275" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="276" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="251" priority="261" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="262" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="263" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="264" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="expression" dxfId="247" priority="265" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="266" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="267" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="268" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="expression" dxfId="243" priority="257" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="258" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="259" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="260" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="expression" dxfId="239" priority="253" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="254" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="255" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="256" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="expression" dxfId="235" priority="249" stopIfTrue="1">
+      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="250" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="233" priority="251" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="252" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="expression" dxfId="231" priority="245" stopIfTrue="1">
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="246" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="247" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="248" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="expression" dxfId="227" priority="241" stopIfTrue="1">
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="242" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="243" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="244" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="expression" dxfId="223" priority="237" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="238" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="239" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="240" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54">
+    <cfRule type="expression" dxfId="219" priority="233" stopIfTrue="1">
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="234" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="235" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="236" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55">
+    <cfRule type="expression" dxfId="215" priority="229" stopIfTrue="1">
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="230" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="231" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="232" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53">
+    <cfRule type="expression" dxfId="211" priority="225" stopIfTrue="1">
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="226" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="227" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="228" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K67">
+    <cfRule type="expression" dxfId="207" priority="221" stopIfTrue="1">
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="222" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="223" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="224" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K66">
+    <cfRule type="expression" dxfId="203" priority="217" stopIfTrue="1">
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="218" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="219" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="220" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51">
+    <cfRule type="expression" dxfId="199" priority="213" stopIfTrue="1">
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="214" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="215" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="216" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10">
+    <cfRule type="expression" dxfId="195" priority="209" stopIfTrue="1">
+      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="210" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="211" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="212" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P23">
+    <cfRule type="expression" dxfId="191" priority="205" stopIfTrue="1">
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="206" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="207" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="208" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q23">
+    <cfRule type="expression" dxfId="187" priority="201" stopIfTrue="1">
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="202" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="203" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="204" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S23">
+    <cfRule type="expression" dxfId="183" priority="197" stopIfTrue="1">
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="198" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="199" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="200" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V23">
+    <cfRule type="expression" dxfId="179" priority="193" stopIfTrue="1">
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="194" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="195" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="196" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O64">
+    <cfRule type="expression" dxfId="175" priority="189" stopIfTrue="1">
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="190" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="191" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="192" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P64">
+    <cfRule type="expression" dxfId="171" priority="185" stopIfTrue="1">
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="186" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="187" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="188" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M51">
     <cfRule type="expression" dxfId="167" priority="181" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="166" priority="182" operator="equal">
       <formula>1</formula>
@@ -7708,485 +10111,471 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="163" priority="185" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="186" operator="equal">
+  <conditionalFormatting sqref="Q64">
+    <cfRule type="expression" dxfId="163" priority="177" stopIfTrue="1">
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="178" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="179" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="180" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="expression" dxfId="159" priority="177" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="178" operator="equal">
+  <conditionalFormatting sqref="S64">
+    <cfRule type="expression" dxfId="159" priority="173" stopIfTrue="1">
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="175" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="176" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="155" priority="173" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="174" operator="equal">
+  <conditionalFormatting sqref="V64">
+    <cfRule type="expression" dxfId="155" priority="165" stopIfTrue="1">
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="166" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="167" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="168" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
-    <cfRule type="expression" dxfId="151" priority="169" stopIfTrue="1">
-      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="170" operator="equal">
+  <conditionalFormatting sqref="U64">
+    <cfRule type="expression" dxfId="151" priority="161" stopIfTrue="1">
+      <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="162" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="163" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="164" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="147" priority="165" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="166" operator="equal">
+  <conditionalFormatting sqref="H41:AS41">
+    <cfRule type="expression" dxfId="147" priority="157" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="158" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="159" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="160" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="143" priority="161" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="162" operator="equal">
+  <conditionalFormatting sqref="H42:V42 X42:AS42">
+    <cfRule type="expression" dxfId="143" priority="153" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="154" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="155" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="156" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="expression" dxfId="139" priority="157" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="158" operator="equal">
+  <conditionalFormatting sqref="H82:AS82">
+    <cfRule type="expression" dxfId="139" priority="149" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="150" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="151" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="152" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="expression" dxfId="135" priority="153" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="154" operator="equal">
+  <conditionalFormatting sqref="H83:AS83">
+    <cfRule type="expression" dxfId="135" priority="145" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="146" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="147" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="148" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="expression" dxfId="131" priority="149" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="150" operator="equal">
+  <conditionalFormatting sqref="V84">
+    <cfRule type="expression" dxfId="131" priority="133" stopIfTrue="1">
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="134" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="136" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
-    <cfRule type="expression" dxfId="127" priority="145" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="146" operator="equal">
+  <conditionalFormatting sqref="W42">
+    <cfRule type="expression" dxfId="127" priority="121" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="122" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="123" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="124" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55">
-    <cfRule type="expression" dxfId="123" priority="141" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="142" operator="equal">
+  <conditionalFormatting sqref="W23">
+    <cfRule type="expression" dxfId="123" priority="117" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="119" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="120" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
-    <cfRule type="expression" dxfId="119" priority="137" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="138" operator="equal">
+  <conditionalFormatting sqref="W43">
+    <cfRule type="expression" dxfId="119" priority="113" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="115" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="116" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L39">
-    <cfRule type="expression" dxfId="115" priority="133" stopIfTrue="1">
-      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="134" operator="equal">
+  <conditionalFormatting sqref="W64">
+    <cfRule type="expression" dxfId="115" priority="109" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="112" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="111" priority="129" stopIfTrue="1">
-      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="130" operator="equal">
+  <conditionalFormatting sqref="W84">
+    <cfRule type="expression" dxfId="111" priority="105" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="107" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="108" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P23">
-    <cfRule type="expression" dxfId="107" priority="125" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="126" operator="equal">
+  <conditionalFormatting sqref="X16:X19">
+    <cfRule type="expression" dxfId="107" priority="101" stopIfTrue="1">
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="103" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="104" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
-    <cfRule type="expression" dxfId="103" priority="121" stopIfTrue="1">
-      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="122" operator="equal">
+  <conditionalFormatting sqref="Y16:Y19">
+    <cfRule type="expression" dxfId="103" priority="97" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="99" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="100" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S23">
-    <cfRule type="expression" dxfId="99" priority="117" stopIfTrue="1">
-      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="118" operator="equal">
+  <conditionalFormatting sqref="Z16:Z19">
+    <cfRule type="expression" dxfId="99" priority="93" stopIfTrue="1">
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="94" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="95" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="96" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V23">
-    <cfRule type="expression" dxfId="95" priority="113" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="114" operator="equal">
+  <conditionalFormatting sqref="X57">
+    <cfRule type="expression" dxfId="95" priority="89" stopIfTrue="1">
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="91" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="92" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O52">
-    <cfRule type="expression" dxfId="91" priority="109" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="110" operator="equal">
+  <conditionalFormatting sqref="X64">
+    <cfRule type="expression" dxfId="91" priority="85" stopIfTrue="1">
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="87" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="88" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P52">
-    <cfRule type="expression" dxfId="87" priority="105" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="106" operator="equal">
+  <conditionalFormatting sqref="Y23">
+    <cfRule type="expression" dxfId="87" priority="81" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M39">
-    <cfRule type="expression" dxfId="83" priority="101" stopIfTrue="1">
-      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="102" operator="equal">
+  <conditionalFormatting sqref="Y64">
+    <cfRule type="expression" dxfId="83" priority="77" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="79" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="104" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q52">
-    <cfRule type="expression" dxfId="79" priority="97" stopIfTrue="1">
-      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="98" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="99" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="100" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S52">
-    <cfRule type="expression" dxfId="75" priority="93" stopIfTrue="1">
-      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="94" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="95" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="96" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V52">
-    <cfRule type="expression" dxfId="71" priority="85" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="86" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="87" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="88" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U52">
-    <cfRule type="expression" dxfId="67" priority="81" stopIfTrue="1">
-      <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="82" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="83" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="80" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:AS29">
-    <cfRule type="expression" dxfId="63" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="73" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="75" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30:V30 X30:AS30">
-    <cfRule type="expression" dxfId="59" priority="73" stopIfTrue="1">
+  <conditionalFormatting sqref="H70:AS70">
+    <cfRule type="expression" dxfId="75" priority="69" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="71" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58:AS58">
-    <cfRule type="expression" dxfId="55" priority="69" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="70" operator="equal">
+  <conditionalFormatting sqref="AE32">
+    <cfRule type="expression" dxfId="71" priority="65" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="67" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="68" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59:AS59">
-    <cfRule type="expression" dxfId="51" priority="65" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="66" operator="equal">
+  <conditionalFormatting sqref="AE31">
+    <cfRule type="expression" dxfId="67" priority="61" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="63" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="64" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V60">
-    <cfRule type="expression" dxfId="47" priority="53" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
+  <conditionalFormatting sqref="AE36">
+    <cfRule type="expression" dxfId="63" priority="57" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W30">
-    <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+  <conditionalFormatting sqref="AF34">
+    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
+      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="56" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W23">
-    <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+  <conditionalFormatting sqref="AG34">
+    <cfRule type="expression" dxfId="55" priority="49" stopIfTrue="1">
+      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W31">
-    <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+  <conditionalFormatting sqref="AJ38">
+    <cfRule type="expression" dxfId="51" priority="45" stopIfTrue="1">
+      <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W52">
-    <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+  <conditionalFormatting sqref="AK33">
+    <cfRule type="expression" dxfId="47" priority="41" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W60">
+  <conditionalFormatting sqref="AL33">
+    <cfRule type="expression" dxfId="43" priority="37" stopIfTrue="1">
+      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM33">
+    <cfRule type="expression" dxfId="39" priority="33" stopIfTrue="1">
+      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN33">
+    <cfRule type="expression" dxfId="35" priority="29" stopIfTrue="1">
+      <formula>MATCH(AN$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ35">
     <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AQ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>1</formula>
@@ -8198,37 +10587,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X16:X19">
-    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y16:Y19">
-    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z16:Z19">
+  <conditionalFormatting sqref="AR37">
     <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AR$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
@@ -8240,9 +10601,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X45">
+  <conditionalFormatting sqref="AS37">
     <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AS$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
@@ -8254,9 +10615,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X52">
+  <conditionalFormatting sqref="AR38">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AR$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
@@ -8268,9 +10629,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y23">
+  <conditionalFormatting sqref="AS38">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AS$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
   <si>
     <t>aya</t>
     <phoneticPr fontId="4"/>
@@ -913,7 +913,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,6 +991,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1010,14 +1013,14 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="359">
+  <dxfs count="330">
     <dxf>
       <font>
         <color rgb="FFE6B8B7"/>
@@ -1060,6 +1063,166 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFE6B8B7"/>
       </font>
       <fill>
@@ -1500,6 +1663,46 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFE6B8B7"/>
       </font>
       <fill>
@@ -1540,6 +1743,86 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFE6B8B7"/>
       </font>
       <fill>
@@ -1700,6 +1983,46 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFE6B8B7"/>
       </font>
       <fill>
@@ -1820,6 +2143,126 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.59996337778862885"/>
       </font>
       <fill>
@@ -1860,6 +2303,206 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFE6B8B7"/>
       </font>
       <fill>
@@ -1900,6 +2543,166 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.59996337778862885"/>
       </font>
       <fill>
@@ -1980,6 +2783,206 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFE6B8B7"/>
       </font>
       <fill>
@@ -2100,6 +3103,126 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFE6B8B7"/>
       </font>
       <fill>
@@ -2140,6 +3263,286 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.59996337778862885"/>
       </font>
       <fill>
@@ -2540,246 +3943,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFE6B8B7"/>
       </font>
       <fill>
@@ -2980,286 +4143,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFE6B8B7"/>
       </font>
       <fill>
@@ -3377,1173 +4260,6 @@
           <bgColor rgb="FFD9D9D9"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF808080"/>
-        </left>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -4875,11 +4591,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS86"/>
+  <dimension ref="A1:BO86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM39" sqref="AM39"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4888,16 +4604,16 @@
     <col min="8" max="16" width="3.375" bestFit="1" customWidth="1"/>
     <col min="17" max="35" width="3.75" bestFit="1" customWidth="1"/>
     <col min="36" max="44" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="45" max="67" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:67" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -4939,48 +4655,70 @@
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
     </row>
-    <row r="2" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:67" ht="19.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="48">
+      <c r="H2" s="49">
         <v>44228</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="50" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="49" t="s">
         <v>9</v>
       </c>
       <c r="AK2" s="50"/>
@@ -4992,8 +4730,30 @@
       <c r="AQ2" s="50"/>
       <c r="AR2" s="50"/>
       <c r="AS2" s="50"/>
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="50"/>
+      <c r="BC2" s="50"/>
+      <c r="BD2" s="50"/>
+      <c r="BE2" s="50"/>
+      <c r="BF2" s="50"/>
+      <c r="BG2" s="50"/>
+      <c r="BH2" s="50"/>
+      <c r="BI2" s="50"/>
+      <c r="BJ2" s="50"/>
+      <c r="BK2" s="50"/>
+      <c r="BL2" s="50"/>
+      <c r="BM2" s="50"/>
+      <c r="BN2" s="50"/>
+      <c r="BO2" s="41"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5085,44 +4845,108 @@
       <c r="AI3" s="3">
         <v>28</v>
       </c>
-      <c r="AJ3" s="3">
+      <c r="AJ3" s="51">
         <v>1</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AK3" s="51">
         <v>2</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AL3" s="51">
         <v>3</v>
       </c>
-      <c r="AM3" s="3">
+      <c r="AM3" s="51">
         <v>4</v>
       </c>
-      <c r="AN3" s="3">
+      <c r="AN3" s="51">
         <v>5</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AO3" s="51">
         <v>6</v>
       </c>
-      <c r="AP3" s="3">
+      <c r="AP3" s="51">
         <v>7</v>
       </c>
-      <c r="AQ3" s="3">
+      <c r="AQ3" s="51">
         <v>8</v>
       </c>
-      <c r="AR3" s="3">
+      <c r="AR3" s="51">
         <v>9</v>
       </c>
-      <c r="AS3" s="3">
+      <c r="AS3" s="51">
         <v>10</v>
       </c>
+      <c r="AT3" s="51">
+        <v>11</v>
+      </c>
+      <c r="AU3" s="51">
+        <v>12</v>
+      </c>
+      <c r="AV3" s="51">
+        <v>13</v>
+      </c>
+      <c r="AW3" s="51">
+        <v>14</v>
+      </c>
+      <c r="AX3" s="51">
+        <v>15</v>
+      </c>
+      <c r="AY3" s="51">
+        <v>16</v>
+      </c>
+      <c r="AZ3" s="51">
+        <v>17</v>
+      </c>
+      <c r="BA3" s="51">
+        <v>18</v>
+      </c>
+      <c r="BB3" s="51">
+        <v>19</v>
+      </c>
+      <c r="BC3" s="51">
+        <v>20</v>
+      </c>
+      <c r="BD3" s="51">
+        <v>21</v>
+      </c>
+      <c r="BE3" s="51">
+        <v>22</v>
+      </c>
+      <c r="BF3" s="51">
+        <v>23</v>
+      </c>
+      <c r="BG3" s="51">
+        <v>24</v>
+      </c>
+      <c r="BH3" s="51">
+        <v>25</v>
+      </c>
+      <c r="BI3" s="51">
+        <v>26</v>
+      </c>
+      <c r="BJ3" s="51">
+        <v>27</v>
+      </c>
+      <c r="BK3" s="51">
+        <v>28</v>
+      </c>
+      <c r="BL3" s="51">
+        <v>29</v>
+      </c>
+      <c r="BM3" s="51">
+        <v>30</v>
+      </c>
+      <c r="BN3" s="51">
+        <v>31</v>
+      </c>
+      <c r="BO3" s="51"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
@@ -5246,8 +5070,72 @@
       <c r="AS4" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="AT4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="BI4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BL4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BM4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="BO4" s="5"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -5293,18 +5181,40 @@
       <c r="AG5" s="12"/>
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
       <c r="AO5" s="13"/>
       <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13"/>
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13"/>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="13"/>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="13"/>
+      <c r="BG5" s="13"/>
+      <c r="BH5" s="13"/>
+      <c r="BI5" s="13"/>
+      <c r="BJ5" s="13"/>
+      <c r="BK5" s="13"/>
+      <c r="BL5" s="13"/>
+      <c r="BM5" s="13"/>
+      <c r="BN5" s="13"/>
+      <c r="BO5" s="13"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21" t="s">
@@ -5358,8 +5268,30 @@
       <c r="AQ6" s="20"/>
       <c r="AR6" s="20"/>
       <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="20"/>
+      <c r="AW6" s="20"/>
+      <c r="AX6" s="20"/>
+      <c r="AY6" s="20"/>
+      <c r="AZ6" s="20"/>
+      <c r="BA6" s="20"/>
+      <c r="BB6" s="20"/>
+      <c r="BC6" s="20"/>
+      <c r="BD6" s="20"/>
+      <c r="BE6" s="20"/>
+      <c r="BF6" s="20"/>
+      <c r="BG6" s="20"/>
+      <c r="BH6" s="20"/>
+      <c r="BI6" s="20"/>
+      <c r="BJ6" s="20"/>
+      <c r="BK6" s="20"/>
+      <c r="BL6" s="20"/>
+      <c r="BM6" s="20"/>
+      <c r="BN6" s="20"/>
+      <c r="BO6" s="20"/>
     </row>
-    <row r="7" spans="1:45" ht="30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:67" ht="30" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="22"/>
       <c r="C7" s="15"/>
@@ -5413,8 +5345,30 @@
       <c r="AQ7" s="20"/>
       <c r="AR7" s="20"/>
       <c r="AS7" s="20"/>
+      <c r="AT7" s="20"/>
+      <c r="AU7" s="20"/>
+      <c r="AV7" s="20"/>
+      <c r="AW7" s="20"/>
+      <c r="AX7" s="20"/>
+      <c r="AY7" s="20"/>
+      <c r="AZ7" s="20"/>
+      <c r="BA7" s="20"/>
+      <c r="BB7" s="20"/>
+      <c r="BC7" s="20"/>
+      <c r="BD7" s="20"/>
+      <c r="BE7" s="20"/>
+      <c r="BF7" s="20"/>
+      <c r="BG7" s="20"/>
+      <c r="BH7" s="20"/>
+      <c r="BI7" s="20"/>
+      <c r="BJ7" s="20"/>
+      <c r="BK7" s="20"/>
+      <c r="BL7" s="20"/>
+      <c r="BM7" s="20"/>
+      <c r="BN7" s="20"/>
+      <c r="BO7" s="20"/>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -5468,8 +5422,30 @@
       <c r="AQ8" s="20"/>
       <c r="AR8" s="20"/>
       <c r="AS8" s="20"/>
+      <c r="AT8" s="20"/>
+      <c r="AU8" s="20"/>
+      <c r="AV8" s="20"/>
+      <c r="AW8" s="20"/>
+      <c r="AX8" s="20"/>
+      <c r="AY8" s="20"/>
+      <c r="AZ8" s="20"/>
+      <c r="BA8" s="20"/>
+      <c r="BB8" s="20"/>
+      <c r="BC8" s="20"/>
+      <c r="BD8" s="20"/>
+      <c r="BE8" s="20"/>
+      <c r="BF8" s="20"/>
+      <c r="BG8" s="20"/>
+      <c r="BH8" s="20"/>
+      <c r="BI8" s="20"/>
+      <c r="BJ8" s="20"/>
+      <c r="BK8" s="20"/>
+      <c r="BL8" s="20"/>
+      <c r="BM8" s="20"/>
+      <c r="BN8" s="20"/>
+      <c r="BO8" s="20"/>
     </row>
-    <row r="9" spans="1:45" ht="30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:67" ht="30" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -5523,8 +5499,30 @@
       <c r="AQ9" s="20"/>
       <c r="AR9" s="20"/>
       <c r="AS9" s="20"/>
+      <c r="AT9" s="20"/>
+      <c r="AU9" s="20"/>
+      <c r="AV9" s="20"/>
+      <c r="AW9" s="20"/>
+      <c r="AX9" s="20"/>
+      <c r="AY9" s="20"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="20"/>
+      <c r="BB9" s="20"/>
+      <c r="BC9" s="20"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="20"/>
+      <c r="BF9" s="20"/>
+      <c r="BG9" s="20"/>
+      <c r="BH9" s="20"/>
+      <c r="BI9" s="20"/>
+      <c r="BJ9" s="20"/>
+      <c r="BK9" s="20"/>
+      <c r="BL9" s="20"/>
+      <c r="BM9" s="20"/>
+      <c r="BN9" s="20"/>
+      <c r="BO9" s="20"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A10" s="14"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -5578,8 +5576,30 @@
       <c r="AQ10" s="20"/>
       <c r="AR10" s="20"/>
       <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
+      <c r="AU10" s="20"/>
+      <c r="AV10" s="20"/>
+      <c r="AW10" s="20"/>
+      <c r="AX10" s="20"/>
+      <c r="AY10" s="20"/>
+      <c r="AZ10" s="20"/>
+      <c r="BA10" s="20"/>
+      <c r="BB10" s="20"/>
+      <c r="BC10" s="20"/>
+      <c r="BD10" s="20"/>
+      <c r="BE10" s="20"/>
+      <c r="BF10" s="20"/>
+      <c r="BG10" s="20"/>
+      <c r="BH10" s="20"/>
+      <c r="BI10" s="20"/>
+      <c r="BJ10" s="20"/>
+      <c r="BK10" s="20"/>
+      <c r="BL10" s="20"/>
+      <c r="BM10" s="20"/>
+      <c r="BN10" s="20"/>
+      <c r="BO10" s="20"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A11" s="14"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -5633,8 +5653,30 @@
       <c r="AQ11" s="20"/>
       <c r="AR11" s="20"/>
       <c r="AS11" s="20"/>
+      <c r="AT11" s="20"/>
+      <c r="AU11" s="20"/>
+      <c r="AV11" s="20"/>
+      <c r="AW11" s="20"/>
+      <c r="AX11" s="20"/>
+      <c r="AY11" s="20"/>
+      <c r="AZ11" s="20"/>
+      <c r="BA11" s="20"/>
+      <c r="BB11" s="20"/>
+      <c r="BC11" s="20"/>
+      <c r="BD11" s="20"/>
+      <c r="BE11" s="20"/>
+      <c r="BF11" s="20"/>
+      <c r="BG11" s="20"/>
+      <c r="BH11" s="20"/>
+      <c r="BI11" s="20"/>
+      <c r="BJ11" s="20"/>
+      <c r="BK11" s="20"/>
+      <c r="BL11" s="20"/>
+      <c r="BM11" s="20"/>
+      <c r="BN11" s="20"/>
+      <c r="BO11" s="20"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -5688,8 +5730,30 @@
       <c r="AQ12" s="20"/>
       <c r="AR12" s="20"/>
       <c r="AS12" s="20"/>
+      <c r="AT12" s="20"/>
+      <c r="AU12" s="20"/>
+      <c r="AV12" s="20"/>
+      <c r="AW12" s="20"/>
+      <c r="AX12" s="20"/>
+      <c r="AY12" s="20"/>
+      <c r="AZ12" s="20"/>
+      <c r="BA12" s="20"/>
+      <c r="BB12" s="20"/>
+      <c r="BC12" s="20"/>
+      <c r="BD12" s="20"/>
+      <c r="BE12" s="20"/>
+      <c r="BF12" s="20"/>
+      <c r="BG12" s="20"/>
+      <c r="BH12" s="20"/>
+      <c r="BI12" s="20"/>
+      <c r="BJ12" s="20"/>
+      <c r="BK12" s="20"/>
+      <c r="BL12" s="20"/>
+      <c r="BM12" s="20"/>
+      <c r="BN12" s="20"/>
+      <c r="BO12" s="20"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -5743,8 +5807,30 @@
       <c r="AQ13" s="20"/>
       <c r="AR13" s="20"/>
       <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="20"/>
+      <c r="AY13" s="20"/>
+      <c r="AZ13" s="20"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="20"/>
+      <c r="BC13" s="20"/>
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="20"/>
+      <c r="BF13" s="20"/>
+      <c r="BG13" s="20"/>
+      <c r="BH13" s="20"/>
+      <c r="BI13" s="20"/>
+      <c r="BJ13" s="20"/>
+      <c r="BK13" s="20"/>
+      <c r="BL13" s="20"/>
+      <c r="BM13" s="20"/>
+      <c r="BN13" s="20"/>
+      <c r="BO13" s="20"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -5798,8 +5884,30 @@
       <c r="AQ14" s="20"/>
       <c r="AR14" s="20"/>
       <c r="AS14" s="20"/>
+      <c r="AT14" s="20"/>
+      <c r="AU14" s="20"/>
+      <c r="AV14" s="20"/>
+      <c r="AW14" s="20"/>
+      <c r="AX14" s="20"/>
+      <c r="AY14" s="20"/>
+      <c r="AZ14" s="20"/>
+      <c r="BA14" s="20"/>
+      <c r="BB14" s="20"/>
+      <c r="BC14" s="20"/>
+      <c r="BD14" s="20"/>
+      <c r="BE14" s="20"/>
+      <c r="BF14" s="20"/>
+      <c r="BG14" s="20"/>
+      <c r="BH14" s="20"/>
+      <c r="BI14" s="20"/>
+      <c r="BJ14" s="20"/>
+      <c r="BK14" s="20"/>
+      <c r="BL14" s="20"/>
+      <c r="BM14" s="20"/>
+      <c r="BN14" s="20"/>
+      <c r="BO14" s="20"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -5847,8 +5955,30 @@
       <c r="AQ15" s="20"/>
       <c r="AR15" s="20"/>
       <c r="AS15" s="20"/>
+      <c r="AT15" s="20"/>
+      <c r="AU15" s="20"/>
+      <c r="AV15" s="20"/>
+      <c r="AW15" s="20"/>
+      <c r="AX15" s="20"/>
+      <c r="AY15" s="20"/>
+      <c r="AZ15" s="20"/>
+      <c r="BA15" s="20"/>
+      <c r="BB15" s="20"/>
+      <c r="BC15" s="20"/>
+      <c r="BD15" s="20"/>
+      <c r="BE15" s="20"/>
+      <c r="BF15" s="20"/>
+      <c r="BG15" s="20"/>
+      <c r="BH15" s="20"/>
+      <c r="BI15" s="20"/>
+      <c r="BJ15" s="20"/>
+      <c r="BK15" s="20"/>
+      <c r="BL15" s="20"/>
+      <c r="BM15" s="20"/>
+      <c r="BN15" s="20"/>
+      <c r="BO15" s="20"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -5902,8 +6032,30 @@
       <c r="AQ16" s="20"/>
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
+      <c r="AT16" s="20"/>
+      <c r="AU16" s="20"/>
+      <c r="AV16" s="20"/>
+      <c r="AW16" s="20"/>
+      <c r="AX16" s="20"/>
+      <c r="AY16" s="20"/>
+      <c r="AZ16" s="20"/>
+      <c r="BA16" s="20"/>
+      <c r="BB16" s="20"/>
+      <c r="BC16" s="20"/>
+      <c r="BD16" s="20"/>
+      <c r="BE16" s="20"/>
+      <c r="BF16" s="20"/>
+      <c r="BG16" s="20"/>
+      <c r="BH16" s="20"/>
+      <c r="BI16" s="20"/>
+      <c r="BJ16" s="20"/>
+      <c r="BK16" s="20"/>
+      <c r="BL16" s="20"/>
+      <c r="BM16" s="20"/>
+      <c r="BN16" s="20"/>
+      <c r="BO16" s="20"/>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -5931,7 +6083,7 @@
       <c r="U17" s="20"/>
       <c r="V17" s="37"/>
       <c r="W17" s="37"/>
-      <c r="X17" s="41"/>
+      <c r="X17" s="42"/>
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
       <c r="AA17" s="20"/>
@@ -5953,8 +6105,30 @@
       <c r="AQ17" s="20"/>
       <c r="AR17" s="20"/>
       <c r="AS17" s="20"/>
+      <c r="AT17" s="20"/>
+      <c r="AU17" s="20"/>
+      <c r="AV17" s="20"/>
+      <c r="AW17" s="20"/>
+      <c r="AX17" s="20"/>
+      <c r="AY17" s="20"/>
+      <c r="AZ17" s="20"/>
+      <c r="BA17" s="20"/>
+      <c r="BB17" s="20"/>
+      <c r="BC17" s="20"/>
+      <c r="BD17" s="20"/>
+      <c r="BE17" s="20"/>
+      <c r="BF17" s="20"/>
+      <c r="BG17" s="20"/>
+      <c r="BH17" s="20"/>
+      <c r="BI17" s="20"/>
+      <c r="BJ17" s="20"/>
+      <c r="BK17" s="20"/>
+      <c r="BL17" s="20"/>
+      <c r="BM17" s="20"/>
+      <c r="BN17" s="20"/>
+      <c r="BO17" s="20"/>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -5978,7 +6152,7 @@
       <c r="U18" s="20"/>
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
-      <c r="X18" s="41"/>
+      <c r="X18" s="42"/>
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
       <c r="AA18" s="20"/>
@@ -6000,12 +6174,34 @@
       <c r="AQ18" s="20"/>
       <c r="AR18" s="20"/>
       <c r="AS18" s="20"/>
+      <c r="AT18" s="20"/>
+      <c r="AU18" s="20"/>
+      <c r="AV18" s="20"/>
+      <c r="AW18" s="20"/>
+      <c r="AX18" s="20"/>
+      <c r="AY18" s="20"/>
+      <c r="AZ18" s="20"/>
+      <c r="BA18" s="20"/>
+      <c r="BB18" s="20"/>
+      <c r="BC18" s="20"/>
+      <c r="BD18" s="20"/>
+      <c r="BE18" s="20"/>
+      <c r="BF18" s="20"/>
+      <c r="BG18" s="20"/>
+      <c r="BH18" s="20"/>
+      <c r="BI18" s="20"/>
+      <c r="BJ18" s="20"/>
+      <c r="BK18" s="20"/>
+      <c r="BL18" s="20"/>
+      <c r="BM18" s="20"/>
+      <c r="BN18" s="20"/>
+      <c r="BO18" s="20"/>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
-      <c r="D19" s="42"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
       <c r="G19" s="18"/>
@@ -6025,7 +6221,7 @@
       <c r="U19" s="20"/>
       <c r="V19" s="37"/>
       <c r="W19" s="37"/>
-      <c r="X19" s="41"/>
+      <c r="X19" s="42"/>
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
       <c r="AA19" s="20"/>
@@ -6047,8 +6243,30 @@
       <c r="AQ19" s="20"/>
       <c r="AR19" s="20"/>
       <c r="AS19" s="20"/>
+      <c r="AT19" s="20"/>
+      <c r="AU19" s="20"/>
+      <c r="AV19" s="20"/>
+      <c r="AW19" s="20"/>
+      <c r="AX19" s="20"/>
+      <c r="AY19" s="20"/>
+      <c r="AZ19" s="20"/>
+      <c r="BA19" s="20"/>
+      <c r="BB19" s="20"/>
+      <c r="BC19" s="20"/>
+      <c r="BD19" s="20"/>
+      <c r="BE19" s="20"/>
+      <c r="BF19" s="20"/>
+      <c r="BG19" s="20"/>
+      <c r="BH19" s="20"/>
+      <c r="BI19" s="20"/>
+      <c r="BJ19" s="20"/>
+      <c r="BK19" s="20"/>
+      <c r="BL19" s="20"/>
+      <c r="BM19" s="20"/>
+      <c r="BN19" s="20"/>
+      <c r="BO19" s="20"/>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
       <c r="B20" s="8" t="s">
         <v>27</v>
@@ -6096,8 +6314,30 @@
       <c r="AQ20" s="20"/>
       <c r="AR20" s="20"/>
       <c r="AS20" s="20"/>
+      <c r="AT20" s="20"/>
+      <c r="AU20" s="20"/>
+      <c r="AV20" s="20"/>
+      <c r="AW20" s="20"/>
+      <c r="AX20" s="20"/>
+      <c r="AY20" s="20"/>
+      <c r="AZ20" s="20"/>
+      <c r="BA20" s="20"/>
+      <c r="BB20" s="20"/>
+      <c r="BC20" s="20"/>
+      <c r="BD20" s="20"/>
+      <c r="BE20" s="20"/>
+      <c r="BF20" s="20"/>
+      <c r="BG20" s="20"/>
+      <c r="BH20" s="20"/>
+      <c r="BI20" s="20"/>
+      <c r="BJ20" s="20"/>
+      <c r="BK20" s="20"/>
+      <c r="BL20" s="20"/>
+      <c r="BM20" s="20"/>
+      <c r="BN20" s="20"/>
+      <c r="BO20" s="20"/>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25" t="s">
@@ -6145,8 +6385,30 @@
       <c r="AQ21" s="20"/>
       <c r="AR21" s="20"/>
       <c r="AS21" s="20"/>
+      <c r="AT21" s="20"/>
+      <c r="AU21" s="20"/>
+      <c r="AV21" s="20"/>
+      <c r="AW21" s="20"/>
+      <c r="AX21" s="20"/>
+      <c r="AY21" s="20"/>
+      <c r="AZ21" s="20"/>
+      <c r="BA21" s="20"/>
+      <c r="BB21" s="20"/>
+      <c r="BC21" s="20"/>
+      <c r="BD21" s="20"/>
+      <c r="BE21" s="20"/>
+      <c r="BF21" s="20"/>
+      <c r="BG21" s="20"/>
+      <c r="BH21" s="20"/>
+      <c r="BI21" s="20"/>
+      <c r="BJ21" s="20"/>
+      <c r="BK21" s="20"/>
+      <c r="BL21" s="20"/>
+      <c r="BM21" s="20"/>
+      <c r="BN21" s="20"/>
+      <c r="BO21" s="20"/>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -6200,8 +6462,30 @@
       <c r="AQ22" s="20"/>
       <c r="AR22" s="20"/>
       <c r="AS22" s="20"/>
+      <c r="AT22" s="20"/>
+      <c r="AU22" s="20"/>
+      <c r="AV22" s="20"/>
+      <c r="AW22" s="20"/>
+      <c r="AX22" s="20"/>
+      <c r="AY22" s="20"/>
+      <c r="AZ22" s="20"/>
+      <c r="BA22" s="20"/>
+      <c r="BB22" s="20"/>
+      <c r="BC22" s="20"/>
+      <c r="BD22" s="20"/>
+      <c r="BE22" s="20"/>
+      <c r="BF22" s="20"/>
+      <c r="BG22" s="20"/>
+      <c r="BH22" s="20"/>
+      <c r="BI22" s="20"/>
+      <c r="BJ22" s="20"/>
+      <c r="BK22" s="20"/>
+      <c r="BL22" s="20"/>
+      <c r="BM22" s="20"/>
+      <c r="BN22" s="20"/>
+      <c r="BO22" s="20"/>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -6255,8 +6539,30 @@
       <c r="AQ23" s="37"/>
       <c r="AR23" s="37"/>
       <c r="AS23" s="37"/>
+      <c r="AT23" s="37"/>
+      <c r="AU23" s="37"/>
+      <c r="AV23" s="37"/>
+      <c r="AW23" s="37"/>
+      <c r="AX23" s="37"/>
+      <c r="AY23" s="37"/>
+      <c r="AZ23" s="37"/>
+      <c r="BA23" s="37"/>
+      <c r="BB23" s="37"/>
+      <c r="BC23" s="37"/>
+      <c r="BD23" s="37"/>
+      <c r="BE23" s="37"/>
+      <c r="BF23" s="37"/>
+      <c r="BG23" s="37"/>
+      <c r="BH23" s="37"/>
+      <c r="BI23" s="37"/>
+      <c r="BJ23" s="37"/>
+      <c r="BK23" s="37"/>
+      <c r="BL23" s="37"/>
+      <c r="BM23" s="37"/>
+      <c r="BN23" s="37"/>
+      <c r="BO23" s="37"/>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -6304,8 +6610,30 @@
       <c r="AQ24" s="37"/>
       <c r="AR24" s="37"/>
       <c r="AS24" s="37"/>
+      <c r="AT24" s="37"/>
+      <c r="AU24" s="37"/>
+      <c r="AV24" s="37"/>
+      <c r="AW24" s="37"/>
+      <c r="AX24" s="37"/>
+      <c r="AY24" s="37"/>
+      <c r="AZ24" s="37"/>
+      <c r="BA24" s="37"/>
+      <c r="BB24" s="37"/>
+      <c r="BC24" s="37"/>
+      <c r="BD24" s="37"/>
+      <c r="BE24" s="37"/>
+      <c r="BF24" s="37"/>
+      <c r="BG24" s="37"/>
+      <c r="BH24" s="37"/>
+      <c r="BI24" s="37"/>
+      <c r="BJ24" s="37"/>
+      <c r="BK24" s="37"/>
+      <c r="BL24" s="37"/>
+      <c r="BM24" s="37"/>
+      <c r="BN24" s="37"/>
+      <c r="BO24" s="37"/>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -6359,8 +6687,30 @@
       <c r="AQ25" s="37"/>
       <c r="AR25" s="37"/>
       <c r="AS25" s="37"/>
+      <c r="AT25" s="37"/>
+      <c r="AU25" s="37"/>
+      <c r="AV25" s="37"/>
+      <c r="AW25" s="37"/>
+      <c r="AX25" s="37"/>
+      <c r="AY25" s="37"/>
+      <c r="AZ25" s="37"/>
+      <c r="BA25" s="37"/>
+      <c r="BB25" s="37"/>
+      <c r="BC25" s="37"/>
+      <c r="BD25" s="37"/>
+      <c r="BE25" s="37"/>
+      <c r="BF25" s="37"/>
+      <c r="BG25" s="37"/>
+      <c r="BH25" s="37"/>
+      <c r="BI25" s="37"/>
+      <c r="BJ25" s="37"/>
+      <c r="BK25" s="37"/>
+      <c r="BL25" s="37"/>
+      <c r="BM25" s="37"/>
+      <c r="BN25" s="37"/>
+      <c r="BO25" s="37"/>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -6414,8 +6764,30 @@
       <c r="AQ26" s="37"/>
       <c r="AR26" s="37"/>
       <c r="AS26" s="37"/>
+      <c r="AT26" s="37"/>
+      <c r="AU26" s="37"/>
+      <c r="AV26" s="37"/>
+      <c r="AW26" s="37"/>
+      <c r="AX26" s="37"/>
+      <c r="AY26" s="37"/>
+      <c r="AZ26" s="37"/>
+      <c r="BA26" s="37"/>
+      <c r="BB26" s="37"/>
+      <c r="BC26" s="37"/>
+      <c r="BD26" s="37"/>
+      <c r="BE26" s="37"/>
+      <c r="BF26" s="37"/>
+      <c r="BG26" s="37"/>
+      <c r="BH26" s="37"/>
+      <c r="BI26" s="37"/>
+      <c r="BJ26" s="37"/>
+      <c r="BK26" s="37"/>
+      <c r="BL26" s="37"/>
+      <c r="BM26" s="37"/>
+      <c r="BN26" s="37"/>
+      <c r="BO26" s="37"/>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -6461,8 +6833,30 @@
       <c r="AQ27" s="37"/>
       <c r="AR27" s="37"/>
       <c r="AS27" s="37"/>
+      <c r="AT27" s="37"/>
+      <c r="AU27" s="37"/>
+      <c r="AV27" s="37"/>
+      <c r="AW27" s="37"/>
+      <c r="AX27" s="37"/>
+      <c r="AY27" s="37"/>
+      <c r="AZ27" s="37"/>
+      <c r="BA27" s="37"/>
+      <c r="BB27" s="37"/>
+      <c r="BC27" s="37"/>
+      <c r="BD27" s="37"/>
+      <c r="BE27" s="37"/>
+      <c r="BF27" s="37"/>
+      <c r="BG27" s="37"/>
+      <c r="BH27" s="37"/>
+      <c r="BI27" s="37"/>
+      <c r="BJ27" s="37"/>
+      <c r="BK27" s="37"/>
+      <c r="BL27" s="37"/>
+      <c r="BM27" s="37"/>
+      <c r="BN27" s="37"/>
+      <c r="BO27" s="37"/>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -6508,8 +6902,30 @@
       <c r="AQ28" s="37"/>
       <c r="AR28" s="37"/>
       <c r="AS28" s="37"/>
+      <c r="AT28" s="37"/>
+      <c r="AU28" s="37"/>
+      <c r="AV28" s="37"/>
+      <c r="AW28" s="37"/>
+      <c r="AX28" s="37"/>
+      <c r="AY28" s="37"/>
+      <c r="AZ28" s="37"/>
+      <c r="BA28" s="37"/>
+      <c r="BB28" s="37"/>
+      <c r="BC28" s="37"/>
+      <c r="BD28" s="37"/>
+      <c r="BE28" s="37"/>
+      <c r="BF28" s="37"/>
+      <c r="BG28" s="37"/>
+      <c r="BH28" s="37"/>
+      <c r="BI28" s="37"/>
+      <c r="BJ28" s="37"/>
+      <c r="BK28" s="37"/>
+      <c r="BL28" s="37"/>
+      <c r="BM28" s="37"/>
+      <c r="BN28" s="37"/>
+      <c r="BO28" s="37"/>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A29" s="14"/>
       <c r="B29" s="8" t="s">
         <v>65</v>
@@ -6522,7 +6938,9 @@
       <c r="F29" s="17">
         <v>44251</v>
       </c>
-      <c r="G29" s="18"/>
+      <c r="G29" s="18">
+        <v>44265</v>
+      </c>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -6561,8 +6979,30 @@
       <c r="AQ29" s="20"/>
       <c r="AR29" s="20"/>
       <c r="AS29" s="20"/>
+      <c r="AT29" s="20"/>
+      <c r="AU29" s="20"/>
+      <c r="AV29" s="20"/>
+      <c r="AW29" s="20"/>
+      <c r="AX29" s="20"/>
+      <c r="AY29" s="20"/>
+      <c r="AZ29" s="20"/>
+      <c r="BA29" s="20"/>
+      <c r="BB29" s="20"/>
+      <c r="BC29" s="20"/>
+      <c r="BD29" s="20"/>
+      <c r="BE29" s="20"/>
+      <c r="BF29" s="20"/>
+      <c r="BG29" s="20"/>
+      <c r="BH29" s="20"/>
+      <c r="BI29" s="20"/>
+      <c r="BJ29" s="20"/>
+      <c r="BK29" s="20"/>
+      <c r="BL29" s="20"/>
+      <c r="BM29" s="20"/>
+      <c r="BN29" s="20"/>
+      <c r="BO29" s="20"/>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26" t="s">
@@ -6610,8 +7050,30 @@
       <c r="AQ30" s="37"/>
       <c r="AR30" s="37"/>
       <c r="AS30" s="37"/>
+      <c r="AT30" s="37"/>
+      <c r="AU30" s="37"/>
+      <c r="AV30" s="37"/>
+      <c r="AW30" s="37"/>
+      <c r="AX30" s="37"/>
+      <c r="AY30" s="37"/>
+      <c r="AZ30" s="37"/>
+      <c r="BA30" s="37"/>
+      <c r="BB30" s="37"/>
+      <c r="BC30" s="37"/>
+      <c r="BD30" s="37"/>
+      <c r="BE30" s="37"/>
+      <c r="BF30" s="37"/>
+      <c r="BG30" s="37"/>
+      <c r="BH30" s="37"/>
+      <c r="BI30" s="37"/>
+      <c r="BJ30" s="37"/>
+      <c r="BK30" s="37"/>
+      <c r="BL30" s="37"/>
+      <c r="BM30" s="37"/>
+      <c r="BN30" s="37"/>
+      <c r="BO30" s="37"/>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -6621,8 +7083,12 @@
       <c r="E31" s="34">
         <v>1</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
+      <c r="F31" s="35">
+        <v>44251</v>
+      </c>
+      <c r="G31" s="36">
+        <v>44251</v>
+      </c>
       <c r="H31" s="20"/>
       <c r="I31" s="37"/>
       <c r="J31" s="37"/>
@@ -6661,8 +7127,30 @@
       <c r="AQ31" s="37"/>
       <c r="AR31" s="37"/>
       <c r="AS31" s="37"/>
+      <c r="AT31" s="37"/>
+      <c r="AU31" s="37"/>
+      <c r="AV31" s="37"/>
+      <c r="AW31" s="37"/>
+      <c r="AX31" s="37"/>
+      <c r="AY31" s="37"/>
+      <c r="AZ31" s="37"/>
+      <c r="BA31" s="37"/>
+      <c r="BB31" s="37"/>
+      <c r="BC31" s="37"/>
+      <c r="BD31" s="37"/>
+      <c r="BE31" s="37"/>
+      <c r="BF31" s="37"/>
+      <c r="BG31" s="37"/>
+      <c r="BH31" s="37"/>
+      <c r="BI31" s="37"/>
+      <c r="BJ31" s="37"/>
+      <c r="BK31" s="37"/>
+      <c r="BL31" s="37"/>
+      <c r="BM31" s="37"/>
+      <c r="BN31" s="37"/>
+      <c r="BO31" s="37"/>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A32" s="14"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
@@ -6672,8 +7160,12 @@
       <c r="E32" s="34">
         <v>0.25</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
+      <c r="F32" s="35">
+        <v>44251</v>
+      </c>
+      <c r="G32" s="36">
+        <v>44251</v>
+      </c>
       <c r="H32" s="20"/>
       <c r="I32" s="37"/>
       <c r="J32" s="37"/>
@@ -6712,8 +7204,30 @@
       <c r="AQ32" s="37"/>
       <c r="AR32" s="37"/>
       <c r="AS32" s="37"/>
+      <c r="AT32" s="37"/>
+      <c r="AU32" s="37"/>
+      <c r="AV32" s="37"/>
+      <c r="AW32" s="37"/>
+      <c r="AX32" s="37"/>
+      <c r="AY32" s="37"/>
+      <c r="AZ32" s="37"/>
+      <c r="BA32" s="37"/>
+      <c r="BB32" s="37"/>
+      <c r="BC32" s="37"/>
+      <c r="BD32" s="37"/>
+      <c r="BE32" s="37"/>
+      <c r="BF32" s="37"/>
+      <c r="BG32" s="37"/>
+      <c r="BH32" s="37"/>
+      <c r="BI32" s="37"/>
+      <c r="BJ32" s="37"/>
+      <c r="BK32" s="37"/>
+      <c r="BL32" s="37"/>
+      <c r="BM32" s="37"/>
+      <c r="BN32" s="37"/>
+      <c r="BO32" s="37"/>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A33" s="14"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
@@ -6723,8 +7237,12 @@
       <c r="E33" s="34">
         <v>8</v>
       </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
+      <c r="F33" s="35">
+        <v>44257</v>
+      </c>
+      <c r="G33" s="36">
+        <v>44260</v>
+      </c>
       <c r="H33" s="20"/>
       <c r="I33" s="37"/>
       <c r="J33" s="37"/>
@@ -6763,8 +7281,30 @@
       <c r="AQ33" s="37"/>
       <c r="AR33" s="37"/>
       <c r="AS33" s="37"/>
+      <c r="AT33" s="37"/>
+      <c r="AU33" s="37"/>
+      <c r="AV33" s="37"/>
+      <c r="AW33" s="37"/>
+      <c r="AX33" s="37"/>
+      <c r="AY33" s="37"/>
+      <c r="AZ33" s="37"/>
+      <c r="BA33" s="37"/>
+      <c r="BB33" s="37"/>
+      <c r="BC33" s="37"/>
+      <c r="BD33" s="37"/>
+      <c r="BE33" s="37"/>
+      <c r="BF33" s="37"/>
+      <c r="BG33" s="37"/>
+      <c r="BH33" s="37"/>
+      <c r="BI33" s="37"/>
+      <c r="BJ33" s="37"/>
+      <c r="BK33" s="37"/>
+      <c r="BL33" s="37"/>
+      <c r="BM33" s="37"/>
+      <c r="BN33" s="37"/>
+      <c r="BO33" s="37"/>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A34" s="14"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
@@ -6774,8 +7314,12 @@
       <c r="E34" s="34">
         <v>6</v>
       </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
+      <c r="F34" s="35">
+        <v>44252</v>
+      </c>
+      <c r="G34" s="36">
+        <v>44253</v>
+      </c>
       <c r="H34" s="20"/>
       <c r="I34" s="37"/>
       <c r="J34" s="37"/>
@@ -6799,7 +7343,7 @@
       <c r="AB34" s="37"/>
       <c r="AC34" s="37"/>
       <c r="AD34" s="37"/>
-      <c r="AE34" s="37"/>
+      <c r="AE34" s="40"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="37"/>
@@ -6814,8 +7358,30 @@
       <c r="AQ34" s="37"/>
       <c r="AR34" s="37"/>
       <c r="AS34" s="37"/>
+      <c r="AT34" s="37"/>
+      <c r="AU34" s="37"/>
+      <c r="AV34" s="37"/>
+      <c r="AW34" s="37"/>
+      <c r="AX34" s="37"/>
+      <c r="AY34" s="37"/>
+      <c r="AZ34" s="37"/>
+      <c r="BA34" s="37"/>
+      <c r="BB34" s="37"/>
+      <c r="BC34" s="37"/>
+      <c r="BD34" s="37"/>
+      <c r="BE34" s="37"/>
+      <c r="BF34" s="37"/>
+      <c r="BG34" s="37"/>
+      <c r="BH34" s="37"/>
+      <c r="BI34" s="37"/>
+      <c r="BJ34" s="37"/>
+      <c r="BK34" s="37"/>
+      <c r="BL34" s="37"/>
+      <c r="BM34" s="37"/>
+      <c r="BN34" s="37"/>
+      <c r="BO34" s="37"/>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A35" s="14"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
@@ -6825,8 +7391,12 @@
       <c r="E35" s="34">
         <v>2</v>
       </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
+      <c r="F35" s="35">
+        <v>44263</v>
+      </c>
+      <c r="G35" s="36">
+        <v>44263</v>
+      </c>
       <c r="H35" s="20"/>
       <c r="I35" s="37"/>
       <c r="J35" s="37"/>
@@ -6865,8 +7435,30 @@
       <c r="AQ35" s="19"/>
       <c r="AR35" s="37"/>
       <c r="AS35" s="37"/>
+      <c r="AT35" s="37"/>
+      <c r="AU35" s="37"/>
+      <c r="AV35" s="37"/>
+      <c r="AW35" s="37"/>
+      <c r="AX35" s="37"/>
+      <c r="AY35" s="37"/>
+      <c r="AZ35" s="37"/>
+      <c r="BA35" s="37"/>
+      <c r="BB35" s="37"/>
+      <c r="BC35" s="37"/>
+      <c r="BD35" s="37"/>
+      <c r="BE35" s="37"/>
+      <c r="BF35" s="37"/>
+      <c r="BG35" s="37"/>
+      <c r="BH35" s="37"/>
+      <c r="BI35" s="37"/>
+      <c r="BJ35" s="37"/>
+      <c r="BK35" s="37"/>
+      <c r="BL35" s="37"/>
+      <c r="BM35" s="37"/>
+      <c r="BN35" s="37"/>
+      <c r="BO35" s="37"/>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A36" s="14"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -6876,8 +7468,12 @@
       <c r="E36" s="34">
         <v>1</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
+      <c r="F36" s="35">
+        <v>44251</v>
+      </c>
+      <c r="G36" s="36">
+        <v>44251</v>
+      </c>
       <c r="H36" s="20"/>
       <c r="I36" s="37"/>
       <c r="J36" s="37"/>
@@ -6916,8 +7512,30 @@
       <c r="AQ36" s="37"/>
       <c r="AR36" s="37"/>
       <c r="AS36" s="37"/>
+      <c r="AT36" s="37"/>
+      <c r="AU36" s="37"/>
+      <c r="AV36" s="37"/>
+      <c r="AW36" s="37"/>
+      <c r="AX36" s="37"/>
+      <c r="AY36" s="37"/>
+      <c r="AZ36" s="37"/>
+      <c r="BA36" s="37"/>
+      <c r="BB36" s="37"/>
+      <c r="BC36" s="37"/>
+      <c r="BD36" s="37"/>
+      <c r="BE36" s="37"/>
+      <c r="BF36" s="37"/>
+      <c r="BG36" s="37"/>
+      <c r="BH36" s="37"/>
+      <c r="BI36" s="37"/>
+      <c r="BJ36" s="37"/>
+      <c r="BK36" s="37"/>
+      <c r="BL36" s="37"/>
+      <c r="BM36" s="37"/>
+      <c r="BN36" s="37"/>
+      <c r="BO36" s="37"/>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A37" s="14"/>
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
@@ -6927,8 +7545,12 @@
       <c r="E37" s="34">
         <v>3</v>
       </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
+      <c r="F37" s="35">
+        <v>44264</v>
+      </c>
+      <c r="G37" s="36">
+        <v>44265</v>
+      </c>
       <c r="H37" s="20"/>
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
@@ -6967,8 +7589,30 @@
       <c r="AQ37" s="37"/>
       <c r="AR37" s="19"/>
       <c r="AS37" s="19"/>
+      <c r="AT37" s="37"/>
+      <c r="AU37" s="37"/>
+      <c r="AV37" s="37"/>
+      <c r="AW37" s="37"/>
+      <c r="AX37" s="37"/>
+      <c r="AY37" s="37"/>
+      <c r="AZ37" s="37"/>
+      <c r="BA37" s="37"/>
+      <c r="BB37" s="37"/>
+      <c r="BC37" s="37"/>
+      <c r="BD37" s="37"/>
+      <c r="BE37" s="37"/>
+      <c r="BF37" s="37"/>
+      <c r="BG37" s="37"/>
+      <c r="BH37" s="37"/>
+      <c r="BI37" s="37"/>
+      <c r="BJ37" s="37"/>
+      <c r="BK37" s="37"/>
+      <c r="BL37" s="37"/>
+      <c r="BM37" s="37"/>
+      <c r="BN37" s="37"/>
+      <c r="BO37" s="37"/>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A38" s="14"/>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
@@ -6978,8 +7622,12 @@
       <c r="E38" s="34">
         <v>2</v>
       </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
+      <c r="F38" s="35">
+        <v>44256</v>
+      </c>
+      <c r="G38" s="36">
+        <v>44256</v>
+      </c>
       <c r="H38" s="20"/>
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
@@ -7018,8 +7666,30 @@
       <c r="AQ38" s="37"/>
       <c r="AR38" s="37"/>
       <c r="AS38" s="37"/>
+      <c r="AT38" s="37"/>
+      <c r="AU38" s="37"/>
+      <c r="AV38" s="37"/>
+      <c r="AW38" s="37"/>
+      <c r="AX38" s="37"/>
+      <c r="AY38" s="37"/>
+      <c r="AZ38" s="37"/>
+      <c r="BA38" s="37"/>
+      <c r="BB38" s="37"/>
+      <c r="BC38" s="37"/>
+      <c r="BD38" s="37"/>
+      <c r="BE38" s="37"/>
+      <c r="BF38" s="37"/>
+      <c r="BG38" s="37"/>
+      <c r="BH38" s="37"/>
+      <c r="BI38" s="37"/>
+      <c r="BJ38" s="37"/>
+      <c r="BK38" s="37"/>
+      <c r="BL38" s="37"/>
+      <c r="BM38" s="37"/>
+      <c r="BN38" s="37"/>
+      <c r="BO38" s="37"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
@@ -7065,8 +7735,30 @@
       <c r="AQ39" s="37"/>
       <c r="AR39" s="37"/>
       <c r="AS39" s="37"/>
+      <c r="AT39" s="37"/>
+      <c r="AU39" s="37"/>
+      <c r="AV39" s="37"/>
+      <c r="AW39" s="37"/>
+      <c r="AX39" s="37"/>
+      <c r="AY39" s="37"/>
+      <c r="AZ39" s="37"/>
+      <c r="BA39" s="37"/>
+      <c r="BB39" s="37"/>
+      <c r="BC39" s="37"/>
+      <c r="BD39" s="37"/>
+      <c r="BE39" s="37"/>
+      <c r="BF39" s="37"/>
+      <c r="BG39" s="37"/>
+      <c r="BH39" s="37"/>
+      <c r="BI39" s="37"/>
+      <c r="BJ39" s="37"/>
+      <c r="BK39" s="37"/>
+      <c r="BL39" s="37"/>
+      <c r="BM39" s="37"/>
+      <c r="BN39" s="37"/>
+      <c r="BO39" s="37"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
@@ -7112,8 +7804,30 @@
       <c r="AQ40" s="37"/>
       <c r="AR40" s="37"/>
       <c r="AS40" s="37"/>
+      <c r="AT40" s="37"/>
+      <c r="AU40" s="37"/>
+      <c r="AV40" s="37"/>
+      <c r="AW40" s="37"/>
+      <c r="AX40" s="37"/>
+      <c r="AY40" s="37"/>
+      <c r="AZ40" s="37"/>
+      <c r="BA40" s="37"/>
+      <c r="BB40" s="37"/>
+      <c r="BC40" s="37"/>
+      <c r="BD40" s="37"/>
+      <c r="BE40" s="37"/>
+      <c r="BF40" s="37"/>
+      <c r="BG40" s="37"/>
+      <c r="BH40" s="37"/>
+      <c r="BI40" s="37"/>
+      <c r="BJ40" s="37"/>
+      <c r="BK40" s="37"/>
+      <c r="BL40" s="37"/>
+      <c r="BM40" s="37"/>
+      <c r="BN40" s="37"/>
+      <c r="BO40" s="37"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="8" t="s">
         <v>58</v>
@@ -7161,8 +7875,30 @@
       <c r="AQ41" s="20"/>
       <c r="AR41" s="20"/>
       <c r="AS41" s="20"/>
+      <c r="AT41" s="20"/>
+      <c r="AU41" s="20"/>
+      <c r="AV41" s="20"/>
+      <c r="AW41" s="20"/>
+      <c r="AX41" s="20"/>
+      <c r="AY41" s="20"/>
+      <c r="AZ41" s="20"/>
+      <c r="BA41" s="20"/>
+      <c r="BB41" s="20"/>
+      <c r="BC41" s="20"/>
+      <c r="BD41" s="20"/>
+      <c r="BE41" s="20"/>
+      <c r="BF41" s="20"/>
+      <c r="BG41" s="20"/>
+      <c r="BH41" s="20"/>
+      <c r="BI41" s="20"/>
+      <c r="BJ41" s="20"/>
+      <c r="BK41" s="20"/>
+      <c r="BL41" s="20"/>
+      <c r="BM41" s="20"/>
+      <c r="BN41" s="20"/>
+      <c r="BO41" s="20"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21" t="s">
@@ -7210,8 +7946,30 @@
       <c r="AQ42" s="20"/>
       <c r="AR42" s="20"/>
       <c r="AS42" s="20"/>
+      <c r="AT42" s="20"/>
+      <c r="AU42" s="20"/>
+      <c r="AV42" s="20"/>
+      <c r="AW42" s="20"/>
+      <c r="AX42" s="20"/>
+      <c r="AY42" s="20"/>
+      <c r="AZ42" s="20"/>
+      <c r="BA42" s="20"/>
+      <c r="BB42" s="20"/>
+      <c r="BC42" s="20"/>
+      <c r="BD42" s="20"/>
+      <c r="BE42" s="20"/>
+      <c r="BF42" s="20"/>
+      <c r="BG42" s="20"/>
+      <c r="BH42" s="20"/>
+      <c r="BI42" s="20"/>
+      <c r="BJ42" s="20"/>
+      <c r="BK42" s="20"/>
+      <c r="BL42" s="20"/>
+      <c r="BM42" s="20"/>
+      <c r="BN42" s="20"/>
+      <c r="BO42" s="20"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A43" s="14"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
@@ -7259,8 +8017,30 @@
       <c r="AQ43" s="37"/>
       <c r="AR43" s="37"/>
       <c r="AS43" s="37"/>
+      <c r="AT43" s="37"/>
+      <c r="AU43" s="37"/>
+      <c r="AV43" s="37"/>
+      <c r="AW43" s="37"/>
+      <c r="AX43" s="37"/>
+      <c r="AY43" s="37"/>
+      <c r="AZ43" s="37"/>
+      <c r="BA43" s="37"/>
+      <c r="BB43" s="37"/>
+      <c r="BC43" s="37"/>
+      <c r="BD43" s="37"/>
+      <c r="BE43" s="37"/>
+      <c r="BF43" s="37"/>
+      <c r="BG43" s="37"/>
+      <c r="BH43" s="37"/>
+      <c r="BI43" s="37"/>
+      <c r="BJ43" s="37"/>
+      <c r="BK43" s="37"/>
+      <c r="BL43" s="37"/>
+      <c r="BM43" s="37"/>
+      <c r="BN43" s="37"/>
+      <c r="BO43" s="37"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A44" s="14"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
@@ -7306,8 +8086,30 @@
       <c r="AQ44" s="37"/>
       <c r="AR44" s="37"/>
       <c r="AS44" s="37"/>
+      <c r="AT44" s="37"/>
+      <c r="AU44" s="37"/>
+      <c r="AV44" s="37"/>
+      <c r="AW44" s="37"/>
+      <c r="AX44" s="37"/>
+      <c r="AY44" s="37"/>
+      <c r="AZ44" s="37"/>
+      <c r="BA44" s="37"/>
+      <c r="BB44" s="37"/>
+      <c r="BC44" s="37"/>
+      <c r="BD44" s="37"/>
+      <c r="BE44" s="37"/>
+      <c r="BF44" s="37"/>
+      <c r="BG44" s="37"/>
+      <c r="BH44" s="37"/>
+      <c r="BI44" s="37"/>
+      <c r="BJ44" s="37"/>
+      <c r="BK44" s="37"/>
+      <c r="BL44" s="37"/>
+      <c r="BM44" s="37"/>
+      <c r="BN44" s="37"/>
+      <c r="BO44" s="37"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
@@ -7353,8 +8155,30 @@
       <c r="AQ45" s="37"/>
       <c r="AR45" s="37"/>
       <c r="AS45" s="37"/>
+      <c r="AT45" s="37"/>
+      <c r="AU45" s="37"/>
+      <c r="AV45" s="37"/>
+      <c r="AW45" s="37"/>
+      <c r="AX45" s="37"/>
+      <c r="AY45" s="37"/>
+      <c r="AZ45" s="37"/>
+      <c r="BA45" s="37"/>
+      <c r="BB45" s="37"/>
+      <c r="BC45" s="37"/>
+      <c r="BD45" s="37"/>
+      <c r="BE45" s="37"/>
+      <c r="BF45" s="37"/>
+      <c r="BG45" s="37"/>
+      <c r="BH45" s="37"/>
+      <c r="BI45" s="37"/>
+      <c r="BJ45" s="37"/>
+      <c r="BK45" s="37"/>
+      <c r="BL45" s="37"/>
+      <c r="BM45" s="37"/>
+      <c r="BN45" s="37"/>
+      <c r="BO45" s="37"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A46" s="27" t="s">
         <v>8</v>
       </c>
@@ -7404,8 +8228,30 @@
       <c r="AQ46" s="13"/>
       <c r="AR46" s="13"/>
       <c r="AS46" s="13"/>
+      <c r="AT46" s="13"/>
+      <c r="AU46" s="13"/>
+      <c r="AV46" s="13"/>
+      <c r="AW46" s="13"/>
+      <c r="AX46" s="13"/>
+      <c r="AY46" s="13"/>
+      <c r="AZ46" s="13"/>
+      <c r="BA46" s="13"/>
+      <c r="BB46" s="13"/>
+      <c r="BC46" s="13"/>
+      <c r="BD46" s="13"/>
+      <c r="BE46" s="13"/>
+      <c r="BF46" s="13"/>
+      <c r="BG46" s="13"/>
+      <c r="BH46" s="13"/>
+      <c r="BI46" s="13"/>
+      <c r="BJ46" s="13"/>
+      <c r="BK46" s="13"/>
+      <c r="BL46" s="13"/>
+      <c r="BM46" s="13"/>
+      <c r="BN46" s="13"/>
+      <c r="BO46" s="13"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A47" s="30"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21" t="s">
@@ -7453,8 +8299,30 @@
       <c r="AQ47" s="20"/>
       <c r="AR47" s="20"/>
       <c r="AS47" s="20"/>
+      <c r="AT47" s="20"/>
+      <c r="AU47" s="20"/>
+      <c r="AV47" s="20"/>
+      <c r="AW47" s="20"/>
+      <c r="AX47" s="20"/>
+      <c r="AY47" s="20"/>
+      <c r="AZ47" s="20"/>
+      <c r="BA47" s="20"/>
+      <c r="BB47" s="20"/>
+      <c r="BC47" s="20"/>
+      <c r="BD47" s="20"/>
+      <c r="BE47" s="20"/>
+      <c r="BF47" s="20"/>
+      <c r="BG47" s="20"/>
+      <c r="BH47" s="20"/>
+      <c r="BI47" s="20"/>
+      <c r="BJ47" s="20"/>
+      <c r="BK47" s="20"/>
+      <c r="BL47" s="20"/>
+      <c r="BM47" s="20"/>
+      <c r="BN47" s="20"/>
+      <c r="BO47" s="20"/>
     </row>
-    <row r="48" spans="1:45" ht="30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:67" ht="30" x14ac:dyDescent="0.35">
       <c r="A48" s="30"/>
       <c r="B48" s="22"/>
       <c r="C48" s="15"/>
@@ -7508,8 +8376,30 @@
       <c r="AQ48" s="20"/>
       <c r="AR48" s="20"/>
       <c r="AS48" s="20"/>
+      <c r="AT48" s="20"/>
+      <c r="AU48" s="20"/>
+      <c r="AV48" s="20"/>
+      <c r="AW48" s="20"/>
+      <c r="AX48" s="20"/>
+      <c r="AY48" s="20"/>
+      <c r="AZ48" s="20"/>
+      <c r="BA48" s="20"/>
+      <c r="BB48" s="20"/>
+      <c r="BC48" s="20"/>
+      <c r="BD48" s="20"/>
+      <c r="BE48" s="20"/>
+      <c r="BF48" s="20"/>
+      <c r="BG48" s="20"/>
+      <c r="BH48" s="20"/>
+      <c r="BI48" s="20"/>
+      <c r="BJ48" s="20"/>
+      <c r="BK48" s="20"/>
+      <c r="BL48" s="20"/>
+      <c r="BM48" s="20"/>
+      <c r="BN48" s="20"/>
+      <c r="BO48" s="20"/>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A49" s="30"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -7563,8 +8453,30 @@
       <c r="AQ49" s="20"/>
       <c r="AR49" s="20"/>
       <c r="AS49" s="20"/>
+      <c r="AT49" s="20"/>
+      <c r="AU49" s="20"/>
+      <c r="AV49" s="20"/>
+      <c r="AW49" s="20"/>
+      <c r="AX49" s="20"/>
+      <c r="AY49" s="20"/>
+      <c r="AZ49" s="20"/>
+      <c r="BA49" s="20"/>
+      <c r="BB49" s="20"/>
+      <c r="BC49" s="20"/>
+      <c r="BD49" s="20"/>
+      <c r="BE49" s="20"/>
+      <c r="BF49" s="20"/>
+      <c r="BG49" s="20"/>
+      <c r="BH49" s="20"/>
+      <c r="BI49" s="20"/>
+      <c r="BJ49" s="20"/>
+      <c r="BK49" s="20"/>
+      <c r="BL49" s="20"/>
+      <c r="BM49" s="20"/>
+      <c r="BN49" s="20"/>
+      <c r="BO49" s="20"/>
     </row>
-    <row r="50" spans="1:45" ht="30" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:67" ht="30" x14ac:dyDescent="0.35">
       <c r="A50" s="30"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -7618,8 +8530,30 @@
       <c r="AQ50" s="20"/>
       <c r="AR50" s="20"/>
       <c r="AS50" s="20"/>
+      <c r="AT50" s="20"/>
+      <c r="AU50" s="20"/>
+      <c r="AV50" s="20"/>
+      <c r="AW50" s="20"/>
+      <c r="AX50" s="20"/>
+      <c r="AY50" s="20"/>
+      <c r="AZ50" s="20"/>
+      <c r="BA50" s="20"/>
+      <c r="BB50" s="20"/>
+      <c r="BC50" s="20"/>
+      <c r="BD50" s="20"/>
+      <c r="BE50" s="20"/>
+      <c r="BF50" s="20"/>
+      <c r="BG50" s="20"/>
+      <c r="BH50" s="20"/>
+      <c r="BI50" s="20"/>
+      <c r="BJ50" s="20"/>
+      <c r="BK50" s="20"/>
+      <c r="BL50" s="20"/>
+      <c r="BM50" s="20"/>
+      <c r="BN50" s="20"/>
+      <c r="BO50" s="20"/>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A51" s="30"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -7673,8 +8607,30 @@
       <c r="AQ51" s="20"/>
       <c r="AR51" s="20"/>
       <c r="AS51" s="20"/>
+      <c r="AT51" s="20"/>
+      <c r="AU51" s="20"/>
+      <c r="AV51" s="20"/>
+      <c r="AW51" s="20"/>
+      <c r="AX51" s="20"/>
+      <c r="AY51" s="20"/>
+      <c r="AZ51" s="20"/>
+      <c r="BA51" s="20"/>
+      <c r="BB51" s="20"/>
+      <c r="BC51" s="20"/>
+      <c r="BD51" s="20"/>
+      <c r="BE51" s="20"/>
+      <c r="BF51" s="20"/>
+      <c r="BG51" s="20"/>
+      <c r="BH51" s="20"/>
+      <c r="BI51" s="20"/>
+      <c r="BJ51" s="20"/>
+      <c r="BK51" s="20"/>
+      <c r="BL51" s="20"/>
+      <c r="BM51" s="20"/>
+      <c r="BN51" s="20"/>
+      <c r="BO51" s="20"/>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A52" s="30"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -7722,8 +8678,30 @@
       <c r="AQ52" s="20"/>
       <c r="AR52" s="20"/>
       <c r="AS52" s="20"/>
+      <c r="AT52" s="20"/>
+      <c r="AU52" s="20"/>
+      <c r="AV52" s="20"/>
+      <c r="AW52" s="20"/>
+      <c r="AX52" s="20"/>
+      <c r="AY52" s="20"/>
+      <c r="AZ52" s="20"/>
+      <c r="BA52" s="20"/>
+      <c r="BB52" s="20"/>
+      <c r="BC52" s="20"/>
+      <c r="BD52" s="20"/>
+      <c r="BE52" s="20"/>
+      <c r="BF52" s="20"/>
+      <c r="BG52" s="20"/>
+      <c r="BH52" s="20"/>
+      <c r="BI52" s="20"/>
+      <c r="BJ52" s="20"/>
+      <c r="BK52" s="20"/>
+      <c r="BL52" s="20"/>
+      <c r="BM52" s="20"/>
+      <c r="BN52" s="20"/>
+      <c r="BO52" s="20"/>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A53" s="30"/>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
@@ -7777,8 +8755,30 @@
       <c r="AQ53" s="20"/>
       <c r="AR53" s="20"/>
       <c r="AS53" s="20"/>
+      <c r="AT53" s="20"/>
+      <c r="AU53" s="20"/>
+      <c r="AV53" s="20"/>
+      <c r="AW53" s="20"/>
+      <c r="AX53" s="20"/>
+      <c r="AY53" s="20"/>
+      <c r="AZ53" s="20"/>
+      <c r="BA53" s="20"/>
+      <c r="BB53" s="20"/>
+      <c r="BC53" s="20"/>
+      <c r="BD53" s="20"/>
+      <c r="BE53" s="20"/>
+      <c r="BF53" s="20"/>
+      <c r="BG53" s="20"/>
+      <c r="BH53" s="20"/>
+      <c r="BI53" s="20"/>
+      <c r="BJ53" s="20"/>
+      <c r="BK53" s="20"/>
+      <c r="BL53" s="20"/>
+      <c r="BM53" s="20"/>
+      <c r="BN53" s="20"/>
+      <c r="BO53" s="20"/>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A54" s="30"/>
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
@@ -7832,8 +8832,30 @@
       <c r="AQ54" s="20"/>
       <c r="AR54" s="20"/>
       <c r="AS54" s="20"/>
+      <c r="AT54" s="20"/>
+      <c r="AU54" s="20"/>
+      <c r="AV54" s="20"/>
+      <c r="AW54" s="20"/>
+      <c r="AX54" s="20"/>
+      <c r="AY54" s="20"/>
+      <c r="AZ54" s="20"/>
+      <c r="BA54" s="20"/>
+      <c r="BB54" s="20"/>
+      <c r="BC54" s="20"/>
+      <c r="BD54" s="20"/>
+      <c r="BE54" s="20"/>
+      <c r="BF54" s="20"/>
+      <c r="BG54" s="20"/>
+      <c r="BH54" s="20"/>
+      <c r="BI54" s="20"/>
+      <c r="BJ54" s="20"/>
+      <c r="BK54" s="20"/>
+      <c r="BL54" s="20"/>
+      <c r="BM54" s="20"/>
+      <c r="BN54" s="20"/>
+      <c r="BO54" s="20"/>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A55" s="30"/>
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
@@ -7887,8 +8909,30 @@
       <c r="AQ55" s="20"/>
       <c r="AR55" s="20"/>
       <c r="AS55" s="20"/>
+      <c r="AT55" s="20"/>
+      <c r="AU55" s="20"/>
+      <c r="AV55" s="20"/>
+      <c r="AW55" s="20"/>
+      <c r="AX55" s="20"/>
+      <c r="AY55" s="20"/>
+      <c r="AZ55" s="20"/>
+      <c r="BA55" s="20"/>
+      <c r="BB55" s="20"/>
+      <c r="BC55" s="20"/>
+      <c r="BD55" s="20"/>
+      <c r="BE55" s="20"/>
+      <c r="BF55" s="20"/>
+      <c r="BG55" s="20"/>
+      <c r="BH55" s="20"/>
+      <c r="BI55" s="20"/>
+      <c r="BJ55" s="20"/>
+      <c r="BK55" s="20"/>
+      <c r="BL55" s="20"/>
+      <c r="BM55" s="20"/>
+      <c r="BN55" s="20"/>
+      <c r="BO55" s="20"/>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A56" s="30"/>
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
@@ -7936,8 +8980,30 @@
       <c r="AQ56" s="20"/>
       <c r="AR56" s="20"/>
       <c r="AS56" s="20"/>
+      <c r="AT56" s="20"/>
+      <c r="AU56" s="20"/>
+      <c r="AV56" s="20"/>
+      <c r="AW56" s="20"/>
+      <c r="AX56" s="20"/>
+      <c r="AY56" s="20"/>
+      <c r="AZ56" s="20"/>
+      <c r="BA56" s="20"/>
+      <c r="BB56" s="20"/>
+      <c r="BC56" s="20"/>
+      <c r="BD56" s="20"/>
+      <c r="BE56" s="20"/>
+      <c r="BF56" s="20"/>
+      <c r="BG56" s="20"/>
+      <c r="BH56" s="20"/>
+      <c r="BI56" s="20"/>
+      <c r="BJ56" s="20"/>
+      <c r="BK56" s="20"/>
+      <c r="BL56" s="20"/>
+      <c r="BM56" s="20"/>
+      <c r="BN56" s="20"/>
+      <c r="BO56" s="20"/>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A57" s="30"/>
       <c r="B57" s="26"/>
       <c r="C57" s="26"/>
@@ -7987,8 +9053,30 @@
       <c r="AQ57" s="20"/>
       <c r="AR57" s="20"/>
       <c r="AS57" s="20"/>
+      <c r="AT57" s="20"/>
+      <c r="AU57" s="20"/>
+      <c r="AV57" s="20"/>
+      <c r="AW57" s="20"/>
+      <c r="AX57" s="20"/>
+      <c r="AY57" s="20"/>
+      <c r="AZ57" s="20"/>
+      <c r="BA57" s="20"/>
+      <c r="BB57" s="20"/>
+      <c r="BC57" s="20"/>
+      <c r="BD57" s="20"/>
+      <c r="BE57" s="20"/>
+      <c r="BF57" s="20"/>
+      <c r="BG57" s="20"/>
+      <c r="BH57" s="20"/>
+      <c r="BI57" s="20"/>
+      <c r="BJ57" s="20"/>
+      <c r="BK57" s="20"/>
+      <c r="BL57" s="20"/>
+      <c r="BM57" s="20"/>
+      <c r="BN57" s="20"/>
+      <c r="BO57" s="20"/>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A58" s="30"/>
       <c r="B58" s="26"/>
       <c r="C58" s="26"/>
@@ -8036,8 +9124,30 @@
       <c r="AQ58" s="20"/>
       <c r="AR58" s="20"/>
       <c r="AS58" s="20"/>
+      <c r="AT58" s="20"/>
+      <c r="AU58" s="20"/>
+      <c r="AV58" s="20"/>
+      <c r="AW58" s="20"/>
+      <c r="AX58" s="20"/>
+      <c r="AY58" s="20"/>
+      <c r="AZ58" s="20"/>
+      <c r="BA58" s="20"/>
+      <c r="BB58" s="20"/>
+      <c r="BC58" s="20"/>
+      <c r="BD58" s="20"/>
+      <c r="BE58" s="20"/>
+      <c r="BF58" s="20"/>
+      <c r="BG58" s="20"/>
+      <c r="BH58" s="20"/>
+      <c r="BI58" s="20"/>
+      <c r="BJ58" s="20"/>
+      <c r="BK58" s="20"/>
+      <c r="BL58" s="20"/>
+      <c r="BM58" s="20"/>
+      <c r="BN58" s="20"/>
+      <c r="BO58" s="20"/>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A59" s="30"/>
       <c r="B59" s="26"/>
       <c r="C59" s="26"/>
@@ -8083,8 +9193,30 @@
       <c r="AQ59" s="20"/>
       <c r="AR59" s="20"/>
       <c r="AS59" s="20"/>
+      <c r="AT59" s="20"/>
+      <c r="AU59" s="20"/>
+      <c r="AV59" s="20"/>
+      <c r="AW59" s="20"/>
+      <c r="AX59" s="20"/>
+      <c r="AY59" s="20"/>
+      <c r="AZ59" s="20"/>
+      <c r="BA59" s="20"/>
+      <c r="BB59" s="20"/>
+      <c r="BC59" s="20"/>
+      <c r="BD59" s="20"/>
+      <c r="BE59" s="20"/>
+      <c r="BF59" s="20"/>
+      <c r="BG59" s="20"/>
+      <c r="BH59" s="20"/>
+      <c r="BI59" s="20"/>
+      <c r="BJ59" s="20"/>
+      <c r="BK59" s="20"/>
+      <c r="BL59" s="20"/>
+      <c r="BM59" s="20"/>
+      <c r="BN59" s="20"/>
+      <c r="BO59" s="20"/>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A60" s="30"/>
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
@@ -8130,8 +9262,30 @@
       <c r="AQ60" s="20"/>
       <c r="AR60" s="20"/>
       <c r="AS60" s="20"/>
+      <c r="AT60" s="20"/>
+      <c r="AU60" s="20"/>
+      <c r="AV60" s="20"/>
+      <c r="AW60" s="20"/>
+      <c r="AX60" s="20"/>
+      <c r="AY60" s="20"/>
+      <c r="AZ60" s="20"/>
+      <c r="BA60" s="20"/>
+      <c r="BB60" s="20"/>
+      <c r="BC60" s="20"/>
+      <c r="BD60" s="20"/>
+      <c r="BE60" s="20"/>
+      <c r="BF60" s="20"/>
+      <c r="BG60" s="20"/>
+      <c r="BH60" s="20"/>
+      <c r="BI60" s="20"/>
+      <c r="BJ60" s="20"/>
+      <c r="BK60" s="20"/>
+      <c r="BL60" s="20"/>
+      <c r="BM60" s="20"/>
+      <c r="BN60" s="20"/>
+      <c r="BO60" s="20"/>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A61" s="30"/>
       <c r="B61" s="8" t="s">
         <v>34</v>
@@ -8179,8 +9333,30 @@
       <c r="AQ61" s="20"/>
       <c r="AR61" s="20"/>
       <c r="AS61" s="20"/>
+      <c r="AT61" s="20"/>
+      <c r="AU61" s="20"/>
+      <c r="AV61" s="20"/>
+      <c r="AW61" s="20"/>
+      <c r="AX61" s="20"/>
+      <c r="AY61" s="20"/>
+      <c r="AZ61" s="20"/>
+      <c r="BA61" s="20"/>
+      <c r="BB61" s="20"/>
+      <c r="BC61" s="20"/>
+      <c r="BD61" s="20"/>
+      <c r="BE61" s="20"/>
+      <c r="BF61" s="20"/>
+      <c r="BG61" s="20"/>
+      <c r="BH61" s="20"/>
+      <c r="BI61" s="20"/>
+      <c r="BJ61" s="20"/>
+      <c r="BK61" s="20"/>
+      <c r="BL61" s="20"/>
+      <c r="BM61" s="20"/>
+      <c r="BN61" s="20"/>
+      <c r="BO61" s="20"/>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A62" s="30"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21" t="s">
@@ -8228,8 +9404,30 @@
       <c r="AQ62" s="20"/>
       <c r="AR62" s="20"/>
       <c r="AS62" s="20"/>
+      <c r="AT62" s="20"/>
+      <c r="AU62" s="20"/>
+      <c r="AV62" s="20"/>
+      <c r="AW62" s="20"/>
+      <c r="AX62" s="20"/>
+      <c r="AY62" s="20"/>
+      <c r="AZ62" s="20"/>
+      <c r="BA62" s="20"/>
+      <c r="BB62" s="20"/>
+      <c r="BC62" s="20"/>
+      <c r="BD62" s="20"/>
+      <c r="BE62" s="20"/>
+      <c r="BF62" s="20"/>
+      <c r="BG62" s="20"/>
+      <c r="BH62" s="20"/>
+      <c r="BI62" s="20"/>
+      <c r="BJ62" s="20"/>
+      <c r="BK62" s="20"/>
+      <c r="BL62" s="20"/>
+      <c r="BM62" s="20"/>
+      <c r="BN62" s="20"/>
+      <c r="BO62" s="20"/>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A63" s="30"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -8283,8 +9481,30 @@
       <c r="AQ63" s="20"/>
       <c r="AR63" s="20"/>
       <c r="AS63" s="20"/>
+      <c r="AT63" s="20"/>
+      <c r="AU63" s="20"/>
+      <c r="AV63" s="20"/>
+      <c r="AW63" s="20"/>
+      <c r="AX63" s="20"/>
+      <c r="AY63" s="20"/>
+      <c r="AZ63" s="20"/>
+      <c r="BA63" s="20"/>
+      <c r="BB63" s="20"/>
+      <c r="BC63" s="20"/>
+      <c r="BD63" s="20"/>
+      <c r="BE63" s="20"/>
+      <c r="BF63" s="20"/>
+      <c r="BG63" s="20"/>
+      <c r="BH63" s="20"/>
+      <c r="BI63" s="20"/>
+      <c r="BJ63" s="20"/>
+      <c r="BK63" s="20"/>
+      <c r="BL63" s="20"/>
+      <c r="BM63" s="20"/>
+      <c r="BN63" s="20"/>
+      <c r="BO63" s="20"/>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A64" s="30"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -8336,8 +9556,30 @@
       <c r="AQ64" s="20"/>
       <c r="AR64" s="20"/>
       <c r="AS64" s="20"/>
+      <c r="AT64" s="20"/>
+      <c r="AU64" s="20"/>
+      <c r="AV64" s="20"/>
+      <c r="AW64" s="20"/>
+      <c r="AX64" s="20"/>
+      <c r="AY64" s="20"/>
+      <c r="AZ64" s="20"/>
+      <c r="BA64" s="20"/>
+      <c r="BB64" s="20"/>
+      <c r="BC64" s="20"/>
+      <c r="BD64" s="20"/>
+      <c r="BE64" s="20"/>
+      <c r="BF64" s="20"/>
+      <c r="BG64" s="20"/>
+      <c r="BH64" s="20"/>
+      <c r="BI64" s="20"/>
+      <c r="BJ64" s="20"/>
+      <c r="BK64" s="20"/>
+      <c r="BL64" s="20"/>
+      <c r="BM64" s="20"/>
+      <c r="BN64" s="20"/>
+      <c r="BO64" s="20"/>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A65" s="30"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
@@ -8385,8 +9627,30 @@
       <c r="AQ65" s="20"/>
       <c r="AR65" s="20"/>
       <c r="AS65" s="20"/>
+      <c r="AT65" s="20"/>
+      <c r="AU65" s="20"/>
+      <c r="AV65" s="20"/>
+      <c r="AW65" s="20"/>
+      <c r="AX65" s="20"/>
+      <c r="AY65" s="20"/>
+      <c r="AZ65" s="20"/>
+      <c r="BA65" s="20"/>
+      <c r="BB65" s="20"/>
+      <c r="BC65" s="20"/>
+      <c r="BD65" s="20"/>
+      <c r="BE65" s="20"/>
+      <c r="BF65" s="20"/>
+      <c r="BG65" s="20"/>
+      <c r="BH65" s="20"/>
+      <c r="BI65" s="20"/>
+      <c r="BJ65" s="20"/>
+      <c r="BK65" s="20"/>
+      <c r="BL65" s="20"/>
+      <c r="BM65" s="20"/>
+      <c r="BN65" s="20"/>
+      <c r="BO65" s="20"/>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A66" s="30"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
@@ -8440,8 +9704,30 @@
       <c r="AQ66" s="20"/>
       <c r="AR66" s="20"/>
       <c r="AS66" s="20"/>
+      <c r="AT66" s="20"/>
+      <c r="AU66" s="20"/>
+      <c r="AV66" s="20"/>
+      <c r="AW66" s="20"/>
+      <c r="AX66" s="20"/>
+      <c r="AY66" s="20"/>
+      <c r="AZ66" s="20"/>
+      <c r="BA66" s="20"/>
+      <c r="BB66" s="20"/>
+      <c r="BC66" s="20"/>
+      <c r="BD66" s="20"/>
+      <c r="BE66" s="20"/>
+      <c r="BF66" s="20"/>
+      <c r="BG66" s="20"/>
+      <c r="BH66" s="20"/>
+      <c r="BI66" s="20"/>
+      <c r="BJ66" s="20"/>
+      <c r="BK66" s="20"/>
+      <c r="BL66" s="20"/>
+      <c r="BM66" s="20"/>
+      <c r="BN66" s="20"/>
+      <c r="BO66" s="20"/>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A67" s="30"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
@@ -8495,8 +9781,30 @@
       <c r="AQ67" s="20"/>
       <c r="AR67" s="20"/>
       <c r="AS67" s="20"/>
+      <c r="AT67" s="20"/>
+      <c r="AU67" s="20"/>
+      <c r="AV67" s="20"/>
+      <c r="AW67" s="20"/>
+      <c r="AX67" s="20"/>
+      <c r="AY67" s="20"/>
+      <c r="AZ67" s="20"/>
+      <c r="BA67" s="20"/>
+      <c r="BB67" s="20"/>
+      <c r="BC67" s="20"/>
+      <c r="BD67" s="20"/>
+      <c r="BE67" s="20"/>
+      <c r="BF67" s="20"/>
+      <c r="BG67" s="20"/>
+      <c r="BH67" s="20"/>
+      <c r="BI67" s="20"/>
+      <c r="BJ67" s="20"/>
+      <c r="BK67" s="20"/>
+      <c r="BL67" s="20"/>
+      <c r="BM67" s="20"/>
+      <c r="BN67" s="20"/>
+      <c r="BO67" s="20"/>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A68" s="30"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -8542,8 +9850,30 @@
       <c r="AQ68" s="20"/>
       <c r="AR68" s="20"/>
       <c r="AS68" s="20"/>
+      <c r="AT68" s="20"/>
+      <c r="AU68" s="20"/>
+      <c r="AV68" s="20"/>
+      <c r="AW68" s="20"/>
+      <c r="AX68" s="20"/>
+      <c r="AY68" s="20"/>
+      <c r="AZ68" s="20"/>
+      <c r="BA68" s="20"/>
+      <c r="BB68" s="20"/>
+      <c r="BC68" s="20"/>
+      <c r="BD68" s="20"/>
+      <c r="BE68" s="20"/>
+      <c r="BF68" s="20"/>
+      <c r="BG68" s="20"/>
+      <c r="BH68" s="20"/>
+      <c r="BI68" s="20"/>
+      <c r="BJ68" s="20"/>
+      <c r="BK68" s="20"/>
+      <c r="BL68" s="20"/>
+      <c r="BM68" s="20"/>
+      <c r="BN68" s="20"/>
+      <c r="BO68" s="20"/>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A69" s="30"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -8589,8 +9919,30 @@
       <c r="AQ69" s="20"/>
       <c r="AR69" s="20"/>
       <c r="AS69" s="20"/>
+      <c r="AT69" s="20"/>
+      <c r="AU69" s="20"/>
+      <c r="AV69" s="20"/>
+      <c r="AW69" s="20"/>
+      <c r="AX69" s="20"/>
+      <c r="AY69" s="20"/>
+      <c r="AZ69" s="20"/>
+      <c r="BA69" s="20"/>
+      <c r="BB69" s="20"/>
+      <c r="BC69" s="20"/>
+      <c r="BD69" s="20"/>
+      <c r="BE69" s="20"/>
+      <c r="BF69" s="20"/>
+      <c r="BG69" s="20"/>
+      <c r="BH69" s="20"/>
+      <c r="BI69" s="20"/>
+      <c r="BJ69" s="20"/>
+      <c r="BK69" s="20"/>
+      <c r="BL69" s="20"/>
+      <c r="BM69" s="20"/>
+      <c r="BN69" s="20"/>
+      <c r="BO69" s="20"/>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A70" s="30"/>
       <c r="B70" s="8" t="s">
         <v>65</v>
@@ -8638,8 +9990,30 @@
       <c r="AQ70" s="20"/>
       <c r="AR70" s="20"/>
       <c r="AS70" s="20"/>
+      <c r="AT70" s="20"/>
+      <c r="AU70" s="20"/>
+      <c r="AV70" s="20"/>
+      <c r="AW70" s="20"/>
+      <c r="AX70" s="20"/>
+      <c r="AY70" s="20"/>
+      <c r="AZ70" s="20"/>
+      <c r="BA70" s="20"/>
+      <c r="BB70" s="20"/>
+      <c r="BC70" s="20"/>
+      <c r="BD70" s="20"/>
+      <c r="BE70" s="20"/>
+      <c r="BF70" s="20"/>
+      <c r="BG70" s="20"/>
+      <c r="BH70" s="20"/>
+      <c r="BI70" s="20"/>
+      <c r="BJ70" s="20"/>
+      <c r="BK70" s="20"/>
+      <c r="BL70" s="20"/>
+      <c r="BM70" s="20"/>
+      <c r="BN70" s="20"/>
+      <c r="BO70" s="20"/>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A71" s="30"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25" t="s">
@@ -8687,17 +10061,45 @@
       <c r="AQ71" s="20"/>
       <c r="AR71" s="20"/>
       <c r="AS71" s="20"/>
+      <c r="AT71" s="20"/>
+      <c r="AU71" s="20"/>
+      <c r="AV71" s="20"/>
+      <c r="AW71" s="20"/>
+      <c r="AX71" s="20"/>
+      <c r="AY71" s="20"/>
+      <c r="AZ71" s="20"/>
+      <c r="BA71" s="20"/>
+      <c r="BB71" s="20"/>
+      <c r="BC71" s="20"/>
+      <c r="BD71" s="20"/>
+      <c r="BE71" s="20"/>
+      <c r="BF71" s="20"/>
+      <c r="BG71" s="20"/>
+      <c r="BH71" s="20"/>
+      <c r="BI71" s="20"/>
+      <c r="BJ71" s="20"/>
+      <c r="BK71" s="20"/>
+      <c r="BL71" s="20"/>
+      <c r="BM71" s="20"/>
+      <c r="BN71" s="20"/>
+      <c r="BO71" s="20"/>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A72" s="30"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
       <c r="D72" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E72" s="31"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="18"/>
+      <c r="E72" s="31">
+        <v>1</v>
+      </c>
+      <c r="F72" s="17">
+        <v>44251</v>
+      </c>
+      <c r="G72" s="18">
+        <v>44251</v>
+      </c>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
@@ -8721,7 +10123,7 @@
       <c r="AB72" s="20"/>
       <c r="AC72" s="20"/>
       <c r="AD72" s="20"/>
-      <c r="AE72" s="20"/>
+      <c r="AE72" s="39"/>
       <c r="AF72" s="20"/>
       <c r="AG72" s="20"/>
       <c r="AH72" s="20"/>
@@ -8736,17 +10138,45 @@
       <c r="AQ72" s="20"/>
       <c r="AR72" s="20"/>
       <c r="AS72" s="20"/>
+      <c r="AT72" s="20"/>
+      <c r="AU72" s="20"/>
+      <c r="AV72" s="20"/>
+      <c r="AW72" s="20"/>
+      <c r="AX72" s="20"/>
+      <c r="AY72" s="20"/>
+      <c r="AZ72" s="20"/>
+      <c r="BA72" s="20"/>
+      <c r="BB72" s="20"/>
+      <c r="BC72" s="20"/>
+      <c r="BD72" s="20"/>
+      <c r="BE72" s="20"/>
+      <c r="BF72" s="20"/>
+      <c r="BG72" s="20"/>
+      <c r="BH72" s="20"/>
+      <c r="BI72" s="20"/>
+      <c r="BJ72" s="20"/>
+      <c r="BK72" s="20"/>
+      <c r="BL72" s="20"/>
+      <c r="BM72" s="20"/>
+      <c r="BN72" s="20"/>
+      <c r="BO72" s="20"/>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A73" s="30"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
       <c r="D73" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E73" s="31"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="18"/>
+      <c r="E73" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="F73" s="17">
+        <v>44251</v>
+      </c>
+      <c r="G73" s="18">
+        <v>44251</v>
+      </c>
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
       <c r="J73" s="20"/>
@@ -8770,7 +10200,7 @@
       <c r="AB73" s="20"/>
       <c r="AC73" s="20"/>
       <c r="AD73" s="20"/>
-      <c r="AE73" s="20"/>
+      <c r="AE73" s="39"/>
       <c r="AF73" s="20"/>
       <c r="AG73" s="20"/>
       <c r="AH73" s="20"/>
@@ -8785,8 +10215,30 @@
       <c r="AQ73" s="20"/>
       <c r="AR73" s="20"/>
       <c r="AS73" s="20"/>
+      <c r="AT73" s="20"/>
+      <c r="AU73" s="20"/>
+      <c r="AV73" s="20"/>
+      <c r="AW73" s="20"/>
+      <c r="AX73" s="20"/>
+      <c r="AY73" s="20"/>
+      <c r="AZ73" s="20"/>
+      <c r="BA73" s="20"/>
+      <c r="BB73" s="20"/>
+      <c r="BC73" s="20"/>
+      <c r="BD73" s="20"/>
+      <c r="BE73" s="20"/>
+      <c r="BF73" s="20"/>
+      <c r="BG73" s="20"/>
+      <c r="BH73" s="20"/>
+      <c r="BI73" s="20"/>
+      <c r="BJ73" s="20"/>
+      <c r="BK73" s="20"/>
+      <c r="BL73" s="20"/>
+      <c r="BM73" s="20"/>
+      <c r="BN73" s="20"/>
+      <c r="BO73" s="20"/>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A74" s="30"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
@@ -8834,16 +10286,42 @@
       <c r="AQ74" s="20"/>
       <c r="AR74" s="20"/>
       <c r="AS74" s="20"/>
+      <c r="AT74" s="20"/>
+      <c r="AU74" s="20"/>
+      <c r="AV74" s="20"/>
+      <c r="AW74" s="20"/>
+      <c r="AX74" s="20"/>
+      <c r="AY74" s="20"/>
+      <c r="AZ74" s="20"/>
+      <c r="BA74" s="20"/>
+      <c r="BB74" s="20"/>
+      <c r="BC74" s="20"/>
+      <c r="BD74" s="20"/>
+      <c r="BE74" s="20"/>
+      <c r="BF74" s="20"/>
+      <c r="BG74" s="20"/>
+      <c r="BH74" s="20"/>
+      <c r="BI74" s="20"/>
+      <c r="BJ74" s="20"/>
+      <c r="BK74" s="20"/>
+      <c r="BL74" s="20"/>
+      <c r="BM74" s="20"/>
+      <c r="BN74" s="20"/>
+      <c r="BO74" s="20"/>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A75" s="30"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
       <c r="D75" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E75" s="31"/>
-      <c r="F75" s="17"/>
+      <c r="E75" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="F75" s="17">
+        <v>44251</v>
+      </c>
       <c r="G75" s="18"/>
       <c r="H75" s="20"/>
       <c r="I75" s="20"/>
@@ -8868,7 +10346,7 @@
       <c r="AB75" s="20"/>
       <c r="AC75" s="20"/>
       <c r="AD75" s="20"/>
-      <c r="AE75" s="20"/>
+      <c r="AE75" s="39"/>
       <c r="AF75" s="20"/>
       <c r="AG75" s="20"/>
       <c r="AH75" s="20"/>
@@ -8883,8 +10361,30 @@
       <c r="AQ75" s="20"/>
       <c r="AR75" s="20"/>
       <c r="AS75" s="20"/>
+      <c r="AT75" s="20"/>
+      <c r="AU75" s="20"/>
+      <c r="AV75" s="20"/>
+      <c r="AW75" s="20"/>
+      <c r="AX75" s="20"/>
+      <c r="AY75" s="20"/>
+      <c r="AZ75" s="20"/>
+      <c r="BA75" s="20"/>
+      <c r="BB75" s="20"/>
+      <c r="BC75" s="20"/>
+      <c r="BD75" s="20"/>
+      <c r="BE75" s="20"/>
+      <c r="BF75" s="20"/>
+      <c r="BG75" s="20"/>
+      <c r="BH75" s="20"/>
+      <c r="BI75" s="20"/>
+      <c r="BJ75" s="20"/>
+      <c r="BK75" s="20"/>
+      <c r="BL75" s="20"/>
+      <c r="BM75" s="20"/>
+      <c r="BN75" s="20"/>
+      <c r="BO75" s="20"/>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A76" s="30"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
@@ -8932,17 +10432,45 @@
       <c r="AQ76" s="20"/>
       <c r="AR76" s="20"/>
       <c r="AS76" s="20"/>
+      <c r="AT76" s="20"/>
+      <c r="AU76" s="20"/>
+      <c r="AV76" s="20"/>
+      <c r="AW76" s="20"/>
+      <c r="AX76" s="20"/>
+      <c r="AY76" s="20"/>
+      <c r="AZ76" s="20"/>
+      <c r="BA76" s="20"/>
+      <c r="BB76" s="20"/>
+      <c r="BC76" s="20"/>
+      <c r="BD76" s="20"/>
+      <c r="BE76" s="20"/>
+      <c r="BF76" s="20"/>
+      <c r="BG76" s="20"/>
+      <c r="BH76" s="20"/>
+      <c r="BI76" s="20"/>
+      <c r="BJ76" s="20"/>
+      <c r="BK76" s="20"/>
+      <c r="BL76" s="20"/>
+      <c r="BM76" s="20"/>
+      <c r="BN76" s="20"/>
+      <c r="BO76" s="20"/>
     </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A77" s="30"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
       <c r="D77" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E77" s="31"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="18"/>
+      <c r="E77" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="F77" s="17">
+        <v>44251</v>
+      </c>
+      <c r="G77" s="18">
+        <v>44251</v>
+      </c>
       <c r="H77" s="20"/>
       <c r="I77" s="20"/>
       <c r="J77" s="20"/>
@@ -8966,7 +10494,7 @@
       <c r="AB77" s="20"/>
       <c r="AC77" s="20"/>
       <c r="AD77" s="20"/>
-      <c r="AE77" s="20"/>
+      <c r="AE77" s="39"/>
       <c r="AF77" s="20"/>
       <c r="AG77" s="20"/>
       <c r="AH77" s="20"/>
@@ -8981,8 +10509,30 @@
       <c r="AQ77" s="20"/>
       <c r="AR77" s="20"/>
       <c r="AS77" s="20"/>
+      <c r="AT77" s="20"/>
+      <c r="AU77" s="20"/>
+      <c r="AV77" s="20"/>
+      <c r="AW77" s="20"/>
+      <c r="AX77" s="20"/>
+      <c r="AY77" s="20"/>
+      <c r="AZ77" s="20"/>
+      <c r="BA77" s="20"/>
+      <c r="BB77" s="20"/>
+      <c r="BC77" s="20"/>
+      <c r="BD77" s="20"/>
+      <c r="BE77" s="20"/>
+      <c r="BF77" s="20"/>
+      <c r="BG77" s="20"/>
+      <c r="BH77" s="20"/>
+      <c r="BI77" s="20"/>
+      <c r="BJ77" s="20"/>
+      <c r="BK77" s="20"/>
+      <c r="BL77" s="20"/>
+      <c r="BM77" s="20"/>
+      <c r="BN77" s="20"/>
+      <c r="BO77" s="20"/>
     </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A78" s="30"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
@@ -9030,8 +10580,30 @@
       <c r="AQ78" s="20"/>
       <c r="AR78" s="20"/>
       <c r="AS78" s="20"/>
+      <c r="AT78" s="20"/>
+      <c r="AU78" s="20"/>
+      <c r="AV78" s="20"/>
+      <c r="AW78" s="20"/>
+      <c r="AX78" s="20"/>
+      <c r="AY78" s="20"/>
+      <c r="AZ78" s="20"/>
+      <c r="BA78" s="20"/>
+      <c r="BB78" s="20"/>
+      <c r="BC78" s="20"/>
+      <c r="BD78" s="20"/>
+      <c r="BE78" s="20"/>
+      <c r="BF78" s="20"/>
+      <c r="BG78" s="20"/>
+      <c r="BH78" s="20"/>
+      <c r="BI78" s="20"/>
+      <c r="BJ78" s="20"/>
+      <c r="BK78" s="20"/>
+      <c r="BL78" s="20"/>
+      <c r="BM78" s="20"/>
+      <c r="BN78" s="20"/>
+      <c r="BO78" s="20"/>
     </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A79" s="30"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
@@ -9079,8 +10651,30 @@
       <c r="AQ79" s="20"/>
       <c r="AR79" s="20"/>
       <c r="AS79" s="20"/>
+      <c r="AT79" s="20"/>
+      <c r="AU79" s="20"/>
+      <c r="AV79" s="20"/>
+      <c r="AW79" s="20"/>
+      <c r="AX79" s="20"/>
+      <c r="AY79" s="20"/>
+      <c r="AZ79" s="20"/>
+      <c r="BA79" s="20"/>
+      <c r="BB79" s="20"/>
+      <c r="BC79" s="20"/>
+      <c r="BD79" s="20"/>
+      <c r="BE79" s="20"/>
+      <c r="BF79" s="20"/>
+      <c r="BG79" s="20"/>
+      <c r="BH79" s="20"/>
+      <c r="BI79" s="20"/>
+      <c r="BJ79" s="20"/>
+      <c r="BK79" s="20"/>
+      <c r="BL79" s="20"/>
+      <c r="BM79" s="20"/>
+      <c r="BN79" s="20"/>
+      <c r="BO79" s="20"/>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A80" s="30"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
@@ -9126,8 +10720,30 @@
       <c r="AQ80" s="20"/>
       <c r="AR80" s="20"/>
       <c r="AS80" s="20"/>
+      <c r="AT80" s="20"/>
+      <c r="AU80" s="20"/>
+      <c r="AV80" s="20"/>
+      <c r="AW80" s="20"/>
+      <c r="AX80" s="20"/>
+      <c r="AY80" s="20"/>
+      <c r="AZ80" s="20"/>
+      <c r="BA80" s="20"/>
+      <c r="BB80" s="20"/>
+      <c r="BC80" s="20"/>
+      <c r="BD80" s="20"/>
+      <c r="BE80" s="20"/>
+      <c r="BF80" s="20"/>
+      <c r="BG80" s="20"/>
+      <c r="BH80" s="20"/>
+      <c r="BI80" s="20"/>
+      <c r="BJ80" s="20"/>
+      <c r="BK80" s="20"/>
+      <c r="BL80" s="20"/>
+      <c r="BM80" s="20"/>
+      <c r="BN80" s="20"/>
+      <c r="BO80" s="20"/>
     </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A81" s="30"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
@@ -9173,8 +10789,30 @@
       <c r="AQ81" s="20"/>
       <c r="AR81" s="20"/>
       <c r="AS81" s="20"/>
+      <c r="AT81" s="20"/>
+      <c r="AU81" s="20"/>
+      <c r="AV81" s="20"/>
+      <c r="AW81" s="20"/>
+      <c r="AX81" s="20"/>
+      <c r="AY81" s="20"/>
+      <c r="AZ81" s="20"/>
+      <c r="BA81" s="20"/>
+      <c r="BB81" s="20"/>
+      <c r="BC81" s="20"/>
+      <c r="BD81" s="20"/>
+      <c r="BE81" s="20"/>
+      <c r="BF81" s="20"/>
+      <c r="BG81" s="20"/>
+      <c r="BH81" s="20"/>
+      <c r="BI81" s="20"/>
+      <c r="BJ81" s="20"/>
+      <c r="BK81" s="20"/>
+      <c r="BL81" s="20"/>
+      <c r="BM81" s="20"/>
+      <c r="BN81" s="20"/>
+      <c r="BO81" s="20"/>
     </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A82" s="30"/>
       <c r="B82" s="8" t="s">
         <v>58</v>
@@ -9222,8 +10860,30 @@
       <c r="AQ82" s="20"/>
       <c r="AR82" s="20"/>
       <c r="AS82" s="20"/>
+      <c r="AT82" s="20"/>
+      <c r="AU82" s="20"/>
+      <c r="AV82" s="20"/>
+      <c r="AW82" s="20"/>
+      <c r="AX82" s="20"/>
+      <c r="AY82" s="20"/>
+      <c r="AZ82" s="20"/>
+      <c r="BA82" s="20"/>
+      <c r="BB82" s="20"/>
+      <c r="BC82" s="20"/>
+      <c r="BD82" s="20"/>
+      <c r="BE82" s="20"/>
+      <c r="BF82" s="20"/>
+      <c r="BG82" s="20"/>
+      <c r="BH82" s="20"/>
+      <c r="BI82" s="20"/>
+      <c r="BJ82" s="20"/>
+      <c r="BK82" s="20"/>
+      <c r="BL82" s="20"/>
+      <c r="BM82" s="20"/>
+      <c r="BN82" s="20"/>
+      <c r="BO82" s="20"/>
     </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A83" s="30"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21" t="s">
@@ -9271,8 +10931,30 @@
       <c r="AQ83" s="20"/>
       <c r="AR83" s="20"/>
       <c r="AS83" s="20"/>
+      <c r="AT83" s="20"/>
+      <c r="AU83" s="20"/>
+      <c r="AV83" s="20"/>
+      <c r="AW83" s="20"/>
+      <c r="AX83" s="20"/>
+      <c r="AY83" s="20"/>
+      <c r="AZ83" s="20"/>
+      <c r="BA83" s="20"/>
+      <c r="BB83" s="20"/>
+      <c r="BC83" s="20"/>
+      <c r="BD83" s="20"/>
+      <c r="BE83" s="20"/>
+      <c r="BF83" s="20"/>
+      <c r="BG83" s="20"/>
+      <c r="BH83" s="20"/>
+      <c r="BI83" s="20"/>
+      <c r="BJ83" s="20"/>
+      <c r="BK83" s="20"/>
+      <c r="BL83" s="20"/>
+      <c r="BM83" s="20"/>
+      <c r="BN83" s="20"/>
+      <c r="BO83" s="20"/>
     </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A84" s="30"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
@@ -9322,8 +11004,30 @@
       <c r="AQ84" s="20"/>
       <c r="AR84" s="20"/>
       <c r="AS84" s="20"/>
+      <c r="AT84" s="20"/>
+      <c r="AU84" s="20"/>
+      <c r="AV84" s="20"/>
+      <c r="AW84" s="20"/>
+      <c r="AX84" s="20"/>
+      <c r="AY84" s="20"/>
+      <c r="AZ84" s="20"/>
+      <c r="BA84" s="20"/>
+      <c r="BB84" s="20"/>
+      <c r="BC84" s="20"/>
+      <c r="BD84" s="20"/>
+      <c r="BE84" s="20"/>
+      <c r="BF84" s="20"/>
+      <c r="BG84" s="20"/>
+      <c r="BH84" s="20"/>
+      <c r="BI84" s="20"/>
+      <c r="BJ84" s="20"/>
+      <c r="BK84" s="20"/>
+      <c r="BL84" s="20"/>
+      <c r="BM84" s="20"/>
+      <c r="BN84" s="20"/>
+      <c r="BO84" s="20"/>
     </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A85" s="30"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
@@ -9369,8 +11073,30 @@
       <c r="AQ85" s="20"/>
       <c r="AR85" s="20"/>
       <c r="AS85" s="20"/>
+      <c r="AT85" s="20"/>
+      <c r="AU85" s="20"/>
+      <c r="AV85" s="20"/>
+      <c r="AW85" s="20"/>
+      <c r="AX85" s="20"/>
+      <c r="AY85" s="20"/>
+      <c r="AZ85" s="20"/>
+      <c r="BA85" s="20"/>
+      <c r="BB85" s="20"/>
+      <c r="BC85" s="20"/>
+      <c r="BD85" s="20"/>
+      <c r="BE85" s="20"/>
+      <c r="BF85" s="20"/>
+      <c r="BG85" s="20"/>
+      <c r="BH85" s="20"/>
+      <c r="BI85" s="20"/>
+      <c r="BJ85" s="20"/>
+      <c r="BK85" s="20"/>
+      <c r="BL85" s="20"/>
+      <c r="BM85" s="20"/>
+      <c r="BN85" s="20"/>
+      <c r="BO85" s="20"/>
     </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A86" s="30"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
@@ -9416,6 +11142,28 @@
       <c r="AQ86" s="20"/>
       <c r="AR86" s="20"/>
       <c r="AS86" s="20"/>
+      <c r="AT86" s="20"/>
+      <c r="AU86" s="20"/>
+      <c r="AV86" s="20"/>
+      <c r="AW86" s="20"/>
+      <c r="AX86" s="20"/>
+      <c r="AY86" s="20"/>
+      <c r="AZ86" s="20"/>
+      <c r="BA86" s="20"/>
+      <c r="BB86" s="20"/>
+      <c r="BC86" s="20"/>
+      <c r="BD86" s="20"/>
+      <c r="BE86" s="20"/>
+      <c r="BF86" s="20"/>
+      <c r="BG86" s="20"/>
+      <c r="BH86" s="20"/>
+      <c r="BI86" s="20"/>
+      <c r="BJ86" s="20"/>
+      <c r="BK86" s="20"/>
+      <c r="BL86" s="20"/>
+      <c r="BM86" s="20"/>
+      <c r="BN86" s="20"/>
+      <c r="BO86" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9423,1173 +11171,1112 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="H2:AI2"/>
-    <mergeCell ref="AJ2:AS2"/>
+    <mergeCell ref="AJ2:BN2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="H4:AS4">
-    <cfRule type="cellIs" dxfId="358" priority="925" operator="equal">
+  <conditionalFormatting sqref="H4:BO4">
+    <cfRule type="cellIs" dxfId="329" priority="945" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="926" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="946" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21:AS21 H20:AS20 H8:I8 K7:AS7 H9:J9 P9:AS9 I44:AS45 L8:AS8 T10:AS10 Y11:AS15 H65:AS65 J63:AS63 J22:X22 H52:AS52 H48:H49 J48:AS49 H50:I50 K50:AS50 H11:U19 H53:J55 L53:AS55 H68:AS69 H66:J67 L66:AS67 H51:K51 N51:AS51 H10:N10 H5:AS6 H46:AS47 I23:O23 R23 T23:U23 X23 H64:N64 R64 T64 Z64:AS64 AA22:AS28 I24:X28 H26:H28 Y26:Z28 H85:AS86 H84:U84 X84:AS84 I43:V43 X43:AS43 H56:AS56 AA16:AS19 H57:W57 Y57:AS57 H58:AS62 H30:AS30 H71:AS81 H33:AJ33 H31:AD32 AF31:AS32 H37:AQ37 H36:AD36 AF36:AS36 H35:AP35 H34:AE34 AH34:AS34 H39:AS40 H38:AI38 AK38:AQ38 AO33:AS33 AR35:AS35">
-    <cfRule type="expression" dxfId="356" priority="921" stopIfTrue="1">
+  <conditionalFormatting sqref="H8:I8 H9:J9 J22:X22 H48:H49 H50:I50 H11:U19 H53:J55 H66:J67 H51:K51 H10:N10 I23:O23 R23 T23:U23 X23 H64:N64 R64 T64 I24:X28 H26:H28 Y26:Z28 H84:U84 I43:V43 H57:W57 H33:AJ33 H31:AD32 H37:AQ37 H36:AD36 H35:AP35 H34:AD34 H38:AI38 AK38:AQ38 H72:AD73 H77:AD77 L21:BO21 H20:BO20 K7:BO7 P9:BO9 I44:BO45 L8:BO8 T10:BO10 Y11:BO15 H65:BO65 J63:BO63 H52:BO52 J48:BO49 K50:BO50 L53:BO55 L66:BO67 N51:BO51 H46:BO47 Z64:BO64 AA22:BO28 H85:BO86 X84:BO84 H56:BO56 AA16:BO19 Y57:BO57 H58:BO62 AF31:BO32 AF36:BO36 AH34:BO34 AO33:BO33 AR35:BO35 H74:BO74 AF72:BO73 AF77:BO77 H39:BO41 X42:BO43 H78:BO83 H29:BO30 H68:BO71 H5:BO6 AR37:BO38 H76:BO76 H75:AD75 AF75:BO75">
+    <cfRule type="expression" dxfId="327" priority="941" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="922" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="942" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="923" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="943" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="924" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="944" operator="equal">
       <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2">
-    <cfRule type="notContainsBlanks" dxfId="352" priority="927">
-      <formula>LEN(TRIM(AJ2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:J21">
-    <cfRule type="expression" dxfId="351" priority="889" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="909" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="890" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="910" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="891" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="911" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="892" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="912" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="347" priority="413" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="433" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="434" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="435" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="436" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="343" priority="373" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="393" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="394" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="395" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="396" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="339" priority="385" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="405" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="406" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="407" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="408" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="335" priority="401" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="421" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="422" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="423" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="424" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="331" priority="397" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="417" stopIfTrue="1">
       <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="418" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="419" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="420" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="327" priority="389" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="409" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="410" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="411" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="412" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="323" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="373" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="374" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="375" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="376" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="319" priority="381" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="401" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="402" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="403" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="404" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:H45">
-    <cfRule type="expression" dxfId="315" priority="345" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="365" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="366" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="367" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="368" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="311" priority="369" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="389" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="390" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="391" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="392" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:Q10 S10">
-    <cfRule type="expression" dxfId="307" priority="361" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="381" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="382" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="383" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="384" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="303" priority="357" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="377" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="378" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="379" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="380" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="299" priority="301" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="321" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="322" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="323" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="324" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="295" priority="277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="297" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="298" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="299" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="300" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y22 Y24:Y25">
-    <cfRule type="expression" dxfId="291" priority="325" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="345" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="346" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="347" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="348" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22:Z25">
-    <cfRule type="expression" dxfId="287" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="341" stopIfTrue="1">
       <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="342" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="343" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="344" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="expression" dxfId="283" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="337" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="338" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="339" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="340" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="279" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="333" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="334" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="335" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="336" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="expression" dxfId="275" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="317" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="318" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="319" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="320" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
-    <cfRule type="expression" dxfId="271" priority="293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="313" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="314" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="315" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="316" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X15">
-    <cfRule type="expression" dxfId="267" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="309" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="310" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="311" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="312" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13:W19">
-    <cfRule type="expression" dxfId="263" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="305" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="306" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="307" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="308" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:V19">
-    <cfRule type="expression" dxfId="259" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="301" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="302" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="303" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="304" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H25">
-    <cfRule type="expression" dxfId="255" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="293" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="294" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="295" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="296" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="251" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="281" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="282" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="283" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="284" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="247" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="285" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="286" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="287" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="288" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="expression" dxfId="243" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="277" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="278" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="279" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="280" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="239" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="273" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="274" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="275" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="276" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="expression" dxfId="235" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="269" stopIfTrue="1">
       <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="270" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="271" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="272" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="231" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="265" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="266" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="267" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="268" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="227" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="261" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="262" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="263" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="264" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="expression" dxfId="223" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="257" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="258" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="259" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="260" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="expression" dxfId="219" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="253" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="254" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="255" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="256" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55">
-    <cfRule type="expression" dxfId="215" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="249" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="250" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="251" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="252" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="expression" dxfId="211" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="245" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="246" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="247" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="248" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K67">
-    <cfRule type="expression" dxfId="207" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="241" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="242" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="243" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="244" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66">
-    <cfRule type="expression" dxfId="203" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="237" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="238" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="239" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="240" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51">
-    <cfRule type="expression" dxfId="199" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="233" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="234" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="235" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="236" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="195" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="229" stopIfTrue="1">
       <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="230" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="231" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="232" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
-    <cfRule type="expression" dxfId="191" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="225" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="226" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="227" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="228" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23">
-    <cfRule type="expression" dxfId="187" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="221" stopIfTrue="1">
       <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="222" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="223" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="224" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23">
-    <cfRule type="expression" dxfId="183" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="217" stopIfTrue="1">
       <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="218" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="219" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="220" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="expression" dxfId="179" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="213" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="214" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="215" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="216" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O64">
-    <cfRule type="expression" dxfId="175" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="209" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="210" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="211" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="212" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P64">
-    <cfRule type="expression" dxfId="171" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="205" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="206" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="207" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="208" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M51">
-    <cfRule type="expression" dxfId="167" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="201" stopIfTrue="1">
       <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="203" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="204" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q64">
-    <cfRule type="expression" dxfId="163" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="197" stopIfTrue="1">
       <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="198" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="199" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="200" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S64">
-    <cfRule type="expression" dxfId="159" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="193" stopIfTrue="1">
       <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="194" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="195" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="196" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V64">
-    <cfRule type="expression" dxfId="155" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="185" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="187" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="188" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U64">
-    <cfRule type="expression" dxfId="151" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="181" stopIfTrue="1">
       <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="182" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="183" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="184" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:AS41">
-    <cfRule type="expression" dxfId="147" priority="157" stopIfTrue="1">
+  <conditionalFormatting sqref="H42:V42">
+    <cfRule type="expression" dxfId="119" priority="173" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="175" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="160" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42:V42 X42:AS42">
-    <cfRule type="expression" dxfId="143" priority="153" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="154" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="155" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="156" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82:AS82">
-    <cfRule type="expression" dxfId="139" priority="149" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="150" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="151" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="152" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83:AS83">
-    <cfRule type="expression" dxfId="135" priority="145" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="146" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="147" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="176" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V84">
-    <cfRule type="expression" dxfId="131" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="153" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="154" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="155" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="156" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42">
-    <cfRule type="expression" dxfId="127" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="141" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="142" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="143" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="144" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23">
-    <cfRule type="expression" dxfId="123" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="137" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="138" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="139" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="140" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W43">
-    <cfRule type="expression" dxfId="119" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="133" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="134" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="135" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="136" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W64">
-    <cfRule type="expression" dxfId="115" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="129" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="130" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="131" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="132" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W84">
-    <cfRule type="expression" dxfId="111" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="125" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="126" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="127" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="128" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16:X19">
-    <cfRule type="expression" dxfId="107" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="121" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="122" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="123" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="124" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y16:Y19">
-    <cfRule type="expression" dxfId="103" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="117" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="119" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="120" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z16:Z19">
-    <cfRule type="expression" dxfId="99" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="113" stopIfTrue="1">
       <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="115" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="116" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X57">
-    <cfRule type="expression" dxfId="95" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="109" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="111" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="112" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X64">
-    <cfRule type="expression" dxfId="91" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="105" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="107" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="108" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="expression" dxfId="87" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="101" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="103" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="104" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y64">
-    <cfRule type="expression" dxfId="83" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="97" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="99" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="80" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:AS29">
-    <cfRule type="expression" dxfId="79" priority="73" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="74" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="75" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70:AS70">
-    <cfRule type="expression" dxfId="75" priority="69" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="70" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="71" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="100" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE32">
-    <cfRule type="expression" dxfId="71" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="85" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="87" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="88" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE31">
-    <cfRule type="expression" dxfId="67" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="81" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="83" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="84" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE36">
-    <cfRule type="expression" dxfId="63" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="77" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="79" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="80" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF34">
-    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="73" stopIfTrue="1">
       <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="75" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="76" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG34">
-    <cfRule type="expression" dxfId="55" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="69" stopIfTrue="1">
       <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="71" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="72" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ38">
-    <cfRule type="expression" dxfId="51" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="65" stopIfTrue="1">
       <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="67" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="68" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK33">
-    <cfRule type="expression" dxfId="47" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="61" stopIfTrue="1">
       <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="63" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="64" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL33">
-    <cfRule type="expression" dxfId="43" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="57" stopIfTrue="1">
       <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="59" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM33">
-    <cfRule type="expression" dxfId="39" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="53" stopIfTrue="1">
       <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="56" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN33">
-    <cfRule type="expression" dxfId="35" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="49" stopIfTrue="1">
       <formula>MATCH(AN$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="52" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ35">
-    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="45" stopIfTrue="1">
       <formula>MATCH(AQ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="48" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR37">
+  <conditionalFormatting sqref="AE72">
+    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE73">
     <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
-      <formula>MATCH(AR$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
@@ -10601,9 +12288,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS37">
+  <conditionalFormatting sqref="AE77">
     <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
-      <formula>MATCH(AS$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
@@ -10615,9 +12302,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR38">
+  <conditionalFormatting sqref="AE75">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(AR$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
@@ -10629,9 +12316,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS38">
+  <conditionalFormatting sqref="AE34">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(AS$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -998,6 +998,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1013,14 +1016,131 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="330">
+  <dxfs count="342">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFE6B8B7"/>
@@ -4594,8 +4714,8 @@
   <dimension ref="A1:BO86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
+      <pane ySplit="4" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF76" sqref="AF76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4609,11 +4729,11 @@
   <sheetData>
     <row r="1" spans="1:67" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="2"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -4680,77 +4800,77 @@
     </row>
     <row r="2" spans="1:67" ht="19.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="49">
+      <c r="H2" s="50">
         <v>44228</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="49" t="s">
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="50"/>
-      <c r="BF2" s="50"/>
-      <c r="BG2" s="50"/>
-      <c r="BH2" s="50"/>
-      <c r="BI2" s="50"/>
-      <c r="BJ2" s="50"/>
-      <c r="BK2" s="50"/>
-      <c r="BL2" s="50"/>
-      <c r="BM2" s="50"/>
-      <c r="BN2" s="50"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="51"/>
+      <c r="BC2" s="51"/>
+      <c r="BD2" s="51"/>
+      <c r="BE2" s="51"/>
+      <c r="BF2" s="51"/>
+      <c r="BG2" s="51"/>
+      <c r="BH2" s="51"/>
+      <c r="BI2" s="51"/>
+      <c r="BJ2" s="51"/>
+      <c r="BK2" s="51"/>
+      <c r="BL2" s="51"/>
+      <c r="BM2" s="51"/>
+      <c r="BN2" s="51"/>
       <c r="BO2" s="41"/>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.35">
@@ -4845,108 +4965,108 @@
       <c r="AI3" s="3">
         <v>28</v>
       </c>
-      <c r="AJ3" s="51">
+      <c r="AJ3" s="44">
         <v>1</v>
       </c>
-      <c r="AK3" s="51">
+      <c r="AK3" s="44">
         <v>2</v>
       </c>
-      <c r="AL3" s="51">
+      <c r="AL3" s="44">
         <v>3</v>
       </c>
-      <c r="AM3" s="51">
+      <c r="AM3" s="44">
         <v>4</v>
       </c>
-      <c r="AN3" s="51">
+      <c r="AN3" s="44">
         <v>5</v>
       </c>
-      <c r="AO3" s="51">
+      <c r="AO3" s="44">
         <v>6</v>
       </c>
-      <c r="AP3" s="51">
+      <c r="AP3" s="44">
         <v>7</v>
       </c>
-      <c r="AQ3" s="51">
+      <c r="AQ3" s="44">
         <v>8</v>
       </c>
-      <c r="AR3" s="51">
+      <c r="AR3" s="44">
         <v>9</v>
       </c>
-      <c r="AS3" s="51">
+      <c r="AS3" s="44">
         <v>10</v>
       </c>
-      <c r="AT3" s="51">
+      <c r="AT3" s="44">
         <v>11</v>
       </c>
-      <c r="AU3" s="51">
+      <c r="AU3" s="44">
         <v>12</v>
       </c>
-      <c r="AV3" s="51">
+      <c r="AV3" s="44">
         <v>13</v>
       </c>
-      <c r="AW3" s="51">
+      <c r="AW3" s="44">
         <v>14</v>
       </c>
-      <c r="AX3" s="51">
+      <c r="AX3" s="44">
         <v>15</v>
       </c>
-      <c r="AY3" s="51">
+      <c r="AY3" s="44">
         <v>16</v>
       </c>
-      <c r="AZ3" s="51">
+      <c r="AZ3" s="44">
         <v>17</v>
       </c>
-      <c r="BA3" s="51">
+      <c r="BA3" s="44">
         <v>18</v>
       </c>
-      <c r="BB3" s="51">
+      <c r="BB3" s="44">
         <v>19</v>
       </c>
-      <c r="BC3" s="51">
+      <c r="BC3" s="44">
         <v>20</v>
       </c>
-      <c r="BD3" s="51">
+      <c r="BD3" s="44">
         <v>21</v>
       </c>
-      <c r="BE3" s="51">
+      <c r="BE3" s="44">
         <v>22</v>
       </c>
-      <c r="BF3" s="51">
+      <c r="BF3" s="44">
         <v>23</v>
       </c>
-      <c r="BG3" s="51">
+      <c r="BG3" s="44">
         <v>24</v>
       </c>
-      <c r="BH3" s="51">
+      <c r="BH3" s="44">
         <v>25</v>
       </c>
-      <c r="BI3" s="51">
+      <c r="BI3" s="44">
         <v>26</v>
       </c>
-      <c r="BJ3" s="51">
+      <c r="BJ3" s="44">
         <v>27</v>
       </c>
-      <c r="BK3" s="51">
+      <c r="BK3" s="44">
         <v>28</v>
       </c>
-      <c r="BL3" s="51">
+      <c r="BL3" s="44">
         <v>29</v>
       </c>
-      <c r="BM3" s="51">
+      <c r="BM3" s="44">
         <v>30</v>
       </c>
-      <c r="BN3" s="51">
+      <c r="BN3" s="44">
         <v>31</v>
       </c>
-      <c r="BO3" s="51"/>
+      <c r="BO3" s="44"/>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
@@ -7268,7 +7388,7 @@
       <c r="AD33" s="37"/>
       <c r="AE33" s="37"/>
       <c r="AF33" s="37"/>
-      <c r="AG33" s="37"/>
+      <c r="AG33" s="40"/>
       <c r="AH33" s="37"/>
       <c r="AI33" s="37"/>
       <c r="AJ33" s="37"/>
@@ -10246,7 +10366,9 @@
         <v>68</v>
       </c>
       <c r="E74" s="31"/>
-      <c r="F74" s="17"/>
+      <c r="F74" s="17">
+        <v>44253</v>
+      </c>
       <c r="G74" s="18"/>
       <c r="H74" s="20"/>
       <c r="I74" s="20"/>
@@ -10317,7 +10439,7 @@
         <v>69</v>
       </c>
       <c r="E75" s="31">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="F75" s="17">
         <v>44251</v>
@@ -10347,7 +10469,7 @@
       <c r="AC75" s="20"/>
       <c r="AD75" s="20"/>
       <c r="AE75" s="39"/>
-      <c r="AF75" s="20"/>
+      <c r="AF75" s="39"/>
       <c r="AG75" s="20"/>
       <c r="AH75" s="20"/>
       <c r="AI75" s="20"/>
@@ -10391,8 +10513,12 @@
       <c r="D76" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="E76" s="31"/>
-      <c r="F76" s="17"/>
+      <c r="E76" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="F76" s="17">
+        <v>44252</v>
+      </c>
       <c r="G76" s="18"/>
       <c r="H76" s="20"/>
       <c r="I76" s="20"/>
@@ -10418,7 +10544,7 @@
       <c r="AC76" s="20"/>
       <c r="AD76" s="20"/>
       <c r="AE76" s="20"/>
-      <c r="AF76" s="20"/>
+      <c r="AF76" s="39"/>
       <c r="AG76" s="20"/>
       <c r="AH76" s="20"/>
       <c r="AI76" s="20"/>
@@ -11175,44 +11301,86 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="cellIs" dxfId="329" priority="945" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="957" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="946" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="958" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I8 H9:J9 J22:X22 H48:H49 H50:I50 H11:U19 H53:J55 H66:J67 H51:K51 H10:N10 I23:O23 R23 T23:U23 X23 H64:N64 R64 T64 I24:X28 H26:H28 Y26:Z28 H84:U84 I43:V43 H57:W57 H33:AJ33 H31:AD32 H37:AQ37 H36:AD36 H35:AP35 H34:AD34 H38:AI38 AK38:AQ38 H72:AD73 H77:AD77 L21:BO21 H20:BO20 K7:BO7 P9:BO9 I44:BO45 L8:BO8 T10:BO10 Y11:BO15 H65:BO65 J63:BO63 H52:BO52 J48:BO49 K50:BO50 L53:BO55 L66:BO67 N51:BO51 H46:BO47 Z64:BO64 AA22:BO28 H85:BO86 X84:BO84 H56:BO56 AA16:BO19 Y57:BO57 H58:BO62 AF31:BO32 AF36:BO36 AH34:BO34 AO33:BO33 AR35:BO35 H74:BO74 AF72:BO73 AF77:BO77 H39:BO41 X42:BO43 H78:BO83 H29:BO30 H68:BO71 H5:BO6 AR37:BO38 H76:BO76 H75:AD75 AF75:BO75">
-    <cfRule type="expression" dxfId="327" priority="941" stopIfTrue="1">
+  <conditionalFormatting sqref="H8:I8 H9:J9 J22:X22 H48:H49 H50:I50 H11:U19 H53:J55 H66:J67 H51:K51 H10:N10 I23:O23 R23 T23:U23 X23 H64:N64 R64 T64 I24:X28 H26:H28 Y26:Z28 H84:U84 I43:V43 H57:W57 H33:AF33 H31:AD32 H37:AQ37 H36:AD36 H35:AP35 H34:AD34 H38:AI38 AK38:AQ38 H72:AD73 H77:AD77 L21:BO21 H20:BO20 K7:BO7 P9:BO9 I44:BO45 L8:BO8 T10:BO10 Y11:BO15 H65:BO65 J63:BO63 H52:BO52 J48:BO49 K50:BO50 L53:BO55 L66:BO67 N51:BO51 H46:BO47 Z64:BO64 AA22:BO28 H85:BO86 X84:BO84 H56:BO56 AA16:BO19 Y57:BO57 H58:BO62 AF31:BO32 AF36:BO36 AH34:BO34 AO33:BO33 AR35:BO35 H74:BO74 AF72:BO73 AF77:BO77 H39:BO41 X42:BO43 H78:BO83 H29:BO30 H68:BO71 H5:BO6 AR37:BO38 H76:AE76 H75:AD75 AH33:AJ33 AG75:BO76">
+    <cfRule type="expression" dxfId="339" priority="953" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="942" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="954" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="943" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="955" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="944" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="956" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:J21">
-    <cfRule type="expression" dxfId="323" priority="909" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="921" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="910" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="922" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="911" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="923" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="912" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="924" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="331" priority="445" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="446" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="329" priority="447" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="448" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="expression" dxfId="327" priority="405" stopIfTrue="1">
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="406" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="407" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="324" priority="408" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="expression" dxfId="323" priority="417" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="418" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="419" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="420" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
     <cfRule type="expression" dxfId="319" priority="433" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="318" priority="434" operator="equal">
       <formula>1</formula>
@@ -11224,191 +11392,191 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="315" priority="393" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="394" operator="equal">
+  <conditionalFormatting sqref="M9">
+    <cfRule type="expression" dxfId="315" priority="429" stopIfTrue="1">
+      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="314" priority="430" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="431" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="396" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="311" priority="405" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="406" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="407" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="408" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="307" priority="421" stopIfTrue="1">
-      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="422" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="423" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="424" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="303" priority="417" stopIfTrue="1">
-      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="418" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="419" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="432" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="299" priority="409" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="421" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="422" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="423" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="424" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="295" priority="373" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="385" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="386" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="387" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="388" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="291" priority="401" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="413" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="414" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="415" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="416" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:H45">
-    <cfRule type="expression" dxfId="287" priority="365" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="377" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="378" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="379" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="380" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="283" priority="389" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="401" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="402" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="403" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="404" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:Q10 S10">
-    <cfRule type="expression" dxfId="279" priority="381" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="393" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="394" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="395" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="396" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="275" priority="377" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="389" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="390" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="391" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="392" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="271" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="333" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="334" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="335" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="336" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="267" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="309" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="310" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="311" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="312" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y22 Y24:Y25">
+    <cfRule type="expression" dxfId="275" priority="357" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="358" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="359" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="360" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z22:Z25">
+    <cfRule type="expression" dxfId="271" priority="353" stopIfTrue="1">
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="354" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="269" priority="355" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="356" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="expression" dxfId="267" priority="349" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="350" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="351" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="352" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
     <cfRule type="expression" dxfId="263" priority="345" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="262" priority="346" operator="equal">
       <formula>1</formula>
@@ -11420,49 +11588,49 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z22:Z25">
-    <cfRule type="expression" dxfId="259" priority="341" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="342" operator="equal">
+  <conditionalFormatting sqref="W12">
+    <cfRule type="expression" dxfId="259" priority="329" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="330" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="331" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="332" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="expression" dxfId="255" priority="337" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="338" operator="equal">
+  <conditionalFormatting sqref="X12">
+    <cfRule type="expression" dxfId="255" priority="325" stopIfTrue="1">
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="326" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="327" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="328" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="251" priority="333" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="334" operator="equal">
+  <conditionalFormatting sqref="X13:X15">
+    <cfRule type="expression" dxfId="251" priority="321" stopIfTrue="1">
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="322" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="323" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="324" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W12">
+  <conditionalFormatting sqref="W13:W19">
     <cfRule type="expression" dxfId="247" priority="317" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -11476,9 +11644,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X12">
+  <conditionalFormatting sqref="V13:V19">
     <cfRule type="expression" dxfId="243" priority="313" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="242" priority="314" operator="equal">
       <formula>1</formula>
@@ -11490,93 +11658,93 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X13:X15">
-    <cfRule type="expression" dxfId="239" priority="309" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="310" operator="equal">
+  <conditionalFormatting sqref="H24:H25">
+    <cfRule type="expression" dxfId="239" priority="305" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="306" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="307" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="312" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W13:W19">
-    <cfRule type="expression" dxfId="235" priority="305" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="306" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="307" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="308" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V13:V19">
-    <cfRule type="expression" dxfId="231" priority="301" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="302" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="303" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="304" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H25">
-    <cfRule type="expression" dxfId="227" priority="293" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="294" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="295" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="308" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="223" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="293" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="294" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="295" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="296" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="219" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="297" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="298" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="299" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="300" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
+    <cfRule type="expression" dxfId="227" priority="289" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="290" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="291" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="292" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="expression" dxfId="223" priority="285" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="286" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="287" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="288" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="expression" dxfId="219" priority="281" stopIfTrue="1">
+      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="282" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="283" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="284" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
     <cfRule type="expression" dxfId="215" priority="277" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="214" priority="278" operator="equal">
       <formula>1</formula>
@@ -11588,9 +11756,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
+  <conditionalFormatting sqref="O10">
     <cfRule type="expression" dxfId="211" priority="273" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="210" priority="274" operator="equal">
       <formula>1</formula>
@@ -11602,9 +11770,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="J50">
     <cfRule type="expression" dxfId="207" priority="269" stopIfTrue="1">
-      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="206" priority="270" operator="equal">
       <formula>1</formula>
@@ -11616,9 +11784,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
+  <conditionalFormatting sqref="K54">
     <cfRule type="expression" dxfId="203" priority="265" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="202" priority="266" operator="equal">
       <formula>1</formula>
@@ -11630,9 +11798,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
+  <conditionalFormatting sqref="K55">
     <cfRule type="expression" dxfId="199" priority="261" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="198" priority="262" operator="equal">
       <formula>1</formula>
@@ -11644,9 +11812,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
+  <conditionalFormatting sqref="K53">
     <cfRule type="expression" dxfId="195" priority="257" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="194" priority="258" operator="equal">
       <formula>1</formula>
@@ -11658,7 +11826,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
+  <conditionalFormatting sqref="K67">
     <cfRule type="expression" dxfId="191" priority="253" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -11672,7 +11840,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55">
+  <conditionalFormatting sqref="K66">
     <cfRule type="expression" dxfId="187" priority="249" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -11686,9 +11854,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
+  <conditionalFormatting sqref="L51">
     <cfRule type="expression" dxfId="183" priority="245" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="182" priority="246" operator="equal">
       <formula>1</formula>
@@ -11700,9 +11868,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K67">
+  <conditionalFormatting sqref="R10">
     <cfRule type="expression" dxfId="179" priority="241" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="178" priority="242" operator="equal">
       <formula>1</formula>
@@ -11714,9 +11882,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66">
+  <conditionalFormatting sqref="P23">
     <cfRule type="expression" dxfId="175" priority="237" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="174" priority="238" operator="equal">
       <formula>1</formula>
@@ -11728,9 +11896,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
+  <conditionalFormatting sqref="Q23">
     <cfRule type="expression" dxfId="171" priority="233" stopIfTrue="1">
-      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="170" priority="234" operator="equal">
       <formula>1</formula>
@@ -11742,9 +11910,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
+  <conditionalFormatting sqref="S23">
     <cfRule type="expression" dxfId="167" priority="229" stopIfTrue="1">
-      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="166" priority="230" operator="equal">
       <formula>1</formula>
@@ -11756,9 +11924,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P23">
+  <conditionalFormatting sqref="V23">
     <cfRule type="expression" dxfId="163" priority="225" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="162" priority="226" operator="equal">
       <formula>1</formula>
@@ -11770,9 +11938,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
+  <conditionalFormatting sqref="O64">
     <cfRule type="expression" dxfId="159" priority="221" stopIfTrue="1">
-      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="158" priority="222" operator="equal">
       <formula>1</formula>
@@ -11784,9 +11952,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S23">
+  <conditionalFormatting sqref="P64">
     <cfRule type="expression" dxfId="155" priority="217" stopIfTrue="1">
-      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="154" priority="218" operator="equal">
       <formula>1</formula>
@@ -11798,9 +11966,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V23">
+  <conditionalFormatting sqref="M51">
     <cfRule type="expression" dxfId="151" priority="213" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="150" priority="214" operator="equal">
       <formula>1</formula>
@@ -11812,9 +11980,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O64">
+  <conditionalFormatting sqref="Q64">
     <cfRule type="expression" dxfId="147" priority="209" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="146" priority="210" operator="equal">
       <formula>1</formula>
@@ -11826,9 +11994,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P64">
+  <conditionalFormatting sqref="S64">
     <cfRule type="expression" dxfId="143" priority="205" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="142" priority="206" operator="equal">
       <formula>1</formula>
@@ -11840,105 +12008,105 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M51">
-    <cfRule type="expression" dxfId="139" priority="201" stopIfTrue="1">
-      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="202" operator="equal">
+  <conditionalFormatting sqref="V64">
+    <cfRule type="expression" dxfId="139" priority="197" stopIfTrue="1">
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="198" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="199" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="204" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q64">
-    <cfRule type="expression" dxfId="135" priority="197" stopIfTrue="1">
-      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="198" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="199" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="200" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S64">
-    <cfRule type="expression" dxfId="131" priority="193" stopIfTrue="1">
-      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="194" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="195" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="196" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V64">
-    <cfRule type="expression" dxfId="127" priority="185" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="186" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="187" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="200" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U64">
-    <cfRule type="expression" dxfId="123" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="193" stopIfTrue="1">
       <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="194" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="195" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="196" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:V42">
-    <cfRule type="expression" dxfId="119" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="185" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="187" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="188" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V84">
-    <cfRule type="expression" dxfId="115" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="165" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="166" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="167" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="168" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42">
+    <cfRule type="expression" dxfId="123" priority="153" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="154" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="155" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="156" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W23">
+    <cfRule type="expression" dxfId="119" priority="149" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="150" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="151" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="152" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W43">
+    <cfRule type="expression" dxfId="115" priority="145" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="146" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="147" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="148" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W64">
     <cfRule type="expression" dxfId="111" priority="141" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -11952,7 +12120,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W23">
+  <conditionalFormatting sqref="W84">
     <cfRule type="expression" dxfId="107" priority="137" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -11966,9 +12134,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W43">
+  <conditionalFormatting sqref="X16:X19">
     <cfRule type="expression" dxfId="103" priority="133" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="102" priority="134" operator="equal">
       <formula>1</formula>
@@ -11980,9 +12148,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W64">
+  <conditionalFormatting sqref="Y16:Y19">
     <cfRule type="expression" dxfId="99" priority="129" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="98" priority="130" operator="equal">
       <formula>1</formula>
@@ -11994,9 +12162,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W84">
+  <conditionalFormatting sqref="Z16:Z19">
     <cfRule type="expression" dxfId="95" priority="125" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="94" priority="126" operator="equal">
       <formula>1</formula>
@@ -12008,7 +12176,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X16:X19">
+  <conditionalFormatting sqref="X57">
     <cfRule type="expression" dxfId="91" priority="121" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12022,9 +12190,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y16:Y19">
+  <conditionalFormatting sqref="X64">
     <cfRule type="expression" dxfId="87" priority="117" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="86" priority="118" operator="equal">
       <formula>1</formula>
@@ -12036,9 +12204,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z16:Z19">
+  <conditionalFormatting sqref="Y23">
     <cfRule type="expression" dxfId="83" priority="113" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="82" priority="114" operator="equal">
       <formula>1</formula>
@@ -12050,9 +12218,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X57">
+  <conditionalFormatting sqref="Y64">
     <cfRule type="expression" dxfId="79" priority="109" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="78" priority="110" operator="equal">
       <formula>1</formula>
@@ -12064,51 +12232,51 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X64">
-    <cfRule type="expression" dxfId="75" priority="105" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="106" operator="equal">
+  <conditionalFormatting sqref="AE32">
+    <cfRule type="expression" dxfId="75" priority="97" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="99" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="100" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y23">
-    <cfRule type="expression" dxfId="71" priority="101" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="102" operator="equal">
+  <conditionalFormatting sqref="AE31">
+    <cfRule type="expression" dxfId="71" priority="93" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="94" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="95" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="96" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y64">
-    <cfRule type="expression" dxfId="67" priority="97" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="98" operator="equal">
+  <conditionalFormatting sqref="AE36">
+    <cfRule type="expression" dxfId="67" priority="89" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="91" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="92" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE32">
+  <conditionalFormatting sqref="AF34">
     <cfRule type="expression" dxfId="63" priority="85" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="62" priority="86" operator="equal">
       <formula>1</formula>
@@ -12120,9 +12288,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
+  <conditionalFormatting sqref="AG34">
     <cfRule type="expression" dxfId="59" priority="81" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="58" priority="82" operator="equal">
       <formula>1</formula>
@@ -12134,9 +12302,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE36">
+  <conditionalFormatting sqref="AJ38">
     <cfRule type="expression" dxfId="55" priority="77" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="54" priority="78" operator="equal">
       <formula>1</formula>
@@ -12148,9 +12316,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF34">
+  <conditionalFormatting sqref="AK33">
     <cfRule type="expression" dxfId="51" priority="73" stopIfTrue="1">
-      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="50" priority="74" operator="equal">
       <formula>1</formula>
@@ -12162,9 +12330,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG34">
+  <conditionalFormatting sqref="AL33">
     <cfRule type="expression" dxfId="47" priority="69" stopIfTrue="1">
-      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="46" priority="70" operator="equal">
       <formula>1</formula>
@@ -12176,9 +12344,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ38">
+  <conditionalFormatting sqref="AM33">
     <cfRule type="expression" dxfId="43" priority="65" stopIfTrue="1">
-      <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="66" operator="equal">
       <formula>1</formula>
@@ -12190,9 +12358,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK33">
+  <conditionalFormatting sqref="AN33">
     <cfRule type="expression" dxfId="39" priority="61" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AN$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="38" priority="62" operator="equal">
       <formula>1</formula>
@@ -12204,9 +12372,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL33">
+  <conditionalFormatting sqref="AQ35">
     <cfRule type="expression" dxfId="35" priority="57" stopIfTrue="1">
-      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AQ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="34" priority="58" operator="equal">
       <formula>1</formula>
@@ -12218,49 +12386,49 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM33">
-    <cfRule type="expression" dxfId="31" priority="53" stopIfTrue="1">
-      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="54" operator="equal">
+  <conditionalFormatting sqref="AE72">
+    <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN33">
-    <cfRule type="expression" dxfId="27" priority="49" stopIfTrue="1">
-      <formula>MATCH(AN$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="50" operator="equal">
+  <conditionalFormatting sqref="AE73">
+    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ35">
-    <cfRule type="expression" dxfId="23" priority="45" stopIfTrue="1">
-      <formula>MATCH(AQ$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="46" operator="equal">
+  <conditionalFormatting sqref="AE77">
+    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE72">
+  <conditionalFormatting sqref="AE75">
     <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12274,7 +12442,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE73">
+  <conditionalFormatting sqref="AE34">
     <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12288,9 +12456,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE77">
+  <conditionalFormatting sqref="AF75">
     <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
@@ -12302,9 +12470,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE75">
+  <conditionalFormatting sqref="AG33">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
@@ -12316,9 +12484,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE34">
+  <conditionalFormatting sqref="AF76">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -1020,7 +1020,87 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="342">
+  <dxfs count="350">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -4714,15 +4794,15 @@
   <dimension ref="A1:BO86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF76" sqref="AF76"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:AI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="40.625" customWidth="1"/>
-    <col min="8" max="16" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="35" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="3.125" hidden="1" customWidth="1"/>
+    <col min="17" max="35" width="3.625" hidden="1" customWidth="1"/>
     <col min="36" max="44" width="3.375" bestFit="1" customWidth="1"/>
     <col min="45" max="67" width="3.375" customWidth="1"/>
   </cols>
@@ -10365,7 +10445,9 @@
       <c r="D74" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E74" s="31"/>
+      <c r="E74" s="31">
+        <v>2.8</v>
+      </c>
       <c r="F74" s="17">
         <v>44253</v>
       </c>
@@ -10395,10 +10477,10 @@
       <c r="AD74" s="20"/>
       <c r="AE74" s="20"/>
       <c r="AF74" s="20"/>
-      <c r="AG74" s="20"/>
+      <c r="AG74" s="39"/>
       <c r="AH74" s="20"/>
       <c r="AI74" s="20"/>
-      <c r="AJ74" s="20"/>
+      <c r="AJ74" s="39"/>
       <c r="AK74" s="20"/>
       <c r="AL74" s="20"/>
       <c r="AM74" s="20"/>
@@ -11301,114 +11383,142 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="cellIs" dxfId="341" priority="957" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="965" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="958" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="966" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I8 H9:J9 J22:X22 H48:H49 H50:I50 H11:U19 H53:J55 H66:J67 H51:K51 H10:N10 I23:O23 R23 T23:U23 X23 H64:N64 R64 T64 I24:X28 H26:H28 Y26:Z28 H84:U84 I43:V43 H57:W57 H33:AF33 H31:AD32 H37:AQ37 H36:AD36 H35:AP35 H34:AD34 H38:AI38 AK38:AQ38 H72:AD73 H77:AD77 L21:BO21 H20:BO20 K7:BO7 P9:BO9 I44:BO45 L8:BO8 T10:BO10 Y11:BO15 H65:BO65 J63:BO63 H52:BO52 J48:BO49 K50:BO50 L53:BO55 L66:BO67 N51:BO51 H46:BO47 Z64:BO64 AA22:BO28 H85:BO86 X84:BO84 H56:BO56 AA16:BO19 Y57:BO57 H58:BO62 AF31:BO32 AF36:BO36 AH34:BO34 AO33:BO33 AR35:BO35 H74:BO74 AF72:BO73 AF77:BO77 H39:BO41 X42:BO43 H78:BO83 H29:BO30 H68:BO71 H5:BO6 AR37:BO38 H76:AE76 H75:AD75 AH33:AJ33 AG75:BO76">
-    <cfRule type="expression" dxfId="339" priority="953" stopIfTrue="1">
+  <conditionalFormatting sqref="H8:I8 H9:J9 J22:X22 H48:H49 H50:I50 H11:U19 H53:J55 H66:J67 H51:K51 H10:N10 I23:O23 R23 T23:U23 X23 H64:N64 R64 T64 I24:X28 H26:H28 Y26:Z28 H84:U84 I43:V43 H57:W57 H33:AF33 H31:AD32 H37:AQ37 H36:AD36 H35:AP35 H34:AD34 H38:AI38 AK38:AQ38 H72:AD73 H77:AD77 L21:BO21 H20:BO20 K7:BO7 P9:BO9 I44:BO45 L8:BO8 T10:BO10 Y11:BO15 H65:BO65 J63:BO63 H52:BO52 J48:BO49 K50:BO50 L53:BO55 L66:BO67 N51:BO51 H46:BO47 Z64:BO64 AA22:BO28 H85:BO86 X84:BO84 H56:BO56 AA16:BO19 Y57:BO57 H58:BO62 AF31:BO32 AF36:BO36 AH34:BO34 AO33:BO33 AR35:BO35 H74:AF74 AF72:BO73 AF77:BO77 H39:BO41 X42:BO43 H78:BO83 H29:BO30 H68:BO71 H5:BO6 AR37:BO38 H76:AE76 H75:AD75 AH33:AJ33 AG75:BO76 AH74:AI74 AK74:BO74">
+    <cfRule type="expression" dxfId="347" priority="961" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="954" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="962" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="955" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="963" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="956" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="964" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:J21">
-    <cfRule type="expression" dxfId="335" priority="921" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="929" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="922" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="930" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="923" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="931" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="924" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="932" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="331" priority="445" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="453" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="454" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="455" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="456" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="327" priority="405" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="413" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="414" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="415" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="416" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="323" priority="417" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="425" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="426" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="427" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="428" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="319" priority="433" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="441" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="442" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="443" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="444" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="315" priority="429" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="437" stopIfTrue="1">
       <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="438" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="439" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="440" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="319" priority="429" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="318" priority="430" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="317" priority="431" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="432" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="expression" dxfId="315" priority="393" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="314" priority="394" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="395" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="396" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
     <cfRule type="expression" dxfId="311" priority="421" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="310" priority="422" operator="equal">
       <formula>1</formula>
@@ -11420,9 +11530,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="H43:H45">
     <cfRule type="expression" dxfId="307" priority="385" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="306" priority="386" operator="equal">
       <formula>1</formula>
@@ -11434,107 +11544,107 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="303" priority="413" stopIfTrue="1">
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="303" priority="409" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="410" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="411" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="416" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43:H45">
-    <cfRule type="expression" dxfId="299" priority="377" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="378" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="379" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="380" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="295" priority="401" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="402" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="403" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="412" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:Q10 S10">
-    <cfRule type="expression" dxfId="291" priority="393" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="401" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="402" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="403" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="404" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="287" priority="389" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="397" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="398" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="399" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="400" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="283" priority="333" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="341" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="342" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="343" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="344" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="279" priority="309" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="317" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="318" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="319" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="320" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y22 Y24:Y25">
+    <cfRule type="expression" dxfId="283" priority="365" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="366" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="281" priority="367" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="368" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z22:Z25">
+    <cfRule type="expression" dxfId="279" priority="361" stopIfTrue="1">
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="362" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="363" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="364" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
     <cfRule type="expression" dxfId="275" priority="357" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="274" priority="358" operator="equal">
       <formula>1</formula>
@@ -11546,9 +11656,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z22:Z25">
+  <conditionalFormatting sqref="H22">
     <cfRule type="expression" dxfId="271" priority="353" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="270" priority="354" operator="equal">
       <formula>1</formula>
@@ -11560,37 +11670,37 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="expression" dxfId="267" priority="349" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="350" operator="equal">
+  <conditionalFormatting sqref="W12">
+    <cfRule type="expression" dxfId="267" priority="337" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="338" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="339" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="340" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="263" priority="345" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="346" operator="equal">
+  <conditionalFormatting sqref="X12">
+    <cfRule type="expression" dxfId="263" priority="333" stopIfTrue="1">
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="334" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="335" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="336" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W12">
+  <conditionalFormatting sqref="X13:X15">
     <cfRule type="expression" dxfId="259" priority="329" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="258" priority="330" operator="equal">
       <formula>1</formula>
@@ -11602,9 +11712,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X12">
+  <conditionalFormatting sqref="W13:W19">
     <cfRule type="expression" dxfId="255" priority="325" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="254" priority="326" operator="equal">
       <formula>1</formula>
@@ -11616,9 +11726,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X13:X15">
+  <conditionalFormatting sqref="V13:V19">
     <cfRule type="expression" dxfId="251" priority="321" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="250" priority="322" operator="equal">
       <formula>1</formula>
@@ -11630,37 +11740,37 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13:W19">
-    <cfRule type="expression" dxfId="247" priority="317" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="318" operator="equal">
+  <conditionalFormatting sqref="H24:H25">
+    <cfRule type="expression" dxfId="247" priority="313" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="314" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="315" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="316" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V13:V19">
-    <cfRule type="expression" dxfId="243" priority="313" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="314" operator="equal">
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="243" priority="301" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="302" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="303" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="304" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H25">
+  <conditionalFormatting sqref="I63">
     <cfRule type="expression" dxfId="239" priority="305" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="238" priority="306" operator="equal">
       <formula>1</formula>
@@ -11672,37 +11782,37 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="235" priority="293" stopIfTrue="1">
+  <conditionalFormatting sqref="I48">
+    <cfRule type="expression" dxfId="235" priority="297" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="298" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="299" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="300" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="231" priority="297" stopIfTrue="1">
+  <conditionalFormatting sqref="I49">
+    <cfRule type="expression" dxfId="231" priority="293" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="294" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="295" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="296" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
+  <conditionalFormatting sqref="N9">
     <cfRule type="expression" dxfId="227" priority="289" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="226" priority="290" operator="equal">
       <formula>1</formula>
@@ -11714,9 +11824,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
+  <conditionalFormatting sqref="O9">
     <cfRule type="expression" dxfId="223" priority="285" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="222" priority="286" operator="equal">
       <formula>1</formula>
@@ -11728,9 +11838,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="O10">
     <cfRule type="expression" dxfId="219" priority="281" stopIfTrue="1">
-      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="218" priority="282" operator="equal">
       <formula>1</formula>
@@ -11742,9 +11852,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
+  <conditionalFormatting sqref="J50">
     <cfRule type="expression" dxfId="215" priority="277" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="214" priority="278" operator="equal">
       <formula>1</formula>
@@ -11756,9 +11866,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
+  <conditionalFormatting sqref="K54">
     <cfRule type="expression" dxfId="211" priority="273" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="210" priority="274" operator="equal">
       <formula>1</formula>
@@ -11770,9 +11880,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
+  <conditionalFormatting sqref="K55">
     <cfRule type="expression" dxfId="207" priority="269" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="206" priority="270" operator="equal">
       <formula>1</formula>
@@ -11784,7 +11894,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
+  <conditionalFormatting sqref="K53">
     <cfRule type="expression" dxfId="203" priority="265" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -11798,7 +11908,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55">
+  <conditionalFormatting sqref="K67">
     <cfRule type="expression" dxfId="199" priority="261" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -11812,7 +11922,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
+  <conditionalFormatting sqref="K66">
     <cfRule type="expression" dxfId="195" priority="257" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -11826,9 +11936,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K67">
+  <conditionalFormatting sqref="L51">
     <cfRule type="expression" dxfId="191" priority="253" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="190" priority="254" operator="equal">
       <formula>1</formula>
@@ -11840,9 +11950,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66">
+  <conditionalFormatting sqref="R10">
     <cfRule type="expression" dxfId="187" priority="249" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="186" priority="250" operator="equal">
       <formula>1</formula>
@@ -11854,9 +11964,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
+  <conditionalFormatting sqref="P23">
     <cfRule type="expression" dxfId="183" priority="245" stopIfTrue="1">
-      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="182" priority="246" operator="equal">
       <formula>1</formula>
@@ -11868,9 +11978,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
+  <conditionalFormatting sqref="Q23">
     <cfRule type="expression" dxfId="179" priority="241" stopIfTrue="1">
-      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="178" priority="242" operator="equal">
       <formula>1</formula>
@@ -11882,9 +11992,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P23">
+  <conditionalFormatting sqref="S23">
     <cfRule type="expression" dxfId="175" priority="237" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="174" priority="238" operator="equal">
       <formula>1</formula>
@@ -11896,9 +12006,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
+  <conditionalFormatting sqref="V23">
     <cfRule type="expression" dxfId="171" priority="233" stopIfTrue="1">
-      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="170" priority="234" operator="equal">
       <formula>1</formula>
@@ -11910,9 +12020,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S23">
+  <conditionalFormatting sqref="O64">
     <cfRule type="expression" dxfId="167" priority="229" stopIfTrue="1">
-      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="166" priority="230" operator="equal">
       <formula>1</formula>
@@ -11924,9 +12034,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V23">
+  <conditionalFormatting sqref="P64">
     <cfRule type="expression" dxfId="163" priority="225" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="162" priority="226" operator="equal">
       <formula>1</formula>
@@ -11938,9 +12048,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O64">
+  <conditionalFormatting sqref="M51">
     <cfRule type="expression" dxfId="159" priority="221" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="158" priority="222" operator="equal">
       <formula>1</formula>
@@ -11952,9 +12062,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P64">
+  <conditionalFormatting sqref="Q64">
     <cfRule type="expression" dxfId="155" priority="217" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="154" priority="218" operator="equal">
       <formula>1</formula>
@@ -11966,9 +12076,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M51">
+  <conditionalFormatting sqref="S64">
     <cfRule type="expression" dxfId="151" priority="213" stopIfTrue="1">
-      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="150" priority="214" operator="equal">
       <formula>1</formula>
@@ -11980,91 +12090,91 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q64">
-    <cfRule type="expression" dxfId="147" priority="209" stopIfTrue="1">
-      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="210" operator="equal">
+  <conditionalFormatting sqref="V64">
+    <cfRule type="expression" dxfId="147" priority="205" stopIfTrue="1">
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="206" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="207" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="212" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S64">
-    <cfRule type="expression" dxfId="143" priority="205" stopIfTrue="1">
-      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="206" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="207" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="208" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V64">
-    <cfRule type="expression" dxfId="139" priority="197" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="198" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="199" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="208" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U64">
-    <cfRule type="expression" dxfId="135" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="201" stopIfTrue="1">
       <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="203" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="204" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:V42">
-    <cfRule type="expression" dxfId="131" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="193" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="194" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="195" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="196" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V84">
-    <cfRule type="expression" dxfId="127" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="173" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="175" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="176" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42">
+    <cfRule type="expression" dxfId="131" priority="161" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="162" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="163" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="164" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W23">
+    <cfRule type="expression" dxfId="127" priority="157" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="158" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="159" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="160" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W43">
     <cfRule type="expression" dxfId="123" priority="153" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12078,7 +12188,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W23">
+  <conditionalFormatting sqref="W64">
     <cfRule type="expression" dxfId="119" priority="149" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12092,7 +12202,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W43">
+  <conditionalFormatting sqref="W84">
     <cfRule type="expression" dxfId="115" priority="145" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12106,9 +12216,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W64">
+  <conditionalFormatting sqref="X16:X19">
     <cfRule type="expression" dxfId="111" priority="141" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="110" priority="142" operator="equal">
       <formula>1</formula>
@@ -12120,9 +12230,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W84">
+  <conditionalFormatting sqref="Y16:Y19">
     <cfRule type="expression" dxfId="107" priority="137" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="106" priority="138" operator="equal">
       <formula>1</formula>
@@ -12134,9 +12244,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X16:X19">
+  <conditionalFormatting sqref="Z16:Z19">
     <cfRule type="expression" dxfId="103" priority="133" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="102" priority="134" operator="equal">
       <formula>1</formula>
@@ -12148,9 +12258,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y16:Y19">
+  <conditionalFormatting sqref="X57">
     <cfRule type="expression" dxfId="99" priority="129" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="98" priority="130" operator="equal">
       <formula>1</formula>
@@ -12162,9 +12272,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z16:Z19">
+  <conditionalFormatting sqref="X64">
     <cfRule type="expression" dxfId="95" priority="125" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="94" priority="126" operator="equal">
       <formula>1</formula>
@@ -12176,9 +12286,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X57">
+  <conditionalFormatting sqref="Y23">
     <cfRule type="expression" dxfId="91" priority="121" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="90" priority="122" operator="equal">
       <formula>1</formula>
@@ -12190,9 +12300,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X64">
+  <conditionalFormatting sqref="Y64">
     <cfRule type="expression" dxfId="87" priority="117" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="86" priority="118" operator="equal">
       <formula>1</formula>
@@ -12204,35 +12314,35 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y23">
-    <cfRule type="expression" dxfId="83" priority="113" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="114" operator="equal">
+  <conditionalFormatting sqref="AE32">
+    <cfRule type="expression" dxfId="83" priority="105" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="107" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="108" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y64">
-    <cfRule type="expression" dxfId="79" priority="109" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="110" operator="equal">
+  <conditionalFormatting sqref="AE31">
+    <cfRule type="expression" dxfId="79" priority="101" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="103" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="104" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE32">
+  <conditionalFormatting sqref="AE36">
     <cfRule type="expression" dxfId="75" priority="97" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12246,9 +12356,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
+  <conditionalFormatting sqref="AF34">
     <cfRule type="expression" dxfId="71" priority="93" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="70" priority="94" operator="equal">
       <formula>1</formula>
@@ -12260,9 +12370,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE36">
+  <conditionalFormatting sqref="AG34">
     <cfRule type="expression" dxfId="67" priority="89" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="66" priority="90" operator="equal">
       <formula>1</formula>
@@ -12274,9 +12384,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF34">
+  <conditionalFormatting sqref="AJ38">
     <cfRule type="expression" dxfId="63" priority="85" stopIfTrue="1">
-      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="62" priority="86" operator="equal">
       <formula>1</formula>
@@ -12288,9 +12398,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG34">
+  <conditionalFormatting sqref="AK33">
     <cfRule type="expression" dxfId="59" priority="81" stopIfTrue="1">
-      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="58" priority="82" operator="equal">
       <formula>1</formula>
@@ -12302,9 +12412,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ38">
+  <conditionalFormatting sqref="AL33">
     <cfRule type="expression" dxfId="55" priority="77" stopIfTrue="1">
-      <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="54" priority="78" operator="equal">
       <formula>1</formula>
@@ -12316,9 +12426,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK33">
+  <conditionalFormatting sqref="AM33">
     <cfRule type="expression" dxfId="51" priority="73" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="50" priority="74" operator="equal">
       <formula>1</formula>
@@ -12330,9 +12440,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL33">
+  <conditionalFormatting sqref="AN33">
     <cfRule type="expression" dxfId="47" priority="69" stopIfTrue="1">
-      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AN$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="46" priority="70" operator="equal">
       <formula>1</formula>
@@ -12344,9 +12454,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM33">
+  <conditionalFormatting sqref="AQ35">
     <cfRule type="expression" dxfId="43" priority="65" stopIfTrue="1">
-      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AQ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="66" operator="equal">
       <formula>1</formula>
@@ -12358,35 +12468,35 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN33">
-    <cfRule type="expression" dxfId="39" priority="61" stopIfTrue="1">
-      <formula>MATCH(AN$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="62" operator="equal">
+  <conditionalFormatting sqref="AE72">
+    <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ35">
-    <cfRule type="expression" dxfId="35" priority="57" stopIfTrue="1">
-      <formula>MATCH(AQ$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="58" operator="equal">
+  <conditionalFormatting sqref="AE73">
+    <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE72">
+  <conditionalFormatting sqref="AE77">
     <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12400,7 +12510,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE73">
+  <conditionalFormatting sqref="AE75">
     <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12414,7 +12524,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE77">
+  <conditionalFormatting sqref="AE34">
     <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12428,9 +12538,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE75">
+  <conditionalFormatting sqref="AF75">
     <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>1</formula>
@@ -12442,9 +12552,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE34">
+  <conditionalFormatting sqref="AG33">
     <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
@@ -12456,7 +12566,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF75">
+  <conditionalFormatting sqref="AF76">
     <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12470,7 +12580,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG33">
+  <conditionalFormatting sqref="AG74">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12484,9 +12594,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF76">
+  <conditionalFormatting sqref="AJ74">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -4794,8 +4794,8 @@
   <dimension ref="A1:BO86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:AI1048576"/>
+      <pane ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10446,7 +10446,7 @@
         <v>68</v>
       </c>
       <c r="E74" s="31">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="F74" s="17">
         <v>44253</v>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -522,12 +522,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;"/>
     <numFmt numFmtId="177" formatCode="d"/>
     <numFmt numFmtId="178" formatCode="aaa"/>
     <numFmt numFmtId="179" formatCode="0.0#\ &quot;h&quot;"/>
     <numFmt numFmtId="180" formatCode="m/d;@"/>
+    <numFmt numFmtId="181" formatCode="0.0\ &quot;h&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -588,7 +589,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,6 +671,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -913,7 +920,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,6 +1008,7 @@
     <xf numFmtId="177" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1016,11 +1024,94 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="350">
+  <dxfs count="358">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -4794,8 +4885,8 @@
   <dimension ref="A1:BO86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+      <pane ySplit="4" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL75" sqref="AL75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4809,11 +4900,11 @@
   <sheetData>
     <row r="1" spans="1:67" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="2"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -4880,77 +4971,77 @@
     </row>
     <row r="2" spans="1:67" ht="19.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="50">
+      <c r="H2" s="51">
         <v>44228</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="50" t="s">
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="51"/>
-      <c r="BE2" s="51"/>
-      <c r="BF2" s="51"/>
-      <c r="BG2" s="51"/>
-      <c r="BH2" s="51"/>
-      <c r="BI2" s="51"/>
-      <c r="BJ2" s="51"/>
-      <c r="BK2" s="51"/>
-      <c r="BL2" s="51"/>
-      <c r="BM2" s="51"/>
-      <c r="BN2" s="51"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="52"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="52"/>
+      <c r="BD2" s="52"/>
+      <c r="BE2" s="52"/>
+      <c r="BF2" s="52"/>
+      <c r="BG2" s="52"/>
+      <c r="BH2" s="52"/>
+      <c r="BI2" s="52"/>
+      <c r="BJ2" s="52"/>
+      <c r="BK2" s="52"/>
+      <c r="BL2" s="52"/>
+      <c r="BM2" s="52"/>
+      <c r="BN2" s="52"/>
       <c r="BO2" s="41"/>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.35">
@@ -5142,11 +5233,11 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
@@ -10446,12 +10537,14 @@
         <v>68</v>
       </c>
       <c r="E74" s="31">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="F74" s="17">
         <v>44253</v>
       </c>
-      <c r="G74" s="18"/>
+      <c r="G74" s="18">
+        <v>44257</v>
+      </c>
       <c r="H74" s="20"/>
       <c r="I74" s="20"/>
       <c r="J74" s="20"/>
@@ -10481,7 +10574,7 @@
       <c r="AH74" s="20"/>
       <c r="AI74" s="20"/>
       <c r="AJ74" s="39"/>
-      <c r="AK74" s="20"/>
+      <c r="AK74" s="39"/>
       <c r="AL74" s="20"/>
       <c r="AM74" s="20"/>
       <c r="AN74" s="20"/>
@@ -10521,7 +10614,7 @@
         <v>69</v>
       </c>
       <c r="E75" s="31">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="F75" s="17">
         <v>44251</v>
@@ -10556,8 +10649,8 @@
       <c r="AH75" s="20"/>
       <c r="AI75" s="20"/>
       <c r="AJ75" s="20"/>
-      <c r="AK75" s="20"/>
-      <c r="AL75" s="20"/>
+      <c r="AK75" s="45"/>
+      <c r="AL75" s="39"/>
       <c r="AM75" s="20"/>
       <c r="AN75" s="20"/>
       <c r="AO75" s="20"/>
@@ -10595,7 +10688,7 @@
       <c r="D76" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="E76" s="31">
+      <c r="E76" s="53">
         <v>0.3</v>
       </c>
       <c r="F76" s="17">
@@ -11383,114 +11476,142 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="cellIs" dxfId="349" priority="965" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="973" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="966" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="974" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I8 H9:J9 J22:X22 H48:H49 H50:I50 H11:U19 H53:J55 H66:J67 H51:K51 H10:N10 I23:O23 R23 T23:U23 X23 H64:N64 R64 T64 I24:X28 H26:H28 Y26:Z28 H84:U84 I43:V43 H57:W57 H33:AF33 H31:AD32 H37:AQ37 H36:AD36 H35:AP35 H34:AD34 H38:AI38 AK38:AQ38 H72:AD73 H77:AD77 L21:BO21 H20:BO20 K7:BO7 P9:BO9 I44:BO45 L8:BO8 T10:BO10 Y11:BO15 H65:BO65 J63:BO63 H52:BO52 J48:BO49 K50:BO50 L53:BO55 L66:BO67 N51:BO51 H46:BO47 Z64:BO64 AA22:BO28 H85:BO86 X84:BO84 H56:BO56 AA16:BO19 Y57:BO57 H58:BO62 AF31:BO32 AF36:BO36 AH34:BO34 AO33:BO33 AR35:BO35 H74:AF74 AF72:BO73 AF77:BO77 H39:BO41 X42:BO43 H78:BO83 H29:BO30 H68:BO71 H5:BO6 AR37:BO38 H76:AE76 H75:AD75 AH33:AJ33 AG75:BO76 AH74:AI74 AK74:BO74">
-    <cfRule type="expression" dxfId="347" priority="961" stopIfTrue="1">
+  <conditionalFormatting sqref="H8:I8 H9:J9 J22:X22 H48:H49 H50:I50 H11:U19 H53:J55 H66:J67 H51:K51 H10:N10 I23:O23 R23 T23:U23 X23 H64:N64 R64 T64 I24:X28 H26:H28 Y26:Z28 H84:U84 I43:V43 H57:W57 H33:AF33 H31:AD32 H37:AQ37 H36:AD36 H35:AP35 H34:AD34 H38:AI38 AK38:AQ38 H72:AD73 H77:AD77 L21:BO21 H20:BO20 K7:BO7 P9:BO9 I44:BO45 L8:BO8 T10:BO10 Y11:BO15 H65:BO65 J63:BO63 H52:BO52 J48:BO49 K50:BO50 L53:BO55 L66:BO67 N51:BO51 H46:BO47 Z64:BO64 AA22:BO28 H85:BO86 X84:BO84 H56:BO56 AA16:BO19 Y57:BO57 H58:BO62 AF31:BO32 AF36:BO36 AH34:BO34 AO33:BO33 AR35:BO35 H74:AF74 AF72:BO73 AF77:BO77 H39:BO41 X42:BO43 H78:BO83 H29:BO30 H68:BO71 H5:BO6 AR37:BO38 H76:AE76 H75:AD75 AH33:AJ33 AG76:BO76 AH74:AI74 AL74:BO74 AG75:AK75 AM75:BO75">
+    <cfRule type="expression" dxfId="355" priority="969" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="962" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="970" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="963" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="971" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="964" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="972" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:J21">
-    <cfRule type="expression" dxfId="343" priority="929" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="937" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="930" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="938" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="931" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="939" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="932" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="940" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="339" priority="453" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="461" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="462" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="463" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="464" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="335" priority="413" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="421" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="422" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="423" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="424" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="331" priority="425" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="433" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="434" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="435" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="436" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="327" priority="441" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="449" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="450" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="451" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="452" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="323" priority="437" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="445" stopIfTrue="1">
       <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="446" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="447" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="448" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="327" priority="437" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="438" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="439" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="324" priority="440" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="expression" dxfId="323" priority="401" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="402" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="403" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="404" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
     <cfRule type="expression" dxfId="319" priority="429" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="318" priority="430" operator="equal">
       <formula>1</formula>
@@ -11502,9 +11623,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
+  <conditionalFormatting sqref="H43:H45">
     <cfRule type="expression" dxfId="315" priority="393" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="314" priority="394" operator="equal">
       <formula>1</formula>
@@ -11516,107 +11637,107 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="311" priority="421" stopIfTrue="1">
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="311" priority="417" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="418" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="419" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="424" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43:H45">
-    <cfRule type="expression" dxfId="307" priority="385" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="386" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="387" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="388" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="303" priority="409" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="410" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="411" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="420" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:Q10 S10">
-    <cfRule type="expression" dxfId="299" priority="401" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="409" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="410" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="411" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="412" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="295" priority="397" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="405" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="406" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="407" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="408" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="291" priority="341" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="349" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="350" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="351" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="352" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="287" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="325" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="326" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="327" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="328" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y22 Y24:Y25">
+    <cfRule type="expression" dxfId="291" priority="373" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="374" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="375" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="376" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z22:Z25">
+    <cfRule type="expression" dxfId="287" priority="369" stopIfTrue="1">
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="370" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="285" priority="371" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="372" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
     <cfRule type="expression" dxfId="283" priority="365" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="282" priority="366" operator="equal">
       <formula>1</formula>
@@ -11628,9 +11749,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z22:Z25">
+  <conditionalFormatting sqref="H22">
     <cfRule type="expression" dxfId="279" priority="361" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="278" priority="362" operator="equal">
       <formula>1</formula>
@@ -11642,37 +11763,37 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="expression" dxfId="275" priority="357" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="358" operator="equal">
+  <conditionalFormatting sqref="W12">
+    <cfRule type="expression" dxfId="275" priority="345" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="346" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="347" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="348" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="271" priority="353" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="354" operator="equal">
+  <conditionalFormatting sqref="X12">
+    <cfRule type="expression" dxfId="271" priority="341" stopIfTrue="1">
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="342" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="343" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="344" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W12">
+  <conditionalFormatting sqref="X13:X15">
     <cfRule type="expression" dxfId="267" priority="337" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="266" priority="338" operator="equal">
       <formula>1</formula>
@@ -11684,9 +11805,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X12">
+  <conditionalFormatting sqref="W13:W19">
     <cfRule type="expression" dxfId="263" priority="333" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="262" priority="334" operator="equal">
       <formula>1</formula>
@@ -11698,9 +11819,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X13:X15">
+  <conditionalFormatting sqref="V13:V19">
     <cfRule type="expression" dxfId="259" priority="329" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="258" priority="330" operator="equal">
       <formula>1</formula>
@@ -11712,37 +11833,37 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13:W19">
-    <cfRule type="expression" dxfId="255" priority="325" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="326" operator="equal">
+  <conditionalFormatting sqref="H24:H25">
+    <cfRule type="expression" dxfId="255" priority="321" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="322" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="323" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="324" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V13:V19">
-    <cfRule type="expression" dxfId="251" priority="321" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="322" operator="equal">
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="251" priority="309" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="310" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="311" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="312" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H25">
+  <conditionalFormatting sqref="I63">
     <cfRule type="expression" dxfId="247" priority="313" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="246" priority="314" operator="equal">
       <formula>1</formula>
@@ -11754,37 +11875,37 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="243" priority="301" stopIfTrue="1">
+  <conditionalFormatting sqref="I48">
+    <cfRule type="expression" dxfId="243" priority="305" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="306" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="307" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="308" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="239" priority="305" stopIfTrue="1">
+  <conditionalFormatting sqref="I49">
+    <cfRule type="expression" dxfId="239" priority="301" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="302" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="303" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="304" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
+  <conditionalFormatting sqref="N9">
     <cfRule type="expression" dxfId="235" priority="297" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="234" priority="298" operator="equal">
       <formula>1</formula>
@@ -11796,9 +11917,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
+  <conditionalFormatting sqref="O9">
     <cfRule type="expression" dxfId="231" priority="293" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="230" priority="294" operator="equal">
       <formula>1</formula>
@@ -11810,9 +11931,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="O10">
     <cfRule type="expression" dxfId="227" priority="289" stopIfTrue="1">
-      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="226" priority="290" operator="equal">
       <formula>1</formula>
@@ -11824,9 +11945,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
+  <conditionalFormatting sqref="J50">
     <cfRule type="expression" dxfId="223" priority="285" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="222" priority="286" operator="equal">
       <formula>1</formula>
@@ -11838,9 +11959,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
+  <conditionalFormatting sqref="K54">
     <cfRule type="expression" dxfId="219" priority="281" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="218" priority="282" operator="equal">
       <formula>1</formula>
@@ -11852,9 +11973,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
+  <conditionalFormatting sqref="K55">
     <cfRule type="expression" dxfId="215" priority="277" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="214" priority="278" operator="equal">
       <formula>1</formula>
@@ -11866,7 +11987,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
+  <conditionalFormatting sqref="K53">
     <cfRule type="expression" dxfId="211" priority="273" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -11880,7 +12001,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55">
+  <conditionalFormatting sqref="K67">
     <cfRule type="expression" dxfId="207" priority="269" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -11894,7 +12015,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
+  <conditionalFormatting sqref="K66">
     <cfRule type="expression" dxfId="203" priority="265" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -11908,9 +12029,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K67">
+  <conditionalFormatting sqref="L51">
     <cfRule type="expression" dxfId="199" priority="261" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="198" priority="262" operator="equal">
       <formula>1</formula>
@@ -11922,9 +12043,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66">
+  <conditionalFormatting sqref="R10">
     <cfRule type="expression" dxfId="195" priority="257" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="194" priority="258" operator="equal">
       <formula>1</formula>
@@ -11936,9 +12057,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
+  <conditionalFormatting sqref="P23">
     <cfRule type="expression" dxfId="191" priority="253" stopIfTrue="1">
-      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="190" priority="254" operator="equal">
       <formula>1</formula>
@@ -11950,9 +12071,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
+  <conditionalFormatting sqref="Q23">
     <cfRule type="expression" dxfId="187" priority="249" stopIfTrue="1">
-      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="186" priority="250" operator="equal">
       <formula>1</formula>
@@ -11964,9 +12085,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P23">
+  <conditionalFormatting sqref="S23">
     <cfRule type="expression" dxfId="183" priority="245" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="182" priority="246" operator="equal">
       <formula>1</formula>
@@ -11978,9 +12099,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
+  <conditionalFormatting sqref="V23">
     <cfRule type="expression" dxfId="179" priority="241" stopIfTrue="1">
-      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="178" priority="242" operator="equal">
       <formula>1</formula>
@@ -11992,9 +12113,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S23">
+  <conditionalFormatting sqref="O64">
     <cfRule type="expression" dxfId="175" priority="237" stopIfTrue="1">
-      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="174" priority="238" operator="equal">
       <formula>1</formula>
@@ -12006,9 +12127,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V23">
+  <conditionalFormatting sqref="P64">
     <cfRule type="expression" dxfId="171" priority="233" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="170" priority="234" operator="equal">
       <formula>1</formula>
@@ -12020,9 +12141,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O64">
+  <conditionalFormatting sqref="M51">
     <cfRule type="expression" dxfId="167" priority="229" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="166" priority="230" operator="equal">
       <formula>1</formula>
@@ -12034,9 +12155,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P64">
+  <conditionalFormatting sqref="Q64">
     <cfRule type="expression" dxfId="163" priority="225" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="162" priority="226" operator="equal">
       <formula>1</formula>
@@ -12048,9 +12169,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M51">
+  <conditionalFormatting sqref="S64">
     <cfRule type="expression" dxfId="159" priority="221" stopIfTrue="1">
-      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="158" priority="222" operator="equal">
       <formula>1</formula>
@@ -12062,91 +12183,91 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q64">
-    <cfRule type="expression" dxfId="155" priority="217" stopIfTrue="1">
-      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="218" operator="equal">
+  <conditionalFormatting sqref="V64">
+    <cfRule type="expression" dxfId="155" priority="213" stopIfTrue="1">
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="214" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="215" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="220" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S64">
-    <cfRule type="expression" dxfId="151" priority="213" stopIfTrue="1">
-      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="214" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="215" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="216" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V64">
-    <cfRule type="expression" dxfId="147" priority="205" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="206" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="207" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="216" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U64">
-    <cfRule type="expression" dxfId="143" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="209" stopIfTrue="1">
       <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="210" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="211" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="212" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:V42">
-    <cfRule type="expression" dxfId="139" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="201" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="203" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="204" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V84">
-    <cfRule type="expression" dxfId="135" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="181" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="182" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="183" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="184" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42">
+    <cfRule type="expression" dxfId="139" priority="169" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="170" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="171" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="172" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W23">
+    <cfRule type="expression" dxfId="135" priority="165" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="166" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="167" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="168" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W43">
     <cfRule type="expression" dxfId="131" priority="161" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12160,7 +12281,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W23">
+  <conditionalFormatting sqref="W64">
     <cfRule type="expression" dxfId="127" priority="157" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12174,7 +12295,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W43">
+  <conditionalFormatting sqref="W84">
     <cfRule type="expression" dxfId="123" priority="153" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12188,9 +12309,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W64">
+  <conditionalFormatting sqref="X16:X19">
     <cfRule type="expression" dxfId="119" priority="149" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="118" priority="150" operator="equal">
       <formula>1</formula>
@@ -12202,9 +12323,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W84">
+  <conditionalFormatting sqref="Y16:Y19">
     <cfRule type="expression" dxfId="115" priority="145" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="114" priority="146" operator="equal">
       <formula>1</formula>
@@ -12216,9 +12337,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X16:X19">
+  <conditionalFormatting sqref="Z16:Z19">
     <cfRule type="expression" dxfId="111" priority="141" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="110" priority="142" operator="equal">
       <formula>1</formula>
@@ -12230,9 +12351,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y16:Y19">
+  <conditionalFormatting sqref="X57">
     <cfRule type="expression" dxfId="107" priority="137" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="106" priority="138" operator="equal">
       <formula>1</formula>
@@ -12244,9 +12365,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z16:Z19">
+  <conditionalFormatting sqref="X64">
     <cfRule type="expression" dxfId="103" priority="133" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="102" priority="134" operator="equal">
       <formula>1</formula>
@@ -12258,9 +12379,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X57">
+  <conditionalFormatting sqref="Y23">
     <cfRule type="expression" dxfId="99" priority="129" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="98" priority="130" operator="equal">
       <formula>1</formula>
@@ -12272,9 +12393,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X64">
+  <conditionalFormatting sqref="Y64">
     <cfRule type="expression" dxfId="95" priority="125" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="94" priority="126" operator="equal">
       <formula>1</formula>
@@ -12286,35 +12407,35 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y23">
-    <cfRule type="expression" dxfId="91" priority="121" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="122" operator="equal">
+  <conditionalFormatting sqref="AE32">
+    <cfRule type="expression" dxfId="91" priority="113" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="115" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="116" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y64">
-    <cfRule type="expression" dxfId="87" priority="117" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="118" operator="equal">
+  <conditionalFormatting sqref="AE31">
+    <cfRule type="expression" dxfId="87" priority="109" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="111" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="112" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE32">
+  <conditionalFormatting sqref="AE36">
     <cfRule type="expression" dxfId="83" priority="105" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12328,9 +12449,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
+  <conditionalFormatting sqref="AF34">
     <cfRule type="expression" dxfId="79" priority="101" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="78" priority="102" operator="equal">
       <formula>1</formula>
@@ -12342,9 +12463,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE36">
+  <conditionalFormatting sqref="AG34">
     <cfRule type="expression" dxfId="75" priority="97" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="74" priority="98" operator="equal">
       <formula>1</formula>
@@ -12356,9 +12477,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF34">
+  <conditionalFormatting sqref="AJ38">
     <cfRule type="expression" dxfId="71" priority="93" stopIfTrue="1">
-      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="70" priority="94" operator="equal">
       <formula>1</formula>
@@ -12370,9 +12491,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG34">
+  <conditionalFormatting sqref="AK33">
     <cfRule type="expression" dxfId="67" priority="89" stopIfTrue="1">
-      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="66" priority="90" operator="equal">
       <formula>1</formula>
@@ -12384,9 +12505,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ38">
+  <conditionalFormatting sqref="AL33">
     <cfRule type="expression" dxfId="63" priority="85" stopIfTrue="1">
-      <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="62" priority="86" operator="equal">
       <formula>1</formula>
@@ -12398,9 +12519,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK33">
+  <conditionalFormatting sqref="AM33">
     <cfRule type="expression" dxfId="59" priority="81" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="58" priority="82" operator="equal">
       <formula>1</formula>
@@ -12412,9 +12533,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL33">
+  <conditionalFormatting sqref="AN33">
     <cfRule type="expression" dxfId="55" priority="77" stopIfTrue="1">
-      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AN$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="54" priority="78" operator="equal">
       <formula>1</formula>
@@ -12426,9 +12547,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM33">
+  <conditionalFormatting sqref="AQ35">
     <cfRule type="expression" dxfId="51" priority="73" stopIfTrue="1">
-      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AQ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="50" priority="74" operator="equal">
       <formula>1</formula>
@@ -12440,35 +12561,35 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN33">
-    <cfRule type="expression" dxfId="47" priority="69" stopIfTrue="1">
-      <formula>MATCH(AN$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="70" operator="equal">
+  <conditionalFormatting sqref="AE72">
+    <cfRule type="expression" dxfId="47" priority="45" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ35">
-    <cfRule type="expression" dxfId="43" priority="65" stopIfTrue="1">
-      <formula>MATCH(AQ$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="66" operator="equal">
+  <conditionalFormatting sqref="AE73">
+    <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE72">
+  <conditionalFormatting sqref="AE77">
     <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12482,7 +12603,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE73">
+  <conditionalFormatting sqref="AE75">
     <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12496,7 +12617,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE77">
+  <conditionalFormatting sqref="AE34">
     <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12510,9 +12631,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE75">
+  <conditionalFormatting sqref="AF75">
     <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>1</formula>
@@ -12524,9 +12645,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE34">
+  <conditionalFormatting sqref="AG33">
     <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>1</formula>
@@ -12538,7 +12659,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF75">
+  <conditionalFormatting sqref="AF76">
     <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
       <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12552,7 +12673,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG33">
+  <conditionalFormatting sqref="AG74">
     <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12566,9 +12687,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF76">
+  <conditionalFormatting sqref="AJ74">
     <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
-      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
@@ -12580,9 +12701,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG74">
+  <conditionalFormatting sqref="AK74">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
@@ -12594,9 +12715,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ74">
+  <conditionalFormatting sqref="AL75">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -1008,7 +1008,9 @@
     <xf numFmtId="177" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1024,14 +1026,132 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="358">
+  <dxfs count="370">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -4885,8 +5005,8 @@
   <dimension ref="A1:BO86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL75" sqref="AL75"/>
+      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7873,7 +7993,7 @@
       <c r="AJ37" s="37"/>
       <c r="AK37" s="37"/>
       <c r="AL37" s="37"/>
-      <c r="AM37" s="37"/>
+      <c r="AM37" s="53"/>
       <c r="AN37" s="37"/>
       <c r="AO37" s="37"/>
       <c r="AP37" s="37"/>
@@ -7949,8 +8069,8 @@
       <c r="AI38" s="37"/>
       <c r="AJ38" s="19"/>
       <c r="AK38" s="37"/>
-      <c r="AL38" s="37"/>
-      <c r="AM38" s="37"/>
+      <c r="AL38" s="53"/>
+      <c r="AM38" s="53"/>
       <c r="AN38" s="37"/>
       <c r="AO38" s="37"/>
       <c r="AP38" s="37"/>
@@ -10614,12 +10734,14 @@
         <v>69</v>
       </c>
       <c r="E75" s="31">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
       <c r="F75" s="17">
         <v>44251</v>
       </c>
-      <c r="G75" s="18"/>
+      <c r="G75" s="18">
+        <v>44258</v>
+      </c>
       <c r="H75" s="20"/>
       <c r="I75" s="20"/>
       <c r="J75" s="20"/>
@@ -10649,7 +10771,7 @@
       <c r="AH75" s="20"/>
       <c r="AI75" s="20"/>
       <c r="AJ75" s="20"/>
-      <c r="AK75" s="45"/>
+      <c r="AK75" s="39"/>
       <c r="AL75" s="39"/>
       <c r="AM75" s="20"/>
       <c r="AN75" s="20"/>
@@ -10688,7 +10810,7 @@
       <c r="D76" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="E76" s="53">
+      <c r="E76" s="45">
         <v>0.3</v>
       </c>
       <c r="F76" s="17">
@@ -10911,8 +11033,12 @@
       <c r="D79" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E79" s="31"/>
-      <c r="F79" s="17"/>
+      <c r="E79" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F79" s="17">
+        <v>44258</v>
+      </c>
       <c r="G79" s="18"/>
       <c r="H79" s="20"/>
       <c r="I79" s="20"/>
@@ -10944,7 +11070,7 @@
       <c r="AI79" s="20"/>
       <c r="AJ79" s="20"/>
       <c r="AK79" s="20"/>
-      <c r="AL79" s="20"/>
+      <c r="AL79" s="39"/>
       <c r="AM79" s="20"/>
       <c r="AN79" s="20"/>
       <c r="AO79" s="20"/>
@@ -11476,378 +11602,420 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="cellIs" dxfId="357" priority="973" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="981" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="974" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="982" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I8 H9:J9 J22:X22 H48:H49 H50:I50 H11:U19 H53:J55 H66:J67 H51:K51 H10:N10 I23:O23 R23 T23:U23 X23 H64:N64 R64 T64 I24:X28 H26:H28 Y26:Z28 H84:U84 I43:V43 H57:W57 H33:AF33 H31:AD32 H37:AQ37 H36:AD36 H35:AP35 H34:AD34 H38:AI38 AK38:AQ38 H72:AD73 H77:AD77 L21:BO21 H20:BO20 K7:BO7 P9:BO9 I44:BO45 L8:BO8 T10:BO10 Y11:BO15 H65:BO65 J63:BO63 H52:BO52 J48:BO49 K50:BO50 L53:BO55 L66:BO67 N51:BO51 H46:BO47 Z64:BO64 AA22:BO28 H85:BO86 X84:BO84 H56:BO56 AA16:BO19 Y57:BO57 H58:BO62 AF31:BO32 AF36:BO36 AH34:BO34 AO33:BO33 AR35:BO35 H74:AF74 AF72:BO73 AF77:BO77 H39:BO41 X42:BO43 H78:BO83 H29:BO30 H68:BO71 H5:BO6 AR37:BO38 H76:AE76 H75:AD75 AH33:AJ33 AG76:BO76 AH74:AI74 AL74:BO74 AG75:AK75 AM75:BO75">
-    <cfRule type="expression" dxfId="355" priority="969" stopIfTrue="1">
+  <conditionalFormatting sqref="H8:I8 H9:J9 J22:X22 H48:H49 H50:I50 H11:U19 H53:J55 H66:J67 H51:K51 H10:N10 I23:O23 R23 T23:U23 X23 H64:N64 R64 T64 I24:X28 H26:H28 Y26:Z28 H84:U84 I43:V43 H57:W57 H33:AF33 H31:AD32 H37:AQ37 H36:AD36 H35:AP35 H34:AD34 H38:AI38 H72:AD73 H77:AD77 L21:BO21 H20:BO20 K7:BO7 P9:BO9 I44:BO45 L8:BO8 T10:BO10 Y11:BO15 H65:BO65 J63:BO63 H52:BO52 J48:BO49 K50:BO50 L53:BO55 L66:BO67 N51:BO51 H46:BO47 Z64:BO64 AA22:BO28 H85:BO86 X84:BO84 H56:BO56 AA16:BO19 Y57:BO57 H58:BO62 AF31:BO32 AF36:BO36 AH34:BO34 AO33:BO33 AR35:BO35 H74:AF74 AF72:BO73 AF77:BO77 H39:BO41 X42:BO43 H29:BO30 H68:BO71 H5:BO6 AR37:BO38 H76:AE76 H75:AD75 AH33:AJ33 AG76:BO76 AH74:AI74 AL74:BO74 AG75:AJ75 AM75:BO75 H78:BO78 H80:BO83 H79:AK79 AM79:BO79 AK38:AQ38">
+    <cfRule type="expression" dxfId="367" priority="977" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="970" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="978" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="971" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="979" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="972" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="980" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:J21">
-    <cfRule type="expression" dxfId="351" priority="937" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="945" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="938" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="946" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="939" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="947" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="940" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="948" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="347" priority="461" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="469" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="470" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="471" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="472" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="343" priority="421" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="429" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="430" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="431" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="432" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="339" priority="433" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="441" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="442" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="443" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="444" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="335" priority="449" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="457" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="458" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="459" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="460" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="331" priority="445" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="453" stopIfTrue="1">
       <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="454" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="455" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="456" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="327" priority="437" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="445" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="446" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="447" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="448" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="323" priority="401" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="409" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="410" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="411" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="412" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="319" priority="429" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="437" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="438" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="439" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="440" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:H45">
-    <cfRule type="expression" dxfId="315" priority="393" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="401" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="402" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="403" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="404" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="311" priority="417" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="425" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="426" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="427" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="428" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:Q10 S10">
-    <cfRule type="expression" dxfId="307" priority="409" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="417" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="418" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="419" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="420" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="303" priority="405" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="413" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="414" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="415" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="416" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="299" priority="349" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="357" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="358" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="359" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="360" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="295" priority="325" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="333" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="334" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="335" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="336" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y22 Y24:Y25">
-    <cfRule type="expression" dxfId="291" priority="373" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="381" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="382" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="383" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="384" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22:Z25">
-    <cfRule type="expression" dxfId="287" priority="369" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="377" stopIfTrue="1">
       <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="378" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="379" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="380" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="expression" dxfId="283" priority="365" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="373" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="374" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="375" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="376" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="279" priority="361" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="369" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="370" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="371" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="372" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="expression" dxfId="275" priority="345" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="353" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="354" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="355" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="356" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
-    <cfRule type="expression" dxfId="271" priority="341" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="349" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="350" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="351" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="352" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X15">
-    <cfRule type="expression" dxfId="267" priority="337" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="345" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="346" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="347" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="348" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13:W19">
-    <cfRule type="expression" dxfId="263" priority="333" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="341" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="342" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="343" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="344" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13:V19">
-    <cfRule type="expression" dxfId="259" priority="329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="337" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="338" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="339" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="340" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H25">
-    <cfRule type="expression" dxfId="255" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="329" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="330" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="331" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="332" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="263" priority="317" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="318" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="319" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="320" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="expression" dxfId="259" priority="321" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="322" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="323" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="324" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="expression" dxfId="255" priority="313" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="314" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="315" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="316" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
     <cfRule type="expression" dxfId="251" priority="309" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -11861,849 +12029,835 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="247" priority="313" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="314" operator="equal">
+  <conditionalFormatting sqref="N9">
+    <cfRule type="expression" dxfId="247" priority="305" stopIfTrue="1">
+      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="306" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="307" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="316" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
-    <cfRule type="expression" dxfId="243" priority="305" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="306" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="307" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="308" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="239" priority="301" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="302" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="303" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="304" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
-    <cfRule type="expression" dxfId="235" priority="297" stopIfTrue="1">
-      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="298" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="299" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="308" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="231" priority="293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="301" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="302" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="303" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="304" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="227" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="297" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="298" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="299" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="300" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="expression" dxfId="223" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="293" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="294" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="295" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="296" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="expression" dxfId="219" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="289" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="290" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="291" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="292" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55">
-    <cfRule type="expression" dxfId="215" priority="277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="285" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="286" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="287" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="288" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="expression" dxfId="211" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="281" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="282" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="283" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="284" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K67">
-    <cfRule type="expression" dxfId="207" priority="269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="277" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="278" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="279" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="280" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66">
-    <cfRule type="expression" dxfId="203" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="273" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="274" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="275" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="276" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51">
-    <cfRule type="expression" dxfId="199" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="269" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="270" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="271" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="272" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="195" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="265" stopIfTrue="1">
       <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="266" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="267" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="268" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
-    <cfRule type="expression" dxfId="191" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="261" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="262" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="263" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="264" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23">
-    <cfRule type="expression" dxfId="187" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="257" stopIfTrue="1">
       <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="258" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="259" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="260" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23">
-    <cfRule type="expression" dxfId="183" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="253" stopIfTrue="1">
       <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="254" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="255" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="256" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="expression" dxfId="179" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="249" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="250" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="251" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="252" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O64">
-    <cfRule type="expression" dxfId="175" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="245" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="246" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="247" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="248" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P64">
-    <cfRule type="expression" dxfId="171" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="241" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="242" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="243" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="244" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M51">
-    <cfRule type="expression" dxfId="167" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="237" stopIfTrue="1">
       <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="238" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="239" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="240" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q64">
-    <cfRule type="expression" dxfId="163" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="233" stopIfTrue="1">
       <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="234" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="235" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="236" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S64">
-    <cfRule type="expression" dxfId="159" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="229" stopIfTrue="1">
       <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="230" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="231" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="232" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V64">
-    <cfRule type="expression" dxfId="155" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="221" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="222" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="223" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="224" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U64">
-    <cfRule type="expression" dxfId="151" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="217" stopIfTrue="1">
       <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="218" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="219" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="220" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:V42">
-    <cfRule type="expression" dxfId="147" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="209" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="210" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="211" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="212" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V84">
-    <cfRule type="expression" dxfId="143" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="189" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="190" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="191" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="192" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42">
-    <cfRule type="expression" dxfId="139" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="177" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="178" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="179" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="180" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23">
-    <cfRule type="expression" dxfId="135" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="173" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="175" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="176" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W43">
-    <cfRule type="expression" dxfId="131" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="169" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="170" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="171" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="172" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W64">
-    <cfRule type="expression" dxfId="127" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="165" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="166" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="167" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="168" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W84">
-    <cfRule type="expression" dxfId="123" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="161" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="162" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="163" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="164" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16:X19">
-    <cfRule type="expression" dxfId="119" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="157" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="158" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="159" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="160" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y16:Y19">
-    <cfRule type="expression" dxfId="115" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="153" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="154" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="155" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="156" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z16:Z19">
-    <cfRule type="expression" dxfId="111" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="149" stopIfTrue="1">
       <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="150" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="151" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="152" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X57">
-    <cfRule type="expression" dxfId="107" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="145" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="146" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="147" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="148" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X64">
-    <cfRule type="expression" dxfId="103" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="141" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="142" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="143" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="144" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="expression" dxfId="99" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="137" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="138" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="139" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="140" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y64">
-    <cfRule type="expression" dxfId="95" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="133" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="134" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="135" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="136" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE32">
-    <cfRule type="expression" dxfId="91" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="121" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="122" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="123" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="124" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE31">
-    <cfRule type="expression" dxfId="87" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="117" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="119" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="120" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE36">
-    <cfRule type="expression" dxfId="83" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="113" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="115" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="116" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF34">
-    <cfRule type="expression" dxfId="79" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="109" stopIfTrue="1">
       <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="111" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="112" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG34">
-    <cfRule type="expression" dxfId="75" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="105" stopIfTrue="1">
       <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="107" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="108" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ38">
-    <cfRule type="expression" dxfId="71" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="101" stopIfTrue="1">
       <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="103" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="104" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK33">
-    <cfRule type="expression" dxfId="67" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="97" stopIfTrue="1">
       <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="99" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="100" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL33">
-    <cfRule type="expression" dxfId="63" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="93" stopIfTrue="1">
       <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="94" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="95" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="96" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM33">
-    <cfRule type="expression" dxfId="59" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="89" stopIfTrue="1">
       <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="91" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="92" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN33">
-    <cfRule type="expression" dxfId="55" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="85" stopIfTrue="1">
       <formula>MATCH(AN$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="87" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="88" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ35">
-    <cfRule type="expression" dxfId="51" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="81" stopIfTrue="1">
       <formula>MATCH(AQ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="83" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="84" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE72">
-    <cfRule type="expression" dxfId="47" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="56" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE73">
-    <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="49" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE77">
-    <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="45" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE75">
-    <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="41" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE34">
-    <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="37" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF75">
-    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="33" stopIfTrue="1">
       <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG33">
-    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="29" stopIfTrue="1">
       <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF76">
-    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="25" stopIfTrue="1">
       <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG74">
-    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
       <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ74">
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="17" stopIfTrue="1">
       <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK74">
+    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL75">
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL79">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
@@ -12715,9 +12869,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL75">
+  <conditionalFormatting sqref="AK75">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -1011,6 +1011,7 @@
     <xf numFmtId="181" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1026,12 +1027,91 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="370">
+  <dxfs count="378">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -5005,8 +5085,8 @@
   <dimension ref="A1:BO86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <pane ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN39" sqref="AN39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5020,11 +5100,11 @@
   <sheetData>
     <row r="1" spans="1:67" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="2"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -5091,77 +5171,77 @@
     </row>
     <row r="2" spans="1:67" ht="19.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="51">
+      <c r="H2" s="52">
         <v>44228</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="51" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="52"/>
-      <c r="BD2" s="52"/>
-      <c r="BE2" s="52"/>
-      <c r="BF2" s="52"/>
-      <c r="BG2" s="52"/>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="52"/>
-      <c r="BL2" s="52"/>
-      <c r="BM2" s="52"/>
-      <c r="BN2" s="52"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="53"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="53"/>
+      <c r="BK2" s="53"/>
+      <c r="BL2" s="53"/>
+      <c r="BM2" s="53"/>
+      <c r="BN2" s="53"/>
       <c r="BO2" s="41"/>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.35">
@@ -5353,11 +5433,11 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
@@ -7993,8 +8073,8 @@
       <c r="AJ37" s="37"/>
       <c r="AK37" s="37"/>
       <c r="AL37" s="37"/>
-      <c r="AM37" s="53"/>
-      <c r="AN37" s="37"/>
+      <c r="AM37" s="46"/>
+      <c r="AN37" s="46"/>
       <c r="AO37" s="37"/>
       <c r="AP37" s="37"/>
       <c r="AQ37" s="37"/>
@@ -8069,8 +8149,8 @@
       <c r="AI38" s="37"/>
       <c r="AJ38" s="19"/>
       <c r="AK38" s="37"/>
-      <c r="AL38" s="53"/>
-      <c r="AM38" s="53"/>
+      <c r="AL38" s="46"/>
+      <c r="AM38" s="46"/>
       <c r="AN38" s="37"/>
       <c r="AO38" s="37"/>
       <c r="AP38" s="37"/>
@@ -9923,7 +10003,7 @@
         <v>56</v>
       </c>
       <c r="E64" s="31">
-        <v>10.65</v>
+        <v>11.65</v>
       </c>
       <c r="F64" s="17">
         <v>44235</v>
@@ -9960,7 +10040,7 @@
       <c r="AJ64" s="20"/>
       <c r="AK64" s="20"/>
       <c r="AL64" s="20"/>
-      <c r="AM64" s="20"/>
+      <c r="AM64" s="39"/>
       <c r="AN64" s="20"/>
       <c r="AO64" s="20"/>
       <c r="AP64" s="20"/>
@@ -10962,8 +11042,12 @@
       <c r="D78" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="E78" s="31"/>
-      <c r="F78" s="17"/>
+      <c r="E78" s="31">
+        <v>1</v>
+      </c>
+      <c r="F78" s="17">
+        <v>44259</v>
+      </c>
       <c r="G78" s="18"/>
       <c r="H78" s="20"/>
       <c r="I78" s="20"/>
@@ -10996,7 +11080,7 @@
       <c r="AJ78" s="20"/>
       <c r="AK78" s="20"/>
       <c r="AL78" s="20"/>
-      <c r="AM78" s="20"/>
+      <c r="AM78" s="39"/>
       <c r="AN78" s="20"/>
       <c r="AO78" s="20"/>
       <c r="AP78" s="20"/>
@@ -11034,12 +11118,14 @@
         <v>73</v>
       </c>
       <c r="E79" s="31">
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F79" s="17">
         <v>44258</v>
       </c>
-      <c r="G79" s="18"/>
+      <c r="G79" s="18">
+        <v>44259</v>
+      </c>
       <c r="H79" s="20"/>
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
@@ -11071,7 +11157,7 @@
       <c r="AJ79" s="20"/>
       <c r="AK79" s="20"/>
       <c r="AL79" s="39"/>
-      <c r="AM79" s="20"/>
+      <c r="AM79" s="39"/>
       <c r="AN79" s="20"/>
       <c r="AO79" s="20"/>
       <c r="AP79" s="20"/>
@@ -11602,86 +11688,114 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="cellIs" dxfId="369" priority="981" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="993" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="982" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="994" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I8 H9:J9 J22:X22 H48:H49 H50:I50 H11:U19 H53:J55 H66:J67 H51:K51 H10:N10 I23:O23 R23 T23:U23 X23 H64:N64 R64 T64 I24:X28 H26:H28 Y26:Z28 H84:U84 I43:V43 H57:W57 H33:AF33 H31:AD32 H37:AQ37 H36:AD36 H35:AP35 H34:AD34 H38:AI38 H72:AD73 H77:AD77 L21:BO21 H20:BO20 K7:BO7 P9:BO9 I44:BO45 L8:BO8 T10:BO10 Y11:BO15 H65:BO65 J63:BO63 H52:BO52 J48:BO49 K50:BO50 L53:BO55 L66:BO67 N51:BO51 H46:BO47 Z64:BO64 AA22:BO28 H85:BO86 X84:BO84 H56:BO56 AA16:BO19 Y57:BO57 H58:BO62 AF31:BO32 AF36:BO36 AH34:BO34 AO33:BO33 AR35:BO35 H74:AF74 AF72:BO73 AF77:BO77 H39:BO41 X42:BO43 H29:BO30 H68:BO71 H5:BO6 AR37:BO38 H76:AE76 H75:AD75 AH33:AJ33 AG76:BO76 AH74:AI74 AL74:BO74 AG75:AJ75 AM75:BO75 H78:BO78 H80:BO83 H79:AK79 AM79:BO79 AK38:AQ38">
-    <cfRule type="expression" dxfId="367" priority="977" stopIfTrue="1">
+  <conditionalFormatting sqref="H8:I8 H9:J9 J22:X22 H48:H49 H50:I50 H11:U19 H53:J55 H66:J67 H51:K51 H10:N10 I23:O23 R23 T23:U23 X23 H64:N64 R64 T64 I24:X28 H26:H28 Y26:Z28 H84:U84 I43:V43 H57:W57 H33:AF33 H31:AD32 H36:AD36 H35:AP35 H34:AD34 H38:AI38 H72:AD73 H77:AD77 L21:BO21 H20:BO20 K7:BO7 P9:BO9 I44:BO45 L8:BO8 T10:BO10 Y11:BO15 H65:BO65 J63:BO63 H52:BO52 J48:BO49 K50:BO50 L53:BO55 L66:BO67 N51:BO51 H46:BO47 Z64:AL64 AA22:BO28 H85:BO86 X84:BO84 H56:BO56 AA16:BO19 Y57:BO57 H58:BO62 AF31:BO32 AF36:BO36 AH34:BO34 AO33:BO33 AR35:BO35 H74:AF74 AF72:BO73 AF77:BO77 H39:BO41 X42:BO43 H29:BO30 H68:BO71 H5:BO6 AR37:BO38 H76:AE76 H75:AD75 AH33:AJ33 AG76:BO76 AH74:AI74 AL74:BO74 AG75:AJ75 AM75:BO75 H78:AL78 H80:BO83 H79:AK79 AK38:AQ38 AN78:BO79 AN64:BO64 H37:AQ37">
+    <cfRule type="expression" dxfId="375" priority="989" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="978" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="990" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="979" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="991" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="980" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="992" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:J21">
-    <cfRule type="expression" dxfId="363" priority="945" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="957" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="946" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="958" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="947" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="959" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="948" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="960" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="359" priority="469" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="481" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="482" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="483" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="484" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="355" priority="429" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="441" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="442" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="443" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="444" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="351" priority="441" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="453" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="454" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="455" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="456" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
+    <cfRule type="expression" dxfId="355" priority="469" stopIfTrue="1">
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="354" priority="470" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="353" priority="471" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="472" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="expression" dxfId="351" priority="465" stopIfTrue="1">
+      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="350" priority="466" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="349" priority="467" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="348" priority="468" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
     <cfRule type="expression" dxfId="347" priority="457" stopIfTrue="1">
-      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="346" priority="458" operator="equal">
       <formula>1</formula>
@@ -11693,49 +11807,49 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="343" priority="453" stopIfTrue="1">
-      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="454" operator="equal">
+  <conditionalFormatting sqref="J8">
+    <cfRule type="expression" dxfId="343" priority="421" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="342" priority="422" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="423" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="456" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="339" priority="445" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="446" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="447" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="448" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="335" priority="409" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="410" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="411" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="424" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
+    <cfRule type="expression" dxfId="339" priority="449" stopIfTrue="1">
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="338" priority="450" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="451" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="336" priority="452" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43:H45">
+    <cfRule type="expression" dxfId="335" priority="413" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="414" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="333" priority="415" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="332" priority="416" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
     <cfRule type="expression" dxfId="331" priority="437" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -11749,23 +11863,23 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43:H45">
-    <cfRule type="expression" dxfId="327" priority="401" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="402" operator="equal">
+  <conditionalFormatting sqref="P10:Q10 S10">
+    <cfRule type="expression" dxfId="327" priority="429" stopIfTrue="1">
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="430" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="431" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="432" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
+  <conditionalFormatting sqref="V11:X11">
     <cfRule type="expression" dxfId="323" priority="425" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="322" priority="426" operator="equal">
       <formula>1</formula>
@@ -11777,163 +11891,163 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P10:Q10 S10">
-    <cfRule type="expression" dxfId="319" priority="417" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="418" operator="equal">
+  <conditionalFormatting sqref="V12">
+    <cfRule type="expression" dxfId="319" priority="369" stopIfTrue="1">
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="318" priority="370" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="371" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="420" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="315" priority="413" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="414" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="415" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="416" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="311" priority="357" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="358" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="359" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="372" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="307" priority="333" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="345" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="346" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="347" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="348" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y22 Y24:Y25">
-    <cfRule type="expression" dxfId="303" priority="381" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="393" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="394" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="395" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="396" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z22:Z25">
-    <cfRule type="expression" dxfId="299" priority="377" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="389" stopIfTrue="1">
       <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="390" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="391" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="392" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="expression" dxfId="295" priority="373" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="385" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="386" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="387" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="388" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="291" priority="369" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="381" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="382" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="383" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="384" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="expression" dxfId="287" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="365" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="366" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="367" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="368" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
-    <cfRule type="expression" dxfId="283" priority="349" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="361" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="362" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="363" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="364" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X15">
-    <cfRule type="expression" dxfId="279" priority="345" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="357" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="358" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="359" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="360" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13:W19">
+    <cfRule type="expression" dxfId="283" priority="353" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="354" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="281" priority="355" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="356" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V13:V19">
+    <cfRule type="expression" dxfId="279" priority="349" stopIfTrue="1">
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="350" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="351" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="352" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:H25">
     <cfRule type="expression" dxfId="275" priority="341" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="274" priority="342" operator="equal">
       <formula>1</formula>
@@ -11945,49 +12059,49 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V13:V19">
-    <cfRule type="expression" dxfId="271" priority="337" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="338" operator="equal">
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="271" priority="329" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="330" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="331" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="340" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H25">
-    <cfRule type="expression" dxfId="267" priority="329" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="330" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="331" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="332" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="263" priority="317" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="318" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="319" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="332" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
+    <cfRule type="expression" dxfId="267" priority="333" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="334" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="335" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="336" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="expression" dxfId="263" priority="325" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="326" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="327" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="328" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
     <cfRule type="expression" dxfId="259" priority="321" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12001,289 +12115,289 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
-    <cfRule type="expression" dxfId="255" priority="313" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="314" operator="equal">
+  <conditionalFormatting sqref="N9">
+    <cfRule type="expression" dxfId="255" priority="317" stopIfTrue="1">
+      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="318" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="319" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="316" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="251" priority="309" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="310" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="311" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="312" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
-    <cfRule type="expression" dxfId="247" priority="305" stopIfTrue="1">
-      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="306" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="307" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="320" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="243" priority="301" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="313" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="314" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="315" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="316" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="239" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="309" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="310" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="311" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="312" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="expression" dxfId="235" priority="293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="305" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="306" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="307" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="308" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="expression" dxfId="231" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="301" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="302" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="303" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="304" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55">
-    <cfRule type="expression" dxfId="227" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="297" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="298" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="299" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="300" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="expression" dxfId="223" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="293" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="294" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="295" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="296" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K67">
-    <cfRule type="expression" dxfId="219" priority="277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="289" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="290" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="291" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="292" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66">
-    <cfRule type="expression" dxfId="215" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="285" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="286" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="287" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="288" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51">
-    <cfRule type="expression" dxfId="211" priority="269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="281" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="282" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="283" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="284" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="207" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="277" stopIfTrue="1">
       <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="278" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="279" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="280" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
-    <cfRule type="expression" dxfId="203" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="273" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="274" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="275" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="276" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23">
-    <cfRule type="expression" dxfId="199" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="269" stopIfTrue="1">
       <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="270" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="271" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="272" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23">
-    <cfRule type="expression" dxfId="195" priority="253" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="265" stopIfTrue="1">
       <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="266" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="267" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="268" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="expression" dxfId="191" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="261" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="262" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="263" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="264" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O64">
-    <cfRule type="expression" dxfId="187" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="257" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="258" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="259" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="260" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P64">
-    <cfRule type="expression" dxfId="183" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="253" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="254" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="255" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="256" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M51">
-    <cfRule type="expression" dxfId="179" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="249" stopIfTrue="1">
       <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="250" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="251" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="252" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q64">
+    <cfRule type="expression" dxfId="183" priority="245" stopIfTrue="1">
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="246" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="247" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="248" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S64">
+    <cfRule type="expression" dxfId="179" priority="241" stopIfTrue="1">
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="242" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="243" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="244" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V64">
     <cfRule type="expression" dxfId="175" priority="233" stopIfTrue="1">
-      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="174" priority="234" operator="equal">
       <formula>1</formula>
@@ -12295,9 +12409,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S64">
+  <conditionalFormatting sqref="U64">
     <cfRule type="expression" dxfId="171" priority="229" stopIfTrue="1">
-      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="170" priority="230" operator="equal">
       <formula>1</formula>
@@ -12309,9 +12423,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V64">
+  <conditionalFormatting sqref="H42:V42">
     <cfRule type="expression" dxfId="167" priority="221" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="166" priority="222" operator="equal">
       <formula>1</formula>
@@ -12323,541 +12437,555 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U64">
-    <cfRule type="expression" dxfId="163" priority="217" stopIfTrue="1">
-      <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="218" operator="equal">
+  <conditionalFormatting sqref="V84">
+    <cfRule type="expression" dxfId="163" priority="201" stopIfTrue="1">
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="203" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="220" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42:V42">
-    <cfRule type="expression" dxfId="159" priority="209" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="210" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="211" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="212" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V84">
-    <cfRule type="expression" dxfId="155" priority="189" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="190" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="191" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="204" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42">
-    <cfRule type="expression" dxfId="151" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="189" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="190" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="191" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="192" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23">
-    <cfRule type="expression" dxfId="147" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="185" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="187" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="188" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W43">
-    <cfRule type="expression" dxfId="143" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="181" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="182" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="183" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="184" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W64">
-    <cfRule type="expression" dxfId="139" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="177" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="178" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="179" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="180" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W84">
-    <cfRule type="expression" dxfId="135" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="173" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="175" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="176" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16:X19">
-    <cfRule type="expression" dxfId="131" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="169" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="170" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="171" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="172" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y16:Y19">
-    <cfRule type="expression" dxfId="127" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="165" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="166" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="167" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="168" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z16:Z19">
-    <cfRule type="expression" dxfId="123" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="161" stopIfTrue="1">
       <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="162" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="163" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="164" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X57">
-    <cfRule type="expression" dxfId="119" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="157" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="158" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="159" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="160" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X64">
-    <cfRule type="expression" dxfId="115" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="153" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="154" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="155" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="156" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="expression" dxfId="111" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="149" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="150" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="151" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="152" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y64">
-    <cfRule type="expression" dxfId="107" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="145" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="146" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="147" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="148" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE32">
-    <cfRule type="expression" dxfId="103" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="133" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="134" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="135" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="136" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE31">
-    <cfRule type="expression" dxfId="99" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="129" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="130" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="131" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="132" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE36">
-    <cfRule type="expression" dxfId="95" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="125" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="126" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="127" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="128" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF34">
-    <cfRule type="expression" dxfId="91" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="121" stopIfTrue="1">
       <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="122" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="123" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="124" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG34">
-    <cfRule type="expression" dxfId="87" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="117" stopIfTrue="1">
       <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="119" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="120" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ38">
-    <cfRule type="expression" dxfId="83" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="113" stopIfTrue="1">
       <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="115" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="116" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK33">
-    <cfRule type="expression" dxfId="79" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="109" stopIfTrue="1">
       <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="111" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="112" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL33">
-    <cfRule type="expression" dxfId="75" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="105" stopIfTrue="1">
       <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="107" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="108" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM33">
-    <cfRule type="expression" dxfId="71" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="101" stopIfTrue="1">
       <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="103" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="104" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN33">
-    <cfRule type="expression" dxfId="67" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="97" stopIfTrue="1">
       <formula>MATCH(AN$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="99" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="100" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ35">
-    <cfRule type="expression" dxfId="63" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="93" stopIfTrue="1">
       <formula>MATCH(AQ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="94" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="95" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="96" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE72">
-    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE73">
-    <cfRule type="expression" dxfId="55" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="61" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE77">
-    <cfRule type="expression" dxfId="51" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="57" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE75">
-    <cfRule type="expression" dxfId="47" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE34">
-    <cfRule type="expression" dxfId="43" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF75">
-    <cfRule type="expression" dxfId="39" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="45" stopIfTrue="1">
       <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG33">
-    <cfRule type="expression" dxfId="35" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
       <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF76">
-    <cfRule type="expression" dxfId="31" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
       <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG74">
-    <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
       <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ74">
-    <cfRule type="expression" dxfId="23" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
       <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK74">
-    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
       <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL75">
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
       <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL79">
+    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK75">
+    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM79">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM78">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
@@ -12869,9 +12997,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK75">
+  <conditionalFormatting sqref="AM64">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -5085,8 +5085,8 @@
   <dimension ref="A1:BO86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN39" sqref="AN39"/>
+      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AO35" sqref="AO35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7921,7 +7921,7 @@
       <c r="AL35" s="37"/>
       <c r="AM35" s="37"/>
       <c r="AN35" s="37"/>
-      <c r="AO35" s="37"/>
+      <c r="AO35" s="46"/>
       <c r="AP35" s="37"/>
       <c r="AQ35" s="19"/>
       <c r="AR35" s="37"/>
@@ -8075,7 +8075,7 @@
       <c r="AL37" s="37"/>
       <c r="AM37" s="46"/>
       <c r="AN37" s="46"/>
-      <c r="AO37" s="37"/>
+      <c r="AO37" s="46"/>
       <c r="AP37" s="37"/>
       <c r="AQ37" s="37"/>
       <c r="AR37" s="19"/>
@@ -11043,7 +11043,7 @@
         <v>72</v>
       </c>
       <c r="E78" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="17">
         <v>44259</v>
@@ -11695,7 +11695,7 @@
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I8 H9:J9 J22:X22 H48:H49 H50:I50 H11:U19 H53:J55 H66:J67 H51:K51 H10:N10 I23:O23 R23 T23:U23 X23 H64:N64 R64 T64 I24:X28 H26:H28 Y26:Z28 H84:U84 I43:V43 H57:W57 H33:AF33 H31:AD32 H36:AD36 H35:AP35 H34:AD34 H38:AI38 H72:AD73 H77:AD77 L21:BO21 H20:BO20 K7:BO7 P9:BO9 I44:BO45 L8:BO8 T10:BO10 Y11:BO15 H65:BO65 J63:BO63 H52:BO52 J48:BO49 K50:BO50 L53:BO55 L66:BO67 N51:BO51 H46:BO47 Z64:AL64 AA22:BO28 H85:BO86 X84:BO84 H56:BO56 AA16:BO19 Y57:BO57 H58:BO62 AF31:BO32 AF36:BO36 AH34:BO34 AO33:BO33 AR35:BO35 H74:AF74 AF72:BO73 AF77:BO77 H39:BO41 X42:BO43 H29:BO30 H68:BO71 H5:BO6 AR37:BO38 H76:AE76 H75:AD75 AH33:AJ33 AG76:BO76 AH74:AI74 AL74:BO74 AG75:AJ75 AM75:BO75 H78:AL78 H80:BO83 H79:AK79 AK38:AQ38 AN78:BO79 AN64:BO64 H37:AQ37">
+  <conditionalFormatting sqref="H8:I8 H9:J9 J22:X22 H48:H49 H50:I50 H11:U19 H53:J55 H66:J67 H51:K51 H10:N10 I23:O23 R23 T23:U23 X23 H64:N64 R64 T64 I24:X28 H26:H28 Y26:Z28 H84:U84 I43:V43 H57:W57 H33:AF33 H31:AD32 H36:AD36 H34:AD34 H38:AI38 H72:AD73 H77:AD77 L21:BO21 H20:BO20 K7:BO7 P9:BO9 I44:BO45 L8:BO8 T10:BO10 Y11:BO15 H65:BO65 J63:BO63 H52:BO52 J48:BO49 K50:BO50 L53:BO55 L66:BO67 N51:BO51 H46:BO47 Z64:AL64 AA22:BO28 H85:BO86 X84:BO84 H56:BO56 AA16:BO19 Y57:BO57 H58:BO62 AF31:BO32 AF36:BO36 AH34:BO34 AO33:BO33 AR35:BO35 H74:AF74 AF72:BO73 AF77:BO77 H39:BO41 X42:BO43 H29:BO30 H68:BO71 H5:BO6 AR37:BO38 H76:AE76 H75:AD75 AH33:AJ33 AG76:BO76 AH74:AI74 AL74:BO74 AG75:AJ75 AM75:BO75 H78:AL78 H80:BO83 H79:AK79 AK38:AQ38 AN78:BO79 AN64:BO64 H37:AQ37 H35:AP35">
     <cfRule type="expression" dxfId="375" priority="989" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -1031,7 +1031,47 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="378">
+  <dxfs count="382">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -5085,8 +5125,8 @@
   <dimension ref="A1:BO86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO35" sqref="AO35"/>
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AQ78" sqref="AQ78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7921,7 +7961,7 @@
       <c r="AL35" s="37"/>
       <c r="AM35" s="37"/>
       <c r="AN35" s="37"/>
-      <c r="AO35" s="46"/>
+      <c r="AO35" s="37"/>
       <c r="AP35" s="37"/>
       <c r="AQ35" s="19"/>
       <c r="AR35" s="37"/>
@@ -8075,9 +8115,9 @@
       <c r="AL37" s="37"/>
       <c r="AM37" s="46"/>
       <c r="AN37" s="46"/>
-      <c r="AO37" s="46"/>
+      <c r="AO37" s="37"/>
       <c r="AP37" s="37"/>
-      <c r="AQ37" s="37"/>
+      <c r="AQ37" s="46"/>
       <c r="AR37" s="19"/>
       <c r="AS37" s="19"/>
       <c r="AT37" s="37"/>
@@ -11043,7 +11083,7 @@
         <v>72</v>
       </c>
       <c r="E78" s="31">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="F78" s="17">
         <v>44259</v>
@@ -11084,7 +11124,7 @@
       <c r="AN78" s="20"/>
       <c r="AO78" s="20"/>
       <c r="AP78" s="20"/>
-      <c r="AQ78" s="20"/>
+      <c r="AQ78" s="39"/>
       <c r="AR78" s="20"/>
       <c r="AS78" s="20"/>
       <c r="AT78" s="20"/>
@@ -11688,86 +11728,100 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="cellIs" dxfId="377" priority="993" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="997" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="994" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="998" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I8 H9:J9 J22:X22 H48:H49 H50:I50 H11:U19 H53:J55 H66:J67 H51:K51 H10:N10 I23:O23 R23 T23:U23 X23 H64:N64 R64 T64 I24:X28 H26:H28 Y26:Z28 H84:U84 I43:V43 H57:W57 H33:AF33 H31:AD32 H36:AD36 H34:AD34 H38:AI38 H72:AD73 H77:AD77 L21:BO21 H20:BO20 K7:BO7 P9:BO9 I44:BO45 L8:BO8 T10:BO10 Y11:BO15 H65:BO65 J63:BO63 H52:BO52 J48:BO49 K50:BO50 L53:BO55 L66:BO67 N51:BO51 H46:BO47 Z64:AL64 AA22:BO28 H85:BO86 X84:BO84 H56:BO56 AA16:BO19 Y57:BO57 H58:BO62 AF31:BO32 AF36:BO36 AH34:BO34 AO33:BO33 AR35:BO35 H74:AF74 AF72:BO73 AF77:BO77 H39:BO41 X42:BO43 H29:BO30 H68:BO71 H5:BO6 AR37:BO38 H76:AE76 H75:AD75 AH33:AJ33 AG76:BO76 AH74:AI74 AL74:BO74 AG75:AJ75 AM75:BO75 H78:AL78 H80:BO83 H79:AK79 AK38:AQ38 AN78:BO79 AN64:BO64 H37:AQ37 H35:AP35">
-    <cfRule type="expression" dxfId="375" priority="989" stopIfTrue="1">
+  <conditionalFormatting sqref="H8:I8 H9:J9 J22:X22 H48:H49 H50:I50 H11:U19 H53:J55 H66:J67 H51:K51 H10:N10 I23:O23 R23 T23:U23 X23 H64:N64 R64 T64 I24:X28 H26:H28 Y26:Z28 H84:U84 I43:V43 H57:W57 H33:AF33 H31:AD32 H36:AD36 H34:AD34 H38:AI38 H72:AD73 H77:AD77 L21:BO21 H20:BO20 K7:BO7 P9:BO9 I44:BO45 L8:BO8 T10:BO10 Y11:BO15 H65:BO65 J63:BO63 H52:BO52 J48:BO49 K50:BO50 L53:BO55 L66:BO67 N51:BO51 H46:BO47 Z64:AL64 AA22:BO28 H85:BO86 X84:BO84 H56:BO56 AA16:BO19 Y57:BO57 H58:BO62 AF31:BO32 AF36:BO36 AH34:BO34 AO33:BO33 AR35:BO35 H74:AF74 AF72:BO73 AF77:BO77 H39:BO41 X42:BO43 H29:BO30 H68:BO71 H5:BO6 AR37:BO38 H76:AE76 H75:AD75 AH33:AJ33 AG76:BO76 AH74:AI74 AL74:BO74 AG75:AJ75 AM75:BO75 H78:AL78 H80:BO83 H79:AK79 AK38:AQ38 AN79:BO79 AN64:BO64 H35:AP35 H37:AQ37 AN78:AP78 AR78:BO78">
+    <cfRule type="expression" dxfId="379" priority="993" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="990" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="994" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="991" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="995" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="992" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="996" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:J21">
-    <cfRule type="expression" dxfId="371" priority="957" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="961" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="958" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="962" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="959" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="963" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="960" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="964" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="367" priority="481" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="485" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="482" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="486" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="483" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="487" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="484" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="488" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="363" priority="441" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="445" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="446" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="447" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="448" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="359" priority="453" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="457" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="458" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="459" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="460" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
+    <cfRule type="expression" dxfId="359" priority="473" stopIfTrue="1">
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="474" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="357" priority="475" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="356" priority="476" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
     <cfRule type="expression" dxfId="355" priority="469" stopIfTrue="1">
-      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="354" priority="470" operator="equal">
       <formula>1</formula>
@@ -11779,93 +11833,93 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="351" priority="465" stopIfTrue="1">
-      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="466" operator="equal">
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="351" priority="461" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="350" priority="462" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="463" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="468" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="347" priority="457" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="458" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="459" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="464" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="343" priority="421" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="425" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="426" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="427" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="428" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="339" priority="449" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="453" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="454" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="455" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="456" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:H45">
-    <cfRule type="expression" dxfId="335" priority="413" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="417" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="418" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="419" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="420" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="331" priority="437" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="441" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="442" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="443" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="444" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:Q10 S10">
+    <cfRule type="expression" dxfId="331" priority="433" stopIfTrue="1">
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="434" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="329" priority="435" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="436" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V11:X11">
     <cfRule type="expression" dxfId="327" priority="429" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="326" priority="430" operator="equal">
       <formula>1</formula>
@@ -11877,51 +11931,51 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="323" priority="425" stopIfTrue="1">
+  <conditionalFormatting sqref="V12">
+    <cfRule type="expression" dxfId="323" priority="373" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="374" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="375" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="428" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="319" priority="369" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="370" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="371" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="376" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="315" priority="345" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="349" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="350" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="351" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="352" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y22 Y24:Y25">
+    <cfRule type="expression" dxfId="315" priority="397" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="314" priority="398" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="399" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="400" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z22:Z25">
     <cfRule type="expression" dxfId="311" priority="393" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="310" priority="394" operator="equal">
       <formula>1</formula>
@@ -11933,9 +11987,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z22:Z25">
+  <conditionalFormatting sqref="H63">
     <cfRule type="expression" dxfId="307" priority="389" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="306" priority="390" operator="equal">
       <formula>1</formula>
@@ -11947,7 +12001,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
+  <conditionalFormatting sqref="H22">
     <cfRule type="expression" dxfId="303" priority="385" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -11961,23 +12015,23 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="299" priority="381" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="382" operator="equal">
+  <conditionalFormatting sqref="W12">
+    <cfRule type="expression" dxfId="299" priority="369" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="370" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="371" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="372" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W12">
+  <conditionalFormatting sqref="X12">
     <cfRule type="expression" dxfId="295" priority="365" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="294" priority="366" operator="equal">
       <formula>1</formula>
@@ -11989,7 +12043,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X12">
+  <conditionalFormatting sqref="X13:X15">
     <cfRule type="expression" dxfId="291" priority="361" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12003,9 +12057,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X13:X15">
+  <conditionalFormatting sqref="W13:W19">
     <cfRule type="expression" dxfId="287" priority="357" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="286" priority="358" operator="equal">
       <formula>1</formula>
@@ -12017,9 +12071,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13:W19">
+  <conditionalFormatting sqref="V13:V19">
     <cfRule type="expression" dxfId="283" priority="353" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="282" priority="354" operator="equal">
       <formula>1</formula>
@@ -12031,63 +12085,63 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V13:V19">
-    <cfRule type="expression" dxfId="279" priority="349" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="350" operator="equal">
+  <conditionalFormatting sqref="H24:H25">
+    <cfRule type="expression" dxfId="279" priority="345" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="346" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="347" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="352" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H25">
-    <cfRule type="expression" dxfId="275" priority="341" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="342" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="343" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="348" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="271" priority="329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="333" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="334" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="335" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="336" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="267" priority="333" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="337" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="338" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="339" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="340" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
+    <cfRule type="expression" dxfId="267" priority="329" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="330" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="331" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="332" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
     <cfRule type="expression" dxfId="263" priority="325" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12101,9 +12155,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
+  <conditionalFormatting sqref="N9">
     <cfRule type="expression" dxfId="259" priority="321" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="258" priority="322" operator="equal">
       <formula>1</formula>
@@ -12115,9 +12169,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="O9">
     <cfRule type="expression" dxfId="255" priority="317" stopIfTrue="1">
-      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="254" priority="318" operator="equal">
       <formula>1</formula>
@@ -12129,7 +12183,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
+  <conditionalFormatting sqref="O10">
     <cfRule type="expression" dxfId="251" priority="313" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12143,9 +12197,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
+  <conditionalFormatting sqref="J50">
     <cfRule type="expression" dxfId="247" priority="309" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="246" priority="310" operator="equal">
       <formula>1</formula>
@@ -12157,9 +12211,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
+  <conditionalFormatting sqref="K54">
     <cfRule type="expression" dxfId="243" priority="305" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="242" priority="306" operator="equal">
       <formula>1</formula>
@@ -12171,7 +12225,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
+  <conditionalFormatting sqref="K55">
     <cfRule type="expression" dxfId="239" priority="301" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12185,7 +12239,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55">
+  <conditionalFormatting sqref="K53">
     <cfRule type="expression" dxfId="235" priority="297" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12199,7 +12253,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
+  <conditionalFormatting sqref="K67">
     <cfRule type="expression" dxfId="231" priority="293" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12213,7 +12267,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K67">
+  <conditionalFormatting sqref="K66">
     <cfRule type="expression" dxfId="227" priority="289" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12227,9 +12281,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66">
+  <conditionalFormatting sqref="L51">
     <cfRule type="expression" dxfId="223" priority="285" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="222" priority="286" operator="equal">
       <formula>1</formula>
@@ -12241,9 +12295,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
+  <conditionalFormatting sqref="R10">
     <cfRule type="expression" dxfId="219" priority="281" stopIfTrue="1">
-      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="218" priority="282" operator="equal">
       <formula>1</formula>
@@ -12255,9 +12309,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
+  <conditionalFormatting sqref="P23">
     <cfRule type="expression" dxfId="215" priority="277" stopIfTrue="1">
-      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="214" priority="278" operator="equal">
       <formula>1</formula>
@@ -12269,9 +12323,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P23">
+  <conditionalFormatting sqref="Q23">
     <cfRule type="expression" dxfId="211" priority="273" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="210" priority="274" operator="equal">
       <formula>1</formula>
@@ -12283,9 +12337,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
+  <conditionalFormatting sqref="S23">
     <cfRule type="expression" dxfId="207" priority="269" stopIfTrue="1">
-      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="206" priority="270" operator="equal">
       <formula>1</formula>
@@ -12297,9 +12351,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S23">
+  <conditionalFormatting sqref="V23">
     <cfRule type="expression" dxfId="203" priority="265" stopIfTrue="1">
-      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="202" priority="266" operator="equal">
       <formula>1</formula>
@@ -12311,9 +12365,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V23">
+  <conditionalFormatting sqref="O64">
     <cfRule type="expression" dxfId="199" priority="261" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="198" priority="262" operator="equal">
       <formula>1</formula>
@@ -12325,9 +12379,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O64">
+  <conditionalFormatting sqref="P64">
     <cfRule type="expression" dxfId="195" priority="257" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="194" priority="258" operator="equal">
       <formula>1</formula>
@@ -12339,9 +12393,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P64">
+  <conditionalFormatting sqref="M51">
     <cfRule type="expression" dxfId="191" priority="253" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="190" priority="254" operator="equal">
       <formula>1</formula>
@@ -12353,9 +12407,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M51">
+  <conditionalFormatting sqref="Q64">
     <cfRule type="expression" dxfId="187" priority="249" stopIfTrue="1">
-      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="186" priority="250" operator="equal">
       <formula>1</formula>
@@ -12367,9 +12421,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q64">
+  <conditionalFormatting sqref="S64">
     <cfRule type="expression" dxfId="183" priority="245" stopIfTrue="1">
-      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="182" priority="246" operator="equal">
       <formula>1</formula>
@@ -12381,23 +12435,23 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S64">
-    <cfRule type="expression" dxfId="179" priority="241" stopIfTrue="1">
-      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="242" operator="equal">
+  <conditionalFormatting sqref="V64">
+    <cfRule type="expression" dxfId="179" priority="237" stopIfTrue="1">
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="238" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="239" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="240" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V64">
+  <conditionalFormatting sqref="U64">
     <cfRule type="expression" dxfId="175" priority="233" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="174" priority="234" operator="equal">
       <formula>1</formula>
@@ -12409,49 +12463,49 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U64">
-    <cfRule type="expression" dxfId="171" priority="229" stopIfTrue="1">
-      <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="230" operator="equal">
+  <conditionalFormatting sqref="H42:V42">
+    <cfRule type="expression" dxfId="171" priority="225" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="226" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="227" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="232" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42:V42">
-    <cfRule type="expression" dxfId="167" priority="221" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="222" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="223" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="228" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V84">
-    <cfRule type="expression" dxfId="163" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="205" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="206" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="207" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="208" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42">
+    <cfRule type="expression" dxfId="163" priority="193" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="194" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="195" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="196" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W23">
     <cfRule type="expression" dxfId="159" priority="189" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12465,7 +12519,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W23">
+  <conditionalFormatting sqref="W43">
     <cfRule type="expression" dxfId="155" priority="185" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12479,7 +12533,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W43">
+  <conditionalFormatting sqref="W64">
     <cfRule type="expression" dxfId="151" priority="181" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12493,7 +12547,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W64">
+  <conditionalFormatting sqref="W84">
     <cfRule type="expression" dxfId="147" priority="177" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12507,9 +12561,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W84">
+  <conditionalFormatting sqref="X16:X19">
     <cfRule type="expression" dxfId="143" priority="173" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="142" priority="174" operator="equal">
       <formula>1</formula>
@@ -12521,9 +12575,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X16:X19">
+  <conditionalFormatting sqref="Y16:Y19">
     <cfRule type="expression" dxfId="139" priority="169" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="138" priority="170" operator="equal">
       <formula>1</formula>
@@ -12535,9 +12589,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y16:Y19">
+  <conditionalFormatting sqref="Z16:Z19">
     <cfRule type="expression" dxfId="135" priority="165" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="134" priority="166" operator="equal">
       <formula>1</formula>
@@ -12549,9 +12603,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z16:Z19">
+  <conditionalFormatting sqref="X57">
     <cfRule type="expression" dxfId="131" priority="161" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="130" priority="162" operator="equal">
       <formula>1</formula>
@@ -12563,7 +12617,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X57">
+  <conditionalFormatting sqref="X64">
     <cfRule type="expression" dxfId="127" priority="157" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12577,9 +12631,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X64">
+  <conditionalFormatting sqref="Y23">
     <cfRule type="expression" dxfId="123" priority="153" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="122" priority="154" operator="equal">
       <formula>1</formula>
@@ -12591,7 +12645,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y23">
+  <conditionalFormatting sqref="Y64">
     <cfRule type="expression" dxfId="119" priority="149" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12605,21 +12659,21 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y64">
-    <cfRule type="expression" dxfId="115" priority="145" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="146" operator="equal">
+  <conditionalFormatting sqref="AE32">
+    <cfRule type="expression" dxfId="115" priority="137" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="138" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="139" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="140" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE32">
+  <conditionalFormatting sqref="AE31">
     <cfRule type="expression" dxfId="111" priority="133" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12633,7 +12687,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
+  <conditionalFormatting sqref="AE36">
     <cfRule type="expression" dxfId="107" priority="129" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12647,9 +12701,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE36">
+  <conditionalFormatting sqref="AF34">
     <cfRule type="expression" dxfId="103" priority="125" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="102" priority="126" operator="equal">
       <formula>1</formula>
@@ -12661,9 +12715,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF34">
+  <conditionalFormatting sqref="AG34">
     <cfRule type="expression" dxfId="99" priority="121" stopIfTrue="1">
-      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="98" priority="122" operator="equal">
       <formula>1</formula>
@@ -12675,9 +12729,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG34">
+  <conditionalFormatting sqref="AJ38">
     <cfRule type="expression" dxfId="95" priority="117" stopIfTrue="1">
-      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="94" priority="118" operator="equal">
       <formula>1</formula>
@@ -12689,9 +12743,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ38">
+  <conditionalFormatting sqref="AK33">
     <cfRule type="expression" dxfId="91" priority="113" stopIfTrue="1">
-      <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="90" priority="114" operator="equal">
       <formula>1</formula>
@@ -12703,9 +12757,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK33">
+  <conditionalFormatting sqref="AL33">
     <cfRule type="expression" dxfId="87" priority="109" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="86" priority="110" operator="equal">
       <formula>1</formula>
@@ -12717,9 +12771,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL33">
+  <conditionalFormatting sqref="AM33">
     <cfRule type="expression" dxfId="83" priority="105" stopIfTrue="1">
-      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="82" priority="106" operator="equal">
       <formula>1</formula>
@@ -12731,9 +12785,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM33">
+  <conditionalFormatting sqref="AN33">
     <cfRule type="expression" dxfId="79" priority="101" stopIfTrue="1">
-      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AN$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="78" priority="102" operator="equal">
       <formula>1</formula>
@@ -12745,9 +12799,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN33">
+  <conditionalFormatting sqref="AQ35">
     <cfRule type="expression" dxfId="75" priority="97" stopIfTrue="1">
-      <formula>MATCH(AN$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AQ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="74" priority="98" operator="equal">
       <formula>1</formula>
@@ -12759,21 +12813,21 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ35">
-    <cfRule type="expression" dxfId="71" priority="93" stopIfTrue="1">
-      <formula>MATCH(AQ$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="94" operator="equal">
+  <conditionalFormatting sqref="AE72">
+    <cfRule type="expression" dxfId="71" priority="69" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE72">
+  <conditionalFormatting sqref="AE73">
     <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12787,7 +12841,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE73">
+  <conditionalFormatting sqref="AE77">
     <cfRule type="expression" dxfId="63" priority="61" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12801,7 +12855,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE77">
+  <conditionalFormatting sqref="AE75">
     <cfRule type="expression" dxfId="59" priority="57" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12815,7 +12869,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE75">
+  <conditionalFormatting sqref="AE34">
     <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12829,9 +12883,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE34">
+  <conditionalFormatting sqref="AF75">
     <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
       <formula>1</formula>
@@ -12843,9 +12897,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF75">
+  <conditionalFormatting sqref="AG33">
     <cfRule type="expression" dxfId="47" priority="45" stopIfTrue="1">
-      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>1</formula>
@@ -12857,9 +12911,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG33">
+  <conditionalFormatting sqref="AF76">
     <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
-      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>1</formula>
@@ -12871,9 +12925,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF76">
+  <conditionalFormatting sqref="AG74">
     <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
-      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>1</formula>
@@ -12885,9 +12939,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG74">
+  <conditionalFormatting sqref="AJ74">
     <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
-      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>1</formula>
@@ -12899,9 +12953,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ74">
+  <conditionalFormatting sqref="AK74">
     <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
-      <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>1</formula>
@@ -12913,9 +12967,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK74">
+  <conditionalFormatting sqref="AL75">
     <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>1</formula>
@@ -12927,7 +12981,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL75">
+  <conditionalFormatting sqref="AL79">
     <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
       <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12941,9 +12995,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL79">
+  <conditionalFormatting sqref="AK75">
     <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
-      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>1</formula>
@@ -12955,9 +13009,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK75">
+  <conditionalFormatting sqref="AM79">
     <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
@@ -12969,7 +13023,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM79">
+  <conditionalFormatting sqref="AM78">
     <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12983,7 +13037,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM78">
+  <conditionalFormatting sqref="AM64">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12997,9 +13051,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM64">
+  <conditionalFormatting sqref="AQ78">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AQ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
   <si>
     <t>aya</t>
     <phoneticPr fontId="4"/>
@@ -415,24 +415,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>10.radioButton</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>4.0h</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>11.バトルログとキャラクター表示を合わせる</t>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>12.0h</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -514,6 +496,16 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>10.バトルログとキャラクター表示を合わせる</t>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1031,7 +1023,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="382">
+  <dxfs count="358">
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -2314,6 +2306,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.59996337778862885"/>
       </font>
       <fill>
@@ -2514,6 +2546,86 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.59996337778862885"/>
       </font>
       <fill>
@@ -2554,6 +2666,206 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFE6B8B7"/>
       </font>
       <fill>
@@ -2754,6 +3066,286 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFE6B8B7"/>
       </font>
       <fill>
@@ -2794,6 +3386,86 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.59996337778862885"/>
       </font>
       <fill>
@@ -2909,926 +3581,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5122,11 +4874,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO86"/>
+  <dimension ref="A1:BO84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ78" sqref="AQ78"/>
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6514,17 +6266,13 @@
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="17">
-        <v>44244</v>
-      </c>
-      <c r="G16" s="18">
-        <v>44246</v>
-      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
@@ -6541,7 +6289,7 @@
       <c r="U16" s="20"/>
       <c r="V16" s="37"/>
       <c r="W16" s="37"/>
-      <c r="X16" s="40"/>
+      <c r="X16" s="42"/>
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
       <c r="AA16" s="20"/>
@@ -6590,12 +6338,8 @@
       <c r="A17" s="14"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>64</v>
-      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
       <c r="H17" s="20"/>
@@ -6663,7 +6407,7 @@
       <c r="A18" s="14"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="38"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
       <c r="G18" s="18"/>
@@ -6730,9 +6474,11 @@
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="43"/>
+      <c r="B19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
       <c r="G19" s="18"/>
@@ -6750,11 +6496,11 @@
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
       <c r="AC19" s="20"/>
@@ -6799,11 +6545,11 @@
     </row>
     <row r="20" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
-      <c r="B20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="21"/>
       <c r="E20" s="16"/>
       <c r="F20" s="17"/>
       <c r="G20" s="18"/>
@@ -6870,15 +6616,21 @@
     </row>
     <row r="21" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="20"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="17">
+        <v>44228</v>
+      </c>
+      <c r="G21" s="18">
+        <v>44228</v>
+      </c>
+      <c r="H21" s="19"/>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -6895,8 +6647,8 @@
       <c r="V21" s="20"/>
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
       <c r="AC21" s="20"/>
@@ -6941,97 +6693,91 @@
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="17">
-        <v>44228</v>
-      </c>
-      <c r="G22" s="18">
-        <v>44228</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="35">
+        <v>44235</v>
+      </c>
+      <c r="G22" s="36">
+        <v>44242</v>
+      </c>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
       <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="37"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="40"/>
       <c r="Z22" s="37"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="20"/>
-      <c r="AI22" s="20"/>
-      <c r="AJ22" s="20"/>
-      <c r="AK22" s="20"/>
-      <c r="AL22" s="20"/>
-      <c r="AM22" s="20"/>
-      <c r="AN22" s="20"/>
-      <c r="AO22" s="20"/>
-      <c r="AP22" s="20"/>
-      <c r="AQ22" s="20"/>
-      <c r="AR22" s="20"/>
-      <c r="AS22" s="20"/>
-      <c r="AT22" s="20"/>
-      <c r="AU22" s="20"/>
-      <c r="AV22" s="20"/>
-      <c r="AW22" s="20"/>
-      <c r="AX22" s="20"/>
-      <c r="AY22" s="20"/>
-      <c r="AZ22" s="20"/>
-      <c r="BA22" s="20"/>
-      <c r="BB22" s="20"/>
-      <c r="BC22" s="20"/>
-      <c r="BD22" s="20"/>
-      <c r="BE22" s="20"/>
-      <c r="BF22" s="20"/>
-      <c r="BG22" s="20"/>
-      <c r="BH22" s="20"/>
-      <c r="BI22" s="20"/>
-      <c r="BJ22" s="20"/>
-      <c r="BK22" s="20"/>
-      <c r="BL22" s="20"/>
-      <c r="BM22" s="20"/>
-      <c r="BN22" s="20"/>
-      <c r="BO22" s="20"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="37"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="37"/>
+      <c r="AI22" s="37"/>
+      <c r="AJ22" s="37"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="37"/>
+      <c r="AM22" s="37"/>
+      <c r="AN22" s="37"/>
+      <c r="AO22" s="37"/>
+      <c r="AP22" s="37"/>
+      <c r="AQ22" s="37"/>
+      <c r="AR22" s="37"/>
+      <c r="AS22" s="37"/>
+      <c r="AT22" s="37"/>
+      <c r="AU22" s="37"/>
+      <c r="AV22" s="37"/>
+      <c r="AW22" s="37"/>
+      <c r="AX22" s="37"/>
+      <c r="AY22" s="37"/>
+      <c r="AZ22" s="37"/>
+      <c r="BA22" s="37"/>
+      <c r="BB22" s="37"/>
+      <c r="BC22" s="37"/>
+      <c r="BD22" s="37"/>
+      <c r="BE22" s="37"/>
+      <c r="BF22" s="37"/>
+      <c r="BG22" s="37"/>
+      <c r="BH22" s="37"/>
+      <c r="BI22" s="37"/>
+      <c r="BJ22" s="37"/>
+      <c r="BK22" s="37"/>
+      <c r="BL22" s="37"/>
+      <c r="BM22" s="37"/>
+      <c r="BN22" s="37"/>
+      <c r="BO22" s="37"/>
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="35">
-        <v>44235</v>
-      </c>
-      <c r="G23" s="36">
-        <v>44242</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
@@ -7039,17 +6785,17 @@
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
       <c r="N23" s="20"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
       <c r="R23" s="37"/>
-      <c r="S23" s="19"/>
+      <c r="S23" s="37"/>
       <c r="T23" s="37"/>
       <c r="U23" s="37"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="40"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
       <c r="X23" s="37"/>
-      <c r="Y23" s="40"/>
+      <c r="Y23" s="37"/>
       <c r="Z23" s="37"/>
       <c r="AA23" s="37"/>
       <c r="AB23" s="37"/>
@@ -7097,16 +6843,22 @@
       <c r="A24" s="14"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
-      <c r="D24" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
+      <c r="D24" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="35">
+        <v>44231</v>
+      </c>
+      <c r="G24" s="36">
+        <v>44233</v>
+      </c>
       <c r="H24" s="37"/>
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
       <c r="N24" s="20"/>
@@ -7168,11 +6920,11 @@
       <c r="A25" s="14"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
-      <c r="D25" s="38" t="s">
-        <v>45</v>
+      <c r="D25" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="35">
         <v>44231</v>
@@ -7180,7 +6932,7 @@
       <c r="G25" s="36">
         <v>44233</v>
       </c>
-      <c r="H25" s="37"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
       <c r="K25" s="40"/>
@@ -7245,22 +6997,14 @@
       <c r="A26" s="14"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
-      <c r="D26" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="35">
-        <v>44231</v>
-      </c>
-      <c r="G26" s="36">
-        <v>44233</v>
-      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="20"/>
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
-      <c r="K26" s="40"/>
+      <c r="K26" s="37"/>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
       <c r="N26" s="20"/>
@@ -7389,160 +7133,168 @@
     </row>
     <row r="28" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
+      <c r="B28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="16">
+        <v>23.25</v>
+      </c>
+      <c r="F28" s="17">
+        <v>44251</v>
+      </c>
+      <c r="G28" s="18">
+        <v>44265</v>
+      </c>
       <c r="H28" s="20"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="20"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="37"/>
-      <c r="AF28" s="37"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="37"/>
-      <c r="AK28" s="37"/>
-      <c r="AL28" s="37"/>
-      <c r="AM28" s="37"/>
-      <c r="AN28" s="37"/>
-      <c r="AO28" s="37"/>
-      <c r="AP28" s="37"/>
-      <c r="AQ28" s="37"/>
-      <c r="AR28" s="37"/>
-      <c r="AS28" s="37"/>
-      <c r="AT28" s="37"/>
-      <c r="AU28" s="37"/>
-      <c r="AV28" s="37"/>
-      <c r="AW28" s="37"/>
-      <c r="AX28" s="37"/>
-      <c r="AY28" s="37"/>
-      <c r="AZ28" s="37"/>
-      <c r="BA28" s="37"/>
-      <c r="BB28" s="37"/>
-      <c r="BC28" s="37"/>
-      <c r="BD28" s="37"/>
-      <c r="BE28" s="37"/>
-      <c r="BF28" s="37"/>
-      <c r="BG28" s="37"/>
-      <c r="BH28" s="37"/>
-      <c r="BI28" s="37"/>
-      <c r="BJ28" s="37"/>
-      <c r="BK28" s="37"/>
-      <c r="BL28" s="37"/>
-      <c r="BM28" s="37"/>
-      <c r="BN28" s="37"/>
-      <c r="BO28" s="37"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="20"/>
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="20"/>
+      <c r="AS28" s="20"/>
+      <c r="AT28" s="20"/>
+      <c r="AU28" s="20"/>
+      <c r="AV28" s="20"/>
+      <c r="AW28" s="20"/>
+      <c r="AX28" s="20"/>
+      <c r="AY28" s="20"/>
+      <c r="AZ28" s="20"/>
+      <c r="BA28" s="20"/>
+      <c r="BB28" s="20"/>
+      <c r="BC28" s="20"/>
+      <c r="BD28" s="20"/>
+      <c r="BE28" s="20"/>
+      <c r="BF28" s="20"/>
+      <c r="BG28" s="20"/>
+      <c r="BH28" s="20"/>
+      <c r="BI28" s="20"/>
+      <c r="BJ28" s="20"/>
+      <c r="BK28" s="20"/>
+      <c r="BL28" s="20"/>
+      <c r="BM28" s="20"/>
+      <c r="BN28" s="20"/>
+      <c r="BO28" s="20"/>
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A29" s="14"/>
-      <c r="B29" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16">
-        <v>23.25</v>
-      </c>
-      <c r="F29" s="17">
-        <v>44251</v>
-      </c>
-      <c r="G29" s="18">
-        <v>44265</v>
-      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
       <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="20"/>
-      <c r="AG29" s="20"/>
-      <c r="AH29" s="20"/>
-      <c r="AI29" s="20"/>
-      <c r="AJ29" s="20"/>
-      <c r="AK29" s="20"/>
-      <c r="AL29" s="20"/>
-      <c r="AM29" s="20"/>
-      <c r="AN29" s="20"/>
-      <c r="AO29" s="20"/>
-      <c r="AP29" s="20"/>
-      <c r="AQ29" s="20"/>
-      <c r="AR29" s="20"/>
-      <c r="AS29" s="20"/>
-      <c r="AT29" s="20"/>
-      <c r="AU29" s="20"/>
-      <c r="AV29" s="20"/>
-      <c r="AW29" s="20"/>
-      <c r="AX29" s="20"/>
-      <c r="AY29" s="20"/>
-      <c r="AZ29" s="20"/>
-      <c r="BA29" s="20"/>
-      <c r="BB29" s="20"/>
-      <c r="BC29" s="20"/>
-      <c r="BD29" s="20"/>
-      <c r="BE29" s="20"/>
-      <c r="BF29" s="20"/>
-      <c r="BG29" s="20"/>
-      <c r="BH29" s="20"/>
-      <c r="BI29" s="20"/>
-      <c r="BJ29" s="20"/>
-      <c r="BK29" s="20"/>
-      <c r="BL29" s="20"/>
-      <c r="BM29" s="20"/>
-      <c r="BN29" s="20"/>
-      <c r="BO29" s="20"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="37"/>
+      <c r="AM29" s="37"/>
+      <c r="AN29" s="37"/>
+      <c r="AO29" s="37"/>
+      <c r="AP29" s="37"/>
+      <c r="AQ29" s="37"/>
+      <c r="AR29" s="37"/>
+      <c r="AS29" s="37"/>
+      <c r="AT29" s="37"/>
+      <c r="AU29" s="37"/>
+      <c r="AV29" s="37"/>
+      <c r="AW29" s="37"/>
+      <c r="AX29" s="37"/>
+      <c r="AY29" s="37"/>
+      <c r="AZ29" s="37"/>
+      <c r="BA29" s="37"/>
+      <c r="BB29" s="37"/>
+      <c r="BC29" s="37"/>
+      <c r="BD29" s="37"/>
+      <c r="BE29" s="37"/>
+      <c r="BF29" s="37"/>
+      <c r="BG29" s="37"/>
+      <c r="BH29" s="37"/>
+      <c r="BI29" s="37"/>
+      <c r="BJ29" s="37"/>
+      <c r="BK29" s="37"/>
+      <c r="BL29" s="37"/>
+      <c r="BM29" s="37"/>
+      <c r="BN29" s="37"/>
+      <c r="BO29" s="37"/>
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="B30" s="26"/>
-      <c r="C30" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="34">
+        <v>1</v>
+      </c>
+      <c r="F30" s="35">
+        <v>44251</v>
+      </c>
+      <c r="G30" s="36">
+        <v>44251</v>
+      </c>
       <c r="H30" s="20"/>
       <c r="I30" s="37"/>
       <c r="J30" s="37"/>
@@ -7566,7 +7318,7 @@
       <c r="AB30" s="37"/>
       <c r="AC30" s="37"/>
       <c r="AD30" s="37"/>
-      <c r="AE30" s="37"/>
+      <c r="AE30" s="19"/>
       <c r="AF30" s="37"/>
       <c r="AG30" s="37"/>
       <c r="AH30" s="37"/>
@@ -7609,10 +7361,10 @@
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E31" s="34">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F31" s="35">
         <v>44251</v>
@@ -7686,16 +7438,16 @@
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
       <c r="D32" s="33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E32" s="34">
-        <v>0.25</v>
+        <v>8</v>
       </c>
       <c r="F32" s="35">
-        <v>44251</v>
+        <v>44257</v>
       </c>
       <c r="G32" s="36">
-        <v>44251</v>
+        <v>44260</v>
       </c>
       <c r="H32" s="20"/>
       <c r="I32" s="37"/>
@@ -7720,16 +7472,16 @@
       <c r="AB32" s="37"/>
       <c r="AC32" s="37"/>
       <c r="AD32" s="37"/>
-      <c r="AE32" s="19"/>
+      <c r="AE32" s="37"/>
       <c r="AF32" s="37"/>
-      <c r="AG32" s="37"/>
+      <c r="AG32" s="40"/>
       <c r="AH32" s="37"/>
       <c r="AI32" s="37"/>
       <c r="AJ32" s="37"/>
-      <c r="AK32" s="37"/>
-      <c r="AL32" s="37"/>
-      <c r="AM32" s="37"/>
-      <c r="AN32" s="37"/>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="19"/>
       <c r="AO32" s="37"/>
       <c r="AP32" s="37"/>
       <c r="AQ32" s="37"/>
@@ -7763,16 +7515,16 @@
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E33" s="34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F33" s="35">
-        <v>44257</v>
+        <v>44252</v>
       </c>
       <c r="G33" s="36">
-        <v>44260</v>
+        <v>44253</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="37"/>
@@ -7797,16 +7549,16 @@
       <c r="AB33" s="37"/>
       <c r="AC33" s="37"/>
       <c r="AD33" s="37"/>
-      <c r="AE33" s="37"/>
-      <c r="AF33" s="37"/>
-      <c r="AG33" s="40"/>
+      <c r="AE33" s="40"/>
+      <c r="AF33" s="19"/>
+      <c r="AG33" s="19"/>
       <c r="AH33" s="37"/>
       <c r="AI33" s="37"/>
       <c r="AJ33" s="37"/>
-      <c r="AK33" s="19"/>
-      <c r="AL33" s="19"/>
-      <c r="AM33" s="19"/>
-      <c r="AN33" s="19"/>
+      <c r="AK33" s="37"/>
+      <c r="AL33" s="37"/>
+      <c r="AM33" s="37"/>
+      <c r="AN33" s="37"/>
       <c r="AO33" s="37"/>
       <c r="AP33" s="37"/>
       <c r="AQ33" s="37"/>
@@ -7840,16 +7592,16 @@
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E34" s="34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F34" s="35">
-        <v>44252</v>
+        <v>44263</v>
       </c>
       <c r="G34" s="36">
-        <v>44253</v>
+        <v>44263</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="37"/>
@@ -7874,9 +7626,9 @@
       <c r="AB34" s="37"/>
       <c r="AC34" s="37"/>
       <c r="AD34" s="37"/>
-      <c r="AE34" s="40"/>
-      <c r="AF34" s="19"/>
-      <c r="AG34" s="19"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AG34" s="37"/>
       <c r="AH34" s="37"/>
       <c r="AI34" s="37"/>
       <c r="AJ34" s="37"/>
@@ -7886,7 +7638,7 @@
       <c r="AN34" s="37"/>
       <c r="AO34" s="37"/>
       <c r="AP34" s="37"/>
-      <c r="AQ34" s="37"/>
+      <c r="AQ34" s="19"/>
       <c r="AR34" s="37"/>
       <c r="AS34" s="37"/>
       <c r="AT34" s="37"/>
@@ -7917,16 +7669,16 @@
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E35" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="35">
-        <v>44263</v>
+        <v>44251</v>
       </c>
       <c r="G35" s="36">
-        <v>44263</v>
+        <v>44251</v>
       </c>
       <c r="H35" s="20"/>
       <c r="I35" s="37"/>
@@ -7951,7 +7703,7 @@
       <c r="AB35" s="37"/>
       <c r="AC35" s="37"/>
       <c r="AD35" s="37"/>
-      <c r="AE35" s="37"/>
+      <c r="AE35" s="19"/>
       <c r="AF35" s="37"/>
       <c r="AG35" s="37"/>
       <c r="AH35" s="37"/>
@@ -7963,7 +7715,7 @@
       <c r="AN35" s="37"/>
       <c r="AO35" s="37"/>
       <c r="AP35" s="37"/>
-      <c r="AQ35" s="19"/>
+      <c r="AQ35" s="37"/>
       <c r="AR35" s="37"/>
       <c r="AS35" s="37"/>
       <c r="AT35" s="37"/>
@@ -7994,16 +7746,16 @@
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
       <c r="D36" s="33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E36" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" s="35">
-        <v>44251</v>
+        <v>44264</v>
       </c>
       <c r="G36" s="36">
-        <v>44251</v>
+        <v>44265</v>
       </c>
       <c r="H36" s="20"/>
       <c r="I36" s="37"/>
@@ -8028,7 +7780,7 @@
       <c r="AB36" s="37"/>
       <c r="AC36" s="37"/>
       <c r="AD36" s="37"/>
-      <c r="AE36" s="19"/>
+      <c r="AE36" s="37"/>
       <c r="AF36" s="37"/>
       <c r="AG36" s="37"/>
       <c r="AH36" s="37"/>
@@ -8036,13 +7788,13 @@
       <c r="AJ36" s="37"/>
       <c r="AK36" s="37"/>
       <c r="AL36" s="37"/>
-      <c r="AM36" s="37"/>
-      <c r="AN36" s="37"/>
+      <c r="AM36" s="46"/>
+      <c r="AN36" s="46"/>
       <c r="AO36" s="37"/>
       <c r="AP36" s="37"/>
-      <c r="AQ36" s="37"/>
-      <c r="AR36" s="37"/>
-      <c r="AS36" s="37"/>
+      <c r="AQ36" s="46"/>
+      <c r="AR36" s="19"/>
+      <c r="AS36" s="19"/>
       <c r="AT36" s="37"/>
       <c r="AU36" s="37"/>
       <c r="AV36" s="37"/>
@@ -8071,16 +7823,16 @@
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
       <c r="D37" s="33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E37" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" s="35">
-        <v>44264</v>
+        <v>44256</v>
       </c>
       <c r="G37" s="36">
-        <v>44265</v>
+        <v>44256</v>
       </c>
       <c r="H37" s="20"/>
       <c r="I37" s="37"/>
@@ -8110,16 +7862,16 @@
       <c r="AG37" s="37"/>
       <c r="AH37" s="37"/>
       <c r="AI37" s="37"/>
-      <c r="AJ37" s="37"/>
+      <c r="AJ37" s="19"/>
       <c r="AK37" s="37"/>
-      <c r="AL37" s="37"/>
+      <c r="AL37" s="46"/>
       <c r="AM37" s="46"/>
-      <c r="AN37" s="46"/>
+      <c r="AN37" s="37"/>
       <c r="AO37" s="37"/>
       <c r="AP37" s="37"/>
-      <c r="AQ37" s="46"/>
-      <c r="AR37" s="19"/>
-      <c r="AS37" s="19"/>
+      <c r="AQ37" s="37"/>
+      <c r="AR37" s="37"/>
+      <c r="AS37" s="37"/>
       <c r="AT37" s="37"/>
       <c r="AU37" s="37"/>
       <c r="AV37" s="37"/>
@@ -8147,18 +7899,10 @@
       <c r="A38" s="14"/>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
-      <c r="D38" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="34">
-        <v>2</v>
-      </c>
-      <c r="F38" s="35">
-        <v>44256</v>
-      </c>
-      <c r="G38" s="36">
-        <v>44256</v>
-      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="20"/>
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
@@ -8187,10 +7931,10 @@
       <c r="AG38" s="37"/>
       <c r="AH38" s="37"/>
       <c r="AI38" s="37"/>
-      <c r="AJ38" s="19"/>
+      <c r="AJ38" s="37"/>
       <c r="AK38" s="37"/>
-      <c r="AL38" s="46"/>
-      <c r="AM38" s="46"/>
+      <c r="AL38" s="37"/>
+      <c r="AM38" s="37"/>
       <c r="AN38" s="37"/>
       <c r="AO38" s="37"/>
       <c r="AP38" s="37"/>
@@ -8291,80 +8035,82 @@
     </row>
     <row r="40" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36"/>
+      <c r="B40" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
       <c r="H40" s="20"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
       <c r="N40" s="20"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
-      <c r="AA40" s="37"/>
-      <c r="AB40" s="37"/>
-      <c r="AC40" s="37"/>
-      <c r="AD40" s="37"/>
-      <c r="AE40" s="37"/>
-      <c r="AF40" s="37"/>
-      <c r="AG40" s="37"/>
-      <c r="AH40" s="37"/>
-      <c r="AI40" s="37"/>
-      <c r="AJ40" s="37"/>
-      <c r="AK40" s="37"/>
-      <c r="AL40" s="37"/>
-      <c r="AM40" s="37"/>
-      <c r="AN40" s="37"/>
-      <c r="AO40" s="37"/>
-      <c r="AP40" s="37"/>
-      <c r="AQ40" s="37"/>
-      <c r="AR40" s="37"/>
-      <c r="AS40" s="37"/>
-      <c r="AT40" s="37"/>
-      <c r="AU40" s="37"/>
-      <c r="AV40" s="37"/>
-      <c r="AW40" s="37"/>
-      <c r="AX40" s="37"/>
-      <c r="AY40" s="37"/>
-      <c r="AZ40" s="37"/>
-      <c r="BA40" s="37"/>
-      <c r="BB40" s="37"/>
-      <c r="BC40" s="37"/>
-      <c r="BD40" s="37"/>
-      <c r="BE40" s="37"/>
-      <c r="BF40" s="37"/>
-      <c r="BG40" s="37"/>
-      <c r="BH40" s="37"/>
-      <c r="BI40" s="37"/>
-      <c r="BJ40" s="37"/>
-      <c r="BK40" s="37"/>
-      <c r="BL40" s="37"/>
-      <c r="BM40" s="37"/>
-      <c r="BN40" s="37"/>
-      <c r="BO40" s="37"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
+      <c r="AI40" s="20"/>
+      <c r="AJ40" s="20"/>
+      <c r="AK40" s="20"/>
+      <c r="AL40" s="20"/>
+      <c r="AM40" s="20"/>
+      <c r="AN40" s="20"/>
+      <c r="AO40" s="20"/>
+      <c r="AP40" s="20"/>
+      <c r="AQ40" s="20"/>
+      <c r="AR40" s="20"/>
+      <c r="AS40" s="20"/>
+      <c r="AT40" s="20"/>
+      <c r="AU40" s="20"/>
+      <c r="AV40" s="20"/>
+      <c r="AW40" s="20"/>
+      <c r="AX40" s="20"/>
+      <c r="AY40" s="20"/>
+      <c r="AZ40" s="20"/>
+      <c r="BA40" s="20"/>
+      <c r="BB40" s="20"/>
+      <c r="BC40" s="20"/>
+      <c r="BD40" s="20"/>
+      <c r="BE40" s="20"/>
+      <c r="BF40" s="20"/>
+      <c r="BG40" s="20"/>
+      <c r="BH40" s="20"/>
+      <c r="BI40" s="20"/>
+      <c r="BJ40" s="20"/>
+      <c r="BK40" s="20"/>
+      <c r="BL40" s="20"/>
+      <c r="BM40" s="20"/>
+      <c r="BN40" s="20"/>
+      <c r="BO40" s="20"/>
     </row>
     <row r="41" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
-      <c r="B41" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="21"/>
       <c r="E41" s="16"/>
       <c r="F41" s="17"/>
       <c r="G41" s="18"/>
@@ -8431,86 +8177,84 @@
     </row>
     <row r="42" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="34"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
       <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
       <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
       <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
-      <c r="AD42" s="20"/>
-      <c r="AE42" s="20"/>
-      <c r="AF42" s="20"/>
-      <c r="AG42" s="20"/>
-      <c r="AH42" s="20"/>
-      <c r="AI42" s="20"/>
-      <c r="AJ42" s="20"/>
-      <c r="AK42" s="20"/>
-      <c r="AL42" s="20"/>
-      <c r="AM42" s="20"/>
-      <c r="AN42" s="20"/>
-      <c r="AO42" s="20"/>
-      <c r="AP42" s="20"/>
-      <c r="AQ42" s="20"/>
-      <c r="AR42" s="20"/>
-      <c r="AS42" s="20"/>
-      <c r="AT42" s="20"/>
-      <c r="AU42" s="20"/>
-      <c r="AV42" s="20"/>
-      <c r="AW42" s="20"/>
-      <c r="AX42" s="20"/>
-      <c r="AY42" s="20"/>
-      <c r="AZ42" s="20"/>
-      <c r="BA42" s="20"/>
-      <c r="BB42" s="20"/>
-      <c r="BC42" s="20"/>
-      <c r="BD42" s="20"/>
-      <c r="BE42" s="20"/>
-      <c r="BF42" s="20"/>
-      <c r="BG42" s="20"/>
-      <c r="BH42" s="20"/>
-      <c r="BI42" s="20"/>
-      <c r="BJ42" s="20"/>
-      <c r="BK42" s="20"/>
-      <c r="BL42" s="20"/>
-      <c r="BM42" s="20"/>
-      <c r="BN42" s="20"/>
-      <c r="BO42" s="20"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="37"/>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="37"/>
+      <c r="AF42" s="37"/>
+      <c r="AG42" s="37"/>
+      <c r="AH42" s="37"/>
+      <c r="AI42" s="37"/>
+      <c r="AJ42" s="37"/>
+      <c r="AK42" s="37"/>
+      <c r="AL42" s="37"/>
+      <c r="AM42" s="37"/>
+      <c r="AN42" s="37"/>
+      <c r="AO42" s="37"/>
+      <c r="AP42" s="37"/>
+      <c r="AQ42" s="37"/>
+      <c r="AR42" s="37"/>
+      <c r="AS42" s="37"/>
+      <c r="AT42" s="37"/>
+      <c r="AU42" s="37"/>
+      <c r="AV42" s="37"/>
+      <c r="AW42" s="37"/>
+      <c r="AX42" s="37"/>
+      <c r="AY42" s="37"/>
+      <c r="AZ42" s="37"/>
+      <c r="BA42" s="37"/>
+      <c r="BB42" s="37"/>
+      <c r="BC42" s="37"/>
+      <c r="BD42" s="37"/>
+      <c r="BE42" s="37"/>
+      <c r="BF42" s="37"/>
+      <c r="BG42" s="37"/>
+      <c r="BH42" s="37"/>
+      <c r="BI42" s="37"/>
+      <c r="BJ42" s="37"/>
+      <c r="BK42" s="37"/>
+      <c r="BL42" s="37"/>
+      <c r="BM42" s="37"/>
+      <c r="BN42" s="37"/>
+      <c r="BO42" s="37"/>
     </row>
     <row r="43" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A43" s="14"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
-      <c r="D43" s="33" t="s">
-        <v>60</v>
-      </c>
+      <c r="D43" s="33"/>
       <c r="E43" s="34"/>
       <c r="F43" s="35"/>
       <c r="G43" s="36"/>
-      <c r="H43" s="20"/>
+      <c r="H43" s="37"/>
       <c r="I43" s="37"/>
       <c r="J43" s="37"/>
       <c r="K43" s="37"/>
@@ -8525,7 +8269,7 @@
       <c r="T43" s="37"/>
       <c r="U43" s="37"/>
       <c r="V43" s="37"/>
-      <c r="W43" s="20"/>
+      <c r="W43" s="37"/>
       <c r="X43" s="37"/>
       <c r="Y43" s="37"/>
       <c r="Z43" s="37"/>
@@ -8641,159 +8385,167 @@
       <c r="BO44" s="37"/>
     </row>
     <row r="45" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A45" s="14"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
+      <c r="A45" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
       <c r="N45" s="20"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
-      <c r="AA45" s="37"/>
-      <c r="AB45" s="37"/>
-      <c r="AC45" s="37"/>
-      <c r="AD45" s="37"/>
-      <c r="AE45" s="37"/>
-      <c r="AF45" s="37"/>
-      <c r="AG45" s="37"/>
-      <c r="AH45" s="37"/>
-      <c r="AI45" s="37"/>
-      <c r="AJ45" s="37"/>
-      <c r="AK45" s="37"/>
-      <c r="AL45" s="37"/>
-      <c r="AM45" s="37"/>
-      <c r="AN45" s="37"/>
-      <c r="AO45" s="37"/>
-      <c r="AP45" s="37"/>
-      <c r="AQ45" s="37"/>
-      <c r="AR45" s="37"/>
-      <c r="AS45" s="37"/>
-      <c r="AT45" s="37"/>
-      <c r="AU45" s="37"/>
-      <c r="AV45" s="37"/>
-      <c r="AW45" s="37"/>
-      <c r="AX45" s="37"/>
-      <c r="AY45" s="37"/>
-      <c r="AZ45" s="37"/>
-      <c r="BA45" s="37"/>
-      <c r="BB45" s="37"/>
-      <c r="BC45" s="37"/>
-      <c r="BD45" s="37"/>
-      <c r="BE45" s="37"/>
-      <c r="BF45" s="37"/>
-      <c r="BG45" s="37"/>
-      <c r="BH45" s="37"/>
-      <c r="BI45" s="37"/>
-      <c r="BJ45" s="37"/>
-      <c r="BK45" s="37"/>
-      <c r="BL45" s="37"/>
-      <c r="BM45" s="37"/>
-      <c r="BN45" s="37"/>
-      <c r="BO45" s="37"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="13"/>
+      <c r="AC45" s="13"/>
+      <c r="AD45" s="13"/>
+      <c r="AE45" s="29"/>
+      <c r="AF45" s="29"/>
+      <c r="AG45" s="29"/>
+      <c r="AH45" s="13"/>
+      <c r="AI45" s="13"/>
+      <c r="AJ45" s="13"/>
+      <c r="AK45" s="13"/>
+      <c r="AL45" s="13"/>
+      <c r="AM45" s="13"/>
+      <c r="AN45" s="13"/>
+      <c r="AO45" s="13"/>
+      <c r="AP45" s="13"/>
+      <c r="AQ45" s="13"/>
+      <c r="AR45" s="13"/>
+      <c r="AS45" s="13"/>
+      <c r="AT45" s="13"/>
+      <c r="AU45" s="13"/>
+      <c r="AV45" s="13"/>
+      <c r="AW45" s="13"/>
+      <c r="AX45" s="13"/>
+      <c r="AY45" s="13"/>
+      <c r="AZ45" s="13"/>
+      <c r="BA45" s="13"/>
+      <c r="BB45" s="13"/>
+      <c r="BC45" s="13"/>
+      <c r="BD45" s="13"/>
+      <c r="BE45" s="13"/>
+      <c r="BF45" s="13"/>
+      <c r="BG45" s="13"/>
+      <c r="BH45" s="13"/>
+      <c r="BI45" s="13"/>
+      <c r="BJ45" s="13"/>
+      <c r="BK45" s="13"/>
+      <c r="BL45" s="13"/>
+      <c r="BM45" s="13"/>
+      <c r="BN45" s="13"/>
+      <c r="BO45" s="13"/>
     </row>
     <row r="46" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A46" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
       <c r="N46" s="20"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="13"/>
-      <c r="AC46" s="13"/>
-      <c r="AD46" s="13"/>
-      <c r="AE46" s="29"/>
-      <c r="AF46" s="29"/>
-      <c r="AG46" s="29"/>
-      <c r="AH46" s="13"/>
-      <c r="AI46" s="13"/>
-      <c r="AJ46" s="13"/>
-      <c r="AK46" s="13"/>
-      <c r="AL46" s="13"/>
-      <c r="AM46" s="13"/>
-      <c r="AN46" s="13"/>
-      <c r="AO46" s="13"/>
-      <c r="AP46" s="13"/>
-      <c r="AQ46" s="13"/>
-      <c r="AR46" s="13"/>
-      <c r="AS46" s="13"/>
-      <c r="AT46" s="13"/>
-      <c r="AU46" s="13"/>
-      <c r="AV46" s="13"/>
-      <c r="AW46" s="13"/>
-      <c r="AX46" s="13"/>
-      <c r="AY46" s="13"/>
-      <c r="AZ46" s="13"/>
-      <c r="BA46" s="13"/>
-      <c r="BB46" s="13"/>
-      <c r="BC46" s="13"/>
-      <c r="BD46" s="13"/>
-      <c r="BE46" s="13"/>
-      <c r="BF46" s="13"/>
-      <c r="BG46" s="13"/>
-      <c r="BH46" s="13"/>
-      <c r="BI46" s="13"/>
-      <c r="BJ46" s="13"/>
-      <c r="BK46" s="13"/>
-      <c r="BL46" s="13"/>
-      <c r="BM46" s="13"/>
-      <c r="BN46" s="13"/>
-      <c r="BO46" s="13"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="20"/>
+      <c r="AE46" s="20"/>
+      <c r="AF46" s="20"/>
+      <c r="AG46" s="20"/>
+      <c r="AH46" s="20"/>
+      <c r="AI46" s="20"/>
+      <c r="AJ46" s="20"/>
+      <c r="AK46" s="20"/>
+      <c r="AL46" s="20"/>
+      <c r="AM46" s="20"/>
+      <c r="AN46" s="20"/>
+      <c r="AO46" s="20"/>
+      <c r="AP46" s="20"/>
+      <c r="AQ46" s="20"/>
+      <c r="AR46" s="20"/>
+      <c r="AS46" s="20"/>
+      <c r="AT46" s="20"/>
+      <c r="AU46" s="20"/>
+      <c r="AV46" s="20"/>
+      <c r="AW46" s="20"/>
+      <c r="AX46" s="20"/>
+      <c r="AY46" s="20"/>
+      <c r="AZ46" s="20"/>
+      <c r="BA46" s="20"/>
+      <c r="BB46" s="20"/>
+      <c r="BC46" s="20"/>
+      <c r="BD46" s="20"/>
+      <c r="BE46" s="20"/>
+      <c r="BF46" s="20"/>
+      <c r="BG46" s="20"/>
+      <c r="BH46" s="20"/>
+      <c r="BI46" s="20"/>
+      <c r="BJ46" s="20"/>
+      <c r="BK46" s="20"/>
+      <c r="BL46" s="20"/>
+      <c r="BM46" s="20"/>
+      <c r="BN46" s="20"/>
+      <c r="BO46" s="20"/>
     </row>
-    <row r="47" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:67" ht="30" x14ac:dyDescent="0.35">
       <c r="A47" s="30"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="18"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="F47" s="17">
+        <v>44229</v>
+      </c>
+      <c r="G47" s="18">
+        <v>44229</v>
+      </c>
       <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
+      <c r="I47" s="39"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
@@ -8853,15 +8605,15 @@
       <c r="BN47" s="20"/>
       <c r="BO47" s="20"/>
     </row>
-    <row r="48" spans="1:67" ht="30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A48" s="30"/>
       <c r="B48" s="22"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="32" t="s">
-        <v>30</v>
+      <c r="C48" s="22"/>
+      <c r="D48" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="E48" s="31">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="F48" s="17">
         <v>44229</v>
@@ -8930,25 +8682,25 @@
       <c r="BN48" s="20"/>
       <c r="BO48" s="20"/>
     </row>
-    <row r="49" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:67" ht="30" x14ac:dyDescent="0.35">
       <c r="A49" s="30"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
       <c r="D49" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E49" s="31">
-        <v>1.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F49" s="17">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="G49" s="18">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="H49" s="20"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="39"/>
       <c r="K49" s="20"/>
       <c r="L49" s="20"/>
       <c r="M49" s="20"/>
@@ -9007,28 +8759,28 @@
       <c r="BN49" s="20"/>
       <c r="BO49" s="20"/>
     </row>
-    <row r="50" spans="1:67" ht="30" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A50" s="30"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="31">
-        <v>2.2999999999999998</v>
+        <v>33</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="F50" s="17">
-        <v>44230</v>
+        <v>44232</v>
       </c>
       <c r="G50" s="18">
-        <v>44230</v>
+        <v>44233</v>
       </c>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
-      <c r="J50" s="39"/>
+      <c r="J50" s="20"/>
       <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
       <c r="N50" s="20"/>
       <c r="O50" s="20"/>
       <c r="P50" s="20"/>
@@ -9089,23 +8841,17 @@
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
       <c r="D51" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" s="17">
-        <v>44232</v>
-      </c>
-      <c r="G51" s="18">
-        <v>44233</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E51" s="31"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="18"/>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
       <c r="N51" s="20"/>
       <c r="O51" s="20"/>
       <c r="P51" s="20"/>
@@ -9163,18 +8909,24 @@
     </row>
     <row r="52" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A52" s="30"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="18"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F52" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G52" s="18">
+        <v>44231</v>
+      </c>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="39"/>
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
@@ -9237,10 +8989,10 @@
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
       <c r="D53" s="38" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E53" s="31">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F53" s="17">
         <v>44231</v>
@@ -9314,7 +9066,7 @@
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
       <c r="D54" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E54" s="31">
         <v>0.25</v>
@@ -9391,21 +9143,15 @@
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
       <c r="D55" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E55" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="F55" s="17">
-        <v>44231</v>
-      </c>
-      <c r="G55" s="18">
-        <v>44231</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E55" s="31"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="18"/>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
-      <c r="K55" s="39"/>
+      <c r="K55" s="20"/>
       <c r="L55" s="20"/>
       <c r="M55" s="20"/>
       <c r="N55" s="20"/>
@@ -9468,7 +9214,7 @@
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
       <c r="D56" s="38" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="17"/>
@@ -9538,12 +9284,8 @@
       <c r="A57" s="30"/>
       <c r="B57" s="26"/>
       <c r="C57" s="26"/>
-      <c r="D57" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" s="31">
-        <v>0.5</v>
-      </c>
+      <c r="D57" s="38"/>
+      <c r="E57" s="31"/>
       <c r="F57" s="17"/>
       <c r="G57" s="18"/>
       <c r="H57" s="20"/>
@@ -9562,7 +9304,7 @@
       <c r="U57" s="20"/>
       <c r="V57" s="20"/>
       <c r="W57" s="20"/>
-      <c r="X57" s="39"/>
+      <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
@@ -9611,9 +9353,7 @@
       <c r="A58" s="30"/>
       <c r="B58" s="26"/>
       <c r="C58" s="26"/>
-      <c r="D58" s="38" t="s">
-        <v>63</v>
-      </c>
+      <c r="D58" s="38"/>
       <c r="E58" s="31"/>
       <c r="F58" s="17"/>
       <c r="G58" s="18"/>
@@ -9680,9 +9420,11 @@
     </row>
     <row r="59" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A59" s="30"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="38"/>
+      <c r="B59" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
       <c r="E59" s="31"/>
       <c r="F59" s="17"/>
       <c r="G59" s="18"/>
@@ -9749,9 +9491,11 @@
     </row>
     <row r="60" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A60" s="30"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="38"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="21"/>
       <c r="E60" s="31"/>
       <c r="F60" s="17"/>
       <c r="G60" s="18"/>
@@ -9818,16 +9562,22 @@
     </row>
     <row r="61" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A61" s="30"/>
-      <c r="B61" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="31">
+        <v>1.45</v>
+      </c>
+      <c r="F61" s="17">
+        <v>44228</v>
+      </c>
+      <c r="G61" s="18">
+        <v>44229</v>
+      </c>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
@@ -9889,13 +9639,17 @@
     </row>
     <row r="62" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A62" s="30"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="17"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" s="31">
+        <v>11.65</v>
+      </c>
+      <c r="F62" s="17">
+        <v>44235</v>
+      </c>
       <c r="G62" s="18"/>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
@@ -9904,17 +9658,17 @@
       <c r="L62" s="20"/>
       <c r="M62" s="20"/>
       <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
       <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
+      <c r="S62" s="39"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
-      <c r="V62" s="20"/>
-      <c r="W62" s="20"/>
-      <c r="X62" s="20"/>
-      <c r="Y62" s="20"/>
+      <c r="V62" s="39"/>
+      <c r="W62" s="39"/>
+      <c r="X62" s="39"/>
+      <c r="Y62" s="39"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
@@ -9928,7 +9682,7 @@
       <c r="AJ62" s="20"/>
       <c r="AK62" s="20"/>
       <c r="AL62" s="20"/>
-      <c r="AM62" s="20"/>
+      <c r="AM62" s="39"/>
       <c r="AN62" s="20"/>
       <c r="AO62" s="20"/>
       <c r="AP62" s="20"/>
@@ -9963,19 +9717,13 @@
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
       <c r="D63" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E63" s="31">
-        <v>1.45</v>
-      </c>
-      <c r="F63" s="17">
-        <v>44228</v>
-      </c>
-      <c r="G63" s="18">
-        <v>44229</v>
-      </c>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
+        <v>41</v>
+      </c>
+      <c r="E63" s="31"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
       <c r="J63" s="20"/>
       <c r="K63" s="20"/>
       <c r="L63" s="20"/>
@@ -10039,34 +9787,36 @@
       <c r="A64" s="30"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
-      <c r="D64" s="33" t="s">
-        <v>56</v>
+      <c r="D64" s="38" t="s">
+        <v>45</v>
       </c>
       <c r="E64" s="31">
-        <v>11.65</v>
+        <v>1.4</v>
       </c>
       <c r="F64" s="17">
-        <v>44235</v>
-      </c>
-      <c r="G64" s="18"/>
+        <v>44231</v>
+      </c>
+      <c r="G64" s="18">
+        <v>44231</v>
+      </c>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
+      <c r="K64" s="39"/>
       <c r="L64" s="20"/>
       <c r="M64" s="20"/>
       <c r="N64" s="20"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="39"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
       <c r="R64" s="20"/>
-      <c r="S64" s="39"/>
+      <c r="S64" s="20"/>
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
-      <c r="V64" s="39"/>
-      <c r="W64" s="39"/>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
+      <c r="V64" s="20"/>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
@@ -10080,7 +9830,7 @@
       <c r="AJ64" s="20"/>
       <c r="AK64" s="20"/>
       <c r="AL64" s="20"/>
-      <c r="AM64" s="39"/>
+      <c r="AM64" s="20"/>
       <c r="AN64" s="20"/>
       <c r="AO64" s="20"/>
       <c r="AP64" s="20"/>
@@ -10115,15 +9865,21 @@
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
       <c r="D65" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E65" s="31"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="E65" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F65" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G65" s="18">
+        <v>44231</v>
+      </c>
       <c r="H65" s="20"/>
       <c r="I65" s="20"/>
       <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
+      <c r="K65" s="39"/>
       <c r="L65" s="20"/>
       <c r="M65" s="20"/>
       <c r="N65" s="20"/>
@@ -10185,22 +9941,14 @@
       <c r="A66" s="30"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
-      <c r="D66" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E66" s="31">
-        <v>1.4</v>
-      </c>
-      <c r="F66" s="17">
-        <v>44231</v>
-      </c>
-      <c r="G66" s="18">
-        <v>44231</v>
-      </c>
+      <c r="D66" s="23"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="18"/>
       <c r="H66" s="20"/>
       <c r="I66" s="20"/>
       <c r="J66" s="20"/>
-      <c r="K66" s="39"/>
+      <c r="K66" s="20"/>
       <c r="L66" s="20"/>
       <c r="M66" s="20"/>
       <c r="N66" s="20"/>
@@ -10262,22 +10010,14 @@
       <c r="A67" s="30"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
-      <c r="D67" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E67" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F67" s="17">
-        <v>44231</v>
-      </c>
-      <c r="G67" s="18">
-        <v>44231</v>
-      </c>
+      <c r="D67" s="23"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="18"/>
       <c r="H67" s="20"/>
       <c r="I67" s="20"/>
       <c r="J67" s="20"/>
-      <c r="K67" s="39"/>
+      <c r="K67" s="20"/>
       <c r="L67" s="20"/>
       <c r="M67" s="20"/>
       <c r="N67" s="20"/>
@@ -10337,9 +10077,11 @@
     </row>
     <row r="68" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A68" s="30"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="23"/>
+      <c r="B68" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
       <c r="E68" s="31"/>
       <c r="F68" s="17"/>
       <c r="G68" s="18"/>
@@ -10407,7 +10149,9 @@
     <row r="69" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A69" s="30"/>
       <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
+      <c r="C69" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="D69" s="23"/>
       <c r="E69" s="31"/>
       <c r="F69" s="17"/>
@@ -10475,14 +10219,20 @@
     </row>
     <row r="70" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A70" s="30"/>
-      <c r="B70" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="18"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" s="31">
+        <v>1</v>
+      </c>
+      <c r="F70" s="17">
+        <v>44251</v>
+      </c>
+      <c r="G70" s="18">
+        <v>44251</v>
+      </c>
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
       <c r="J70" s="20"/>
@@ -10506,7 +10256,7 @@
       <c r="AB70" s="20"/>
       <c r="AC70" s="20"/>
       <c r="AD70" s="20"/>
-      <c r="AE70" s="20"/>
+      <c r="AE70" s="39"/>
       <c r="AF70" s="20"/>
       <c r="AG70" s="20"/>
       <c r="AH70" s="20"/>
@@ -10547,13 +10297,19 @@
     <row r="71" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A71" s="30"/>
       <c r="B71" s="25"/>
-      <c r="C71" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D71" s="23"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="18"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="F71" s="17">
+        <v>44251</v>
+      </c>
+      <c r="G71" s="18">
+        <v>44251</v>
+      </c>
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
@@ -10577,7 +10333,7 @@
       <c r="AB71" s="20"/>
       <c r="AC71" s="20"/>
       <c r="AD71" s="20"/>
-      <c r="AE71" s="20"/>
+      <c r="AE71" s="39"/>
       <c r="AF71" s="20"/>
       <c r="AG71" s="20"/>
       <c r="AH71" s="20"/>
@@ -10620,16 +10376,16 @@
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
       <c r="D72" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E72" s="31">
-        <v>1</v>
+        <v>7.3</v>
       </c>
       <c r="F72" s="17">
-        <v>44251</v>
+        <v>44253</v>
       </c>
       <c r="G72" s="18">
-        <v>44251</v>
+        <v>44257</v>
       </c>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
@@ -10654,13 +10410,13 @@
       <c r="AB72" s="20"/>
       <c r="AC72" s="20"/>
       <c r="AD72" s="20"/>
-      <c r="AE72" s="39"/>
+      <c r="AE72" s="20"/>
       <c r="AF72" s="20"/>
-      <c r="AG72" s="20"/>
+      <c r="AG72" s="39"/>
       <c r="AH72" s="20"/>
       <c r="AI72" s="20"/>
-      <c r="AJ72" s="20"/>
-      <c r="AK72" s="20"/>
+      <c r="AJ72" s="39"/>
+      <c r="AK72" s="39"/>
       <c r="AL72" s="20"/>
       <c r="AM72" s="20"/>
       <c r="AN72" s="20"/>
@@ -10697,16 +10453,16 @@
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
       <c r="D73" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E73" s="31">
-        <v>0.2</v>
+        <v>6.8</v>
       </c>
       <c r="F73" s="17">
         <v>44251</v>
       </c>
       <c r="G73" s="18">
-        <v>44251</v>
+        <v>44258</v>
       </c>
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
@@ -10732,13 +10488,13 @@
       <c r="AC73" s="20"/>
       <c r="AD73" s="20"/>
       <c r="AE73" s="39"/>
-      <c r="AF73" s="20"/>
+      <c r="AF73" s="39"/>
       <c r="AG73" s="20"/>
       <c r="AH73" s="20"/>
       <c r="AI73" s="20"/>
       <c r="AJ73" s="20"/>
-      <c r="AK73" s="20"/>
-      <c r="AL73" s="20"/>
+      <c r="AK73" s="39"/>
+      <c r="AL73" s="39"/>
       <c r="AM73" s="20"/>
       <c r="AN73" s="20"/>
       <c r="AO73" s="20"/>
@@ -10774,17 +10530,15 @@
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
       <c r="D74" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E74" s="31">
-        <v>7.3</v>
+        <v>67</v>
+      </c>
+      <c r="E74" s="45">
+        <v>0.3</v>
       </c>
       <c r="F74" s="17">
-        <v>44253</v>
-      </c>
-      <c r="G74" s="18">
-        <v>44257</v>
-      </c>
+        <v>44252</v>
+      </c>
+      <c r="G74" s="18"/>
       <c r="H74" s="20"/>
       <c r="I74" s="20"/>
       <c r="J74" s="20"/>
@@ -10809,12 +10563,12 @@
       <c r="AC74" s="20"/>
       <c r="AD74" s="20"/>
       <c r="AE74" s="20"/>
-      <c r="AF74" s="20"/>
-      <c r="AG74" s="39"/>
+      <c r="AF74" s="39"/>
+      <c r="AG74" s="20"/>
       <c r="AH74" s="20"/>
       <c r="AI74" s="20"/>
-      <c r="AJ74" s="39"/>
-      <c r="AK74" s="39"/>
+      <c r="AJ74" s="20"/>
+      <c r="AK74" s="20"/>
       <c r="AL74" s="20"/>
       <c r="AM74" s="20"/>
       <c r="AN74" s="20"/>
@@ -10851,16 +10605,16 @@
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
       <c r="D75" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E75" s="31">
-        <v>6.8</v>
+        <v>0.2</v>
       </c>
       <c r="F75" s="17">
         <v>44251</v>
       </c>
       <c r="G75" s="18">
-        <v>44258</v>
+        <v>44251</v>
       </c>
       <c r="H75" s="20"/>
       <c r="I75" s="20"/>
@@ -10886,13 +10640,13 @@
       <c r="AC75" s="20"/>
       <c r="AD75" s="20"/>
       <c r="AE75" s="39"/>
-      <c r="AF75" s="39"/>
+      <c r="AF75" s="20"/>
       <c r="AG75" s="20"/>
       <c r="AH75" s="20"/>
       <c r="AI75" s="20"/>
       <c r="AJ75" s="20"/>
-      <c r="AK75" s="39"/>
-      <c r="AL75" s="39"/>
+      <c r="AK75" s="20"/>
+      <c r="AL75" s="20"/>
       <c r="AM75" s="20"/>
       <c r="AN75" s="20"/>
       <c r="AO75" s="20"/>
@@ -10928,13 +10682,13 @@
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
       <c r="D76" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E76" s="45">
-        <v>0.3</v>
+        <v>69</v>
+      </c>
+      <c r="E76" s="31">
+        <v>5.2</v>
       </c>
       <c r="F76" s="17">
-        <v>44252</v>
+        <v>44259</v>
       </c>
       <c r="G76" s="18"/>
       <c r="H76" s="20"/>
@@ -10961,18 +10715,18 @@
       <c r="AC76" s="20"/>
       <c r="AD76" s="20"/>
       <c r="AE76" s="20"/>
-      <c r="AF76" s="39"/>
+      <c r="AF76" s="20"/>
       <c r="AG76" s="20"/>
       <c r="AH76" s="20"/>
       <c r="AI76" s="20"/>
       <c r="AJ76" s="20"/>
       <c r="AK76" s="20"/>
       <c r="AL76" s="20"/>
-      <c r="AM76" s="20"/>
+      <c r="AM76" s="39"/>
       <c r="AN76" s="20"/>
       <c r="AO76" s="20"/>
       <c r="AP76" s="20"/>
-      <c r="AQ76" s="20"/>
+      <c r="AQ76" s="39"/>
       <c r="AR76" s="20"/>
       <c r="AS76" s="20"/>
       <c r="AT76" s="20"/>
@@ -11003,16 +10757,16 @@
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
       <c r="D77" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E77" s="31">
-        <v>0.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F77" s="17">
-        <v>44251</v>
+        <v>44258</v>
       </c>
       <c r="G77" s="18">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="H77" s="20"/>
       <c r="I77" s="20"/>
@@ -11037,15 +10791,15 @@
       <c r="AB77" s="20"/>
       <c r="AC77" s="20"/>
       <c r="AD77" s="20"/>
-      <c r="AE77" s="39"/>
+      <c r="AE77" s="20"/>
       <c r="AF77" s="20"/>
       <c r="AG77" s="20"/>
       <c r="AH77" s="20"/>
       <c r="AI77" s="20"/>
       <c r="AJ77" s="20"/>
       <c r="AK77" s="20"/>
-      <c r="AL77" s="20"/>
-      <c r="AM77" s="20"/>
+      <c r="AL77" s="39"/>
+      <c r="AM77" s="39"/>
       <c r="AN77" s="20"/>
       <c r="AO77" s="20"/>
       <c r="AP77" s="20"/>
@@ -11079,15 +10833,9 @@
       <c r="A78" s="30"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
-      <c r="D78" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E78" s="31">
-        <v>5.2</v>
-      </c>
-      <c r="F78" s="17">
-        <v>44259</v>
-      </c>
+      <c r="D78" s="23"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="17"/>
       <c r="G78" s="18"/>
       <c r="H78" s="20"/>
       <c r="I78" s="20"/>
@@ -11120,11 +10868,11 @@
       <c r="AJ78" s="20"/>
       <c r="AK78" s="20"/>
       <c r="AL78" s="20"/>
-      <c r="AM78" s="39"/>
+      <c r="AM78" s="20"/>
       <c r="AN78" s="20"/>
       <c r="AO78" s="20"/>
       <c r="AP78" s="20"/>
-      <c r="AQ78" s="39"/>
+      <c r="AQ78" s="20"/>
       <c r="AR78" s="20"/>
       <c r="AS78" s="20"/>
       <c r="AT78" s="20"/>
@@ -11154,18 +10902,10 @@
       <c r="A79" s="30"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
-      <c r="D79" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E79" s="31">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F79" s="17">
-        <v>44258</v>
-      </c>
-      <c r="G79" s="18">
-        <v>44259</v>
-      </c>
+      <c r="D79" s="23"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="18"/>
       <c r="H79" s="20"/>
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
@@ -11196,8 +10936,8 @@
       <c r="AI79" s="20"/>
       <c r="AJ79" s="20"/>
       <c r="AK79" s="20"/>
-      <c r="AL79" s="39"/>
-      <c r="AM79" s="39"/>
+      <c r="AL79" s="20"/>
+      <c r="AM79" s="20"/>
       <c r="AN79" s="20"/>
       <c r="AO79" s="20"/>
       <c r="AP79" s="20"/>
@@ -11229,9 +10969,11 @@
     </row>
     <row r="80" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A80" s="30"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="23"/>
+      <c r="B80" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
       <c r="E80" s="31"/>
       <c r="F80" s="17"/>
       <c r="G80" s="18"/>
@@ -11298,9 +11040,11 @@
     </row>
     <row r="81" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A81" s="30"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="23"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D81" s="21"/>
       <c r="E81" s="31"/>
       <c r="F81" s="17"/>
       <c r="G81" s="18"/>
@@ -11367,12 +11111,14 @@
     </row>
     <row r="82" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A82" s="30"/>
-      <c r="B82" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="31"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E82" s="31">
+        <v>1</v>
+      </c>
       <c r="F82" s="17"/>
       <c r="G82" s="18"/>
       <c r="H82" s="20"/>
@@ -11438,11 +11184,9 @@
     </row>
     <row r="83" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A83" s="30"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D83" s="21"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="23"/>
       <c r="E83" s="31"/>
       <c r="F83" s="17"/>
       <c r="G83" s="18"/>
@@ -11511,12 +11255,8 @@
       <c r="A84" s="30"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
-      <c r="D84" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E84" s="31">
-        <v>1</v>
-      </c>
+      <c r="D84" s="23"/>
+      <c r="E84" s="31"/>
       <c r="F84" s="17"/>
       <c r="G84" s="18"/>
       <c r="H84" s="20"/>
@@ -11580,144 +11320,6 @@
       <c r="BN84" s="20"/>
       <c r="BO84" s="20"/>
     </row>
-    <row r="85" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A85" s="30"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="20"/>
-      <c r="N85" s="20"/>
-      <c r="O85" s="20"/>
-      <c r="P85" s="20"/>
-      <c r="Q85" s="20"/>
-      <c r="R85" s="20"/>
-      <c r="S85" s="20"/>
-      <c r="T85" s="20"/>
-      <c r="U85" s="20"/>
-      <c r="V85" s="20"/>
-      <c r="W85" s="20"/>
-      <c r="X85" s="20"/>
-      <c r="Y85" s="20"/>
-      <c r="Z85" s="20"/>
-      <c r="AA85" s="20"/>
-      <c r="AB85" s="20"/>
-      <c r="AC85" s="20"/>
-      <c r="AD85" s="20"/>
-      <c r="AE85" s="20"/>
-      <c r="AF85" s="20"/>
-      <c r="AG85" s="20"/>
-      <c r="AH85" s="20"/>
-      <c r="AI85" s="20"/>
-      <c r="AJ85" s="20"/>
-      <c r="AK85" s="20"/>
-      <c r="AL85" s="20"/>
-      <c r="AM85" s="20"/>
-      <c r="AN85" s="20"/>
-      <c r="AO85" s="20"/>
-      <c r="AP85" s="20"/>
-      <c r="AQ85" s="20"/>
-      <c r="AR85" s="20"/>
-      <c r="AS85" s="20"/>
-      <c r="AT85" s="20"/>
-      <c r="AU85" s="20"/>
-      <c r="AV85" s="20"/>
-      <c r="AW85" s="20"/>
-      <c r="AX85" s="20"/>
-      <c r="AY85" s="20"/>
-      <c r="AZ85" s="20"/>
-      <c r="BA85" s="20"/>
-      <c r="BB85" s="20"/>
-      <c r="BC85" s="20"/>
-      <c r="BD85" s="20"/>
-      <c r="BE85" s="20"/>
-      <c r="BF85" s="20"/>
-      <c r="BG85" s="20"/>
-      <c r="BH85" s="20"/>
-      <c r="BI85" s="20"/>
-      <c r="BJ85" s="20"/>
-      <c r="BK85" s="20"/>
-      <c r="BL85" s="20"/>
-      <c r="BM85" s="20"/>
-      <c r="BN85" s="20"/>
-      <c r="BO85" s="20"/>
-    </row>
-    <row r="86" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A86" s="30"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="20"/>
-      <c r="N86" s="20"/>
-      <c r="O86" s="20"/>
-      <c r="P86" s="20"/>
-      <c r="Q86" s="20"/>
-      <c r="R86" s="20"/>
-      <c r="S86" s="20"/>
-      <c r="T86" s="20"/>
-      <c r="U86" s="20"/>
-      <c r="V86" s="20"/>
-      <c r="W86" s="20"/>
-      <c r="X86" s="20"/>
-      <c r="Y86" s="20"/>
-      <c r="Z86" s="20"/>
-      <c r="AA86" s="20"/>
-      <c r="AB86" s="20"/>
-      <c r="AC86" s="20"/>
-      <c r="AD86" s="20"/>
-      <c r="AE86" s="20"/>
-      <c r="AF86" s="20"/>
-      <c r="AG86" s="20"/>
-      <c r="AH86" s="20"/>
-      <c r="AI86" s="20"/>
-      <c r="AJ86" s="20"/>
-      <c r="AK86" s="20"/>
-      <c r="AL86" s="20"/>
-      <c r="AM86" s="20"/>
-      <c r="AN86" s="20"/>
-      <c r="AO86" s="20"/>
-      <c r="AP86" s="20"/>
-      <c r="AQ86" s="20"/>
-      <c r="AR86" s="20"/>
-      <c r="AS86" s="20"/>
-      <c r="AT86" s="20"/>
-      <c r="AU86" s="20"/>
-      <c r="AV86" s="20"/>
-      <c r="AW86" s="20"/>
-      <c r="AX86" s="20"/>
-      <c r="AY86" s="20"/>
-      <c r="AZ86" s="20"/>
-      <c r="BA86" s="20"/>
-      <c r="BB86" s="20"/>
-      <c r="BC86" s="20"/>
-      <c r="BD86" s="20"/>
-      <c r="BE86" s="20"/>
-      <c r="BF86" s="20"/>
-      <c r="BG86" s="20"/>
-      <c r="BH86" s="20"/>
-      <c r="BI86" s="20"/>
-      <c r="BJ86" s="20"/>
-      <c r="BK86" s="20"/>
-      <c r="BL86" s="20"/>
-      <c r="BM86" s="20"/>
-      <c r="BN86" s="20"/>
-      <c r="BO86" s="20"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
@@ -11728,896 +11330,812 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="cellIs" dxfId="381" priority="997" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="997" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="998" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="998" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I8 H9:J9 J22:X22 H48:H49 H50:I50 H11:U19 H53:J55 H66:J67 H51:K51 H10:N10 I23:O23 R23 T23:U23 X23 H64:N64 R64 T64 I24:X28 H26:H28 Y26:Z28 H84:U84 I43:V43 H57:W57 H33:AF33 H31:AD32 H36:AD36 H34:AD34 H38:AI38 H72:AD73 H77:AD77 L21:BO21 H20:BO20 K7:BO7 P9:BO9 I44:BO45 L8:BO8 T10:BO10 Y11:BO15 H65:BO65 J63:BO63 H52:BO52 J48:BO49 K50:BO50 L53:BO55 L66:BO67 N51:BO51 H46:BO47 Z64:AL64 AA22:BO28 H85:BO86 X84:BO84 H56:BO56 AA16:BO19 Y57:BO57 H58:BO62 AF31:BO32 AF36:BO36 AH34:BO34 AO33:BO33 AR35:BO35 H74:AF74 AF72:BO73 AF77:BO77 H39:BO41 X42:BO43 H29:BO30 H68:BO71 H5:BO6 AR37:BO38 H76:AE76 H75:AD75 AH33:AJ33 AG76:BO76 AH74:AI74 AL74:BO74 AG75:AJ75 AM75:BO75 H78:AL78 H80:BO83 H79:AK79 AK38:AQ38 AN79:BO79 AN64:BO64 H35:AP35 H37:AQ37 AN78:AP78 AR78:BO78">
-    <cfRule type="expression" dxfId="379" priority="993" stopIfTrue="1">
+  <conditionalFormatting sqref="H8:I8 H9:J9 J21:X21 H47:H48 H49:I49 H52:J54 H64:J65 H50:K50 H10:N10 I22:O22 R22 T22:U22 X22 H62:N62 R62 T62 I23:X27 H25:H27 Y25:Z27 H82:U82 I42:V42 H32:AF32 H30:AD31 H35:AD35 H33:AD33 H37:AI37 H70:AD71 H75:AD75 L20:BO20 K7:BO7 P9:BO9 I43:BO44 L8:BO8 T10:BO10 Y11:BO15 H63:BO63 J61:BO61 H51:BO51 J47:BO48 K49:BO49 L52:BO54 L64:BO65 N50:BO50 H45:BO46 Z62:AL62 AA21:BO27 H83:BO84 X82:BO82 H55:BO60 AF30:BO31 AF35:BO35 AH33:BO33 AO32:BO32 AR34:BO34 H72:AF72 AF70:BO71 AF75:BO75 H38:BO40 X41:BO42 H28:BO29 H66:BO69 H5:BO6 AR36:BO37 H74:AE74 H73:AD73 AH32:AJ32 AG74:BO74 AH72:AI72 AL72:BO72 AG73:AJ73 AM73:BO73 H76:AL76 H78:BO81 H77:AK77 AK37:AQ37 AN77:BO77 AN62:BO62 H34:AP34 H36:AQ36 AN76:AP76 AR76:BO76 H11:U15 V13:W15 H16:BO19">
+    <cfRule type="expression" dxfId="355" priority="993" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="994" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="994" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="995" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="995" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="996" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="996" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:J21">
-    <cfRule type="expression" dxfId="375" priority="961" stopIfTrue="1">
+  <conditionalFormatting sqref="H20:J20">
+    <cfRule type="expression" dxfId="351" priority="961" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="962" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="962" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="963" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="963" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="964" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="964" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="371" priority="485" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="485" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="486" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="487" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="488" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="367" priority="445" stopIfTrue="1">
+  <conditionalFormatting sqref="K20">
+    <cfRule type="expression" dxfId="343" priority="445" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="446" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="447" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="448" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="363" priority="457" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="457" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="458" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="459" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="460" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="359" priority="473" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="473" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="474" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="475" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="475" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="476" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="476" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="355" priority="469" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="469" stopIfTrue="1">
       <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="470" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="471" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="472" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="351" priority="461" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="461" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="462" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="463" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="464" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="347" priority="425" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="425" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="426" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="427" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="428" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="343" priority="453" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="453" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="454" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="455" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="456" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43:H45">
-    <cfRule type="expression" dxfId="339" priority="417" stopIfTrue="1">
+  <conditionalFormatting sqref="H42:H44">
+    <cfRule type="expression" dxfId="315" priority="417" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="418" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="419" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="420" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="335" priority="441" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="441" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="442" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="443" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="444" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:Q10 S10">
-    <cfRule type="expression" dxfId="331" priority="433" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="433" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="434" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="435" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="436" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="327" priority="429" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="429" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="430" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="431" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="432" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="323" priority="373" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="373" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="374" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="375" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="376" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="319" priority="349" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="350" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="351" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="352" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y22 Y24:Y25">
-    <cfRule type="expression" dxfId="315" priority="397" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="398" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="399" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="400" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z22:Z25">
-    <cfRule type="expression" dxfId="311" priority="393" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="394" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="395" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="396" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="expression" dxfId="307" priority="389" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="390" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="391" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="376" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="303" priority="385" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="349" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="350" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="351" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="352" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y21 Y23:Y24">
+    <cfRule type="expression" dxfId="291" priority="397" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="398" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="399" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="400" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z21:Z24">
+    <cfRule type="expression" dxfId="287" priority="393" stopIfTrue="1">
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="394" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="285" priority="395" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="396" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="expression" dxfId="283" priority="389" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="390" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="281" priority="391" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="392" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="expression" dxfId="279" priority="385" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="386" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="387" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="388" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="expression" dxfId="299" priority="369" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="369" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="370" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="371" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="372" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
-    <cfRule type="expression" dxfId="295" priority="365" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="365" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="366" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="367" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="368" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X15">
-    <cfRule type="expression" dxfId="291" priority="361" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="361" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="362" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="363" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="364" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13:W19">
-    <cfRule type="expression" dxfId="287" priority="357" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="358" operator="equal">
+  <conditionalFormatting sqref="H23:H24">
+    <cfRule type="expression" dxfId="263" priority="345" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="346" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="347" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="348" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V13:V19">
-    <cfRule type="expression" dxfId="283" priority="353" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="354" operator="equal">
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="259" priority="333" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="334" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="335" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="336" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H25">
-    <cfRule type="expression" dxfId="279" priority="345" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="346" operator="equal">
+  <conditionalFormatting sqref="I61">
+    <cfRule type="expression" dxfId="255" priority="337" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="338" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="339" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="340" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="275" priority="333" stopIfTrue="1">
+  <conditionalFormatting sqref="I47">
+    <cfRule type="expression" dxfId="251" priority="329" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="330" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="331" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="336" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="271" priority="337" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="338" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="339" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="332" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="expression" dxfId="267" priority="329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="325" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="326" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="327" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="332" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="263" priority="325" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="326" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="327" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="328" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="expression" dxfId="259" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="321" stopIfTrue="1">
       <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="322" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="323" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="324" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="255" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="317" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="318" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="319" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="320" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="251" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="313" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="314" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="315" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="316" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="expression" dxfId="247" priority="309" stopIfTrue="1">
+  <conditionalFormatting sqref="J49">
+    <cfRule type="expression" dxfId="231" priority="309" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="310" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="311" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="312" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53">
+    <cfRule type="expression" dxfId="227" priority="305" stopIfTrue="1">
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="306" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="307" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="308" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="expression" dxfId="243" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="301" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="302" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="303" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="304" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55">
-    <cfRule type="expression" dxfId="239" priority="301" stopIfTrue="1">
+  <conditionalFormatting sqref="K52">
+    <cfRule type="expression" dxfId="219" priority="297" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="298" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="299" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="300" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
-    <cfRule type="expression" dxfId="235" priority="297" stopIfTrue="1">
+  <conditionalFormatting sqref="K65">
+    <cfRule type="expression" dxfId="215" priority="293" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="294" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="295" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="296" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K67">
-    <cfRule type="expression" dxfId="231" priority="293" stopIfTrue="1">
+  <conditionalFormatting sqref="K64">
+    <cfRule type="expression" dxfId="211" priority="289" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="290" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="291" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="292" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66">
-    <cfRule type="expression" dxfId="227" priority="289" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="290" operator="equal">
+  <conditionalFormatting sqref="L50">
+    <cfRule type="expression" dxfId="207" priority="285" stopIfTrue="1">
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="286" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="287" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="292" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
-    <cfRule type="expression" dxfId="223" priority="285" stopIfTrue="1">
-      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="286" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="287" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="288" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="219" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="281" stopIfTrue="1">
       <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="282" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="283" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="284" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P23">
-    <cfRule type="expression" dxfId="215" priority="277" stopIfTrue="1">
+  <conditionalFormatting sqref="P22">
+    <cfRule type="expression" dxfId="199" priority="277" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="278" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="279" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="280" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
-    <cfRule type="expression" dxfId="211" priority="273" stopIfTrue="1">
+  <conditionalFormatting sqref="Q22">
+    <cfRule type="expression" dxfId="195" priority="273" stopIfTrue="1">
       <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="274" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="275" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="276" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S23">
-    <cfRule type="expression" dxfId="207" priority="269" stopIfTrue="1">
+  <conditionalFormatting sqref="S22">
+    <cfRule type="expression" dxfId="191" priority="269" stopIfTrue="1">
       <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="270" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="271" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="272" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V23">
-    <cfRule type="expression" dxfId="203" priority="265" stopIfTrue="1">
+  <conditionalFormatting sqref="V22">
+    <cfRule type="expression" dxfId="187" priority="265" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="266" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="267" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="268" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O64">
-    <cfRule type="expression" dxfId="199" priority="261" stopIfTrue="1">
+  <conditionalFormatting sqref="O62">
+    <cfRule type="expression" dxfId="183" priority="261" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="262" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="263" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="264" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P64">
-    <cfRule type="expression" dxfId="195" priority="257" stopIfTrue="1">
+  <conditionalFormatting sqref="P62">
+    <cfRule type="expression" dxfId="179" priority="257" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="258" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="259" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="260" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M51">
-    <cfRule type="expression" dxfId="191" priority="253" stopIfTrue="1">
+  <conditionalFormatting sqref="M50">
+    <cfRule type="expression" dxfId="175" priority="253" stopIfTrue="1">
       <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="254" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="255" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="256" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q64">
-    <cfRule type="expression" dxfId="187" priority="249" stopIfTrue="1">
+  <conditionalFormatting sqref="Q62">
+    <cfRule type="expression" dxfId="171" priority="249" stopIfTrue="1">
       <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="250" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="251" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="252" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S64">
-    <cfRule type="expression" dxfId="183" priority="245" stopIfTrue="1">
+  <conditionalFormatting sqref="S62">
+    <cfRule type="expression" dxfId="167" priority="245" stopIfTrue="1">
       <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="246" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="247" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="248" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V64">
-    <cfRule type="expression" dxfId="179" priority="237" stopIfTrue="1">
+  <conditionalFormatting sqref="V62">
+    <cfRule type="expression" dxfId="163" priority="237" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="238" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="239" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="240" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U64">
-    <cfRule type="expression" dxfId="175" priority="233" stopIfTrue="1">
+  <conditionalFormatting sqref="U62">
+    <cfRule type="expression" dxfId="159" priority="233" stopIfTrue="1">
       <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="234" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="235" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="236" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42:V42">
-    <cfRule type="expression" dxfId="171" priority="225" stopIfTrue="1">
+  <conditionalFormatting sqref="H41:V41">
+    <cfRule type="expression" dxfId="155" priority="225" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="226" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="227" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="228" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V84">
-    <cfRule type="expression" dxfId="167" priority="205" stopIfTrue="1">
+  <conditionalFormatting sqref="V82">
+    <cfRule type="expression" dxfId="151" priority="205" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="206" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="207" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="208" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W41">
+    <cfRule type="expression" dxfId="147" priority="193" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="194" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="195" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="196" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W22">
+    <cfRule type="expression" dxfId="143" priority="189" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="190" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="191" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="192" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42">
-    <cfRule type="expression" dxfId="163" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="185" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="187" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="188" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W23">
-    <cfRule type="expression" dxfId="159" priority="189" stopIfTrue="1">
+  <conditionalFormatting sqref="W62">
+    <cfRule type="expression" dxfId="135" priority="181" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="182" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="183" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="184" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W43">
-    <cfRule type="expression" dxfId="155" priority="185" stopIfTrue="1">
+  <conditionalFormatting sqref="W82">
+    <cfRule type="expression" dxfId="131" priority="177" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="178" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="179" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="180" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W64">
-    <cfRule type="expression" dxfId="151" priority="181" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="182" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="183" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="184" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W84">
-    <cfRule type="expression" dxfId="147" priority="177" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="178" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="179" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="180" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X16:X19">
-    <cfRule type="expression" dxfId="143" priority="173" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="174" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="175" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="176" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y16:Y19">
-    <cfRule type="expression" dxfId="139" priority="169" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="170" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="171" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="172" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z16:Z19">
-    <cfRule type="expression" dxfId="135" priority="165" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="166" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="167" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="168" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X57">
-    <cfRule type="expression" dxfId="131" priority="161" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="162" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="163" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="164" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X64">
+  <conditionalFormatting sqref="X62">
     <cfRule type="expression" dxfId="127" priority="157" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12631,7 +12149,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y23">
+  <conditionalFormatting sqref="Y22">
     <cfRule type="expression" dxfId="123" priority="153" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12645,7 +12163,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y64">
+  <conditionalFormatting sqref="Y62">
     <cfRule type="expression" dxfId="119" priority="149" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12659,7 +12177,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE32">
+  <conditionalFormatting sqref="AE31">
     <cfRule type="expression" dxfId="115" priority="137" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12673,7 +12191,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
+  <conditionalFormatting sqref="AE30">
     <cfRule type="expression" dxfId="111" priority="133" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12687,7 +12205,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE36">
+  <conditionalFormatting sqref="AE35">
     <cfRule type="expression" dxfId="107" priority="129" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12701,7 +12219,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF34">
+  <conditionalFormatting sqref="AF33">
     <cfRule type="expression" dxfId="103" priority="125" stopIfTrue="1">
       <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12715,7 +12233,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG34">
+  <conditionalFormatting sqref="AG33">
     <cfRule type="expression" dxfId="99" priority="121" stopIfTrue="1">
       <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12729,7 +12247,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ38">
+  <conditionalFormatting sqref="AJ37">
     <cfRule type="expression" dxfId="95" priority="117" stopIfTrue="1">
       <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12743,7 +12261,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK33">
+  <conditionalFormatting sqref="AK32">
     <cfRule type="expression" dxfId="91" priority="113" stopIfTrue="1">
       <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12757,7 +12275,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL33">
+  <conditionalFormatting sqref="AL32">
     <cfRule type="expression" dxfId="87" priority="109" stopIfTrue="1">
       <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12771,7 +12289,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM33">
+  <conditionalFormatting sqref="AM32">
     <cfRule type="expression" dxfId="83" priority="105" stopIfTrue="1">
       <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12785,7 +12303,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN33">
+  <conditionalFormatting sqref="AN32">
     <cfRule type="expression" dxfId="79" priority="101" stopIfTrue="1">
       <formula>MATCH(AN$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12799,7 +12317,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ35">
+  <conditionalFormatting sqref="AQ34">
     <cfRule type="expression" dxfId="75" priority="97" stopIfTrue="1">
       <formula>MATCH(AQ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12813,7 +12331,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE72">
+  <conditionalFormatting sqref="AE70">
     <cfRule type="expression" dxfId="71" priority="69" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12827,7 +12345,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE73">
+  <conditionalFormatting sqref="AE71">
     <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12841,7 +12359,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE77">
+  <conditionalFormatting sqref="AE75">
     <cfRule type="expression" dxfId="63" priority="61" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12855,7 +12373,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE75">
+  <conditionalFormatting sqref="AE73">
     <cfRule type="expression" dxfId="59" priority="57" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12869,7 +12387,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE34">
+  <conditionalFormatting sqref="AE33">
     <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12883,7 +12401,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF75">
+  <conditionalFormatting sqref="AF73">
     <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
       <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12897,7 +12415,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG33">
+  <conditionalFormatting sqref="AG32">
     <cfRule type="expression" dxfId="47" priority="45" stopIfTrue="1">
       <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12911,7 +12429,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF76">
+  <conditionalFormatting sqref="AF74">
     <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
       <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12925,7 +12443,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG74">
+  <conditionalFormatting sqref="AG72">
     <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
       <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12939,7 +12457,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ74">
+  <conditionalFormatting sqref="AJ72">
     <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
       <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12953,7 +12471,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK74">
+  <conditionalFormatting sqref="AK72">
     <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
       <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12967,7 +12485,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL75">
+  <conditionalFormatting sqref="AL73">
     <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
       <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12981,7 +12499,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL79">
+  <conditionalFormatting sqref="AL77">
     <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
       <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -12995,7 +12513,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK75">
+  <conditionalFormatting sqref="AK73">
     <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
       <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -13009,7 +12527,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM79">
+  <conditionalFormatting sqref="AM77">
     <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -13023,7 +12541,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM78">
+  <conditionalFormatting sqref="AM76">
     <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -13037,7 +12555,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM64">
+  <conditionalFormatting sqref="AM62">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
@@ -13051,7 +12569,7 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ78">
+  <conditionalFormatting sqref="AQ76">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>MATCH(AQ$3,非稼働日,0)&gt;0</formula>
     </cfRule>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="71">
   <si>
     <t>aya</t>
     <phoneticPr fontId="4"/>
@@ -373,13 +373,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>9.sqlite修正</t>
-    <rPh sb="8" eb="10">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.コードを整える,不具合の修正</t>
     <rPh sb="6" eb="7">
       <t>トトノ</t>
@@ -500,11 +493,11 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>10.バトルログとキャラクター表示を合わせる</t>
-    <rPh sb="15" eb="17">
+    <t>9.バトルログとキャラクター表示を合わせる</t>
+    <rPh sb="14" eb="16">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="18" eb="19">
+    <rPh sb="17" eb="18">
       <t>ア</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -1023,7 +1016,327 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="358">
+  <dxfs count="390">
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE6B8B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD8E4BC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCC0DA"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCC0DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -4874,11 +5187,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO84"/>
+  <dimension ref="A1:BO82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AS74" sqref="AS74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6195,9 +6508,11 @@
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="16"/>
+        <v>70</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="F15" s="17"/>
       <c r="G15" s="18"/>
       <c r="H15" s="20"/>
@@ -6216,9 +6531,9 @@
       <c r="U15" s="20"/>
       <c r="V15" s="37"/>
       <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
       <c r="AC15" s="20"/>
@@ -6265,12 +6580,8 @@
       <c r="A16" s="14"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>61</v>
-      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="17"/>
       <c r="G16" s="18"/>
       <c r="H16" s="20"/>
@@ -6338,7 +6649,7 @@
       <c r="A17" s="14"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="38"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="16"/>
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
@@ -6405,9 +6716,11 @@
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="43"/>
+      <c r="B18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
       <c r="G18" s="18"/>
@@ -6425,11 +6738,11 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
       <c r="AC18" s="20"/>
@@ -6474,11 +6787,11 @@
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
-      <c r="B19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="21"/>
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
       <c r="G19" s="18"/>
@@ -6545,15 +6858,21 @@
     </row>
     <row r="20" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="20"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="17">
+        <v>44228</v>
+      </c>
+      <c r="G20" s="18">
+        <v>44228</v>
+      </c>
+      <c r="H20" s="19"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -6570,8 +6889,8 @@
       <c r="V20" s="20"/>
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
       <c r="AC20" s="20"/>
@@ -6616,97 +6935,91 @@
     </row>
     <row r="21" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="17">
-        <v>44228</v>
-      </c>
-      <c r="G21" s="18">
-        <v>44228</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="35">
+        <v>44235</v>
+      </c>
+      <c r="G21" s="36">
+        <v>44242</v>
+      </c>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
       <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="37"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="40"/>
       <c r="Z21" s="37"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="20"/>
-      <c r="AH21" s="20"/>
-      <c r="AI21" s="20"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="20"/>
-      <c r="AL21" s="20"/>
-      <c r="AM21" s="20"/>
-      <c r="AN21" s="20"/>
-      <c r="AO21" s="20"/>
-      <c r="AP21" s="20"/>
-      <c r="AQ21" s="20"/>
-      <c r="AR21" s="20"/>
-      <c r="AS21" s="20"/>
-      <c r="AT21" s="20"/>
-      <c r="AU21" s="20"/>
-      <c r="AV21" s="20"/>
-      <c r="AW21" s="20"/>
-      <c r="AX21" s="20"/>
-      <c r="AY21" s="20"/>
-      <c r="AZ21" s="20"/>
-      <c r="BA21" s="20"/>
-      <c r="BB21" s="20"/>
-      <c r="BC21" s="20"/>
-      <c r="BD21" s="20"/>
-      <c r="BE21" s="20"/>
-      <c r="BF21" s="20"/>
-      <c r="BG21" s="20"/>
-      <c r="BH21" s="20"/>
-      <c r="BI21" s="20"/>
-      <c r="BJ21" s="20"/>
-      <c r="BK21" s="20"/>
-      <c r="BL21" s="20"/>
-      <c r="BM21" s="20"/>
-      <c r="BN21" s="20"/>
-      <c r="BO21" s="20"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
+      <c r="AK21" s="37"/>
+      <c r="AL21" s="37"/>
+      <c r="AM21" s="37"/>
+      <c r="AN21" s="37"/>
+      <c r="AO21" s="37"/>
+      <c r="AP21" s="37"/>
+      <c r="AQ21" s="37"/>
+      <c r="AR21" s="37"/>
+      <c r="AS21" s="37"/>
+      <c r="AT21" s="37"/>
+      <c r="AU21" s="37"/>
+      <c r="AV21" s="37"/>
+      <c r="AW21" s="37"/>
+      <c r="AX21" s="37"/>
+      <c r="AY21" s="37"/>
+      <c r="AZ21" s="37"/>
+      <c r="BA21" s="37"/>
+      <c r="BB21" s="37"/>
+      <c r="BC21" s="37"/>
+      <c r="BD21" s="37"/>
+      <c r="BE21" s="37"/>
+      <c r="BF21" s="37"/>
+      <c r="BG21" s="37"/>
+      <c r="BH21" s="37"/>
+      <c r="BI21" s="37"/>
+      <c r="BJ21" s="37"/>
+      <c r="BK21" s="37"/>
+      <c r="BL21" s="37"/>
+      <c r="BM21" s="37"/>
+      <c r="BN21" s="37"/>
+      <c r="BO21" s="37"/>
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="35">
-        <v>44235</v>
-      </c>
-      <c r="G22" s="36">
-        <v>44242</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
@@ -6714,17 +7027,17 @@
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
       <c r="N22" s="20"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
       <c r="R22" s="37"/>
-      <c r="S22" s="19"/>
+      <c r="S22" s="37"/>
       <c r="T22" s="37"/>
       <c r="U22" s="37"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="40"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
       <c r="X22" s="37"/>
-      <c r="Y22" s="40"/>
+      <c r="Y22" s="37"/>
       <c r="Z22" s="37"/>
       <c r="AA22" s="37"/>
       <c r="AB22" s="37"/>
@@ -6772,16 +7085,22 @@
       <c r="A23" s="14"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
-      <c r="D23" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
+      <c r="D23" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="35">
+        <v>44231</v>
+      </c>
+      <c r="G23" s="36">
+        <v>44233</v>
+      </c>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
       <c r="N23" s="20"/>
@@ -6843,11 +7162,11 @@
       <c r="A24" s="14"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
-      <c r="D24" s="38" t="s">
-        <v>45</v>
+      <c r="D24" s="23" t="s">
+        <v>51</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="35">
         <v>44231</v>
@@ -6855,7 +7174,7 @@
       <c r="G24" s="36">
         <v>44233</v>
       </c>
-      <c r="H24" s="37"/>
+      <c r="H24" s="20"/>
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
       <c r="K24" s="40"/>
@@ -6920,22 +7239,14 @@
       <c r="A25" s="14"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
-      <c r="D25" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="35">
-        <v>44231</v>
-      </c>
-      <c r="G25" s="36">
-        <v>44233</v>
-      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="20"/>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
-      <c r="K25" s="40"/>
+      <c r="K25" s="37"/>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
       <c r="N25" s="20"/>
@@ -7064,160 +7375,168 @@
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
+      <c r="B27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="16">
+        <v>23.25</v>
+      </c>
+      <c r="F27" s="17">
+        <v>44251</v>
+      </c>
+      <c r="G27" s="18">
+        <v>44265</v>
+      </c>
       <c r="H27" s="20"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
       <c r="N27" s="20"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="37"/>
-      <c r="AH27" s="37"/>
-      <c r="AI27" s="37"/>
-      <c r="AJ27" s="37"/>
-      <c r="AK27" s="37"/>
-      <c r="AL27" s="37"/>
-      <c r="AM27" s="37"/>
-      <c r="AN27" s="37"/>
-      <c r="AO27" s="37"/>
-      <c r="AP27" s="37"/>
-      <c r="AQ27" s="37"/>
-      <c r="AR27" s="37"/>
-      <c r="AS27" s="37"/>
-      <c r="AT27" s="37"/>
-      <c r="AU27" s="37"/>
-      <c r="AV27" s="37"/>
-      <c r="AW27" s="37"/>
-      <c r="AX27" s="37"/>
-      <c r="AY27" s="37"/>
-      <c r="AZ27" s="37"/>
-      <c r="BA27" s="37"/>
-      <c r="BB27" s="37"/>
-      <c r="BC27" s="37"/>
-      <c r="BD27" s="37"/>
-      <c r="BE27" s="37"/>
-      <c r="BF27" s="37"/>
-      <c r="BG27" s="37"/>
-      <c r="BH27" s="37"/>
-      <c r="BI27" s="37"/>
-      <c r="BJ27" s="37"/>
-      <c r="BK27" s="37"/>
-      <c r="BL27" s="37"/>
-      <c r="BM27" s="37"/>
-      <c r="BN27" s="37"/>
-      <c r="BO27" s="37"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="20"/>
+      <c r="AK27" s="20"/>
+      <c r="AL27" s="20"/>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="20"/>
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="20"/>
+      <c r="AQ27" s="20"/>
+      <c r="AR27" s="20"/>
+      <c r="AS27" s="20"/>
+      <c r="AT27" s="20"/>
+      <c r="AU27" s="20"/>
+      <c r="AV27" s="20"/>
+      <c r="AW27" s="20"/>
+      <c r="AX27" s="20"/>
+      <c r="AY27" s="20"/>
+      <c r="AZ27" s="20"/>
+      <c r="BA27" s="20"/>
+      <c r="BB27" s="20"/>
+      <c r="BC27" s="20"/>
+      <c r="BD27" s="20"/>
+      <c r="BE27" s="20"/>
+      <c r="BF27" s="20"/>
+      <c r="BG27" s="20"/>
+      <c r="BH27" s="20"/>
+      <c r="BI27" s="20"/>
+      <c r="BJ27" s="20"/>
+      <c r="BK27" s="20"/>
+      <c r="BL27" s="20"/>
+      <c r="BM27" s="20"/>
+      <c r="BN27" s="20"/>
+      <c r="BO27" s="20"/>
     </row>
     <row r="28" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
-      <c r="B28" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16">
-        <v>23.25</v>
-      </c>
-      <c r="F28" s="17">
-        <v>44251</v>
-      </c>
-      <c r="G28" s="18">
-        <v>44265</v>
-      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
       <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="20"/>
-      <c r="AI28" s="20"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="20"/>
-      <c r="AL28" s="20"/>
-      <c r="AM28" s="20"/>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="20"/>
-      <c r="AP28" s="20"/>
-      <c r="AQ28" s="20"/>
-      <c r="AR28" s="20"/>
-      <c r="AS28" s="20"/>
-      <c r="AT28" s="20"/>
-      <c r="AU28" s="20"/>
-      <c r="AV28" s="20"/>
-      <c r="AW28" s="20"/>
-      <c r="AX28" s="20"/>
-      <c r="AY28" s="20"/>
-      <c r="AZ28" s="20"/>
-      <c r="BA28" s="20"/>
-      <c r="BB28" s="20"/>
-      <c r="BC28" s="20"/>
-      <c r="BD28" s="20"/>
-      <c r="BE28" s="20"/>
-      <c r="BF28" s="20"/>
-      <c r="BG28" s="20"/>
-      <c r="BH28" s="20"/>
-      <c r="BI28" s="20"/>
-      <c r="BJ28" s="20"/>
-      <c r="BK28" s="20"/>
-      <c r="BL28" s="20"/>
-      <c r="BM28" s="20"/>
-      <c r="BN28" s="20"/>
-      <c r="BO28" s="20"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
+      <c r="AI28" s="37"/>
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="37"/>
+      <c r="AL28" s="37"/>
+      <c r="AM28" s="37"/>
+      <c r="AN28" s="37"/>
+      <c r="AO28" s="37"/>
+      <c r="AP28" s="37"/>
+      <c r="AQ28" s="37"/>
+      <c r="AR28" s="37"/>
+      <c r="AS28" s="37"/>
+      <c r="AT28" s="37"/>
+      <c r="AU28" s="37"/>
+      <c r="AV28" s="37"/>
+      <c r="AW28" s="37"/>
+      <c r="AX28" s="37"/>
+      <c r="AY28" s="37"/>
+      <c r="AZ28" s="37"/>
+      <c r="BA28" s="37"/>
+      <c r="BB28" s="37"/>
+      <c r="BC28" s="37"/>
+      <c r="BD28" s="37"/>
+      <c r="BE28" s="37"/>
+      <c r="BF28" s="37"/>
+      <c r="BG28" s="37"/>
+      <c r="BH28" s="37"/>
+      <c r="BI28" s="37"/>
+      <c r="BJ28" s="37"/>
+      <c r="BK28" s="37"/>
+      <c r="BL28" s="37"/>
+      <c r="BM28" s="37"/>
+      <c r="BN28" s="37"/>
+      <c r="BO28" s="37"/>
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A29" s="14"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="34">
+        <v>1</v>
+      </c>
+      <c r="F29" s="35">
+        <v>44251</v>
+      </c>
+      <c r="G29" s="36">
+        <v>44251</v>
+      </c>
       <c r="H29" s="20"/>
       <c r="I29" s="37"/>
       <c r="J29" s="37"/>
@@ -7241,7 +7560,7 @@
       <c r="AB29" s="37"/>
       <c r="AC29" s="37"/>
       <c r="AD29" s="37"/>
-      <c r="AE29" s="37"/>
+      <c r="AE29" s="19"/>
       <c r="AF29" s="37"/>
       <c r="AG29" s="37"/>
       <c r="AH29" s="37"/>
@@ -7287,7 +7606,7 @@
         <v>63</v>
       </c>
       <c r="E30" s="34">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F30" s="35">
         <v>44251</v>
@@ -7364,13 +7683,13 @@
         <v>64</v>
       </c>
       <c r="E31" s="34">
-        <v>0.25</v>
+        <v>8</v>
       </c>
       <c r="F31" s="35">
-        <v>44251</v>
+        <v>44257</v>
       </c>
       <c r="G31" s="36">
-        <v>44251</v>
+        <v>44260</v>
       </c>
       <c r="H31" s="20"/>
       <c r="I31" s="37"/>
@@ -7395,16 +7714,16 @@
       <c r="AB31" s="37"/>
       <c r="AC31" s="37"/>
       <c r="AD31" s="37"/>
-      <c r="AE31" s="19"/>
+      <c r="AE31" s="37"/>
       <c r="AF31" s="37"/>
-      <c r="AG31" s="37"/>
+      <c r="AG31" s="40"/>
       <c r="AH31" s="37"/>
       <c r="AI31" s="37"/>
       <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="37"/>
-      <c r="AM31" s="37"/>
-      <c r="AN31" s="37"/>
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="19"/>
+      <c r="AM31" s="19"/>
+      <c r="AN31" s="19"/>
       <c r="AO31" s="37"/>
       <c r="AP31" s="37"/>
       <c r="AQ31" s="37"/>
@@ -7441,13 +7760,13 @@
         <v>65</v>
       </c>
       <c r="E32" s="34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F32" s="35">
-        <v>44257</v>
+        <v>44252</v>
       </c>
       <c r="G32" s="36">
-        <v>44260</v>
+        <v>44253</v>
       </c>
       <c r="H32" s="20"/>
       <c r="I32" s="37"/>
@@ -7472,16 +7791,16 @@
       <c r="AB32" s="37"/>
       <c r="AC32" s="37"/>
       <c r="AD32" s="37"/>
-      <c r="AE32" s="37"/>
-      <c r="AF32" s="37"/>
-      <c r="AG32" s="40"/>
+      <c r="AE32" s="40"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
       <c r="AH32" s="37"/>
       <c r="AI32" s="37"/>
       <c r="AJ32" s="37"/>
-      <c r="AK32" s="19"/>
-      <c r="AL32" s="19"/>
-      <c r="AM32" s="19"/>
-      <c r="AN32" s="19"/>
+      <c r="AK32" s="37"/>
+      <c r="AL32" s="37"/>
+      <c r="AM32" s="37"/>
+      <c r="AN32" s="37"/>
       <c r="AO32" s="37"/>
       <c r="AP32" s="37"/>
       <c r="AQ32" s="37"/>
@@ -7518,13 +7837,13 @@
         <v>66</v>
       </c>
       <c r="E33" s="34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F33" s="35">
-        <v>44252</v>
+        <v>44263</v>
       </c>
       <c r="G33" s="36">
-        <v>44253</v>
+        <v>44263</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="37"/>
@@ -7549,9 +7868,9 @@
       <c r="AB33" s="37"/>
       <c r="AC33" s="37"/>
       <c r="AD33" s="37"/>
-      <c r="AE33" s="40"/>
-      <c r="AF33" s="19"/>
-      <c r="AG33" s="19"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
       <c r="AH33" s="37"/>
       <c r="AI33" s="37"/>
       <c r="AJ33" s="37"/>
@@ -7561,9 +7880,9 @@
       <c r="AN33" s="37"/>
       <c r="AO33" s="37"/>
       <c r="AP33" s="37"/>
-      <c r="AQ33" s="37"/>
+      <c r="AQ33" s="19"/>
       <c r="AR33" s="37"/>
-      <c r="AS33" s="37"/>
+      <c r="AS33" s="46"/>
       <c r="AT33" s="37"/>
       <c r="AU33" s="37"/>
       <c r="AV33" s="37"/>
@@ -7595,13 +7914,13 @@
         <v>67</v>
       </c>
       <c r="E34" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="35">
-        <v>44263</v>
+        <v>44251</v>
       </c>
       <c r="G34" s="36">
-        <v>44263</v>
+        <v>44251</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="37"/>
@@ -7626,7 +7945,7 @@
       <c r="AB34" s="37"/>
       <c r="AC34" s="37"/>
       <c r="AD34" s="37"/>
-      <c r="AE34" s="37"/>
+      <c r="AE34" s="19"/>
       <c r="AF34" s="37"/>
       <c r="AG34" s="37"/>
       <c r="AH34" s="37"/>
@@ -7638,7 +7957,7 @@
       <c r="AN34" s="37"/>
       <c r="AO34" s="37"/>
       <c r="AP34" s="37"/>
-      <c r="AQ34" s="19"/>
+      <c r="AQ34" s="37"/>
       <c r="AR34" s="37"/>
       <c r="AS34" s="37"/>
       <c r="AT34" s="37"/>
@@ -7672,13 +7991,13 @@
         <v>68</v>
       </c>
       <c r="E35" s="34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F35" s="35">
-        <v>44251</v>
+        <v>44264</v>
       </c>
       <c r="G35" s="36">
-        <v>44251</v>
+        <v>44265</v>
       </c>
       <c r="H35" s="20"/>
       <c r="I35" s="37"/>
@@ -7703,7 +8022,7 @@
       <c r="AB35" s="37"/>
       <c r="AC35" s="37"/>
       <c r="AD35" s="37"/>
-      <c r="AE35" s="19"/>
+      <c r="AE35" s="37"/>
       <c r="AF35" s="37"/>
       <c r="AG35" s="37"/>
       <c r="AH35" s="37"/>
@@ -7711,13 +8030,13 @@
       <c r="AJ35" s="37"/>
       <c r="AK35" s="37"/>
       <c r="AL35" s="37"/>
-      <c r="AM35" s="37"/>
-      <c r="AN35" s="37"/>
+      <c r="AM35" s="46"/>
+      <c r="AN35" s="46"/>
       <c r="AO35" s="37"/>
       <c r="AP35" s="37"/>
-      <c r="AQ35" s="37"/>
-      <c r="AR35" s="37"/>
-      <c r="AS35" s="37"/>
+      <c r="AQ35" s="46"/>
+      <c r="AR35" s="19"/>
+      <c r="AS35" s="19"/>
       <c r="AT35" s="37"/>
       <c r="AU35" s="37"/>
       <c r="AV35" s="37"/>
@@ -7749,13 +8068,13 @@
         <v>69</v>
       </c>
       <c r="E36" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" s="35">
-        <v>44264</v>
+        <v>44256</v>
       </c>
       <c r="G36" s="36">
-        <v>44265</v>
+        <v>44256</v>
       </c>
       <c r="H36" s="20"/>
       <c r="I36" s="37"/>
@@ -7785,16 +8104,16 @@
       <c r="AG36" s="37"/>
       <c r="AH36" s="37"/>
       <c r="AI36" s="37"/>
-      <c r="AJ36" s="37"/>
+      <c r="AJ36" s="19"/>
       <c r="AK36" s="37"/>
-      <c r="AL36" s="37"/>
+      <c r="AL36" s="46"/>
       <c r="AM36" s="46"/>
-      <c r="AN36" s="46"/>
+      <c r="AN36" s="37"/>
       <c r="AO36" s="37"/>
       <c r="AP36" s="37"/>
-      <c r="AQ36" s="46"/>
-      <c r="AR36" s="19"/>
-      <c r="AS36" s="19"/>
+      <c r="AQ36" s="37"/>
+      <c r="AR36" s="37"/>
+      <c r="AS36" s="37"/>
       <c r="AT36" s="37"/>
       <c r="AU36" s="37"/>
       <c r="AV36" s="37"/>
@@ -7822,18 +8141,10 @@
       <c r="A37" s="14"/>
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
-      <c r="D37" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="34">
-        <v>2</v>
-      </c>
-      <c r="F37" s="35">
-        <v>44256</v>
-      </c>
-      <c r="G37" s="36">
-        <v>44256</v>
-      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="36"/>
       <c r="H37" s="20"/>
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
@@ -7862,10 +8173,10 @@
       <c r="AG37" s="37"/>
       <c r="AH37" s="37"/>
       <c r="AI37" s="37"/>
-      <c r="AJ37" s="19"/>
+      <c r="AJ37" s="37"/>
       <c r="AK37" s="37"/>
-      <c r="AL37" s="46"/>
-      <c r="AM37" s="46"/>
+      <c r="AL37" s="37"/>
+      <c r="AM37" s="37"/>
       <c r="AN37" s="37"/>
       <c r="AO37" s="37"/>
       <c r="AP37" s="37"/>
@@ -7966,80 +8277,82 @@
     </row>
     <row r="39" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
+      <c r="B39" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
       <c r="N39" s="20"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
-      <c r="AA39" s="37"/>
-      <c r="AB39" s="37"/>
-      <c r="AC39" s="37"/>
-      <c r="AD39" s="37"/>
-      <c r="AE39" s="37"/>
-      <c r="AF39" s="37"/>
-      <c r="AG39" s="37"/>
-      <c r="AH39" s="37"/>
-      <c r="AI39" s="37"/>
-      <c r="AJ39" s="37"/>
-      <c r="AK39" s="37"/>
-      <c r="AL39" s="37"/>
-      <c r="AM39" s="37"/>
-      <c r="AN39" s="37"/>
-      <c r="AO39" s="37"/>
-      <c r="AP39" s="37"/>
-      <c r="AQ39" s="37"/>
-      <c r="AR39" s="37"/>
-      <c r="AS39" s="37"/>
-      <c r="AT39" s="37"/>
-      <c r="AU39" s="37"/>
-      <c r="AV39" s="37"/>
-      <c r="AW39" s="37"/>
-      <c r="AX39" s="37"/>
-      <c r="AY39" s="37"/>
-      <c r="AZ39" s="37"/>
-      <c r="BA39" s="37"/>
-      <c r="BB39" s="37"/>
-      <c r="BC39" s="37"/>
-      <c r="BD39" s="37"/>
-      <c r="BE39" s="37"/>
-      <c r="BF39" s="37"/>
-      <c r="BG39" s="37"/>
-      <c r="BH39" s="37"/>
-      <c r="BI39" s="37"/>
-      <c r="BJ39" s="37"/>
-      <c r="BK39" s="37"/>
-      <c r="BL39" s="37"/>
-      <c r="BM39" s="37"/>
-      <c r="BN39" s="37"/>
-      <c r="BO39" s="37"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="20"/>
+      <c r="AI39" s="20"/>
+      <c r="AJ39" s="20"/>
+      <c r="AK39" s="20"/>
+      <c r="AL39" s="20"/>
+      <c r="AM39" s="20"/>
+      <c r="AN39" s="20"/>
+      <c r="AO39" s="20"/>
+      <c r="AP39" s="20"/>
+      <c r="AQ39" s="20"/>
+      <c r="AR39" s="20"/>
+      <c r="AS39" s="20"/>
+      <c r="AT39" s="20"/>
+      <c r="AU39" s="20"/>
+      <c r="AV39" s="20"/>
+      <c r="AW39" s="20"/>
+      <c r="AX39" s="20"/>
+      <c r="AY39" s="20"/>
+      <c r="AZ39" s="20"/>
+      <c r="BA39" s="20"/>
+      <c r="BB39" s="20"/>
+      <c r="BC39" s="20"/>
+      <c r="BD39" s="20"/>
+      <c r="BE39" s="20"/>
+      <c r="BF39" s="20"/>
+      <c r="BG39" s="20"/>
+      <c r="BH39" s="20"/>
+      <c r="BI39" s="20"/>
+      <c r="BJ39" s="20"/>
+      <c r="BK39" s="20"/>
+      <c r="BL39" s="20"/>
+      <c r="BM39" s="20"/>
+      <c r="BN39" s="20"/>
+      <c r="BO39" s="20"/>
     </row>
     <row r="40" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="16"/>
       <c r="F40" s="17"/>
       <c r="G40" s="18"/>
@@ -8106,86 +8419,84 @@
     </row>
     <row r="41" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21" t="s">
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="18"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
       <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
       <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
       <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="20"/>
-      <c r="AD41" s="20"/>
-      <c r="AE41" s="20"/>
-      <c r="AF41" s="20"/>
-      <c r="AG41" s="20"/>
-      <c r="AH41" s="20"/>
-      <c r="AI41" s="20"/>
-      <c r="AJ41" s="20"/>
-      <c r="AK41" s="20"/>
-      <c r="AL41" s="20"/>
-      <c r="AM41" s="20"/>
-      <c r="AN41" s="20"/>
-      <c r="AO41" s="20"/>
-      <c r="AP41" s="20"/>
-      <c r="AQ41" s="20"/>
-      <c r="AR41" s="20"/>
-      <c r="AS41" s="20"/>
-      <c r="AT41" s="20"/>
-      <c r="AU41" s="20"/>
-      <c r="AV41" s="20"/>
-      <c r="AW41" s="20"/>
-      <c r="AX41" s="20"/>
-      <c r="AY41" s="20"/>
-      <c r="AZ41" s="20"/>
-      <c r="BA41" s="20"/>
-      <c r="BB41" s="20"/>
-      <c r="BC41" s="20"/>
-      <c r="BD41" s="20"/>
-      <c r="BE41" s="20"/>
-      <c r="BF41" s="20"/>
-      <c r="BG41" s="20"/>
-      <c r="BH41" s="20"/>
-      <c r="BI41" s="20"/>
-      <c r="BJ41" s="20"/>
-      <c r="BK41" s="20"/>
-      <c r="BL41" s="20"/>
-      <c r="BM41" s="20"/>
-      <c r="BN41" s="20"/>
-      <c r="BO41" s="20"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="37"/>
+      <c r="AG41" s="37"/>
+      <c r="AH41" s="37"/>
+      <c r="AI41" s="37"/>
+      <c r="AJ41" s="37"/>
+      <c r="AK41" s="37"/>
+      <c r="AL41" s="37"/>
+      <c r="AM41" s="37"/>
+      <c r="AN41" s="37"/>
+      <c r="AO41" s="37"/>
+      <c r="AP41" s="37"/>
+      <c r="AQ41" s="37"/>
+      <c r="AR41" s="37"/>
+      <c r="AS41" s="37"/>
+      <c r="AT41" s="37"/>
+      <c r="AU41" s="37"/>
+      <c r="AV41" s="37"/>
+      <c r="AW41" s="37"/>
+      <c r="AX41" s="37"/>
+      <c r="AY41" s="37"/>
+      <c r="AZ41" s="37"/>
+      <c r="BA41" s="37"/>
+      <c r="BB41" s="37"/>
+      <c r="BC41" s="37"/>
+      <c r="BD41" s="37"/>
+      <c r="BE41" s="37"/>
+      <c r="BF41" s="37"/>
+      <c r="BG41" s="37"/>
+      <c r="BH41" s="37"/>
+      <c r="BI41" s="37"/>
+      <c r="BJ41" s="37"/>
+      <c r="BK41" s="37"/>
+      <c r="BL41" s="37"/>
+      <c r="BM41" s="37"/>
+      <c r="BN41" s="37"/>
+      <c r="BO41" s="37"/>
     </row>
     <row r="42" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
-      <c r="D42" s="33" t="s">
-        <v>60</v>
-      </c>
+      <c r="D42" s="33"/>
       <c r="E42" s="34"/>
       <c r="F42" s="35"/>
       <c r="G42" s="36"/>
-      <c r="H42" s="20"/>
+      <c r="H42" s="37"/>
       <c r="I42" s="37"/>
       <c r="J42" s="37"/>
       <c r="K42" s="37"/>
@@ -8200,7 +8511,7 @@
       <c r="T42" s="37"/>
       <c r="U42" s="37"/>
       <c r="V42" s="37"/>
-      <c r="W42" s="20"/>
+      <c r="W42" s="37"/>
       <c r="X42" s="37"/>
       <c r="Y42" s="37"/>
       <c r="Z42" s="37"/>
@@ -8316,159 +8627,167 @@
       <c r="BO43" s="37"/>
     </row>
     <row r="44" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A44" s="14"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
+      <c r="A44" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
       <c r="N44" s="20"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
-      <c r="AA44" s="37"/>
-      <c r="AB44" s="37"/>
-      <c r="AC44" s="37"/>
-      <c r="AD44" s="37"/>
-      <c r="AE44" s="37"/>
-      <c r="AF44" s="37"/>
-      <c r="AG44" s="37"/>
-      <c r="AH44" s="37"/>
-      <c r="AI44" s="37"/>
-      <c r="AJ44" s="37"/>
-      <c r="AK44" s="37"/>
-      <c r="AL44" s="37"/>
-      <c r="AM44" s="37"/>
-      <c r="AN44" s="37"/>
-      <c r="AO44" s="37"/>
-      <c r="AP44" s="37"/>
-      <c r="AQ44" s="37"/>
-      <c r="AR44" s="37"/>
-      <c r="AS44" s="37"/>
-      <c r="AT44" s="37"/>
-      <c r="AU44" s="37"/>
-      <c r="AV44" s="37"/>
-      <c r="AW44" s="37"/>
-      <c r="AX44" s="37"/>
-      <c r="AY44" s="37"/>
-      <c r="AZ44" s="37"/>
-      <c r="BA44" s="37"/>
-      <c r="BB44" s="37"/>
-      <c r="BC44" s="37"/>
-      <c r="BD44" s="37"/>
-      <c r="BE44" s="37"/>
-      <c r="BF44" s="37"/>
-      <c r="BG44" s="37"/>
-      <c r="BH44" s="37"/>
-      <c r="BI44" s="37"/>
-      <c r="BJ44" s="37"/>
-      <c r="BK44" s="37"/>
-      <c r="BL44" s="37"/>
-      <c r="BM44" s="37"/>
-      <c r="BN44" s="37"/>
-      <c r="BO44" s="37"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="29"/>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="13"/>
+      <c r="AI44" s="13"/>
+      <c r="AJ44" s="13"/>
+      <c r="AK44" s="13"/>
+      <c r="AL44" s="13"/>
+      <c r="AM44" s="13"/>
+      <c r="AN44" s="13"/>
+      <c r="AO44" s="13"/>
+      <c r="AP44" s="13"/>
+      <c r="AQ44" s="13"/>
+      <c r="AR44" s="13"/>
+      <c r="AS44" s="13"/>
+      <c r="AT44" s="13"/>
+      <c r="AU44" s="13"/>
+      <c r="AV44" s="13"/>
+      <c r="AW44" s="13"/>
+      <c r="AX44" s="13"/>
+      <c r="AY44" s="13"/>
+      <c r="AZ44" s="13"/>
+      <c r="BA44" s="13"/>
+      <c r="BB44" s="13"/>
+      <c r="BC44" s="13"/>
+      <c r="BD44" s="13"/>
+      <c r="BE44" s="13"/>
+      <c r="BF44" s="13"/>
+      <c r="BG44" s="13"/>
+      <c r="BH44" s="13"/>
+      <c r="BI44" s="13"/>
+      <c r="BJ44" s="13"/>
+      <c r="BK44" s="13"/>
+      <c r="BL44" s="13"/>
+      <c r="BM44" s="13"/>
+      <c r="BN44" s="13"/>
+      <c r="BO44" s="13"/>
     </row>
     <row r="45" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A45" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="21"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
       <c r="N45" s="20"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
       <c r="R45" s="20"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="13"/>
-      <c r="AB45" s="13"/>
-      <c r="AC45" s="13"/>
-      <c r="AD45" s="13"/>
-      <c r="AE45" s="29"/>
-      <c r="AF45" s="29"/>
-      <c r="AG45" s="29"/>
-      <c r="AH45" s="13"/>
-      <c r="AI45" s="13"/>
-      <c r="AJ45" s="13"/>
-      <c r="AK45" s="13"/>
-      <c r="AL45" s="13"/>
-      <c r="AM45" s="13"/>
-      <c r="AN45" s="13"/>
-      <c r="AO45" s="13"/>
-      <c r="AP45" s="13"/>
-      <c r="AQ45" s="13"/>
-      <c r="AR45" s="13"/>
-      <c r="AS45" s="13"/>
-      <c r="AT45" s="13"/>
-      <c r="AU45" s="13"/>
-      <c r="AV45" s="13"/>
-      <c r="AW45" s="13"/>
-      <c r="AX45" s="13"/>
-      <c r="AY45" s="13"/>
-      <c r="AZ45" s="13"/>
-      <c r="BA45" s="13"/>
-      <c r="BB45" s="13"/>
-      <c r="BC45" s="13"/>
-      <c r="BD45" s="13"/>
-      <c r="BE45" s="13"/>
-      <c r="BF45" s="13"/>
-      <c r="BG45" s="13"/>
-      <c r="BH45" s="13"/>
-      <c r="BI45" s="13"/>
-      <c r="BJ45" s="13"/>
-      <c r="BK45" s="13"/>
-      <c r="BL45" s="13"/>
-      <c r="BM45" s="13"/>
-      <c r="BN45" s="13"/>
-      <c r="BO45" s="13"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="20"/>
+      <c r="AE45" s="20"/>
+      <c r="AF45" s="20"/>
+      <c r="AG45" s="20"/>
+      <c r="AH45" s="20"/>
+      <c r="AI45" s="20"/>
+      <c r="AJ45" s="20"/>
+      <c r="AK45" s="20"/>
+      <c r="AL45" s="20"/>
+      <c r="AM45" s="20"/>
+      <c r="AN45" s="20"/>
+      <c r="AO45" s="20"/>
+      <c r="AP45" s="20"/>
+      <c r="AQ45" s="20"/>
+      <c r="AR45" s="20"/>
+      <c r="AS45" s="20"/>
+      <c r="AT45" s="20"/>
+      <c r="AU45" s="20"/>
+      <c r="AV45" s="20"/>
+      <c r="AW45" s="20"/>
+      <c r="AX45" s="20"/>
+      <c r="AY45" s="20"/>
+      <c r="AZ45" s="20"/>
+      <c r="BA45" s="20"/>
+      <c r="BB45" s="20"/>
+      <c r="BC45" s="20"/>
+      <c r="BD45" s="20"/>
+      <c r="BE45" s="20"/>
+      <c r="BF45" s="20"/>
+      <c r="BG45" s="20"/>
+      <c r="BH45" s="20"/>
+      <c r="BI45" s="20"/>
+      <c r="BJ45" s="20"/>
+      <c r="BK45" s="20"/>
+      <c r="BL45" s="20"/>
+      <c r="BM45" s="20"/>
+      <c r="BN45" s="20"/>
+      <c r="BO45" s="20"/>
     </row>
-    <row r="46" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:67" ht="30" x14ac:dyDescent="0.35">
       <c r="A46" s="30"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="18"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="F46" s="17">
+        <v>44229</v>
+      </c>
+      <c r="G46" s="18">
+        <v>44229</v>
+      </c>
       <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
+      <c r="I46" s="39"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
@@ -8528,15 +8847,15 @@
       <c r="BN46" s="20"/>
       <c r="BO46" s="20"/>
     </row>
-    <row r="47" spans="1:67" ht="30" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A47" s="30"/>
       <c r="B47" s="22"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="32" t="s">
-        <v>30</v>
+      <c r="C47" s="22"/>
+      <c r="D47" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="E47" s="31">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="F47" s="17">
         <v>44229</v>
@@ -8605,25 +8924,25 @@
       <c r="BN47" s="20"/>
       <c r="BO47" s="20"/>
     </row>
-    <row r="48" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:67" ht="30" x14ac:dyDescent="0.35">
       <c r="A48" s="30"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
       <c r="D48" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E48" s="31">
-        <v>1.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F48" s="17">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="G48" s="18">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="H48" s="20"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="39"/>
       <c r="K48" s="20"/>
       <c r="L48" s="20"/>
       <c r="M48" s="20"/>
@@ -8682,28 +9001,28 @@
       <c r="BN48" s="20"/>
       <c r="BO48" s="20"/>
     </row>
-    <row r="49" spans="1:67" ht="30" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A49" s="30"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="31">
-        <v>2.2999999999999998</v>
+        <v>33</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="F49" s="17">
-        <v>44230</v>
+        <v>44232</v>
       </c>
       <c r="G49" s="18">
-        <v>44230</v>
+        <v>44233</v>
       </c>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
-      <c r="J49" s="39"/>
+      <c r="J49" s="20"/>
       <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
       <c r="N49" s="20"/>
       <c r="O49" s="20"/>
       <c r="P49" s="20"/>
@@ -8764,23 +9083,17 @@
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="17">
-        <v>44232</v>
-      </c>
-      <c r="G50" s="18">
-        <v>44233</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E50" s="31"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="18"/>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
       <c r="N50" s="20"/>
       <c r="O50" s="20"/>
       <c r="P50" s="20"/>
@@ -8838,18 +9151,24 @@
     </row>
     <row r="51" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A51" s="30"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="18"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G51" s="18">
+        <v>44231</v>
+      </c>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="39"/>
       <c r="L51" s="20"/>
       <c r="M51" s="20"/>
       <c r="N51" s="20"/>
@@ -8912,10 +9231,10 @@
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
       <c r="D52" s="38" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E52" s="31">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F52" s="17">
         <v>44231</v>
@@ -8989,7 +9308,7 @@
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
       <c r="D53" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E53" s="31">
         <v>0.25</v>
@@ -9066,21 +9385,15 @@
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
       <c r="D54" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E54" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="F54" s="17">
-        <v>44231</v>
-      </c>
-      <c r="G54" s="18">
-        <v>44231</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E54" s="31"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="18"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
-      <c r="K54" s="39"/>
+      <c r="K54" s="20"/>
       <c r="L54" s="20"/>
       <c r="M54" s="20"/>
       <c r="N54" s="20"/>
@@ -9142,9 +9455,7 @@
       <c r="A55" s="30"/>
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
-      <c r="D55" s="38" t="s">
-        <v>55</v>
-      </c>
+      <c r="D55" s="38"/>
       <c r="E55" s="31"/>
       <c r="F55" s="17"/>
       <c r="G55" s="18"/>
@@ -9213,9 +9524,7 @@
       <c r="A56" s="30"/>
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
-      <c r="D56" s="38" t="s">
-        <v>71</v>
-      </c>
+      <c r="D56" s="38"/>
       <c r="E56" s="31"/>
       <c r="F56" s="17"/>
       <c r="G56" s="18"/>
@@ -9282,9 +9591,11 @@
     </row>
     <row r="57" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A57" s="30"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="38"/>
+      <c r="B57" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
       <c r="E57" s="31"/>
       <c r="F57" s="17"/>
       <c r="G57" s="18"/>
@@ -9351,9 +9662,11 @@
     </row>
     <row r="58" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A58" s="30"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="38"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="21"/>
       <c r="E58" s="31"/>
       <c r="F58" s="17"/>
       <c r="G58" s="18"/>
@@ -9420,16 +9733,22 @@
     </row>
     <row r="59" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A59" s="30"/>
-      <c r="B59" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="31">
+        <v>1.45</v>
+      </c>
+      <c r="F59" s="17">
+        <v>44228</v>
+      </c>
+      <c r="G59" s="18">
+        <v>44229</v>
+      </c>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
       <c r="J59" s="20"/>
       <c r="K59" s="20"/>
       <c r="L59" s="20"/>
@@ -9491,13 +9810,17 @@
     </row>
     <row r="60" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A60" s="30"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="17"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="31">
+        <v>11.65</v>
+      </c>
+      <c r="F60" s="17">
+        <v>44235</v>
+      </c>
       <c r="G60" s="18"/>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
@@ -9506,17 +9829,17 @@
       <c r="L60" s="20"/>
       <c r="M60" s="20"/>
       <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
       <c r="R60" s="20"/>
-      <c r="S60" s="20"/>
+      <c r="S60" s="39"/>
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
-      <c r="V60" s="20"/>
-      <c r="W60" s="20"/>
-      <c r="X60" s="20"/>
-      <c r="Y60" s="20"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="39"/>
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
@@ -9530,7 +9853,7 @@
       <c r="AJ60" s="20"/>
       <c r="AK60" s="20"/>
       <c r="AL60" s="20"/>
-      <c r="AM60" s="20"/>
+      <c r="AM60" s="39"/>
       <c r="AN60" s="20"/>
       <c r="AO60" s="20"/>
       <c r="AP60" s="20"/>
@@ -9565,19 +9888,13 @@
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
       <c r="D61" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E61" s="31">
-        <v>1.45</v>
-      </c>
-      <c r="F61" s="17">
-        <v>44228</v>
-      </c>
-      <c r="G61" s="18">
-        <v>44229</v>
-      </c>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
+        <v>41</v>
+      </c>
+      <c r="E61" s="31"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
@@ -9641,34 +9958,36 @@
       <c r="A62" s="30"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
-      <c r="D62" s="33" t="s">
-        <v>56</v>
+      <c r="D62" s="38" t="s">
+        <v>45</v>
       </c>
       <c r="E62" s="31">
-        <v>11.65</v>
+        <v>1.4</v>
       </c>
       <c r="F62" s="17">
-        <v>44235</v>
-      </c>
-      <c r="G62" s="18"/>
+        <v>44231</v>
+      </c>
+      <c r="G62" s="18">
+        <v>44231</v>
+      </c>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
       <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
+      <c r="K62" s="39"/>
       <c r="L62" s="20"/>
       <c r="M62" s="20"/>
       <c r="N62" s="20"/>
-      <c r="O62" s="39"/>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="39"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
       <c r="R62" s="20"/>
-      <c r="S62" s="39"/>
+      <c r="S62" s="20"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
-      <c r="V62" s="39"/>
-      <c r="W62" s="39"/>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="20"/>
+      <c r="X62" s="20"/>
+      <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
@@ -9682,7 +10001,7 @@
       <c r="AJ62" s="20"/>
       <c r="AK62" s="20"/>
       <c r="AL62" s="20"/>
-      <c r="AM62" s="39"/>
+      <c r="AM62" s="20"/>
       <c r="AN62" s="20"/>
       <c r="AO62" s="20"/>
       <c r="AP62" s="20"/>
@@ -9717,15 +10036,21 @@
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
       <c r="D63" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" s="31"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="E63" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="F63" s="17">
+        <v>44231</v>
+      </c>
+      <c r="G63" s="18">
+        <v>44231</v>
+      </c>
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="39"/>
       <c r="L63" s="20"/>
       <c r="M63" s="20"/>
       <c r="N63" s="20"/>
@@ -9787,22 +10112,14 @@
       <c r="A64" s="30"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
-      <c r="D64" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E64" s="31">
-        <v>1.4</v>
-      </c>
-      <c r="F64" s="17">
-        <v>44231</v>
-      </c>
-      <c r="G64" s="18">
-        <v>44231</v>
-      </c>
+      <c r="D64" s="23"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="18"/>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
-      <c r="K64" s="39"/>
+      <c r="K64" s="20"/>
       <c r="L64" s="20"/>
       <c r="M64" s="20"/>
       <c r="N64" s="20"/>
@@ -9864,22 +10181,14 @@
       <c r="A65" s="30"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
-      <c r="D65" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E65" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="F65" s="17">
-        <v>44231</v>
-      </c>
-      <c r="G65" s="18">
-        <v>44231</v>
-      </c>
+      <c r="D65" s="23"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="18"/>
       <c r="H65" s="20"/>
       <c r="I65" s="20"/>
       <c r="J65" s="20"/>
-      <c r="K65" s="39"/>
+      <c r="K65" s="20"/>
       <c r="L65" s="20"/>
       <c r="M65" s="20"/>
       <c r="N65" s="20"/>
@@ -9939,9 +10248,11 @@
     </row>
     <row r="66" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A66" s="30"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="23"/>
+      <c r="B66" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
       <c r="E66" s="31"/>
       <c r="F66" s="17"/>
       <c r="G66" s="18"/>
@@ -10009,7 +10320,9 @@
     <row r="67" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A67" s="30"/>
       <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
+      <c r="C67" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="D67" s="23"/>
       <c r="E67" s="31"/>
       <c r="F67" s="17"/>
@@ -10077,14 +10390,20 @@
     </row>
     <row r="68" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A68" s="30"/>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="18"/>
+      <c r="E68" s="31">
+        <v>1</v>
+      </c>
+      <c r="F68" s="17">
+        <v>44251</v>
+      </c>
+      <c r="G68" s="18">
+        <v>44251</v>
+      </c>
       <c r="H68" s="20"/>
       <c r="I68" s="20"/>
       <c r="J68" s="20"/>
@@ -10108,7 +10427,7 @@
       <c r="AB68" s="20"/>
       <c r="AC68" s="20"/>
       <c r="AD68" s="20"/>
-      <c r="AE68" s="20"/>
+      <c r="AE68" s="39"/>
       <c r="AF68" s="20"/>
       <c r="AG68" s="20"/>
       <c r="AH68" s="20"/>
@@ -10149,13 +10468,19 @@
     <row r="69" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A69" s="30"/>
       <c r="B69" s="25"/>
-      <c r="C69" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="18"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="F69" s="17">
+        <v>44251</v>
+      </c>
+      <c r="G69" s="18">
+        <v>44251</v>
+      </c>
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
@@ -10179,7 +10504,7 @@
       <c r="AB69" s="20"/>
       <c r="AC69" s="20"/>
       <c r="AD69" s="20"/>
-      <c r="AE69" s="20"/>
+      <c r="AE69" s="39"/>
       <c r="AF69" s="20"/>
       <c r="AG69" s="20"/>
       <c r="AH69" s="20"/>
@@ -10222,16 +10547,16 @@
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
       <c r="D70" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E70" s="31">
-        <v>1</v>
+        <v>7.3</v>
       </c>
       <c r="F70" s="17">
-        <v>44251</v>
+        <v>44253</v>
       </c>
       <c r="G70" s="18">
-        <v>44251</v>
+        <v>44257</v>
       </c>
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
@@ -10256,13 +10581,13 @@
       <c r="AB70" s="20"/>
       <c r="AC70" s="20"/>
       <c r="AD70" s="20"/>
-      <c r="AE70" s="39"/>
+      <c r="AE70" s="20"/>
       <c r="AF70" s="20"/>
-      <c r="AG70" s="20"/>
+      <c r="AG70" s="39"/>
       <c r="AH70" s="20"/>
       <c r="AI70" s="20"/>
-      <c r="AJ70" s="20"/>
-      <c r="AK70" s="20"/>
+      <c r="AJ70" s="39"/>
+      <c r="AK70" s="39"/>
       <c r="AL70" s="20"/>
       <c r="AM70" s="20"/>
       <c r="AN70" s="20"/>
@@ -10299,16 +10624,16 @@
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
       <c r="D71" s="33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E71" s="31">
-        <v>0.2</v>
+        <v>6.8</v>
       </c>
       <c r="F71" s="17">
         <v>44251</v>
       </c>
       <c r="G71" s="18">
-        <v>44251</v>
+        <v>44258</v>
       </c>
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
@@ -10334,13 +10659,13 @@
       <c r="AC71" s="20"/>
       <c r="AD71" s="20"/>
       <c r="AE71" s="39"/>
-      <c r="AF71" s="20"/>
+      <c r="AF71" s="39"/>
       <c r="AG71" s="20"/>
       <c r="AH71" s="20"/>
       <c r="AI71" s="20"/>
       <c r="AJ71" s="20"/>
-      <c r="AK71" s="20"/>
-      <c r="AL71" s="20"/>
+      <c r="AK71" s="39"/>
+      <c r="AL71" s="39"/>
       <c r="AM71" s="20"/>
       <c r="AN71" s="20"/>
       <c r="AO71" s="20"/>
@@ -10376,17 +10701,15 @@
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
       <c r="D72" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E72" s="31">
-        <v>7.3</v>
+        <v>66</v>
+      </c>
+      <c r="E72" s="45">
+        <v>0.3</v>
       </c>
       <c r="F72" s="17">
-        <v>44253</v>
-      </c>
-      <c r="G72" s="18">
-        <v>44257</v>
-      </c>
+        <v>44252</v>
+      </c>
+      <c r="G72" s="18"/>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
@@ -10411,12 +10734,12 @@
       <c r="AC72" s="20"/>
       <c r="AD72" s="20"/>
       <c r="AE72" s="20"/>
-      <c r="AF72" s="20"/>
-      <c r="AG72" s="39"/>
+      <c r="AF72" s="39"/>
+      <c r="AG72" s="20"/>
       <c r="AH72" s="20"/>
       <c r="AI72" s="20"/>
-      <c r="AJ72" s="39"/>
-      <c r="AK72" s="39"/>
+      <c r="AJ72" s="20"/>
+      <c r="AK72" s="20"/>
       <c r="AL72" s="20"/>
       <c r="AM72" s="20"/>
       <c r="AN72" s="20"/>
@@ -10424,7 +10747,7 @@
       <c r="AP72" s="20"/>
       <c r="AQ72" s="20"/>
       <c r="AR72" s="20"/>
-      <c r="AS72" s="20"/>
+      <c r="AS72" s="39"/>
       <c r="AT72" s="20"/>
       <c r="AU72" s="20"/>
       <c r="AV72" s="20"/>
@@ -10453,16 +10776,16 @@
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
       <c r="D73" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E73" s="31">
-        <v>6.8</v>
+        <v>0.2</v>
       </c>
       <c r="F73" s="17">
         <v>44251</v>
       </c>
       <c r="G73" s="18">
-        <v>44258</v>
+        <v>44251</v>
       </c>
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
@@ -10488,13 +10811,13 @@
       <c r="AC73" s="20"/>
       <c r="AD73" s="20"/>
       <c r="AE73" s="39"/>
-      <c r="AF73" s="39"/>
+      <c r="AF73" s="20"/>
       <c r="AG73" s="20"/>
       <c r="AH73" s="20"/>
       <c r="AI73" s="20"/>
       <c r="AJ73" s="20"/>
-      <c r="AK73" s="39"/>
-      <c r="AL73" s="39"/>
+      <c r="AK73" s="20"/>
+      <c r="AL73" s="20"/>
       <c r="AM73" s="20"/>
       <c r="AN73" s="20"/>
       <c r="AO73" s="20"/>
@@ -10530,15 +10853,17 @@
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
       <c r="D74" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E74" s="45">
-        <v>0.3</v>
+        <v>68</v>
+      </c>
+      <c r="E74" s="31">
+        <v>8.6999999999999993</v>
       </c>
       <c r="F74" s="17">
-        <v>44252</v>
-      </c>
-      <c r="G74" s="18"/>
+        <v>44259</v>
+      </c>
+      <c r="G74" s="18">
+        <v>44264</v>
+      </c>
       <c r="H74" s="20"/>
       <c r="I74" s="20"/>
       <c r="J74" s="20"/>
@@ -10563,20 +10888,20 @@
       <c r="AC74" s="20"/>
       <c r="AD74" s="20"/>
       <c r="AE74" s="20"/>
-      <c r="AF74" s="39"/>
+      <c r="AF74" s="20"/>
       <c r="AG74" s="20"/>
       <c r="AH74" s="20"/>
       <c r="AI74" s="20"/>
       <c r="AJ74" s="20"/>
       <c r="AK74" s="20"/>
       <c r="AL74" s="20"/>
-      <c r="AM74" s="20"/>
-      <c r="AN74" s="20"/>
+      <c r="AM74" s="39"/>
+      <c r="AN74" s="39"/>
       <c r="AO74" s="20"/>
       <c r="AP74" s="20"/>
-      <c r="AQ74" s="20"/>
-      <c r="AR74" s="20"/>
-      <c r="AS74" s="20"/>
+      <c r="AQ74" s="39"/>
+      <c r="AR74" s="39"/>
+      <c r="AS74" s="39"/>
       <c r="AT74" s="20"/>
       <c r="AU74" s="20"/>
       <c r="AV74" s="20"/>
@@ -10605,16 +10930,16 @@
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
       <c r="D75" s="33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E75" s="31">
-        <v>0.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F75" s="17">
-        <v>44251</v>
+        <v>44258</v>
       </c>
       <c r="G75" s="18">
-        <v>44251</v>
+        <v>44259</v>
       </c>
       <c r="H75" s="20"/>
       <c r="I75" s="20"/>
@@ -10639,15 +10964,15 @@
       <c r="AB75" s="20"/>
       <c r="AC75" s="20"/>
       <c r="AD75" s="20"/>
-      <c r="AE75" s="39"/>
+      <c r="AE75" s="20"/>
       <c r="AF75" s="20"/>
       <c r="AG75" s="20"/>
       <c r="AH75" s="20"/>
       <c r="AI75" s="20"/>
       <c r="AJ75" s="20"/>
       <c r="AK75" s="20"/>
-      <c r="AL75" s="20"/>
-      <c r="AM75" s="20"/>
+      <c r="AL75" s="39"/>
+      <c r="AM75" s="39"/>
       <c r="AN75" s="20"/>
       <c r="AO75" s="20"/>
       <c r="AP75" s="20"/>
@@ -10681,15 +11006,9 @@
       <c r="A76" s="30"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
-      <c r="D76" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="31">
-        <v>5.2</v>
-      </c>
-      <c r="F76" s="17">
-        <v>44259</v>
-      </c>
+      <c r="D76" s="23"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="17"/>
       <c r="G76" s="18"/>
       <c r="H76" s="20"/>
       <c r="I76" s="20"/>
@@ -10722,11 +11041,11 @@
       <c r="AJ76" s="20"/>
       <c r="AK76" s="20"/>
       <c r="AL76" s="20"/>
-      <c r="AM76" s="39"/>
+      <c r="AM76" s="20"/>
       <c r="AN76" s="20"/>
       <c r="AO76" s="20"/>
       <c r="AP76" s="20"/>
-      <c r="AQ76" s="39"/>
+      <c r="AQ76" s="20"/>
       <c r="AR76" s="20"/>
       <c r="AS76" s="20"/>
       <c r="AT76" s="20"/>
@@ -10756,18 +11075,10 @@
       <c r="A77" s="30"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
-      <c r="D77" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E77" s="31">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F77" s="17">
-        <v>44258</v>
-      </c>
-      <c r="G77" s="18">
-        <v>44259</v>
-      </c>
+      <c r="D77" s="23"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="18"/>
       <c r="H77" s="20"/>
       <c r="I77" s="20"/>
       <c r="J77" s="20"/>
@@ -10798,8 +11109,8 @@
       <c r="AI77" s="20"/>
       <c r="AJ77" s="20"/>
       <c r="AK77" s="20"/>
-      <c r="AL77" s="39"/>
-      <c r="AM77" s="39"/>
+      <c r="AL77" s="20"/>
+      <c r="AM77" s="20"/>
       <c r="AN77" s="20"/>
       <c r="AO77" s="20"/>
       <c r="AP77" s="20"/>
@@ -10831,9 +11142,11 @@
     </row>
     <row r="78" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A78" s="30"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="23"/>
+      <c r="B78" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
       <c r="E78" s="31"/>
       <c r="F78" s="17"/>
       <c r="G78" s="18"/>
@@ -10900,9 +11213,11 @@
     </row>
     <row r="79" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A79" s="30"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="23"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" s="21"/>
       <c r="E79" s="31"/>
       <c r="F79" s="17"/>
       <c r="G79" s="18"/>
@@ -10969,12 +11284,14 @@
     </row>
     <row r="80" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A80" s="30"/>
-      <c r="B80" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="31"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" s="31">
+        <v>1</v>
+      </c>
       <c r="F80" s="17"/>
       <c r="G80" s="18"/>
       <c r="H80" s="20"/>
@@ -11040,11 +11357,9 @@
     </row>
     <row r="81" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A81" s="30"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D81" s="21"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="23"/>
       <c r="E81" s="31"/>
       <c r="F81" s="17"/>
       <c r="G81" s="18"/>
@@ -11113,12 +11428,8 @@
       <c r="A82" s="30"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
-      <c r="D82" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E82" s="31">
-        <v>1</v>
-      </c>
+      <c r="D82" s="23"/>
+      <c r="E82" s="31"/>
       <c r="F82" s="17"/>
       <c r="G82" s="18"/>
       <c r="H82" s="20"/>
@@ -11182,144 +11493,6 @@
       <c r="BN82" s="20"/>
       <c r="BO82" s="20"/>
     </row>
-    <row r="83" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A83" s="30"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20"/>
-      <c r="N83" s="20"/>
-      <c r="O83" s="20"/>
-      <c r="P83" s="20"/>
-      <c r="Q83" s="20"/>
-      <c r="R83" s="20"/>
-      <c r="S83" s="20"/>
-      <c r="T83" s="20"/>
-      <c r="U83" s="20"/>
-      <c r="V83" s="20"/>
-      <c r="W83" s="20"/>
-      <c r="X83" s="20"/>
-      <c r="Y83" s="20"/>
-      <c r="Z83" s="20"/>
-      <c r="AA83" s="20"/>
-      <c r="AB83" s="20"/>
-      <c r="AC83" s="20"/>
-      <c r="AD83" s="20"/>
-      <c r="AE83" s="20"/>
-      <c r="AF83" s="20"/>
-      <c r="AG83" s="20"/>
-      <c r="AH83" s="20"/>
-      <c r="AI83" s="20"/>
-      <c r="AJ83" s="20"/>
-      <c r="AK83" s="20"/>
-      <c r="AL83" s="20"/>
-      <c r="AM83" s="20"/>
-      <c r="AN83" s="20"/>
-      <c r="AO83" s="20"/>
-      <c r="AP83" s="20"/>
-      <c r="AQ83" s="20"/>
-      <c r="AR83" s="20"/>
-      <c r="AS83" s="20"/>
-      <c r="AT83" s="20"/>
-      <c r="AU83" s="20"/>
-      <c r="AV83" s="20"/>
-      <c r="AW83" s="20"/>
-      <c r="AX83" s="20"/>
-      <c r="AY83" s="20"/>
-      <c r="AZ83" s="20"/>
-      <c r="BA83" s="20"/>
-      <c r="BB83" s="20"/>
-      <c r="BC83" s="20"/>
-      <c r="BD83" s="20"/>
-      <c r="BE83" s="20"/>
-      <c r="BF83" s="20"/>
-      <c r="BG83" s="20"/>
-      <c r="BH83" s="20"/>
-      <c r="BI83" s="20"/>
-      <c r="BJ83" s="20"/>
-      <c r="BK83" s="20"/>
-      <c r="BL83" s="20"/>
-      <c r="BM83" s="20"/>
-      <c r="BN83" s="20"/>
-      <c r="BO83" s="20"/>
-    </row>
-    <row r="84" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A84" s="30"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="20"/>
-      <c r="S84" s="20"/>
-      <c r="T84" s="20"/>
-      <c r="U84" s="20"/>
-      <c r="V84" s="20"/>
-      <c r="W84" s="20"/>
-      <c r="X84" s="20"/>
-      <c r="Y84" s="20"/>
-      <c r="Z84" s="20"/>
-      <c r="AA84" s="20"/>
-      <c r="AB84" s="20"/>
-      <c r="AC84" s="20"/>
-      <c r="AD84" s="20"/>
-      <c r="AE84" s="20"/>
-      <c r="AF84" s="20"/>
-      <c r="AG84" s="20"/>
-      <c r="AH84" s="20"/>
-      <c r="AI84" s="20"/>
-      <c r="AJ84" s="20"/>
-      <c r="AK84" s="20"/>
-      <c r="AL84" s="20"/>
-      <c r="AM84" s="20"/>
-      <c r="AN84" s="20"/>
-      <c r="AO84" s="20"/>
-      <c r="AP84" s="20"/>
-      <c r="AQ84" s="20"/>
-      <c r="AR84" s="20"/>
-      <c r="AS84" s="20"/>
-      <c r="AT84" s="20"/>
-      <c r="AU84" s="20"/>
-      <c r="AV84" s="20"/>
-      <c r="AW84" s="20"/>
-      <c r="AX84" s="20"/>
-      <c r="AY84" s="20"/>
-      <c r="AZ84" s="20"/>
-      <c r="BA84" s="20"/>
-      <c r="BB84" s="20"/>
-      <c r="BC84" s="20"/>
-      <c r="BD84" s="20"/>
-      <c r="BE84" s="20"/>
-      <c r="BF84" s="20"/>
-      <c r="BG84" s="20"/>
-      <c r="BH84" s="20"/>
-      <c r="BI84" s="20"/>
-      <c r="BJ84" s="20"/>
-      <c r="BK84" s="20"/>
-      <c r="BL84" s="20"/>
-      <c r="BM84" s="20"/>
-      <c r="BN84" s="20"/>
-      <c r="BO84" s="20"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
@@ -11330,380 +11503,492 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="cellIs" dxfId="357" priority="997" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="1029" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="998" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="1030" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I8 H9:J9 J21:X21 H47:H48 H49:I49 H52:J54 H64:J65 H50:K50 H10:N10 I22:O22 R22 T22:U22 X22 H62:N62 R62 T62 I23:X27 H25:H27 Y25:Z27 H82:U82 I42:V42 H32:AF32 H30:AD31 H35:AD35 H33:AD33 H37:AI37 H70:AD71 H75:AD75 L20:BO20 K7:BO7 P9:BO9 I43:BO44 L8:BO8 T10:BO10 Y11:BO15 H63:BO63 J61:BO61 H51:BO51 J47:BO48 K49:BO49 L52:BO54 L64:BO65 N50:BO50 H45:BO46 Z62:AL62 AA21:BO27 H83:BO84 X82:BO82 H55:BO60 AF30:BO31 AF35:BO35 AH33:BO33 AO32:BO32 AR34:BO34 H72:AF72 AF70:BO71 AF75:BO75 H38:BO40 X41:BO42 H28:BO29 H66:BO69 H5:BO6 AR36:BO37 H74:AE74 H73:AD73 AH32:AJ32 AG74:BO74 AH72:AI72 AL72:BO72 AG73:AJ73 AM73:BO73 H76:AL76 H78:BO81 H77:AK77 AK37:AQ37 AN77:BO77 AN62:BO62 H34:AP34 H36:AQ36 AN76:AP76 AR76:BO76 H11:U15 V13:W15 H16:BO19">
-    <cfRule type="expression" dxfId="355" priority="993" stopIfTrue="1">
+  <conditionalFormatting sqref="H8:I8 H9:J9 J20:X20 H46:H47 H48:I48 H51:J53 H62:J63 H49:K49 H10:N10 I21:O21 R21 T21:U21 X21 H60:N60 R60 T60 I22:X26 H24:H26 Y24:Z26 H80:U80 I41:V41 H31:AF31 H29:AD30 H34:AD34 H32:AD32 H36:AI36 H68:AD69 H73:AD73 L19:BO19 K7:BO7 P9:BO9 I42:BO43 L8:BO8 T10:BO10 Y11:BO14 H61:BO61 J59:BO59 H50:BO50 J46:BO47 K48:BO48 L51:BO53 L62:BO63 N49:BO49 H44:BO45 Z60:AL60 AA20:BO26 H81:BO82 X80:BO80 AF29:BO30 AF34:BO34 AH32:BO32 AO31:BO31 H70:AF70 AF68:BO69 AF73:BO73 H37:BO39 X40:BO41 H27:BO28 H64:BO67 H5:BO6 AR35:BO36 H72:AE72 H71:AD71 AH31:AJ31 AG72:AQ72 AH70:AI70 AL70:BO70 AG71:AJ71 AM71:BO71 H74:AL74 H76:BO79 H75:AK75 AK36:AQ36 AN75:BO75 AN60:BO60 H33:AP33 H35:AQ35 AO74:AP74 AT74:BO74 H11:U14 V13:W14 H15:BO18 AT72:BO72 H54:BO58 AR33:BO33">
+    <cfRule type="expression" dxfId="387" priority="1025" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="994" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="1026" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="995" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="1027" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="996" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="1028" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:J20">
-    <cfRule type="expression" dxfId="351" priority="961" stopIfTrue="1">
+  <conditionalFormatting sqref="H19:J19">
+    <cfRule type="expression" dxfId="383" priority="993" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="962" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="994" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="963" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="995" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="964" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="996" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="347" priority="485" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="517" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="518" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="519" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="520" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="343" priority="445" stopIfTrue="1">
+  <conditionalFormatting sqref="K19">
+    <cfRule type="expression" dxfId="375" priority="477" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="478" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="479" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="480" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="339" priority="457" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="489" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="490" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="491" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="492" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="335" priority="473" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="505" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="506" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="475" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="507" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="476" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="508" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="331" priority="469" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="501" stopIfTrue="1">
       <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="502" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="503" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="504" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="327" priority="461" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="493" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="494" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="495" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="496" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="323" priority="425" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="457" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="458" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="459" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="460" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="319" priority="453" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="485" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="486" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="487" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="488" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42:H44">
-    <cfRule type="expression" dxfId="315" priority="417" stopIfTrue="1">
+  <conditionalFormatting sqref="H41:H43">
+    <cfRule type="expression" dxfId="347" priority="449" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="450" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="451" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="452" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="311" priority="441" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="473" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="474" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="475" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="476" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:Q10 S10">
-    <cfRule type="expression" dxfId="307" priority="433" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="465" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="466" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="467" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="468" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="303" priority="429" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="461" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="462" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="463" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="464" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="299" priority="373" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="405" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="406" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="407" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="376" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="295" priority="349" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="350" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="351" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="352" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y21 Y23:Y24">
-    <cfRule type="expression" dxfId="291" priority="397" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="398" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="399" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="400" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z21:Z24">
-    <cfRule type="expression" dxfId="287" priority="393" stopIfTrue="1">
-      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="394" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="395" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="396" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="expression" dxfId="283" priority="389" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="390" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="391" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="408" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="279" priority="385" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="381" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="382" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="383" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="384" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y20 Y22:Y23">
+    <cfRule type="expression" dxfId="323" priority="429" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="430" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="431" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="432" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z20:Z23">
+    <cfRule type="expression" dxfId="319" priority="425" stopIfTrue="1">
+      <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="318" priority="426" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="317" priority="427" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="428" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="expression" dxfId="315" priority="421" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="314" priority="422" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="423" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="424" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="expression" dxfId="311" priority="417" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="418" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="309" priority="419" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="308" priority="420" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="expression" dxfId="275" priority="369" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="401" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="402" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="403" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="404" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
-    <cfRule type="expression" dxfId="271" priority="365" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="397" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="398" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="399" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="400" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X13:X15">
-    <cfRule type="expression" dxfId="267" priority="361" stopIfTrue="1">
+  <conditionalFormatting sqref="X13:X14">
+    <cfRule type="expression" dxfId="299" priority="393" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="394" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="395" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="396" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H24">
-    <cfRule type="expression" dxfId="263" priority="345" stopIfTrue="1">
+  <conditionalFormatting sqref="H22:H23">
+    <cfRule type="expression" dxfId="295" priority="377" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="378" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="379" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="380" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="259" priority="333" stopIfTrue="1">
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="291" priority="365" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="366" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="367" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="368" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I61">
-    <cfRule type="expression" dxfId="255" priority="337" stopIfTrue="1">
+  <conditionalFormatting sqref="I59">
+    <cfRule type="expression" dxfId="287" priority="369" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="370" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="371" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="372" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="expression" dxfId="283" priority="361" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="362" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="281" priority="363" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="364" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
+    <cfRule type="expression" dxfId="279" priority="357" stopIfTrue="1">
+      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="358" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="359" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="360" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="expression" dxfId="275" priority="353" stopIfTrue="1">
+      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="354" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="355" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="356" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="expression" dxfId="271" priority="349" stopIfTrue="1">
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="350" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="269" priority="351" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="352" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="expression" dxfId="267" priority="345" stopIfTrue="1">
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="346" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="347" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="348" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="expression" dxfId="263" priority="341" stopIfTrue="1">
+      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="342" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="343" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="344" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
+    <cfRule type="expression" dxfId="259" priority="337" stopIfTrue="1">
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="338" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="339" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="340" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53">
+    <cfRule type="expression" dxfId="255" priority="333" stopIfTrue="1">
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="334" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="335" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="336" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51">
     <cfRule type="expression" dxfId="251" priority="329" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="250" priority="330" operator="equal">
       <formula>1</formula>
@@ -11715,9 +12000,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
+  <conditionalFormatting sqref="K63">
     <cfRule type="expression" dxfId="247" priority="325" stopIfTrue="1">
-      <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="246" priority="326" operator="equal">
       <formula>1</formula>
@@ -11729,9 +12014,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="K62">
     <cfRule type="expression" dxfId="243" priority="321" stopIfTrue="1">
-      <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="242" priority="322" operator="equal">
       <formula>1</formula>
@@ -11743,9 +12028,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
+  <conditionalFormatting sqref="L49">
     <cfRule type="expression" dxfId="239" priority="317" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="238" priority="318" operator="equal">
       <formula>1</formula>
@@ -11757,9 +12042,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
+  <conditionalFormatting sqref="R10">
     <cfRule type="expression" dxfId="235" priority="313" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="234" priority="314" operator="equal">
       <formula>1</formula>
@@ -11771,9 +12056,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
+  <conditionalFormatting sqref="P21">
     <cfRule type="expression" dxfId="231" priority="309" stopIfTrue="1">
-      <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="230" priority="310" operator="equal">
       <formula>1</formula>
@@ -11785,9 +12070,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
+  <conditionalFormatting sqref="Q21">
     <cfRule type="expression" dxfId="227" priority="305" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="226" priority="306" operator="equal">
       <formula>1</formula>
@@ -11799,9 +12084,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
+  <conditionalFormatting sqref="S21">
     <cfRule type="expression" dxfId="223" priority="301" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="222" priority="302" operator="equal">
       <formula>1</formula>
@@ -11813,9 +12098,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
+  <conditionalFormatting sqref="V21">
     <cfRule type="expression" dxfId="219" priority="297" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="218" priority="298" operator="equal">
       <formula>1</formula>
@@ -11827,9 +12112,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K65">
+  <conditionalFormatting sqref="O60">
     <cfRule type="expression" dxfId="215" priority="293" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="214" priority="294" operator="equal">
       <formula>1</formula>
@@ -11841,9 +12126,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64">
+  <conditionalFormatting sqref="P60">
     <cfRule type="expression" dxfId="211" priority="289" stopIfTrue="1">
-      <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="210" priority="290" operator="equal">
       <formula>1</formula>
@@ -11855,9 +12140,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L50">
+  <conditionalFormatting sqref="M49">
     <cfRule type="expression" dxfId="207" priority="285" stopIfTrue="1">
-      <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="206" priority="286" operator="equal">
       <formula>1</formula>
@@ -11869,9 +12154,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
+  <conditionalFormatting sqref="Q60">
     <cfRule type="expression" dxfId="203" priority="281" stopIfTrue="1">
-      <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="202" priority="282" operator="equal">
       <formula>1</formula>
@@ -11883,9 +12168,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P22">
+  <conditionalFormatting sqref="S60">
     <cfRule type="expression" dxfId="199" priority="277" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="198" priority="278" operator="equal">
       <formula>1</formula>
@@ -11897,289 +12182,289 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
-    <cfRule type="expression" dxfId="195" priority="273" stopIfTrue="1">
-      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="274" operator="equal">
+  <conditionalFormatting sqref="V60">
+    <cfRule type="expression" dxfId="195" priority="269" stopIfTrue="1">
+      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="270" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="271" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="272" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S22">
-    <cfRule type="expression" dxfId="191" priority="269" stopIfTrue="1">
-      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="270" operator="equal">
+  <conditionalFormatting sqref="U60">
+    <cfRule type="expression" dxfId="191" priority="265" stopIfTrue="1">
+      <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="266" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="267" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="268" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V22">
-    <cfRule type="expression" dxfId="187" priority="265" stopIfTrue="1">
+  <conditionalFormatting sqref="H40:V40">
+    <cfRule type="expression" dxfId="187" priority="257" stopIfTrue="1">
+      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="258" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="259" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="260" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V80">
+    <cfRule type="expression" dxfId="183" priority="237" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="238" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="239" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="240" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O62">
-    <cfRule type="expression" dxfId="183" priority="261" stopIfTrue="1">
-      <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="262" operator="equal">
+  <conditionalFormatting sqref="W40">
+    <cfRule type="expression" dxfId="179" priority="225" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="226" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="227" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="228" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P62">
-    <cfRule type="expression" dxfId="179" priority="257" stopIfTrue="1">
-      <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="258" operator="equal">
+  <conditionalFormatting sqref="W21">
+    <cfRule type="expression" dxfId="175" priority="221" stopIfTrue="1">
+      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="222" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="223" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="260" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M50">
-    <cfRule type="expression" dxfId="175" priority="253" stopIfTrue="1">
-      <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="254" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="255" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="256" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q62">
-    <cfRule type="expression" dxfId="171" priority="249" stopIfTrue="1">
-      <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="250" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="251" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="252" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S62">
-    <cfRule type="expression" dxfId="167" priority="245" stopIfTrue="1">
-      <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="246" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="247" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="248" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V62">
-    <cfRule type="expression" dxfId="163" priority="237" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="238" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="239" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="240" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U62">
-    <cfRule type="expression" dxfId="159" priority="233" stopIfTrue="1">
-      <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="234" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="235" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="236" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41:V41">
-    <cfRule type="expression" dxfId="155" priority="225" stopIfTrue="1">
-      <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="226" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="227" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="228" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V82">
-    <cfRule type="expression" dxfId="151" priority="205" stopIfTrue="1">
-      <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="206" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="207" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="224" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W41">
-    <cfRule type="expression" dxfId="147" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="217" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="218" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="219" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="220" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W22">
-    <cfRule type="expression" dxfId="143" priority="189" stopIfTrue="1">
+  <conditionalFormatting sqref="W60">
+    <cfRule type="expression" dxfId="167" priority="213" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="214" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="215" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="216" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W42">
-    <cfRule type="expression" dxfId="139" priority="185" stopIfTrue="1">
+  <conditionalFormatting sqref="W80">
+    <cfRule type="expression" dxfId="163" priority="209" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="210" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="211" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="212" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W62">
-    <cfRule type="expression" dxfId="135" priority="181" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="182" operator="equal">
+  <conditionalFormatting sqref="X60">
+    <cfRule type="expression" dxfId="159" priority="189" stopIfTrue="1">
+      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="190" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="191" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="192" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W82">
-    <cfRule type="expression" dxfId="131" priority="177" stopIfTrue="1">
-      <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="178" operator="equal">
+  <conditionalFormatting sqref="Y21">
+    <cfRule type="expression" dxfId="155" priority="185" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="187" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="188" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X62">
-    <cfRule type="expression" dxfId="127" priority="157" stopIfTrue="1">
-      <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="158" operator="equal">
+  <conditionalFormatting sqref="Y60">
+    <cfRule type="expression" dxfId="151" priority="181" stopIfTrue="1">
+      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="182" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="183" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="184" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y22">
-    <cfRule type="expression" dxfId="123" priority="153" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="154" operator="equal">
+  <conditionalFormatting sqref="AE30">
+    <cfRule type="expression" dxfId="147" priority="169" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="170" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="171" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="172" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y62">
-    <cfRule type="expression" dxfId="119" priority="149" stopIfTrue="1">
-      <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="150" operator="equal">
+  <conditionalFormatting sqref="AE29">
+    <cfRule type="expression" dxfId="143" priority="165" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="166" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="167" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="168" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
+  <conditionalFormatting sqref="AE34">
+    <cfRule type="expression" dxfId="139" priority="161" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="162" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="163" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="164" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF32">
+    <cfRule type="expression" dxfId="135" priority="157" stopIfTrue="1">
+      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="158" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="159" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="160" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG32">
+    <cfRule type="expression" dxfId="131" priority="153" stopIfTrue="1">
+      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="154" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="155" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="156" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ36">
+    <cfRule type="expression" dxfId="127" priority="149" stopIfTrue="1">
+      <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="150" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="151" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="152" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK31">
+    <cfRule type="expression" dxfId="123" priority="145" stopIfTrue="1">
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="146" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="147" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="148" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL31">
+    <cfRule type="expression" dxfId="119" priority="141" stopIfTrue="1">
+      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="142" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="143" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="144" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM31">
     <cfRule type="expression" dxfId="115" priority="137" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="114" priority="138" operator="equal">
       <formula>1</formula>
@@ -12191,9 +12476,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE30">
+  <conditionalFormatting sqref="AN31">
     <cfRule type="expression" dxfId="111" priority="133" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AN$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="110" priority="134" operator="equal">
       <formula>1</formula>
@@ -12205,9 +12490,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE35">
+  <conditionalFormatting sqref="AQ33">
     <cfRule type="expression" dxfId="107" priority="129" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AQ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="106" priority="130" operator="equal">
       <formula>1</formula>
@@ -12219,121 +12504,121 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF33">
-    <cfRule type="expression" dxfId="103" priority="125" stopIfTrue="1">
+  <conditionalFormatting sqref="AE68">
+    <cfRule type="expression" dxfId="103" priority="101" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="102" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE69">
+    <cfRule type="expression" dxfId="99" priority="97" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="100" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE73">
+    <cfRule type="expression" dxfId="95" priority="93" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="96" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE71">
+    <cfRule type="expression" dxfId="91" priority="89" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE32">
+    <cfRule type="expression" dxfId="87" priority="85" stopIfTrue="1">
+      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="86" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="88" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF71">
+    <cfRule type="expression" dxfId="83" priority="81" stopIfTrue="1">
       <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="84" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG33">
-    <cfRule type="expression" dxfId="99" priority="121" stopIfTrue="1">
+  <conditionalFormatting sqref="AG31">
+    <cfRule type="expression" dxfId="79" priority="77" stopIfTrue="1">
       <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ37">
-    <cfRule type="expression" dxfId="95" priority="117" stopIfTrue="1">
-      <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="118" operator="equal">
+  <conditionalFormatting sqref="AF72">
+    <cfRule type="expression" dxfId="75" priority="73" stopIfTrue="1">
+      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="76" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK32">
-    <cfRule type="expression" dxfId="91" priority="113" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="114" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="115" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="116" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL32">
-    <cfRule type="expression" dxfId="87" priority="109" stopIfTrue="1">
-      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="110" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="111" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="112" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM32">
-    <cfRule type="expression" dxfId="83" priority="105" stopIfTrue="1">
-      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="106" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="107" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="108" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN32">
-    <cfRule type="expression" dxfId="79" priority="101" stopIfTrue="1">
-      <formula>MATCH(AN$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="102" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="103" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="104" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ34">
-    <cfRule type="expression" dxfId="75" priority="97" stopIfTrue="1">
-      <formula>MATCH(AQ$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="98" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="99" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="100" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE70">
+  <conditionalFormatting sqref="AG70">
     <cfRule type="expression" dxfId="71" priority="69" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
       <formula>1</formula>
@@ -12345,9 +12630,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE71">
+  <conditionalFormatting sqref="AJ70">
     <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
       <formula>1</formula>
@@ -12359,9 +12644,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE75">
+  <conditionalFormatting sqref="AK70">
     <cfRule type="expression" dxfId="63" priority="61" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
       <formula>1</formula>
@@ -12373,9 +12658,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE73">
+  <conditionalFormatting sqref="AL71">
     <cfRule type="expression" dxfId="59" priority="57" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>1</formula>
@@ -12387,9 +12672,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE33">
+  <conditionalFormatting sqref="AL75">
     <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
-      <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
       <formula>1</formula>
@@ -12401,9 +12686,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF73">
+  <conditionalFormatting sqref="AK71">
     <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
-      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
       <formula>1</formula>
@@ -12415,9 +12700,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG32">
+  <conditionalFormatting sqref="AM75">
     <cfRule type="expression" dxfId="47" priority="45" stopIfTrue="1">
-      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>1</formula>
@@ -12429,9 +12714,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF74">
+  <conditionalFormatting sqref="AM74">
     <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
-      <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>1</formula>
@@ -12443,9 +12728,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG72">
+  <conditionalFormatting sqref="AM60">
     <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
-      <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>1</formula>
@@ -12457,9 +12742,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ72">
+  <conditionalFormatting sqref="AQ74">
     <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
-      <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AQ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>1</formula>
@@ -12471,51 +12756,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK72">
-    <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL73">
-    <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
-      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL77">
-    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
-      <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK73">
+  <conditionalFormatting sqref="AR74">
     <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
-      <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AR$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>1</formula>
@@ -12527,9 +12770,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM77">
+  <conditionalFormatting sqref="AR72">
     <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
-      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AR$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>1</formula>
@@ -12541,9 +12784,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM76">
+  <conditionalFormatting sqref="AS72">
     <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
-      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AS$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>1</formula>
@@ -12555,9 +12798,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM62">
+  <conditionalFormatting sqref="AN74">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AN$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
@@ -12569,9 +12812,9 @@
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ76">
+  <conditionalFormatting sqref="AS74">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>MATCH(AQ$3,非稼働日,0)&gt;0</formula>
+      <formula>MATCH(AS$3,非稼働日,0)&gt;0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>

--- a/new-schedule.xlsx
+++ b/new-schedule.xlsx
@@ -1016,7 +1016,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="390">
+  <dxfs count="378">
     <dxf>
       <font>
         <color theme="5" tint="0.59996337778862885"/>
@@ -1174,126 +1174,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE6B8B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD8E4BC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8E4BC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCC0DA"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC0DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5190,8 +5070,8 @@
   <dimension ref="A1:BO82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS74" sqref="AS74"/>
+      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AW32" sqref="AW32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7883,7 +7763,7 @@
       <c r="AQ33" s="19"/>
       <c r="AR33" s="37"/>
       <c r="AS33" s="46"/>
-      <c r="AT33" s="37"/>
+      <c r="AT33" s="46"/>
       <c r="AU33" s="37"/>
       <c r="AV33" s="37"/>
       <c r="AW33" s="37"/>
@@ -10704,7 +10584,7 @@
         <v>66</v>
       </c>
       <c r="E72" s="45">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F72" s="17">
         <v>44252</v>
@@ -11503,1256 +11383,1256 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="cellIs" dxfId="389" priority="1029" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="1029" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="1030" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="1030" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:I8 H9:J9 J20:X20 H46:H47 H48:I48 H51:J53 H62:J63 H49:K49 H10:N10 I21:O21 R21 T21:U21 X21 H60:N60 R60 T60 I22:X26 H24:H26 Y24:Z26 H80:U80 I41:V41 H31:AF31 H29:AD30 H34:AD34 H32:AD32 H36:AI36 H68:AD69 H73:AD73 L19:BO19 K7:BO7 P9:BO9 I42:BO43 L8:BO8 T10:BO10 Y11:BO14 H61:BO61 J59:BO59 H50:BO50 J46:BO47 K48:BO48 L51:BO53 L62:BO63 N49:BO49 H44:BO45 Z60:AL60 AA20:BO26 H81:BO82 X80:BO80 AF29:BO30 AF34:BO34 AH32:BO32 AO31:BO31 H70:AF70 AF68:BO69 AF73:BO73 H37:BO39 X40:BO41 H27:BO28 H64:BO67 H5:BO6 AR35:BO36 H72:AE72 H71:AD71 AH31:AJ31 AG72:AQ72 AH70:AI70 AL70:BO70 AG71:AJ71 AM71:BO71 H74:AL74 H76:BO79 H75:AK75 AK36:AQ36 AN75:BO75 AN60:BO60 H33:AP33 H35:AQ35 AO74:AP74 AT74:BO74 H11:U14 V13:W14 H15:BO18 AT72:BO72 H54:BO58 AR33:BO33">
-    <cfRule type="expression" dxfId="387" priority="1025" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="1025" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="1026" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="1026" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="1027" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="1027" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="1028" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="1028" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:J19">
-    <cfRule type="expression" dxfId="383" priority="993" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="993" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="994" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="994" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="995" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="995" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="996" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="996" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="379" priority="517" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="517" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="518" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="519" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="520" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="expression" dxfId="375" priority="477" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="477" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="478" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="478" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="479" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="479" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="480" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="480" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="371" priority="489" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="489" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="490" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="490" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="491" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="491" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="492" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="492" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="367" priority="505" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="505" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="506" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="506" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="507" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="507" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="508" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="508" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="363" priority="501" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="501" stopIfTrue="1">
       <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="502" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="502" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="503" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="503" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="504" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="504" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="359" priority="493" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="493" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="494" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="494" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="495" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="495" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="496" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="496" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="355" priority="457" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="457" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="458" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="459" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="460" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="351" priority="485" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="485" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="486" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="487" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="488" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41:H43">
-    <cfRule type="expression" dxfId="347" priority="449" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="449" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="450" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="451" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="452" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="343" priority="473" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="473" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="474" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="475" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="475" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="476" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="476" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:Q10 S10">
-    <cfRule type="expression" dxfId="339" priority="465" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="465" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="466" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="467" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="468" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:X11">
-    <cfRule type="expression" dxfId="335" priority="461" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="461" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="462" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="463" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="464" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="331" priority="405" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="405" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="406" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="407" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="408" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="327" priority="381" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="381" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="382" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="383" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="384" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y20 Y22:Y23">
-    <cfRule type="expression" dxfId="323" priority="429" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="429" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="430" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="431" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="432" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z20:Z23">
-    <cfRule type="expression" dxfId="319" priority="425" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="425" stopIfTrue="1">
       <formula>MATCH(Z$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="426" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="427" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="428" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="expression" dxfId="315" priority="421" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="421" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="422" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="423" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="424" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="311" priority="417" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="417" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="418" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="419" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="420" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="expression" dxfId="307" priority="401" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="401" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="402" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="403" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="404" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
-    <cfRule type="expression" dxfId="303" priority="397" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="397" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="398" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="399" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="400" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X14">
-    <cfRule type="expression" dxfId="299" priority="393" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="393" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="394" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="395" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="396" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H23">
-    <cfRule type="expression" dxfId="295" priority="377" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="377" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="378" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="379" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="380" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="380" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="291" priority="365" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="365" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="366" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="367" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="368" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="expression" dxfId="287" priority="369" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="369" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="370" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="371" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="372" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="expression" dxfId="283" priority="361" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="361" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="362" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="363" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="364" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="expression" dxfId="279" priority="357" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="357" stopIfTrue="1">
       <formula>MATCH(I$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="358" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="359" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="360" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="expression" dxfId="275" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="353" stopIfTrue="1">
       <formula>MATCH(N$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="354" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="355" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="356" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="271" priority="349" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="349" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="350" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="351" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="352" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="267" priority="345" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="345" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="346" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="347" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="348" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="expression" dxfId="263" priority="341" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="341" stopIfTrue="1">
       <formula>MATCH(J$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="342" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="343" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="344" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="expression" dxfId="259" priority="337" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="337" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="338" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="339" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="340" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="expression" dxfId="255" priority="333" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="333" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="334" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="335" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="336" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="expression" dxfId="251" priority="329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="329" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="330" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="331" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="332" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63">
-    <cfRule type="expression" dxfId="247" priority="325" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="325" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="326" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="327" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="328" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62">
-    <cfRule type="expression" dxfId="243" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="321" stopIfTrue="1">
       <formula>MATCH(K$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="322" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="323" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="324" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="expression" dxfId="239" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="317" stopIfTrue="1">
       <formula>MATCH(L$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="318" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="319" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="320" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="235" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="313" stopIfTrue="1">
       <formula>MATCH(R$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="314" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="315" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="316" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="expression" dxfId="231" priority="309" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="309" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="310" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="311" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="312" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q21">
-    <cfRule type="expression" dxfId="227" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="305" stopIfTrue="1">
       <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="306" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="307" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="308" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S21">
-    <cfRule type="expression" dxfId="223" priority="301" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="301" stopIfTrue="1">
       <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="302" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="303" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="304" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="expression" dxfId="219" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="297" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="298" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="299" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="300" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O60">
-    <cfRule type="expression" dxfId="215" priority="293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="293" stopIfTrue="1">
       <formula>MATCH(O$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="294" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="295" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="296" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P60">
-    <cfRule type="expression" dxfId="211" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="289" stopIfTrue="1">
       <formula>MATCH(P$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="290" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="291" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="292" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49">
-    <cfRule type="expression" dxfId="207" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="285" stopIfTrue="1">
       <formula>MATCH(M$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="286" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="287" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="288" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q60">
-    <cfRule type="expression" dxfId="203" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="281" stopIfTrue="1">
       <formula>MATCH(Q$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="282" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="283" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="284" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S60">
-    <cfRule type="expression" dxfId="199" priority="277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="277" stopIfTrue="1">
       <formula>MATCH(S$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="278" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="279" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="280" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V60">
-    <cfRule type="expression" dxfId="195" priority="269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="269" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="270" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="271" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="272" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U60">
-    <cfRule type="expression" dxfId="191" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="265" stopIfTrue="1">
       <formula>MATCH(U$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="266" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="267" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="268" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:V40">
-    <cfRule type="expression" dxfId="187" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="257" stopIfTrue="1">
       <formula>MATCH(H$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="258" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="259" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="260" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V80">
-    <cfRule type="expression" dxfId="183" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="237" stopIfTrue="1">
       <formula>MATCH(V$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="238" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="239" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="240" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W40">
-    <cfRule type="expression" dxfId="179" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="225" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="226" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="227" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="228" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21">
-    <cfRule type="expression" dxfId="175" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="221" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="222" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="223" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="224" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W41">
-    <cfRule type="expression" dxfId="171" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="217" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="218" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="219" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="220" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W60">
-    <cfRule type="expression" dxfId="167" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="213" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="214" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="215" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="216" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W80">
-    <cfRule type="expression" dxfId="163" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="209" stopIfTrue="1">
       <formula>MATCH(W$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="210" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="211" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="212" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X60">
-    <cfRule type="expression" dxfId="159" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="189" stopIfTrue="1">
       <formula>MATCH(X$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="190" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="191" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="192" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y21">
-    <cfRule type="expression" dxfId="155" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="185" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="187" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="188" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y60">
-    <cfRule type="expression" dxfId="151" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="181" stopIfTrue="1">
       <formula>MATCH(Y$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="182" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="183" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="184" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE30">
-    <cfRule type="expression" dxfId="147" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="169" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="170" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="171" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="172" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE29">
-    <cfRule type="expression" dxfId="143" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="165" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="166" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="167" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="168" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE34">
-    <cfRule type="expression" dxfId="139" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="161" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="162" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="163" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="164" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF32">
-    <cfRule type="expression" dxfId="135" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="157" stopIfTrue="1">
       <formula>MATCH(AF$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="158" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="159" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="160" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG32">
-    <cfRule type="expression" dxfId="131" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="153" stopIfTrue="1">
       <formula>MATCH(AG$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="154" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="155" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="156" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ36">
-    <cfRule type="expression" dxfId="127" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="149" stopIfTrue="1">
       <formula>MATCH(AJ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="150" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="151" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="152" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK31">
-    <cfRule type="expression" dxfId="123" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="145" stopIfTrue="1">
       <formula>MATCH(AK$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="146" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="147" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="148" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL31">
-    <cfRule type="expression" dxfId="119" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="141" stopIfTrue="1">
       <formula>MATCH(AL$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="142" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="143" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="144" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM31">
-    <cfRule type="expression" dxfId="115" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="137" stopIfTrue="1">
       <formula>MATCH(AM$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="138" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="139" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="140" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN31">
-    <cfRule type="expression" dxfId="111" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="133" stopIfTrue="1">
       <formula>MATCH(AN$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="134" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="135" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="136" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ33">
-    <cfRule type="expression" dxfId="107" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="129" stopIfTrue="1">
       <formula>MATCH(AQ$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="130" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="131" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="132" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE68">
-    <cfRule type="expression" dxfId="103" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="101" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="103" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="104" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE69">
-    <cfRule type="expression" dxfId="99" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="97" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="98" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="99" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="100" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE73">
-    <cfRule type="expression" dxfId="95" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="93" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="94" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="95" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="96" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE71">
-    <cfRule type="expression" dxfId="91" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="89" stopIfTrue="1">
       <formula>MATCH(AE$3,非稼働日,0)&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
+    <cfRul